--- a/InputFiles/ModifyParameters.xlsx
+++ b/InputFiles/ModifyParameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\EPA\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC71AE2-2758-401D-A253-F79BDA79893A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2502C828-A7F4-4D27-A95B-5391B81B41DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="657" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="657" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internal - File Info" sheetId="1" r:id="rId1"/>
@@ -945,7 +945,308 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="449">
+  <dxfs count="425">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -983,6 +1284,314 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1001,13 +1610,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1019,6 +1621,307 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -1037,6 +1940,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1048,11 +1958,305 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1091,6 +2295,288 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1109,13 +2595,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1127,6 +2606,307 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -1145,6 +2925,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1156,1327 +2943,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2752,2604 +3218,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -5376,6 +3244,321 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="medium">
           <color indexed="64"/>
@@ -5399,6 +3582,320 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="medium">
           <color indexed="64"/>
@@ -5422,6 +3919,42 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5440,6 +3973,267 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="medium">
           <color indexed="64"/>
@@ -5461,6 +4255,42 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -5797,6 +4627,42 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -6121,6 +4987,42 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -6457,6 +5359,330 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -6757,6 +5983,222 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -7055,6 +6497,330 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -7351,6 +7117,24 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7366,399 +7150,399 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table156" displayName="Table156" ref="A1:O3" totalsRowShown="0" tableBorderDxfId="448">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table156" displayName="Table156" ref="A1:O3" totalsRowShown="0" tableBorderDxfId="422">
   <autoFilter ref="A1:O3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phase" dataDxfId="447"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="446"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="445"/>
-    <tableColumn id="10" xr3:uid="{DA69379A-DE3F-42F4-AF70-91A1718AB7E0}" name="Description" dataDxfId="444"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Units" dataDxfId="443"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distribution Type" dataDxfId="442"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter 1" dataDxfId="441"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="440"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="439"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="438"/>
-    <tableColumn id="14" xr3:uid="{50465694-0FC6-4F52-BBDD-C2367DABB3F3}" name="Parameter 5" dataDxfId="437"/>
-    <tableColumn id="15" xr3:uid="{9D83EAB9-CB4C-4600-AF1C-4966CB714685}" name="Parameter 6" dataDxfId="436"/>
-    <tableColumn id="11" xr3:uid="{6D5D89BA-F5B6-48D7-8EB6-F84737897B28}" name="Lower Limit" dataDxfId="435"/>
-    <tableColumn id="12" xr3:uid="{48C3D1E7-422F-49D2-B091-B1AED1C3D586}" name="Upper Limit" dataDxfId="434"/>
-    <tableColumn id="13" xr3:uid="{C7F66B6D-AE49-4F19-BA50-224FF50E099F}" name="Step" dataDxfId="433"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phase" dataDxfId="421"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="420"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="419"/>
+    <tableColumn id="10" xr3:uid="{DA69379A-DE3F-42F4-AF70-91A1718AB7E0}" name="Description" dataDxfId="418"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Units" dataDxfId="417"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distribution Type" dataDxfId="416"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter 1" dataDxfId="415"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="414"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="413"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="412"/>
+    <tableColumn id="14" xr3:uid="{50465694-0FC6-4F52-BBDD-C2367DABB3F3}" name="Parameter 5" dataDxfId="411"/>
+    <tableColumn id="15" xr3:uid="{9D83EAB9-CB4C-4600-AF1C-4966CB714685}" name="Parameter 6" dataDxfId="410"/>
+    <tableColumn id="11" xr3:uid="{6D5D89BA-F5B6-48D7-8EB6-F84737897B28}" name="Lower Limit" dataDxfId="409"/>
+    <tableColumn id="12" xr3:uid="{48C3D1E7-422F-49D2-B091-B1AED1C3D586}" name="Upper Limit" dataDxfId="408"/>
+    <tableColumn id="13" xr3:uid="{C7F66B6D-AE49-4F19-BA50-224FF50E099F}" name="Step" dataDxfId="407"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{F9C17F91-E3F1-4ABE-9219-5A5F8F4C3152}" name="Table1564518" displayName="Table1564518" ref="A1:P27" totalsRowShown="0" headerRowBorderDxfId="342" tableBorderDxfId="341">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{F9C17F91-E3F1-4ABE-9219-5A5F8F4C3152}" name="Table1564518" displayName="Table1564518" ref="A1:P27" totalsRowShown="0" headerRowBorderDxfId="149" tableBorderDxfId="148">
   <autoFilter ref="A1:P27" xr:uid="{CE70FAE3-DAD6-40A6-BCCE-F46A2CDA0980}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{77AC217A-782C-47D2-9945-D4226DB02CB4}" name="Phase" dataDxfId="281"/>
-    <tableColumn id="22" xr3:uid="{A77A81F7-C018-4F6E-BF69-5FE486BECF62}" name="Category" dataDxfId="280"/>
-    <tableColumn id="12" xr3:uid="{CCA10716-C2B0-4055-953E-1957EC05B7DC}" name="Name" dataDxfId="279"/>
-    <tableColumn id="14" xr3:uid="{9131E52D-9D7C-41BF-ABF5-9AAF65D5BC39}" name="Description" dataDxfId="278"/>
-    <tableColumn id="18" xr3:uid="{819C7026-BBE6-4FEF-81FC-063CF9E923E1}" name="Units" dataDxfId="277"/>
-    <tableColumn id="4" xr3:uid="{BCC0BC54-494B-4CD2-9D93-4A14A321EFDE}" name="Distribution Type" dataDxfId="276"/>
-    <tableColumn id="5" xr3:uid="{890B6437-FEB3-4225-BE1D-8F4BB30A2A95}" name="Parameter 1" dataDxfId="275"/>
-    <tableColumn id="6" xr3:uid="{D95452BF-5FFC-4C2D-BE8B-1138CADE3867}" name="Parameter 2" dataDxfId="274"/>
-    <tableColumn id="7" xr3:uid="{AFAD290F-88ED-4F65-8343-1B7E0B2331C2}" name="Parameter 3" dataDxfId="273"/>
-    <tableColumn id="10" xr3:uid="{C7581E5C-58E6-4080-A3F0-3C90449EE32D}" name="Parameter 4" dataDxfId="272"/>
-    <tableColumn id="11" xr3:uid="{1D5C967F-8BEE-4049-9B30-056174F945AE}" name="Parameter 5" dataDxfId="271"/>
-    <tableColumn id="8" xr3:uid="{058E5821-3943-44C1-B08D-F22618A8CB01}" name="Parameter 6" dataDxfId="270"/>
-    <tableColumn id="15" xr3:uid="{C95BAD13-0F40-4073-97D7-EA904AFBC77C}" name="Lower Limit" dataDxfId="269"/>
-    <tableColumn id="16" xr3:uid="{582C9B39-6E23-469E-818C-CDD30AA83C2C}" name="Upper Limit" dataDxfId="268"/>
-    <tableColumn id="17" xr3:uid="{27D6A1B7-E56F-410E-929C-C8BD6000D2D9}" name="Step" dataDxfId="267"/>
-    <tableColumn id="20" xr3:uid="{86795961-383C-4D69-8607-2882A51CFD11}" name="Surface Type" dataDxfId="266"/>
+    <tableColumn id="9" xr3:uid="{77AC217A-782C-47D2-9945-D4226DB02CB4}" name="Phase" dataDxfId="147"/>
+    <tableColumn id="22" xr3:uid="{A77A81F7-C018-4F6E-BF69-5FE486BECF62}" name="Category" dataDxfId="146"/>
+    <tableColumn id="12" xr3:uid="{CCA10716-C2B0-4055-953E-1957EC05B7DC}" name="Name" dataDxfId="145"/>
+    <tableColumn id="14" xr3:uid="{9131E52D-9D7C-41BF-ABF5-9AAF65D5BC39}" name="Description" dataDxfId="144"/>
+    <tableColumn id="18" xr3:uid="{819C7026-BBE6-4FEF-81FC-063CF9E923E1}" name="Units" dataDxfId="143"/>
+    <tableColumn id="4" xr3:uid="{BCC0BC54-494B-4CD2-9D93-4A14A321EFDE}" name="Distribution Type" dataDxfId="142"/>
+    <tableColumn id="5" xr3:uid="{890B6437-FEB3-4225-BE1D-8F4BB30A2A95}" name="Parameter 1" dataDxfId="141"/>
+    <tableColumn id="6" xr3:uid="{D95452BF-5FFC-4C2D-BE8B-1138CADE3867}" name="Parameter 2" dataDxfId="140"/>
+    <tableColumn id="7" xr3:uid="{AFAD290F-88ED-4F65-8343-1B7E0B2331C2}" name="Parameter 3" dataDxfId="139"/>
+    <tableColumn id="10" xr3:uid="{C7581E5C-58E6-4080-A3F0-3C90449EE32D}" name="Parameter 4" dataDxfId="138"/>
+    <tableColumn id="11" xr3:uid="{1D5C967F-8BEE-4049-9B30-056174F945AE}" name="Parameter 5" dataDxfId="137"/>
+    <tableColumn id="8" xr3:uid="{058E5821-3943-44C1-B08D-F22618A8CB01}" name="Parameter 6" dataDxfId="136"/>
+    <tableColumn id="15" xr3:uid="{C95BAD13-0F40-4073-97D7-EA904AFBC77C}" name="Lower Limit" dataDxfId="135"/>
+    <tableColumn id="16" xr3:uid="{582C9B39-6E23-469E-818C-CDD30AA83C2C}" name="Upper Limit" dataDxfId="134"/>
+    <tableColumn id="17" xr3:uid="{27D6A1B7-E56F-410E-929C-C8BD6000D2D9}" name="Step" dataDxfId="133"/>
+    <tableColumn id="20" xr3:uid="{86795961-383C-4D69-8607-2882A51CFD11}" name="Surface Type" dataDxfId="132"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{432F1329-A516-4974-97D5-CED039B9825E}" name="Table15649" displayName="Table15649" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="340" tableBorderDxfId="339">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{432F1329-A516-4974-97D5-CED039B9825E}" name="Table15649" displayName="Table15649" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="127" tableBorderDxfId="126">
   <autoFilter ref="A1:P19" xr:uid="{68B29069-2622-4242-A0DD-EA343A9BF637}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{A65D510F-11AE-4758-A918-595CFAEACDBA}" name="Phase" dataDxfId="265"/>
-    <tableColumn id="20" xr3:uid="{1983ED84-E3C7-438C-9FBC-6F68009993BF}" name="Category" dataDxfId="264"/>
-    <tableColumn id="12" xr3:uid="{5F8CF16A-5A1F-471D-941E-E8FA15DC40D9}" name="Name" dataDxfId="263"/>
-    <tableColumn id="14" xr3:uid="{603CB562-B188-4D78-8AF7-0C257FE01A78}" name="Description" dataDxfId="262"/>
-    <tableColumn id="18" xr3:uid="{25C96984-595F-4E53-AEA3-48FE8964668C}" name="Units" dataDxfId="261"/>
-    <tableColumn id="4" xr3:uid="{3AC7C66C-7352-42C7-A88A-718F1163EBC3}" name="Distribution Type" dataDxfId="260"/>
-    <tableColumn id="5" xr3:uid="{6CD1BB89-2672-4A45-AE6D-45DC8FD8C2D0}" name="Parameter 1" dataDxfId="259"/>
-    <tableColumn id="6" xr3:uid="{713F99C9-7865-434B-9380-0F8833A0B7CE}" name="Parameter 2" dataDxfId="258"/>
-    <tableColumn id="7" xr3:uid="{7B3CBF6D-ABAD-435C-93E5-94B2A9A1570D}" name="Parameter 3" dataDxfId="257"/>
-    <tableColumn id="10" xr3:uid="{FD8F6808-F8E5-4346-BE6E-D40A5DADECAC}" name="Parameter 4" dataDxfId="256"/>
-    <tableColumn id="11" xr3:uid="{DC3102D4-541E-44FE-AEFA-0FB92AC933C5}" name="Parameter 5" dataDxfId="255"/>
-    <tableColumn id="8" xr3:uid="{151C5968-B156-4013-B6C4-5D012F22EEF6}" name="Parameter 6" dataDxfId="254"/>
-    <tableColumn id="15" xr3:uid="{868EF292-2E08-40B9-9605-DAF748095734}" name="Lower Limit" dataDxfId="253"/>
-    <tableColumn id="16" xr3:uid="{42D5D159-9DC2-4FE5-9923-4E2B98164CE9}" name="Upper Limit" dataDxfId="252"/>
-    <tableColumn id="17" xr3:uid="{10AFF230-51CB-4644-8521-A18EFFD37E36}" name="Step" dataDxfId="251"/>
-    <tableColumn id="2" xr3:uid="{197A7EF3-81D9-4184-B44A-B78C515E1412}" name="Surface Type" dataDxfId="234"/>
+    <tableColumn id="9" xr3:uid="{A65D510F-11AE-4758-A918-595CFAEACDBA}" name="Phase" dataDxfId="125"/>
+    <tableColumn id="20" xr3:uid="{1983ED84-E3C7-438C-9FBC-6F68009993BF}" name="Category" dataDxfId="124"/>
+    <tableColumn id="12" xr3:uid="{5F8CF16A-5A1F-471D-941E-E8FA15DC40D9}" name="Name" dataDxfId="123"/>
+    <tableColumn id="14" xr3:uid="{603CB562-B188-4D78-8AF7-0C257FE01A78}" name="Description" dataDxfId="122"/>
+    <tableColumn id="18" xr3:uid="{25C96984-595F-4E53-AEA3-48FE8964668C}" name="Units" dataDxfId="121"/>
+    <tableColumn id="4" xr3:uid="{3AC7C66C-7352-42C7-A88A-718F1163EBC3}" name="Distribution Type" dataDxfId="120"/>
+    <tableColumn id="5" xr3:uid="{6CD1BB89-2672-4A45-AE6D-45DC8FD8C2D0}" name="Parameter 1" dataDxfId="119"/>
+    <tableColumn id="6" xr3:uid="{713F99C9-7865-434B-9380-0F8833A0B7CE}" name="Parameter 2" dataDxfId="118"/>
+    <tableColumn id="7" xr3:uid="{7B3CBF6D-ABAD-435C-93E5-94B2A9A1570D}" name="Parameter 3" dataDxfId="117"/>
+    <tableColumn id="10" xr3:uid="{FD8F6808-F8E5-4346-BE6E-D40A5DADECAC}" name="Parameter 4" dataDxfId="116"/>
+    <tableColumn id="11" xr3:uid="{DC3102D4-541E-44FE-AEFA-0FB92AC933C5}" name="Parameter 5" dataDxfId="115"/>
+    <tableColumn id="8" xr3:uid="{151C5968-B156-4013-B6C4-5D012F22EEF6}" name="Parameter 6" dataDxfId="114"/>
+    <tableColumn id="15" xr3:uid="{868EF292-2E08-40B9-9605-DAF748095734}" name="Lower Limit" dataDxfId="113"/>
+    <tableColumn id="16" xr3:uid="{42D5D159-9DC2-4FE5-9923-4E2B98164CE9}" name="Upper Limit" dataDxfId="112"/>
+    <tableColumn id="17" xr3:uid="{10AFF230-51CB-4644-8521-A18EFFD37E36}" name="Step" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{197A7EF3-81D9-4184-B44A-B78C515E1412}" name="Surface Type" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{DF020213-F975-452A-9830-6EF38DDE7DCF}" name="Table15647" displayName="Table15647" ref="A1:P40" totalsRowShown="0" headerRowBorderDxfId="338" tableBorderDxfId="337">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{DF020213-F975-452A-9830-6EF38DDE7DCF}" name="Table15647" displayName="Table15647" ref="A1:P40" totalsRowShown="0" headerRowBorderDxfId="105" tableBorderDxfId="104">
   <autoFilter ref="A1:P40" xr:uid="{859BD2B0-AA02-48BA-8620-BDF827813892}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{F237A42D-415A-475B-91B7-8CB0D38B7028}" name="Phase" dataDxfId="250"/>
-    <tableColumn id="20" xr3:uid="{D2304797-990E-4466-8277-ACC378FC5EF1}" name="Category" dataDxfId="249"/>
-    <tableColumn id="12" xr3:uid="{E8D03348-3348-4698-9DA9-FDFD93C4108D}" name="Name" dataDxfId="248"/>
-    <tableColumn id="14" xr3:uid="{D9BE976B-814C-40BA-BB9C-F5A4A863809D}" name="Description" dataDxfId="247"/>
-    <tableColumn id="18" xr3:uid="{C8EEDF00-53C4-4BBB-A736-4C222CC37ACE}" name="Units" dataDxfId="246"/>
-    <tableColumn id="4" xr3:uid="{B912A136-218A-46A6-9298-A26FF451BC8B}" name="Distribution Type" dataDxfId="245"/>
-    <tableColumn id="5" xr3:uid="{B469F8C6-AC37-4E2C-B435-D79806B5EB80}" name="Parameter 1" dataDxfId="244"/>
-    <tableColumn id="6" xr3:uid="{6E4BE98D-3625-46DA-8047-5C4657A18F62}" name="Parameter 2" dataDxfId="243"/>
-    <tableColumn id="7" xr3:uid="{24844D85-F2B8-4B62-9347-EE51DBA7335D}" name="Parameter 3" dataDxfId="242"/>
-    <tableColumn id="10" xr3:uid="{A09FB262-3AAD-46E1-B780-FAC155246DCB}" name="Parameter 4" dataDxfId="241"/>
-    <tableColumn id="11" xr3:uid="{C49055A9-0CD5-4B9A-9D72-65429F3A5716}" name="Parameter 5" dataDxfId="240"/>
-    <tableColumn id="8" xr3:uid="{B80ED53B-AC7B-4D83-B11D-F4584FC387E7}" name="Parameter 6" dataDxfId="239"/>
-    <tableColumn id="15" xr3:uid="{196E4D59-E5D8-47FC-8FBC-0DF83057658E}" name="Lower Limit" dataDxfId="238"/>
-    <tableColumn id="16" xr3:uid="{9EDBB862-8D13-4999-A6D8-0549867DD0D7}" name="Upper Limit" dataDxfId="237"/>
-    <tableColumn id="17" xr3:uid="{9F81C7E5-43F7-4126-A586-BB1219F70A02}" name="Step" dataDxfId="236"/>
-    <tableColumn id="2" xr3:uid="{918705C6-C8C7-48DB-9545-3330D9EA84CC}" name="Surface Type" dataDxfId="235"/>
+    <tableColumn id="9" xr3:uid="{F237A42D-415A-475B-91B7-8CB0D38B7028}" name="Phase" dataDxfId="103"/>
+    <tableColumn id="20" xr3:uid="{D2304797-990E-4466-8277-ACC378FC5EF1}" name="Category" dataDxfId="102"/>
+    <tableColumn id="12" xr3:uid="{E8D03348-3348-4698-9DA9-FDFD93C4108D}" name="Name" dataDxfId="101"/>
+    <tableColumn id="14" xr3:uid="{D9BE976B-814C-40BA-BB9C-F5A4A863809D}" name="Description" dataDxfId="100"/>
+    <tableColumn id="18" xr3:uid="{C8EEDF00-53C4-4BBB-A736-4C222CC37ACE}" name="Units" dataDxfId="99"/>
+    <tableColumn id="4" xr3:uid="{B912A136-218A-46A6-9298-A26FF451BC8B}" name="Distribution Type" dataDxfId="98"/>
+    <tableColumn id="5" xr3:uid="{B469F8C6-AC37-4E2C-B435-D79806B5EB80}" name="Parameter 1" dataDxfId="97"/>
+    <tableColumn id="6" xr3:uid="{6E4BE98D-3625-46DA-8047-5C4657A18F62}" name="Parameter 2" dataDxfId="96"/>
+    <tableColumn id="7" xr3:uid="{24844D85-F2B8-4B62-9347-EE51DBA7335D}" name="Parameter 3" dataDxfId="95"/>
+    <tableColumn id="10" xr3:uid="{A09FB262-3AAD-46E1-B780-FAC155246DCB}" name="Parameter 4" dataDxfId="94"/>
+    <tableColumn id="11" xr3:uid="{C49055A9-0CD5-4B9A-9D72-65429F3A5716}" name="Parameter 5" dataDxfId="93"/>
+    <tableColumn id="8" xr3:uid="{B80ED53B-AC7B-4D83-B11D-F4584FC387E7}" name="Parameter 6" dataDxfId="92"/>
+    <tableColumn id="15" xr3:uid="{196E4D59-E5D8-47FC-8FBC-0DF83057658E}" name="Lower Limit" dataDxfId="91"/>
+    <tableColumn id="16" xr3:uid="{9EDBB862-8D13-4999-A6D8-0549867DD0D7}" name="Upper Limit" dataDxfId="90"/>
+    <tableColumn id="17" xr3:uid="{9F81C7E5-43F7-4126-A586-BB1219F70A02}" name="Step" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{918705C6-C8C7-48DB-9545-3330D9EA84CC}" name="Surface Type" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{7550EFF0-9439-4E6A-8D23-02F504FBD1D4}" name="Table156414" displayName="Table156414" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="336" tableBorderDxfId="335">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{7550EFF0-9439-4E6A-8D23-02F504FBD1D4}" name="Table156414" displayName="Table156414" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="83" tableBorderDxfId="82">
   <autoFilter ref="A1:P19" xr:uid="{E89F1AAB-0467-4C13-8286-F7AC331E8CED}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{AE476C5A-DA1D-465E-9CDD-F6537F49B59A}" name="Phase" dataDxfId="233"/>
-    <tableColumn id="12" xr3:uid="{5D89776A-B117-4D83-ACC3-F00ADD3FE56E}" name="Category" dataDxfId="232"/>
-    <tableColumn id="3" xr3:uid="{9037C44A-A90D-462C-A2F2-1224467C2BC0}" name="Name" dataDxfId="231"/>
-    <tableColumn id="14" xr3:uid="{E343E4A4-9362-4305-9A92-A8062E97127D}" name="Description" dataDxfId="230"/>
-    <tableColumn id="18" xr3:uid="{59A60541-5F4F-478A-996C-A136B098D92B}" name="Units" dataDxfId="229"/>
-    <tableColumn id="4" xr3:uid="{30DA923F-FB86-4AC4-B259-AE796033AAED}" name="Distribution Type" dataDxfId="228"/>
-    <tableColumn id="5" xr3:uid="{BD9D6BB8-0A9E-48E1-95D5-0EECCBFE8316}" name="Parameter 1" dataDxfId="227"/>
-    <tableColumn id="6" xr3:uid="{B0E10190-9195-4B9D-A20D-A270CE2F3E98}" name="Parameter 2" dataDxfId="226"/>
-    <tableColumn id="7" xr3:uid="{918B726D-0E60-49F6-94FE-F7B5CF284EB2}" name="Parameter 3" dataDxfId="225"/>
-    <tableColumn id="10" xr3:uid="{F52C94ED-5667-4B4C-AF10-29D9CF45ACB5}" name="Parameter 4" dataDxfId="224"/>
-    <tableColumn id="11" xr3:uid="{9F8440AB-4D90-4F35-8265-07E520410CC0}" name="Parameter 5" dataDxfId="223"/>
-    <tableColumn id="8" xr3:uid="{4F13BDAF-F86A-4434-B9C3-576D1A4571C8}" name="Parameter 6" dataDxfId="222"/>
-    <tableColumn id="15" xr3:uid="{168B9EEC-D86A-4C57-8174-66D02451AA11}" name="Lower Limit" dataDxfId="221"/>
-    <tableColumn id="16" xr3:uid="{B91AA0FC-6FD4-4503-8497-8E2658CD5A9C}" name="Upper Limit" dataDxfId="220"/>
-    <tableColumn id="17" xr3:uid="{85F85B4E-2654-4B9F-8CBF-9AF7D4017806}" name="Step" dataDxfId="219"/>
-    <tableColumn id="2" xr3:uid="{1EE0ED06-66C4-4343-BFD9-DEB0F6951FE5}" name="Surface Type" dataDxfId="218"/>
+    <tableColumn id="9" xr3:uid="{AE476C5A-DA1D-465E-9CDD-F6537F49B59A}" name="Phase" dataDxfId="81"/>
+    <tableColumn id="12" xr3:uid="{5D89776A-B117-4D83-ACC3-F00ADD3FE56E}" name="Category" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{9037C44A-A90D-462C-A2F2-1224467C2BC0}" name="Name" dataDxfId="79"/>
+    <tableColumn id="14" xr3:uid="{E343E4A4-9362-4305-9A92-A8062E97127D}" name="Description" dataDxfId="78"/>
+    <tableColumn id="18" xr3:uid="{59A60541-5F4F-478A-996C-A136B098D92B}" name="Units" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{30DA923F-FB86-4AC4-B259-AE796033AAED}" name="Distribution Type" dataDxfId="76"/>
+    <tableColumn id="5" xr3:uid="{BD9D6BB8-0A9E-48E1-95D5-0EECCBFE8316}" name="Parameter 1" dataDxfId="75"/>
+    <tableColumn id="6" xr3:uid="{B0E10190-9195-4B9D-A20D-A270CE2F3E98}" name="Parameter 2" dataDxfId="74"/>
+    <tableColumn id="7" xr3:uid="{918B726D-0E60-49F6-94FE-F7B5CF284EB2}" name="Parameter 3" dataDxfId="73"/>
+    <tableColumn id="10" xr3:uid="{F52C94ED-5667-4B4C-AF10-29D9CF45ACB5}" name="Parameter 4" dataDxfId="72"/>
+    <tableColumn id="11" xr3:uid="{9F8440AB-4D90-4F35-8265-07E520410CC0}" name="Parameter 5" dataDxfId="71"/>
+    <tableColumn id="8" xr3:uid="{4F13BDAF-F86A-4434-B9C3-576D1A4571C8}" name="Parameter 6" dataDxfId="70"/>
+    <tableColumn id="15" xr3:uid="{168B9EEC-D86A-4C57-8174-66D02451AA11}" name="Lower Limit" dataDxfId="69"/>
+    <tableColumn id="16" xr3:uid="{B91AA0FC-6FD4-4503-8497-8E2658CD5A9C}" name="Upper Limit" dataDxfId="68"/>
+    <tableColumn id="17" xr3:uid="{85F85B4E-2654-4B9F-8CBF-9AF7D4017806}" name="Step" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{1EE0ED06-66C4-4343-BFD9-DEB0F6951FE5}" name="Surface Type" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{544BD654-9B18-4F85-8680-0367091A97FD}" name="Table15646" displayName="Table15646" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="334" tableBorderDxfId="333">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{544BD654-9B18-4F85-8680-0367091A97FD}" name="Table15646" displayName="Table15646" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="61" tableBorderDxfId="60">
   <autoFilter ref="A1:P19" xr:uid="{EC61BB93-4EB0-4480-9F8B-C9A2D56564B4}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{1735A646-077D-4A5C-8ABA-5E5552C83F8B}" name="Phase" dataDxfId="217"/>
-    <tableColumn id="20" xr3:uid="{004108F0-B585-4FC4-8E02-24F2EDB488C0}" name="Category" dataDxfId="216"/>
-    <tableColumn id="12" xr3:uid="{69E4893D-8A0F-46ED-8648-226BDC719B2B}" name="Name" dataDxfId="215"/>
-    <tableColumn id="14" xr3:uid="{A839FAC0-08F6-4AA7-96B8-39B9A47A057D}" name="Description" dataDxfId="214"/>
-    <tableColumn id="18" xr3:uid="{E0746BE3-6AD9-4082-A683-C57740CF7686}" name="Units" dataDxfId="213"/>
-    <tableColumn id="4" xr3:uid="{C6BD6FF1-F034-424C-A7E9-0CF1059B3A7C}" name="Distribution Type" dataDxfId="212"/>
-    <tableColumn id="5" xr3:uid="{41A11BA2-CB19-4A3D-BAB4-C7ABCBD3E30F}" name="Parameter 1" dataDxfId="211"/>
-    <tableColumn id="6" xr3:uid="{648D385E-E212-43CC-A8AA-53DDD8BD0428}" name="Parameter 2" dataDxfId="210"/>
-    <tableColumn id="7" xr3:uid="{A336D93E-1EE2-4808-98BA-CB978FBE172A}" name="Parameter 3" dataDxfId="209"/>
-    <tableColumn id="10" xr3:uid="{03178B46-AD0C-4482-9EC2-A764D5FA6F6C}" name="Parameter 4" dataDxfId="208"/>
-    <tableColumn id="11" xr3:uid="{EAD273F2-76B2-43C4-A1D7-A199E13BAD05}" name="Parameter 5" dataDxfId="207"/>
-    <tableColumn id="8" xr3:uid="{CA066BBA-6299-4A1A-A4D8-73F164A6F41D}" name="Parameter 6" dataDxfId="206"/>
-    <tableColumn id="15" xr3:uid="{F1632EF8-E0CB-4E7B-BEA5-E206CC27F984}" name="Lower Limit" dataDxfId="205"/>
-    <tableColumn id="16" xr3:uid="{4ED75AE2-55E4-419A-A9E6-19CC6C5896E9}" name="Upper Limit" dataDxfId="204"/>
-    <tableColumn id="17" xr3:uid="{D34421A0-FABD-4530-911F-6AAAC527E813}" name="Step" dataDxfId="203"/>
-    <tableColumn id="2" xr3:uid="{385256E7-7F05-4FE1-B140-0C803BFD37D3}" name="Surface Type" dataDxfId="202"/>
+    <tableColumn id="9" xr3:uid="{1735A646-077D-4A5C-8ABA-5E5552C83F8B}" name="Phase" dataDxfId="59"/>
+    <tableColumn id="20" xr3:uid="{004108F0-B585-4FC4-8E02-24F2EDB488C0}" name="Category" dataDxfId="58"/>
+    <tableColumn id="12" xr3:uid="{69E4893D-8A0F-46ED-8648-226BDC719B2B}" name="Name" dataDxfId="57"/>
+    <tableColumn id="14" xr3:uid="{A839FAC0-08F6-4AA7-96B8-39B9A47A057D}" name="Description" dataDxfId="56"/>
+    <tableColumn id="18" xr3:uid="{E0746BE3-6AD9-4082-A683-C57740CF7686}" name="Units" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{C6BD6FF1-F034-424C-A7E9-0CF1059B3A7C}" name="Distribution Type" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{41A11BA2-CB19-4A3D-BAB4-C7ABCBD3E30F}" name="Parameter 1" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{648D385E-E212-43CC-A8AA-53DDD8BD0428}" name="Parameter 2" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{A336D93E-1EE2-4808-98BA-CB978FBE172A}" name="Parameter 3" dataDxfId="51"/>
+    <tableColumn id="10" xr3:uid="{03178B46-AD0C-4482-9EC2-A764D5FA6F6C}" name="Parameter 4" dataDxfId="50"/>
+    <tableColumn id="11" xr3:uid="{EAD273F2-76B2-43C4-A1D7-A199E13BAD05}" name="Parameter 5" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{CA066BBA-6299-4A1A-A4D8-73F164A6F41D}" name="Parameter 6" dataDxfId="48"/>
+    <tableColumn id="15" xr3:uid="{F1632EF8-E0CB-4E7B-BEA5-E206CC27F984}" name="Lower Limit" dataDxfId="47"/>
+    <tableColumn id="16" xr3:uid="{4ED75AE2-55E4-419A-A9E6-19CC6C5896E9}" name="Upper Limit" dataDxfId="46"/>
+    <tableColumn id="17" xr3:uid="{D34421A0-FABD-4530-911F-6AAAC527E813}" name="Step" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{385256E7-7F05-4FE1-B140-0C803BFD37D3}" name="Surface Type" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A9DDAA0B-EDE4-49CE-8D2A-53496C87AC6C}" name="Table156411" displayName="Table156411" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="332" tableBorderDxfId="331">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A9DDAA0B-EDE4-49CE-8D2A-53496C87AC6C}" name="Table156411" displayName="Table156411" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="39" tableBorderDxfId="38">
   <autoFilter ref="A1:P19" xr:uid="{96C1D83B-BC19-489F-9EB7-C4BD46C50E46}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{F67C5E8C-F091-4379-8FA4-1E0A53077B68}" name="Phase" dataDxfId="201"/>
-    <tableColumn id="20" xr3:uid="{F204C7B0-E561-4894-A461-ADBDC80CC735}" name="Category" dataDxfId="200"/>
-    <tableColumn id="12" xr3:uid="{30B72B9B-FF89-4E51-9A96-F8BE3F8041EA}" name="Name" dataDxfId="199"/>
-    <tableColumn id="14" xr3:uid="{DB30649B-C3C1-48BB-B0BA-3762B2EA3DA0}" name="Description" dataDxfId="198"/>
-    <tableColumn id="18" xr3:uid="{3421310D-974A-44DB-BC28-81CC179BFD51}" name="Units" dataDxfId="197"/>
-    <tableColumn id="4" xr3:uid="{A19068C9-4F23-4FE6-A45E-0F5BEA8C7692}" name="Distribution Type" dataDxfId="196"/>
-    <tableColumn id="5" xr3:uid="{8F241659-0C60-4FF4-9636-16A0AEB54DFB}" name="Parameter 1" dataDxfId="195"/>
-    <tableColumn id="6" xr3:uid="{AA2565DE-2D2D-4A58-BC4B-001FAEC9C3F0}" name="Parameter 2" dataDxfId="194"/>
-    <tableColumn id="7" xr3:uid="{CB9ADE6D-1E48-4ECA-BB61-8BFBE1C45E5E}" name="Parameter 3" dataDxfId="193"/>
-    <tableColumn id="10" xr3:uid="{18EB0859-1F88-4B30-8715-88A124D91C9B}" name="Parameter 4" dataDxfId="192"/>
-    <tableColumn id="11" xr3:uid="{6D767472-81BC-463B-A56A-768C0F5A05A9}" name="Parameter 5" dataDxfId="191"/>
-    <tableColumn id="8" xr3:uid="{217B790C-1EC6-4F73-BB6C-25E35A9D36EE}" name="Parameter 6" dataDxfId="190"/>
-    <tableColumn id="15" xr3:uid="{D4DC6753-6BDE-420B-8E58-4073ED5E70CD}" name="Lower Limit" dataDxfId="189"/>
-    <tableColumn id="16" xr3:uid="{9E541401-2A45-4487-861E-572F306DBB90}" name="Upper Limit" dataDxfId="188"/>
-    <tableColumn id="17" xr3:uid="{222205B2-5966-4F6B-A5A4-259C62BDA43D}" name="Step" dataDxfId="187"/>
-    <tableColumn id="2" xr3:uid="{193861A6-3275-4262-94CB-9EBBD7220282}" name="Surface Type" dataDxfId="186"/>
+    <tableColumn id="9" xr3:uid="{F67C5E8C-F091-4379-8FA4-1E0A53077B68}" name="Phase" dataDxfId="37"/>
+    <tableColumn id="20" xr3:uid="{F204C7B0-E561-4894-A461-ADBDC80CC735}" name="Category" dataDxfId="36"/>
+    <tableColumn id="12" xr3:uid="{30B72B9B-FF89-4E51-9A96-F8BE3F8041EA}" name="Name" dataDxfId="35"/>
+    <tableColumn id="14" xr3:uid="{DB30649B-C3C1-48BB-B0BA-3762B2EA3DA0}" name="Description" dataDxfId="34"/>
+    <tableColumn id="18" xr3:uid="{3421310D-974A-44DB-BC28-81CC179BFD51}" name="Units" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{A19068C9-4F23-4FE6-A45E-0F5BEA8C7692}" name="Distribution Type" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{8F241659-0C60-4FF4-9636-16A0AEB54DFB}" name="Parameter 1" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{AA2565DE-2D2D-4A58-BC4B-001FAEC9C3F0}" name="Parameter 2" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{CB9ADE6D-1E48-4ECA-BB61-8BFBE1C45E5E}" name="Parameter 3" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{18EB0859-1F88-4B30-8715-88A124D91C9B}" name="Parameter 4" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{6D767472-81BC-463B-A56A-768C0F5A05A9}" name="Parameter 5" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{217B790C-1EC6-4F73-BB6C-25E35A9D36EE}" name="Parameter 6" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{D4DC6753-6BDE-420B-8E58-4073ED5E70CD}" name="Lower Limit" dataDxfId="25"/>
+    <tableColumn id="16" xr3:uid="{9E541401-2A45-4487-861E-572F306DBB90}" name="Upper Limit" dataDxfId="24"/>
+    <tableColumn id="17" xr3:uid="{222205B2-5966-4F6B-A5A4-259C62BDA43D}" name="Step" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{193861A6-3275-4262-94CB-9EBBD7220282}" name="Surface Type" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1C65CEB6-4F7A-4FD3-92D1-32B0AC0529C7}" name="Table15645" displayName="Table15645" ref="A1:P25" totalsRowShown="0" headerRowBorderDxfId="330" tableBorderDxfId="329">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1C65CEB6-4F7A-4FD3-92D1-32B0AC0529C7}" name="Table15645" displayName="Table15645" ref="A1:P25" totalsRowShown="0" headerRowBorderDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="A1:P25" xr:uid="{CE70FAE3-DAD6-40A6-BCCE-F46A2CDA0980}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{A5634D1E-7F69-4A8B-9B2C-E544A100BE0B}" name="Phase" dataDxfId="185"/>
-    <tableColumn id="22" xr3:uid="{DF0A5598-36C6-480A-8445-5264CD38D6AE}" name="Category" dataDxfId="184"/>
-    <tableColumn id="12" xr3:uid="{322396A3-5A20-4A3E-8F7B-F97F31E5B741}" name="Name" dataDxfId="183"/>
-    <tableColumn id="14" xr3:uid="{1910CF64-CF8F-4994-BC1B-F27FE4E216E6}" name="Description" dataDxfId="182"/>
-    <tableColumn id="18" xr3:uid="{211B9116-478A-42BC-BFD9-0A2AA2AD39A9}" name="Units" dataDxfId="181"/>
-    <tableColumn id="4" xr3:uid="{ABD6291E-7951-4F95-9FF4-C5A1FC0AAC06}" name="Distribution Type" dataDxfId="180"/>
-    <tableColumn id="5" xr3:uid="{ECC3B9FC-E4AE-4AD1-BF4C-89FE38983ABB}" name="Parameter 1" dataDxfId="179"/>
-    <tableColumn id="6" xr3:uid="{8FC5359B-BA7A-46D2-B091-D9665C585235}" name="Parameter 2" dataDxfId="178"/>
-    <tableColumn id="7" xr3:uid="{3BDDE353-FD4F-45F2-8B7C-5F7D6E0D347D}" name="Parameter 3" dataDxfId="177"/>
-    <tableColumn id="10" xr3:uid="{701C65B5-1C54-4F3C-90E2-A67B32AB1876}" name="Parameter 4" dataDxfId="176"/>
-    <tableColumn id="11" xr3:uid="{A8EE834B-F323-4C30-8E59-AEDA8B9E2A61}" name="Parameter 5" dataDxfId="175"/>
-    <tableColumn id="8" xr3:uid="{240B8AE3-DEF4-4C61-BF40-2515EA4A4DDB}" name="Parameter 6" dataDxfId="174"/>
-    <tableColumn id="15" xr3:uid="{5D6076C4-791B-4994-9665-C628F9AE62B7}" name="Lower Limit" dataDxfId="173"/>
-    <tableColumn id="16" xr3:uid="{D06B2878-4A23-45AF-8278-C825D6961D31}" name="Upper Limit" dataDxfId="172"/>
-    <tableColumn id="17" xr3:uid="{54CBA85E-0128-4FD6-8F0E-932C4E402C1C}" name="Step" dataDxfId="171"/>
-    <tableColumn id="20" xr3:uid="{50E0E3C5-5A42-4339-A9FF-1EFEACFF23F1}" name="Surface Type" dataDxfId="170"/>
+    <tableColumn id="9" xr3:uid="{A5634D1E-7F69-4A8B-9B2C-E544A100BE0B}" name="Phase" dataDxfId="15"/>
+    <tableColumn id="22" xr3:uid="{DF0A5598-36C6-480A-8445-5264CD38D6AE}" name="Category" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{322396A3-5A20-4A3E-8F7B-F97F31E5B741}" name="Name" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{1910CF64-CF8F-4994-BC1B-F27FE4E216E6}" name="Description" dataDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{211B9116-478A-42BC-BFD9-0A2AA2AD39A9}" name="Units" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{ABD6291E-7951-4F95-9FF4-C5A1FC0AAC06}" name="Distribution Type" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{ECC3B9FC-E4AE-4AD1-BF4C-89FE38983ABB}" name="Parameter 1" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{8FC5359B-BA7A-46D2-B091-D9665C585235}" name="Parameter 2" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{3BDDE353-FD4F-45F2-8B7C-5F7D6E0D347D}" name="Parameter 3" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{701C65B5-1C54-4F3C-90E2-A67B32AB1876}" name="Parameter 4" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{A8EE834B-F323-4C30-8E59-AEDA8B9E2A61}" name="Parameter 5" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{240B8AE3-DEF4-4C61-BF40-2515EA4A4DDB}" name="Parameter 6" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{5D6076C4-791B-4994-9665-C628F9AE62B7}" name="Lower Limit" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{D06B2878-4A23-45AF-8278-C825D6961D31}" name="Upper Limit" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{54CBA85E-0128-4FD6-8F0E-932C4E402C1C}" name="Step" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{50E0E3C5-5A42-4339-A9FF-1EFEACFF23F1}" name="Surface Type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:O18" totalsRowShown="0" tableBorderDxfId="432">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:O18" totalsRowShown="0" tableBorderDxfId="370">
   <autoFilter ref="A1:O18" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phase" dataDxfId="431"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="430"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="429"/>
-    <tableColumn id="10" xr3:uid="{8EBBFD49-190C-4C2F-A6BC-0598AAC3E788}" name="Description" dataDxfId="428"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="427"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="426"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="425"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="424"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="423"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="422"/>
-    <tableColumn id="14" xr3:uid="{E54D398D-B732-4333-A3F2-2EBD48BAA48B}" name="Parameter 5" dataDxfId="421"/>
-    <tableColumn id="15" xr3:uid="{47B382D4-92A3-4B8C-9C52-0458EA4788B1}" name="Parameter 6" dataDxfId="420"/>
-    <tableColumn id="11" xr3:uid="{BD4375F0-63E9-45EC-BE2E-338374C10F8B}" name="Lower Limit" dataDxfId="419"/>
-    <tableColumn id="12" xr3:uid="{E3D45A75-803F-48B4-B112-11C4C63E6D6F}" name="Upper Limit" dataDxfId="418"/>
-    <tableColumn id="13" xr3:uid="{FFEC12A7-FD01-4D8C-85CF-A25BD15B0829}" name="Step" dataDxfId="417"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phase" dataDxfId="369"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="368"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="367"/>
+    <tableColumn id="10" xr3:uid="{8EBBFD49-190C-4C2F-A6BC-0598AAC3E788}" name="Description" dataDxfId="366"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="365"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="364"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="363"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="362"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="361"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="360"/>
+    <tableColumn id="14" xr3:uid="{E54D398D-B732-4333-A3F2-2EBD48BAA48B}" name="Parameter 5" dataDxfId="359"/>
+    <tableColumn id="15" xr3:uid="{47B382D4-92A3-4B8C-9C52-0458EA4788B1}" name="Parameter 6" dataDxfId="358"/>
+    <tableColumn id="11" xr3:uid="{BD4375F0-63E9-45EC-BE2E-338374C10F8B}" name="Lower Limit" dataDxfId="357"/>
+    <tableColumn id="12" xr3:uid="{E3D45A75-803F-48B4-B112-11C4C63E6D6F}" name="Upper Limit" dataDxfId="356"/>
+    <tableColumn id="13" xr3:uid="{FFEC12A7-FD01-4D8C-85CF-A25BD15B0829}" name="Step" dataDxfId="355"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:O12" totalsRowShown="0" tableBorderDxfId="416">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:O12" totalsRowShown="0" tableBorderDxfId="330">
   <autoFilter ref="A1:O12" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Phase" dataDxfId="415"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="414"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="413"/>
-    <tableColumn id="10" xr3:uid="{2D3DA962-F373-48F5-BD94-00CC27106A46}" name="Description" dataDxfId="412"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="411"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="410"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="409"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="408"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="407"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="406"/>
-    <tableColumn id="14" xr3:uid="{5A98E335-B701-4CC9-9D03-A85D24786F3B}" name="Parameter 5" dataDxfId="405"/>
-    <tableColumn id="15" xr3:uid="{79377D49-ED29-41CF-AC28-FD408018808C}" name="Parameter 6" dataDxfId="404"/>
-    <tableColumn id="11" xr3:uid="{FF818C38-99D8-4486-B25F-2B94B62F77AF}" name="Lower Limit" dataDxfId="403"/>
-    <tableColumn id="12" xr3:uid="{8C44E4B8-6916-4798-9055-589FE4E4C903}" name="Upper Limit" dataDxfId="402"/>
-    <tableColumn id="13" xr3:uid="{8266E46A-7EC0-42D8-91D3-D2DC1B4352DE}" name="Step" dataDxfId="401"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Phase" dataDxfId="329"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="328"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="327"/>
+    <tableColumn id="10" xr3:uid="{2D3DA962-F373-48F5-BD94-00CC27106A46}" name="Description" dataDxfId="326"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="325"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="324"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="323"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="322"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="321"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="320"/>
+    <tableColumn id="14" xr3:uid="{5A98E335-B701-4CC9-9D03-A85D24786F3B}" name="Parameter 5" dataDxfId="319"/>
+    <tableColumn id="15" xr3:uid="{79377D49-ED29-41CF-AC28-FD408018808C}" name="Parameter 6" dataDxfId="318"/>
+    <tableColumn id="11" xr3:uid="{FF818C38-99D8-4486-B25F-2B94B62F77AF}" name="Lower Limit" dataDxfId="317"/>
+    <tableColumn id="12" xr3:uid="{8C44E4B8-6916-4798-9055-589FE4E4C903}" name="Upper Limit" dataDxfId="316"/>
+    <tableColumn id="13" xr3:uid="{8266E46A-7EC0-42D8-91D3-D2DC1B4352DE}" name="Step" dataDxfId="315"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:O18" totalsRowShown="0" headerRowBorderDxfId="400" tableBorderDxfId="399">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:O18" totalsRowShown="0" headerRowBorderDxfId="278" tableBorderDxfId="277">
   <autoFilter ref="A1:O18" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Phase" dataDxfId="398"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="397"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="396"/>
-    <tableColumn id="10" xr3:uid="{A40104D1-3BF7-4068-8777-3D61F27973C1}" name="Description" dataDxfId="395"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="394"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="393"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="392"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="391"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="390"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="389"/>
-    <tableColumn id="14" xr3:uid="{77E616D7-C540-4C6C-A01C-31C8ADF35FBE}" name="Parameter 5" dataDxfId="388"/>
-    <tableColumn id="15" xr3:uid="{68C28D25-E41A-4D3D-A794-809A12A02364}" name="Parameter 6" dataDxfId="387"/>
-    <tableColumn id="11" xr3:uid="{83552614-5368-48EE-AE65-AA7B101E55EF}" name="Lower Limit" dataDxfId="386"/>
-    <tableColumn id="12" xr3:uid="{98998298-F4B1-4980-B79C-0BF0D0D59028}" name="Upper Limit" dataDxfId="385"/>
-    <tableColumn id="13" xr3:uid="{8E3814A1-C526-4157-B0D9-1258E47ACA45}" name="Step" dataDxfId="384"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Phase" dataDxfId="276"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="275"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="274"/>
+    <tableColumn id="10" xr3:uid="{A40104D1-3BF7-4068-8777-3D61F27973C1}" name="Description" dataDxfId="273"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="272"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="271"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="270"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="269"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="268"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="267"/>
+    <tableColumn id="14" xr3:uid="{77E616D7-C540-4C6C-A01C-31C8ADF35FBE}" name="Parameter 5" dataDxfId="266"/>
+    <tableColumn id="15" xr3:uid="{68C28D25-E41A-4D3D-A794-809A12A02364}" name="Parameter 6" dataDxfId="265"/>
+    <tableColumn id="11" xr3:uid="{83552614-5368-48EE-AE65-AA7B101E55EF}" name="Lower Limit" dataDxfId="264"/>
+    <tableColumn id="12" xr3:uid="{98998298-F4B1-4980-B79C-0BF0D0D59028}" name="Upper Limit" dataDxfId="263"/>
+    <tableColumn id="13" xr3:uid="{8E3814A1-C526-4157-B0D9-1258E47ACA45}" name="Step" dataDxfId="262"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15793" displayName="Table15793" ref="A1:O2" totalsRowShown="0" headerRowBorderDxfId="383" tableBorderDxfId="382">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15793" displayName="Table15793" ref="A1:O2" totalsRowShown="0" headerRowBorderDxfId="257" tableBorderDxfId="256">
   <autoFilter ref="A1:O2" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Phase" dataDxfId="381"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="380"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Name" dataDxfId="379"/>
-    <tableColumn id="10" xr3:uid="{4482773E-AA48-4795-9A9F-10283D12A976}" name="Description" dataDxfId="378"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Units" dataDxfId="377"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Distribution Type" dataDxfId="376"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Parameter 1" dataDxfId="375"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Parameter 2" dataDxfId="374"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Parameter 3" dataDxfId="373"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Parameter 4" dataDxfId="372"/>
-    <tableColumn id="14" xr3:uid="{41E058E9-8EB6-430E-BC58-82195628B7D1}" name="Parameter 5" dataDxfId="371"/>
-    <tableColumn id="15" xr3:uid="{1CA16974-E252-4655-813D-3FC48E8CCF45}" name="Parameter 6" dataDxfId="370"/>
-    <tableColumn id="11" xr3:uid="{0ED7EC4B-FD74-44E3-B1E6-428C431FDA88}" name="Lower Limit" dataDxfId="369"/>
-    <tableColumn id="12" xr3:uid="{4CA3754D-692A-40C0-BCC5-14D0E3AAF144}" name="Upper Limit" dataDxfId="368"/>
-    <tableColumn id="13" xr3:uid="{D4791B88-6435-44AE-9946-77D4E8CB6EA8}" name="Step" dataDxfId="367"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Phase" dataDxfId="255"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="254"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Name" dataDxfId="253"/>
+    <tableColumn id="10" xr3:uid="{4482773E-AA48-4795-9A9F-10283D12A976}" name="Description" dataDxfId="252"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Units" dataDxfId="251"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Distribution Type" dataDxfId="250"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Parameter 1" dataDxfId="249"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Parameter 2" dataDxfId="248"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Parameter 3" dataDxfId="247"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Parameter 4" dataDxfId="246"/>
+    <tableColumn id="14" xr3:uid="{41E058E9-8EB6-430E-BC58-82195628B7D1}" name="Parameter 5" dataDxfId="245"/>
+    <tableColumn id="15" xr3:uid="{1CA16974-E252-4655-813D-3FC48E8CCF45}" name="Parameter 6" dataDxfId="244"/>
+    <tableColumn id="11" xr3:uid="{0ED7EC4B-FD74-44E3-B1E6-428C431FDA88}" name="Lower Limit" dataDxfId="243"/>
+    <tableColumn id="12" xr3:uid="{4CA3754D-692A-40C0-BCC5-14D0E3AAF144}" name="Upper Limit" dataDxfId="242"/>
+    <tableColumn id="13" xr3:uid="{D4791B88-6435-44AE-9946-77D4E8CB6EA8}" name="Step" dataDxfId="241"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:O27" totalsRowShown="0" headerRowBorderDxfId="366" tableBorderDxfId="365">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:O27" totalsRowShown="0" headerRowBorderDxfId="236" tableBorderDxfId="235">
   <autoFilter ref="A1:O27" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2">
     <sortCondition ref="B1:B2"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Phase" dataDxfId="364"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="363"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="362"/>
-    <tableColumn id="10" xr3:uid="{3AFE3909-1CDD-46E0-8677-569A824534FB}" name="Description" dataDxfId="361"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="360"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="359"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="358"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="357"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="356"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="355"/>
-    <tableColumn id="14" xr3:uid="{8991E047-B1B0-4B74-A5AA-45E689F51874}" name="Parameter 5" dataDxfId="354"/>
-    <tableColumn id="15" xr3:uid="{A25E7AA9-7C49-405C-8326-53EA8C994FFB}" name="Parameter 6" dataDxfId="353"/>
-    <tableColumn id="11" xr3:uid="{08FFB9BF-C539-434A-A2F4-C19873D3AB3E}" name="Lower Limit" dataDxfId="352"/>
-    <tableColumn id="12" xr3:uid="{CEDB540F-344B-4D49-8CD6-9F7746873840}" name="Upper Limit" dataDxfId="351"/>
-    <tableColumn id="13" xr3:uid="{4B3E9A2A-7D0A-4F2D-B694-DB4D2C83BA0A}" name="Step" dataDxfId="350"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Phase" dataDxfId="234"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="233"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="232"/>
+    <tableColumn id="10" xr3:uid="{3AFE3909-1CDD-46E0-8677-569A824534FB}" name="Description" dataDxfId="231"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="230"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="229"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="228"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="227"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="226"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="225"/>
+    <tableColumn id="14" xr3:uid="{8991E047-B1B0-4B74-A5AA-45E689F51874}" name="Parameter 5" dataDxfId="224"/>
+    <tableColumn id="15" xr3:uid="{A25E7AA9-7C49-405C-8326-53EA8C994FFB}" name="Parameter 6" dataDxfId="223"/>
+    <tableColumn id="11" xr3:uid="{08FFB9BF-C539-434A-A2F4-C19873D3AB3E}" name="Lower Limit" dataDxfId="222"/>
+    <tableColumn id="12" xr3:uid="{CEDB540F-344B-4D49-8CD6-9F7746873840}" name="Upper Limit" dataDxfId="221"/>
+    <tableColumn id="13" xr3:uid="{4B3E9A2A-7D0A-4F2D-B694-DB4D2C83BA0A}" name="Step" dataDxfId="220"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3CB8E65B-B7DB-4610-98F8-15D74050538C}" name="Table156410" displayName="Table156410" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="349" tableBorderDxfId="348">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3CB8E65B-B7DB-4610-98F8-15D74050538C}" name="Table156410" displayName="Table156410" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="215" tableBorderDxfId="214">
   <autoFilter ref="A1:P19" xr:uid="{A2DF75BF-F49D-463D-B10C-635E799069A4}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{33E848DD-559D-4023-9F06-526E6AF9BD94}" name="Phase" dataDxfId="328"/>
-    <tableColumn id="20" xr3:uid="{9EDFC6C3-E3F9-4924-BC6A-804D2BBDAE4E}" name="Category" dataDxfId="327"/>
-    <tableColumn id="12" xr3:uid="{D5F0DA51-2BBD-46FF-88FA-75AA7A464F56}" name="Name" dataDxfId="326"/>
-    <tableColumn id="14" xr3:uid="{C6DADE20-FD43-4249-ADF7-72D9BB6ED860}" name="Description" dataDxfId="325"/>
-    <tableColumn id="18" xr3:uid="{017077E2-A519-4357-81FC-29BBCF542A5D}" name="Units" dataDxfId="324"/>
-    <tableColumn id="4" xr3:uid="{18A3B7BD-46E6-497D-932B-A279201CED36}" name="Distribution Type" dataDxfId="323"/>
-    <tableColumn id="5" xr3:uid="{5BD00F12-3393-4245-9BE0-D37573FCF5E3}" name="Parameter 1" dataDxfId="322"/>
-    <tableColumn id="6" xr3:uid="{F68E7FA0-23DA-4C5B-BCD3-BD3C7B299B02}" name="Parameter 2" dataDxfId="321"/>
-    <tableColumn id="7" xr3:uid="{E074689D-E9A9-4D78-901F-4D6DEAB8F157}" name="Parameter 3" dataDxfId="320"/>
-    <tableColumn id="10" xr3:uid="{24FDA3C5-E39C-430C-90BB-3F6BD09EEDC7}" name="Parameter 4" dataDxfId="319"/>
-    <tableColumn id="11" xr3:uid="{42BED06C-CBA3-4453-AE89-CFE7799A8559}" name="Parameter 5" dataDxfId="318"/>
-    <tableColumn id="8" xr3:uid="{4CFE8BFF-6747-408C-8ABA-AFDB589C4F81}" name="Parameter 6" dataDxfId="317"/>
-    <tableColumn id="15" xr3:uid="{E0BBD4D8-EA8D-4CAF-B849-F7A2CE769A48}" name="Lower Limit" dataDxfId="316"/>
-    <tableColumn id="16" xr3:uid="{4800A8E8-843B-4C41-91BF-C1A3C30DE8D6}" name="Upper Limit" dataDxfId="315"/>
-    <tableColumn id="17" xr3:uid="{A6367C3F-1F51-48D6-9EB3-E8501CEA0DC3}" name="Step" dataDxfId="314"/>
-    <tableColumn id="2" xr3:uid="{35A75B88-2478-4C79-A2CA-47B2F68D1460}" name="Surface Type" dataDxfId="347"/>
+    <tableColumn id="9" xr3:uid="{33E848DD-559D-4023-9F06-526E6AF9BD94}" name="Phase" dataDxfId="213"/>
+    <tableColumn id="20" xr3:uid="{9EDFC6C3-E3F9-4924-BC6A-804D2BBDAE4E}" name="Category" dataDxfId="212"/>
+    <tableColumn id="12" xr3:uid="{D5F0DA51-2BBD-46FF-88FA-75AA7A464F56}" name="Name" dataDxfId="211"/>
+    <tableColumn id="14" xr3:uid="{C6DADE20-FD43-4249-ADF7-72D9BB6ED860}" name="Description" dataDxfId="210"/>
+    <tableColumn id="18" xr3:uid="{017077E2-A519-4357-81FC-29BBCF542A5D}" name="Units" dataDxfId="209"/>
+    <tableColumn id="4" xr3:uid="{18A3B7BD-46E6-497D-932B-A279201CED36}" name="Distribution Type" dataDxfId="208"/>
+    <tableColumn id="5" xr3:uid="{5BD00F12-3393-4245-9BE0-D37573FCF5E3}" name="Parameter 1" dataDxfId="207"/>
+    <tableColumn id="6" xr3:uid="{F68E7FA0-23DA-4C5B-BCD3-BD3C7B299B02}" name="Parameter 2" dataDxfId="206"/>
+    <tableColumn id="7" xr3:uid="{E074689D-E9A9-4D78-901F-4D6DEAB8F157}" name="Parameter 3" dataDxfId="205"/>
+    <tableColumn id="10" xr3:uid="{24FDA3C5-E39C-430C-90BB-3F6BD09EEDC7}" name="Parameter 4" dataDxfId="204"/>
+    <tableColumn id="11" xr3:uid="{42BED06C-CBA3-4453-AE89-CFE7799A8559}" name="Parameter 5" dataDxfId="203"/>
+    <tableColumn id="8" xr3:uid="{4CFE8BFF-6747-408C-8ABA-AFDB589C4F81}" name="Parameter 6" dataDxfId="202"/>
+    <tableColumn id="15" xr3:uid="{E0BBD4D8-EA8D-4CAF-B849-F7A2CE769A48}" name="Lower Limit" dataDxfId="201"/>
+    <tableColumn id="16" xr3:uid="{4800A8E8-843B-4C41-91BF-C1A3C30DE8D6}" name="Upper Limit" dataDxfId="200"/>
+    <tableColumn id="17" xr3:uid="{A6367C3F-1F51-48D6-9EB3-E8501CEA0DC3}" name="Step" dataDxfId="199"/>
+    <tableColumn id="2" xr3:uid="{35A75B88-2478-4C79-A2CA-47B2F68D1460}" name="Surface Type" dataDxfId="198"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{86A1116E-A4B1-4819-B8BD-755AC0F1A27A}" name="Table15648" displayName="Table15648" ref="A1:P123" totalsRowShown="0" headerRowBorderDxfId="346" tableBorderDxfId="345">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{86A1116E-A4B1-4819-B8BD-755AC0F1A27A}" name="Table15648" displayName="Table15648" ref="A1:P123" totalsRowShown="0" headerRowBorderDxfId="193" tableBorderDxfId="192">
   <autoFilter ref="A1:P123" xr:uid="{990E6A50-401C-443A-9431-A3C6B1C33DB9}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{B7EF7E94-8BD1-4B05-A1E1-DE0166BDA299}" name="Phase" dataDxfId="313"/>
-    <tableColumn id="20" xr3:uid="{3E394D25-22F5-47DE-8DD2-1B412C8ACB40}" name="Category" dataDxfId="312"/>
-    <tableColumn id="12" xr3:uid="{581C35A5-6B54-4CCA-AD27-A0086A458CD9}" name="Name" dataDxfId="311"/>
-    <tableColumn id="14" xr3:uid="{02601854-7EF0-4B53-83BA-E1A583AB0E89}" name="Description" dataDxfId="310"/>
-    <tableColumn id="18" xr3:uid="{38E6F539-D589-4AEB-9FF3-0F3407B1F600}" name="Units" dataDxfId="309"/>
-    <tableColumn id="4" xr3:uid="{758D0224-FF70-4B51-A43F-A666DBEE60B5}" name="Distribution Type" dataDxfId="308"/>
-    <tableColumn id="5" xr3:uid="{AA403007-B0D8-4F37-BBED-A39F4CBEC713}" name="Parameter 1" dataDxfId="307"/>
-    <tableColumn id="6" xr3:uid="{AEFD9020-CB8D-46C6-A545-72935F5E17C9}" name="Parameter 2" dataDxfId="306"/>
-    <tableColumn id="7" xr3:uid="{5391F637-3141-4924-AB2D-BB7560C402FC}" name="Parameter 3" dataDxfId="305"/>
-    <tableColumn id="10" xr3:uid="{DD30C7A0-FB24-4548-956F-070EED2E392A}" name="Parameter 4" dataDxfId="304"/>
-    <tableColumn id="11" xr3:uid="{4C51B414-DF9A-46F4-A761-171654CD826B}" name="Parameter 5" dataDxfId="303"/>
-    <tableColumn id="8" xr3:uid="{C36C5078-BCC8-4902-86B0-4CC5F5B94354}" name="Parameter 6" dataDxfId="302"/>
-    <tableColumn id="15" xr3:uid="{0B417314-7BF7-498C-AFAD-AF435E3794CB}" name="Lower Limit" dataDxfId="301"/>
-    <tableColumn id="16" xr3:uid="{869CD7E5-A5F2-42BE-860A-4654BBA29091}" name="Upper Limit" dataDxfId="300"/>
-    <tableColumn id="17" xr3:uid="{9D5645C4-35FE-4467-8F7A-0259A9E00D72}" name="Step" dataDxfId="299"/>
-    <tableColumn id="2" xr3:uid="{50BD2715-2D27-4DE5-B9A0-A7590DC8C3DF}" name="Surface Type" dataDxfId="298"/>
+    <tableColumn id="9" xr3:uid="{B7EF7E94-8BD1-4B05-A1E1-DE0166BDA299}" name="Phase" dataDxfId="191"/>
+    <tableColumn id="20" xr3:uid="{3E394D25-22F5-47DE-8DD2-1B412C8ACB40}" name="Category" dataDxfId="190"/>
+    <tableColumn id="12" xr3:uid="{581C35A5-6B54-4CCA-AD27-A0086A458CD9}" name="Name" dataDxfId="189"/>
+    <tableColumn id="14" xr3:uid="{02601854-7EF0-4B53-83BA-E1A583AB0E89}" name="Description" dataDxfId="188"/>
+    <tableColumn id="18" xr3:uid="{38E6F539-D589-4AEB-9FF3-0F3407B1F600}" name="Units" dataDxfId="187"/>
+    <tableColumn id="4" xr3:uid="{758D0224-FF70-4B51-A43F-A666DBEE60B5}" name="Distribution Type" dataDxfId="186"/>
+    <tableColumn id="5" xr3:uid="{AA403007-B0D8-4F37-BBED-A39F4CBEC713}" name="Parameter 1" dataDxfId="185"/>
+    <tableColumn id="6" xr3:uid="{AEFD9020-CB8D-46C6-A545-72935F5E17C9}" name="Parameter 2" dataDxfId="184"/>
+    <tableColumn id="7" xr3:uid="{5391F637-3141-4924-AB2D-BB7560C402FC}" name="Parameter 3" dataDxfId="183"/>
+    <tableColumn id="10" xr3:uid="{DD30C7A0-FB24-4548-956F-070EED2E392A}" name="Parameter 4" dataDxfId="182"/>
+    <tableColumn id="11" xr3:uid="{4C51B414-DF9A-46F4-A761-171654CD826B}" name="Parameter 5" dataDxfId="181"/>
+    <tableColumn id="8" xr3:uid="{C36C5078-BCC8-4902-86B0-4CC5F5B94354}" name="Parameter 6" dataDxfId="180"/>
+    <tableColumn id="15" xr3:uid="{0B417314-7BF7-498C-AFAD-AF435E3794CB}" name="Lower Limit" dataDxfId="179"/>
+    <tableColumn id="16" xr3:uid="{869CD7E5-A5F2-42BE-860A-4654BBA29091}" name="Upper Limit" dataDxfId="178"/>
+    <tableColumn id="17" xr3:uid="{9D5645C4-35FE-4467-8F7A-0259A9E00D72}" name="Step" dataDxfId="177"/>
+    <tableColumn id="2" xr3:uid="{50BD2715-2D27-4DE5-B9A0-A7590DC8C3DF}" name="Surface Type" dataDxfId="176"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{70557EE6-CCDF-497F-AD58-5C0E1C74D197}" name="Table156412" displayName="Table156412" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="344" tableBorderDxfId="343">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{70557EE6-CCDF-497F-AD58-5C0E1C74D197}" name="Table156412" displayName="Table156412" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="171" tableBorderDxfId="170">
   <autoFilter ref="A1:P19" xr:uid="{98B9CAE8-5809-471F-A0E6-3C63C0FF7931}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{0E927F65-2069-4507-B0B0-8DA725AF99EC}" name="Phase" dataDxfId="297"/>
-    <tableColumn id="20" xr3:uid="{921518C6-F6AF-4306-9A67-62C12E697D60}" name="Category" dataDxfId="296"/>
-    <tableColumn id="12" xr3:uid="{CD5679ED-CB25-488E-8C70-2C446DAB28DC}" name="Name" dataDxfId="295"/>
-    <tableColumn id="14" xr3:uid="{F17E92B1-609F-453F-8FC2-11AB75FFB5B0}" name="Description" dataDxfId="294"/>
-    <tableColumn id="18" xr3:uid="{CA25841B-E30A-4228-B65F-216207437CB0}" name="Units" dataDxfId="293"/>
-    <tableColumn id="4" xr3:uid="{5CF3C293-70A2-445C-B6F4-D4BCEB868AEC}" name="Distribution Type" dataDxfId="292"/>
-    <tableColumn id="5" xr3:uid="{6B896B7D-F74D-42FF-97BC-93D69E611504}" name="Parameter 1" dataDxfId="291"/>
-    <tableColumn id="6" xr3:uid="{02AE94F0-B427-476D-88EB-3C9235866F4E}" name="Parameter 2" dataDxfId="290"/>
-    <tableColumn id="7" xr3:uid="{C0EF4425-A63A-42D7-82B9-4C1366C7BF01}" name="Parameter 3" dataDxfId="289">
+    <tableColumn id="9" xr3:uid="{0E927F65-2069-4507-B0B0-8DA725AF99EC}" name="Phase" dataDxfId="169"/>
+    <tableColumn id="20" xr3:uid="{921518C6-F6AF-4306-9A67-62C12E697D60}" name="Category" dataDxfId="168"/>
+    <tableColumn id="12" xr3:uid="{CD5679ED-CB25-488E-8C70-2C446DAB28DC}" name="Name" dataDxfId="167"/>
+    <tableColumn id="14" xr3:uid="{F17E92B1-609F-453F-8FC2-11AB75FFB5B0}" name="Description" dataDxfId="166"/>
+    <tableColumn id="18" xr3:uid="{CA25841B-E30A-4228-B65F-216207437CB0}" name="Units" dataDxfId="165"/>
+    <tableColumn id="4" xr3:uid="{5CF3C293-70A2-445C-B6F4-D4BCEB868AEC}" name="Distribution Type" dataDxfId="164"/>
+    <tableColumn id="5" xr3:uid="{6B896B7D-F74D-42FF-97BC-93D69E611504}" name="Parameter 1" dataDxfId="163"/>
+    <tableColumn id="6" xr3:uid="{02AE94F0-B427-476D-88EB-3C9235866F4E}" name="Parameter 2" dataDxfId="162"/>
+    <tableColumn id="7" xr3:uid="{C0EF4425-A63A-42D7-82B9-4C1366C7BF01}" name="Parameter 3" dataDxfId="161">
       <calculatedColumnFormula>(Table156412[[#This Row],[Parameter 1]]-1)/(Table156412[[#This Row],[Parameter 1]]+Table156412[[#This Row],[Parameter 2]]-2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{7F665756-5949-4CD6-AE8C-F7531D7A9CAD}" name="Parameter 4" dataDxfId="288"/>
-    <tableColumn id="11" xr3:uid="{59049478-1CD8-416F-BED1-BD7B8FEA0C41}" name="Parameter 5" dataDxfId="287"/>
-    <tableColumn id="8" xr3:uid="{CC7DFE3F-C2E2-4F46-B153-D03CF263B523}" name="Parameter 6" dataDxfId="286"/>
-    <tableColumn id="15" xr3:uid="{F2A6353F-D73A-41E5-B265-D8F18AA4409C}" name="Lower Limit" dataDxfId="285"/>
-    <tableColumn id="16" xr3:uid="{1D8D56B8-5F2C-48C5-9CE4-93C38BD7488F}" name="Upper Limit" dataDxfId="284"/>
-    <tableColumn id="17" xr3:uid="{6AB8DBB9-751A-4840-BC73-4780E1B009AD}" name="Step" dataDxfId="283"/>
-    <tableColumn id="2" xr3:uid="{86F807CE-2B91-41DF-9379-67C8909AB8D2}" name="Surface Type" dataDxfId="282"/>
+    <tableColumn id="10" xr3:uid="{7F665756-5949-4CD6-AE8C-F7531D7A9CAD}" name="Parameter 4" dataDxfId="160"/>
+    <tableColumn id="11" xr3:uid="{59049478-1CD8-416F-BED1-BD7B8FEA0C41}" name="Parameter 5" dataDxfId="159"/>
+    <tableColumn id="8" xr3:uid="{CC7DFE3F-C2E2-4F46-B153-D03CF263B523}" name="Parameter 6" dataDxfId="158"/>
+    <tableColumn id="15" xr3:uid="{F2A6353F-D73A-41E5-B265-D8F18AA4409C}" name="Lower Limit" dataDxfId="157"/>
+    <tableColumn id="16" xr3:uid="{1D8D56B8-5F2C-48C5-9CE4-93C38BD7488F}" name="Upper Limit" dataDxfId="156"/>
+    <tableColumn id="17" xr3:uid="{6AB8DBB9-751A-4840-BC73-4780E1B009AD}" name="Step" dataDxfId="155"/>
+    <tableColumn id="2" xr3:uid="{86F807CE-2B91-41DF-9379-67C8909AB8D2}" name="Surface Type" dataDxfId="154"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8087,9 +7871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011106CA-034C-42C6-970E-BB5575CB6577}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="A2:P3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8948,20 +8730,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="61" priority="3">
+    <cfRule type="expression" dxfId="219" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="58" priority="4">
+    <cfRule type="expression" dxfId="218" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="56" priority="1">
+    <cfRule type="expression" dxfId="217" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="2">
+    <cfRule type="expression" dxfId="216" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14662,20 +14444,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L123">
-    <cfRule type="expression" dxfId="51" priority="3">
+    <cfRule type="expression" dxfId="197" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18 A20 A22 A24 A26 A28 A30 A32 A34 A36 A38 A40 A42 A44 A46 A48 A50 A52 A54 A56 A58 A60 A62 A64 A66 A68 A70 A72 A74 A76 A78 A80 A82 A84 A86 A88 A90 A92 A94 A96 A98 A100 A102 A104 A106 A108 A110 A112 A114 A116 A118 A120 A122">
-    <cfRule type="expression" dxfId="50" priority="1">
+    <cfRule type="expression" dxfId="196" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="2">
+    <cfRule type="expression" dxfId="195" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 A21:L21 A23:L23 A25:L25 A27:L27 A29:L29 A31:L31 A33:L33 A35:L35 A37:L37 A39:L39 A41:L41 A43:L43 A45:L45 A47:L47 A49:L49 A51:L51 A53:L53 A55:L55 A57:L57 A59:L59 A61:L61 A63:L63 A65:L65 A67:L67 A69:L69 A71:L71 A73:L73 A75:L75 A77:L77 A79:L79 A81:L81 A83:L83 A85:L85 A87:L87 A89:L89 A91:L91 A93:L93 A95:L95 A97:L97 A99:L99 A101:L101 A103:L103 A105:L105 A107:L107 A109:L109 A111:L111 A113:L113 A115:L115 A117:L117 A119:L119 A121:L121 A123:L123 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18 B20:L20 B22:L22 B24:L24 B26:L26 B28:L28 B30:L30 B32:L32 B34:L34 B36:L36 B38:L38 B40:L40 B42:L42 B44:L44 B46:L46 B48:L48 B50:L50 B52:L52 B54:L54 B56:L56 B58:L58 B60:L60 B62:L62 B64:L64 B66:L66 B68:L68 B70:L70 B72:L72 B74:L74 B76:L76 B78:L78 B80:L80 B82:L82 B84:L84 B86:L86 B88:L88 B90:L90 B92:L92 B94:L94 B96:L96 B98:L98 B100:L100 B102:L102 B104:L104 B106:L106 B108:L108 B110:L110 B112:L112 B114:L114 B116:L116 B118:L118 B120:L120 B122:L122">
-    <cfRule type="expression" dxfId="48" priority="4">
+    <cfRule type="expression" dxfId="194" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15556,20 +15338,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="175" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="174" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="2">
+    <cfRule type="expression" dxfId="173" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="42" priority="4">
+    <cfRule type="expression" dxfId="172" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15590,7 +15372,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="A2:P3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16870,20 +16652,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L27">
-    <cfRule type="expression" dxfId="39" priority="3">
+    <cfRule type="expression" dxfId="153" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18 A20 A22 A24 A26">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="152" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="2">
+    <cfRule type="expression" dxfId="151" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 A21:L21 A23:L23 A25:L25 A27:L27 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18 B20:L20 B22:L22 B24:L24 B26:L26">
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="150" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17728,20 +17510,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="33" priority="3">
+    <cfRule type="expression" dxfId="131" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="32" priority="1">
+    <cfRule type="expression" dxfId="130" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="129" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="128" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17761,7 +17543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016DBC76-7827-41B0-AF96-73B2E7F68B47}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -19672,20 +19454,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L40">
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="109" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18 A20 A22 A24 A26 A28 A30 A32 A34 A36 A38 A40">
-    <cfRule type="expression" dxfId="26" priority="1">
+    <cfRule type="expression" dxfId="108" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="107" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 A21:L21 A23:L23 A25:L25 A27:L27 A29:L29 A31:L31 A33:L33 A35:L35 A37:L37 A39:L39 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18 B20:L20 B22:L22 B24:L24 B26:L26 B28:L28 B30:L30 B32:L32 B34:L34 B36:L36 B38:L38 B40:L40">
-    <cfRule type="expression" dxfId="24" priority="4">
+    <cfRule type="expression" dxfId="106" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20530,20 +20312,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="87" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="86" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="85" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="84" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21526,20 +21308,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="65" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="64" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="63" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="62" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21559,7 +21341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A33A8E7-AD20-48FF-AFAE-81E12293EF6F}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:P3"/>
     </sheetView>
   </sheetViews>
@@ -22384,20 +22166,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="43" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="42" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="41" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="40" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23526,20 +23308,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L25">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18 A20 A22 A24">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 A21:L21 A23:L23 A25:L25 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18 B20:L20 B22:L22 B24:L24">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23561,7 +23343,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24086,10 +23868,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:L3">
-    <cfRule type="expression" dxfId="169" priority="133">
+    <cfRule type="expression" dxfId="424" priority="133">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="134">
+    <cfRule type="expression" dxfId="423" priority="134">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24794,148 +24576,148 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L18">
-    <cfRule type="expression" dxfId="167" priority="49">
+    <cfRule type="expression" dxfId="406" priority="49">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="166" priority="33">
+    <cfRule type="expression" dxfId="405" priority="33">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="34">
+    <cfRule type="expression" dxfId="404" priority="34">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="164" priority="31">
+    <cfRule type="expression" dxfId="403" priority="31">
       <formula>ISBLANK($F3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="32">
+    <cfRule type="expression" dxfId="402" priority="32">
       <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="162" priority="29">
+    <cfRule type="expression" dxfId="401" priority="29">
       <formula>ISBLANK($F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="30">
+    <cfRule type="expression" dxfId="400" priority="30">
       <formula>NOT((COLUMN(A4)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="160" priority="27">
+    <cfRule type="expression" dxfId="399" priority="27">
       <formula>ISBLANK($F5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="28">
+    <cfRule type="expression" dxfId="398" priority="28">
       <formula>NOT((COLUMN(A5)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F5, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="158" priority="25">
+    <cfRule type="expression" dxfId="397" priority="25">
       <formula>ISBLANK($F6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="26">
+    <cfRule type="expression" dxfId="396" priority="26">
       <formula>NOT((COLUMN(A6)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F6, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="expression" dxfId="156" priority="23">
+    <cfRule type="expression" dxfId="395" priority="23">
       <formula>ISBLANK($F7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="24">
+    <cfRule type="expression" dxfId="394" priority="24">
       <formula>NOT((COLUMN(A7)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F7, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="154" priority="21">
+    <cfRule type="expression" dxfId="393" priority="21">
       <formula>ISBLANK($F8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="22">
+    <cfRule type="expression" dxfId="392" priority="22">
       <formula>NOT((COLUMN(A8)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F8, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="152" priority="19">
+    <cfRule type="expression" dxfId="391" priority="19">
       <formula>ISBLANK($F9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="20">
+    <cfRule type="expression" dxfId="390" priority="20">
       <formula>NOT((COLUMN(A9)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F9, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="150" priority="17">
+    <cfRule type="expression" dxfId="389" priority="17">
       <formula>ISBLANK($F10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="18">
+    <cfRule type="expression" dxfId="388" priority="18">
       <formula>NOT((COLUMN(A10)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F10, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="148" priority="15">
+    <cfRule type="expression" dxfId="387" priority="15">
       <formula>ISBLANK($F11)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="16">
+    <cfRule type="expression" dxfId="386" priority="16">
       <formula>NOT((COLUMN(A11)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F11, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="146" priority="13">
+    <cfRule type="expression" dxfId="385" priority="13">
       <formula>ISBLANK($F12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="14">
+    <cfRule type="expression" dxfId="384" priority="14">
       <formula>NOT((COLUMN(A12)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F12, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="144" priority="11">
+    <cfRule type="expression" dxfId="383" priority="11">
       <formula>ISBLANK($F13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="12">
+    <cfRule type="expression" dxfId="382" priority="12">
       <formula>NOT((COLUMN(A13)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F13, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="142" priority="9">
+    <cfRule type="expression" dxfId="381" priority="9">
       <formula>ISBLANK($F14)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="10">
+    <cfRule type="expression" dxfId="380" priority="10">
       <formula>NOT((COLUMN(A14)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F14, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="140" priority="7">
+    <cfRule type="expression" dxfId="379" priority="7">
       <formula>ISBLANK($F15)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="8">
+    <cfRule type="expression" dxfId="378" priority="8">
       <formula>NOT((COLUMN(A15)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F15, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="138" priority="5">
+    <cfRule type="expression" dxfId="377" priority="5">
       <formula>ISBLANK($F16)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="6">
+    <cfRule type="expression" dxfId="376" priority="6">
       <formula>NOT((COLUMN(A16)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F16, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="136" priority="3">
+    <cfRule type="expression" dxfId="375" priority="3">
       <formula>ISBLANK($F17)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="4">
+    <cfRule type="expression" dxfId="374" priority="4">
       <formula>NOT((COLUMN(A17)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F17, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="134" priority="1">
+    <cfRule type="expression" dxfId="373" priority="1">
       <formula>ISBLANK($F18)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="2">
+    <cfRule type="expression" dxfId="372" priority="2">
       <formula>NOT((COLUMN(A18)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F18, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L18">
-    <cfRule type="expression" dxfId="132" priority="132">
+    <cfRule type="expression" dxfId="371" priority="132">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25419,100 +25201,100 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L12">
-    <cfRule type="expression" dxfId="131" priority="40">
+    <cfRule type="expression" dxfId="354" priority="40">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="130" priority="21">
+    <cfRule type="expression" dxfId="353" priority="21">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="22">
+    <cfRule type="expression" dxfId="352" priority="22">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="128" priority="19">
+    <cfRule type="expression" dxfId="351" priority="19">
       <formula>ISBLANK($F3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="20">
+    <cfRule type="expression" dxfId="350" priority="20">
       <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="126" priority="17">
+    <cfRule type="expression" dxfId="349" priority="17">
       <formula>ISBLANK($F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="18">
+    <cfRule type="expression" dxfId="348" priority="18">
       <formula>NOT((COLUMN(A4)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="124" priority="15">
+    <cfRule type="expression" dxfId="347" priority="15">
       <formula>ISBLANK($F5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="16">
+    <cfRule type="expression" dxfId="346" priority="16">
       <formula>NOT((COLUMN(A5)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F5, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="122" priority="13">
+    <cfRule type="expression" dxfId="345" priority="13">
       <formula>ISBLANK($F6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="14">
+    <cfRule type="expression" dxfId="344" priority="14">
       <formula>NOT((COLUMN(A6)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F6, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="expression" dxfId="120" priority="11">
+    <cfRule type="expression" dxfId="343" priority="11">
       <formula>ISBLANK($F7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="12">
+    <cfRule type="expression" dxfId="342" priority="12">
       <formula>NOT((COLUMN(A7)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F7, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="118" priority="9">
+    <cfRule type="expression" dxfId="341" priority="9">
       <formula>ISBLANK($F8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="10">
+    <cfRule type="expression" dxfId="340" priority="10">
       <formula>NOT((COLUMN(A8)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F8, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="116" priority="7">
+    <cfRule type="expression" dxfId="339" priority="7">
       <formula>ISBLANK($F9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="8">
+    <cfRule type="expression" dxfId="338" priority="8">
       <formula>NOT((COLUMN(A9)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F9, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="114" priority="5">
+    <cfRule type="expression" dxfId="337" priority="5">
       <formula>ISBLANK($F10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="6">
+    <cfRule type="expression" dxfId="336" priority="6">
       <formula>NOT((COLUMN(A10)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F10, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="112" priority="3">
+    <cfRule type="expression" dxfId="335" priority="3">
       <formula>ISBLANK($F11)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="4">
+    <cfRule type="expression" dxfId="334" priority="4">
       <formula>NOT((COLUMN(A11)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F11, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="110" priority="1">
+    <cfRule type="expression" dxfId="333" priority="1">
       <formula>ISBLANK($F12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="2">
+    <cfRule type="expression" dxfId="332" priority="2">
       <formula>NOT((COLUMN(A12)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F12, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L12">
-    <cfRule type="expression" dxfId="108" priority="131">
+    <cfRule type="expression" dxfId="331" priority="131">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25534,13 +25316,13 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" customWidth="1"/>
     <col min="5" max="15" width="15.7109375" customWidth="1"/>
   </cols>
@@ -26214,148 +25996,148 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L18">
-    <cfRule type="expression" dxfId="107" priority="55">
+    <cfRule type="expression" dxfId="314" priority="55">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="106" priority="33">
+    <cfRule type="expression" dxfId="313" priority="33">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="34">
+    <cfRule type="expression" dxfId="312" priority="34">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="104" priority="31">
+    <cfRule type="expression" dxfId="311" priority="31">
       <formula>ISBLANK($F3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="32">
+    <cfRule type="expression" dxfId="310" priority="32">
       <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="102" priority="29">
+    <cfRule type="expression" dxfId="309" priority="29">
       <formula>ISBLANK($F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="30">
+    <cfRule type="expression" dxfId="308" priority="30">
       <formula>NOT((COLUMN(A4)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="100" priority="27">
+    <cfRule type="expression" dxfId="307" priority="27">
       <formula>ISBLANK($F5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="28">
+    <cfRule type="expression" dxfId="306" priority="28">
       <formula>NOT((COLUMN(A5)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F5, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="98" priority="25">
+    <cfRule type="expression" dxfId="305" priority="25">
       <formula>ISBLANK($F6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="26">
+    <cfRule type="expression" dxfId="304" priority="26">
       <formula>NOT((COLUMN(A6)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F6, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="expression" dxfId="96" priority="23">
+    <cfRule type="expression" dxfId="303" priority="23">
       <formula>ISBLANK($F7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="24">
+    <cfRule type="expression" dxfId="302" priority="24">
       <formula>NOT((COLUMN(A7)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F7, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="94" priority="21">
+    <cfRule type="expression" dxfId="301" priority="21">
       <formula>ISBLANK($F8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="22">
+    <cfRule type="expression" dxfId="300" priority="22">
       <formula>NOT((COLUMN(A8)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F8, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="92" priority="19">
+    <cfRule type="expression" dxfId="299" priority="19">
       <formula>ISBLANK($F9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="20">
+    <cfRule type="expression" dxfId="298" priority="20">
       <formula>NOT((COLUMN(A9)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F9, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="90" priority="17">
+    <cfRule type="expression" dxfId="297" priority="17">
       <formula>ISBLANK($F10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="18">
+    <cfRule type="expression" dxfId="296" priority="18">
       <formula>NOT((COLUMN(A10)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F10, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="88" priority="15">
+    <cfRule type="expression" dxfId="295" priority="15">
       <formula>ISBLANK($F11)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="16">
+    <cfRule type="expression" dxfId="294" priority="16">
       <formula>NOT((COLUMN(A11)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F11, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="86" priority="13">
+    <cfRule type="expression" dxfId="293" priority="13">
       <formula>ISBLANK($F12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="14">
+    <cfRule type="expression" dxfId="292" priority="14">
       <formula>NOT((COLUMN(A12)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F12, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="84" priority="11">
+    <cfRule type="expression" dxfId="291" priority="11">
       <formula>ISBLANK($F13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="12">
+    <cfRule type="expression" dxfId="290" priority="12">
       <formula>NOT((COLUMN(A13)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F13, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="82" priority="9">
+    <cfRule type="expression" dxfId="289" priority="9">
       <formula>ISBLANK($F14)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="10">
+    <cfRule type="expression" dxfId="288" priority="10">
       <formula>NOT((COLUMN(A14)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F14, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="80" priority="7">
+    <cfRule type="expression" dxfId="287" priority="7">
       <formula>ISBLANK($F15)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="8">
+    <cfRule type="expression" dxfId="286" priority="8">
       <formula>NOT((COLUMN(A15)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F15, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="78" priority="5">
+    <cfRule type="expression" dxfId="285" priority="5">
       <formula>ISBLANK($F16)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="6">
+    <cfRule type="expression" dxfId="284" priority="6">
       <formula>NOT((COLUMN(A16)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F16, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="76" priority="3">
+    <cfRule type="expression" dxfId="283" priority="3">
       <formula>ISBLANK($F17)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="4">
+    <cfRule type="expression" dxfId="282" priority="4">
       <formula>NOT((COLUMN(A17)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F17, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="74" priority="1">
+    <cfRule type="expression" dxfId="281" priority="1">
       <formula>ISBLANK($F18)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="2">
+    <cfRule type="expression" dxfId="280" priority="2">
       <formula>NOT((COLUMN(A18)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F18, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L18">
-    <cfRule type="expression" dxfId="72" priority="130">
+    <cfRule type="expression" dxfId="279" priority="130">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26472,20 +26254,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L2">
-    <cfRule type="expression" dxfId="71" priority="26">
+    <cfRule type="expression" dxfId="261" priority="26">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="70" priority="1">
+    <cfRule type="expression" dxfId="260" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="2">
+    <cfRule type="expression" dxfId="259" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2">
-    <cfRule type="expression" dxfId="68" priority="129">
+    <cfRule type="expression" dxfId="258" priority="129">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26506,8 +26288,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27510,20 +27292,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L27">
-    <cfRule type="expression" dxfId="67" priority="29">
+    <cfRule type="expression" dxfId="240" priority="29">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="66" priority="1">
+    <cfRule type="expression" dxfId="239" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="2">
+    <cfRule type="expression" dxfId="238" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L27 B2:L2">
-    <cfRule type="expression" dxfId="64" priority="128">
+    <cfRule type="expression" dxfId="237" priority="128">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/InputFiles/ModifyParameters.xlsx
+++ b/InputFiles/ModifyParameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\EPA\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2502C828-A7F4-4D27-A95B-5391B81B41DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60830FF6-1FE7-47CE-9A9F-A4293FBDA225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="657" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="657" firstSheet="7" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internal - File Info" sheetId="1" r:id="rId1"/>
@@ -7852,9 +7852,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7873,19 +7873,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
-    <col min="6" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="45.7265625" customWidth="1"/>
+    <col min="6" max="15" width="15.7265625" customWidth="1"/>
     <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>190</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>154</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>154</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>154</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>154</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>154</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>154</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>154</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>162</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>162</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>162</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>162</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>162</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>162</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>164</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>164</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>164</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>164</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>164</v>
       </c>
@@ -8767,19 +8767,19 @@
       <selection activeCell="P2" sqref="A2:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
-    <col min="6" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="45.7265625" customWidth="1"/>
+    <col min="6" max="15" width="15.7265625" customWidth="1"/>
     <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>190</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>154</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>154</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>162</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>162</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>162</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>162</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>162</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>162</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>154</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>154</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>154</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>154</v>
       </c>
@@ -9381,7 +9381,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>154</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>154</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>154</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>154</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>154</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>154</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>154</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>154</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>154</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>154</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>162</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>162</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>162</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>162</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>162</v>
       </c>
@@ -10071,7 +10071,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>162</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>162</v>
       </c>
@@ -10163,7 +10163,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>162</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>162</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>162</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>162</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>162</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>164</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>164</v>
       </c>
@@ -10485,7 +10485,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>164</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>164</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>164</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>164</v>
       </c>
@@ -10669,7 +10669,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>164</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>164</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>164</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>164</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>154</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>154</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>154</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>154</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>154</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>154</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>154</v>
       </c>
@@ -11175,7 +11175,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
         <v>154</v>
       </c>
@@ -11221,7 +11221,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>154</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>154</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>154</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
         <v>154</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>154</v>
       </c>
@@ -11451,7 +11451,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
         <v>154</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>154</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>154</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>154</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>154</v>
       </c>
@@ -11681,7 +11681,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>154</v>
       </c>
@@ -11727,7 +11727,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
         <v>154</v>
       </c>
@@ -11773,7 +11773,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>154</v>
       </c>
@@ -11819,7 +11819,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
         <v>154</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>154</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
         <v>154</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>154</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
         <v>154</v>
       </c>
@@ -12049,7 +12049,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>154</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
         <v>154</v>
       </c>
@@ -12141,7 +12141,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>162</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
         <v>162</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>162</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
         <v>162</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>162</v>
       </c>
@@ -12371,7 +12371,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>162</v>
       </c>
@@ -12417,7 +12417,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>162</v>
       </c>
@@ -12463,7 +12463,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>162</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>162</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
         <v>162</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
         <v>162</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
         <v>162</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>162</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
         <v>162</v>
       </c>
@@ -12785,7 +12785,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>162</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
         <v>162</v>
       </c>
@@ -12877,7 +12877,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>162</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
         <v>162</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>162</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
         <v>162</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>162</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
         <v>162</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>162</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
         <v>162</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
         <v>164</v>
       </c>
@@ -13291,7 +13291,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="3" t="s">
         <v>164</v>
       </c>
@@ -13337,7 +13337,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>164</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="3" t="s">
         <v>164</v>
       </c>
@@ -13429,7 +13429,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>164</v>
       </c>
@@ -13475,7 +13475,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="3" t="s">
         <v>164</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>164</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="3" t="s">
         <v>164</v>
       </c>
@@ -13613,7 +13613,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
         <v>164</v>
       </c>
@@ -13659,7 +13659,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="3" t="s">
         <v>164</v>
       </c>
@@ -13705,7 +13705,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
         <v>164</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="3" t="s">
         <v>164</v>
       </c>
@@ -13797,7 +13797,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
         <v>164</v>
       </c>
@@ -13843,7 +13843,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="3" t="s">
         <v>164</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>164</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="3" t="s">
         <v>164</v>
       </c>
@@ -13981,7 +13981,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
         <v>164</v>
       </c>
@@ -14027,7 +14027,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="3" t="s">
         <v>164</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116" s="6" t="s">
         <v>164</v>
       </c>
@@ -14119,7 +14119,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="3" t="s">
         <v>164</v>
       </c>
@@ -14165,7 +14165,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>154</v>
       </c>
@@ -14211,7 +14211,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="3" t="s">
         <v>154</v>
       </c>
@@ -14257,7 +14257,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>154</v>
       </c>
@@ -14303,7 +14303,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="3" t="s">
         <v>162</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122" s="6" t="s">
         <v>162</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>162</v>
       </c>
@@ -14481,19 +14481,19 @@
       <selection activeCell="A2" sqref="A2:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
-    <col min="6" max="15" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="1" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="45.7265625" customWidth="1"/>
+    <col min="6" max="15" width="15.7265625" customWidth="1"/>
+    <col min="16" max="16" width="18.54296875" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>190</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>154</v>
       </c>
@@ -14587,7 +14587,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>154</v>
       </c>
@@ -14631,7 +14631,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>154</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>154</v>
       </c>
@@ -14719,7 +14719,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>154</v>
       </c>
@@ -14763,7 +14763,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>154</v>
       </c>
@@ -14807,7 +14807,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>154</v>
       </c>
@@ -14851,7 +14851,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>162</v>
       </c>
@@ -14895,7 +14895,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>162</v>
       </c>
@@ -14939,7 +14939,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>162</v>
       </c>
@@ -14983,7 +14983,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>162</v>
       </c>
@@ -15027,7 +15027,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>162</v>
       </c>
@@ -15071,7 +15071,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>162</v>
       </c>
@@ -15115,7 +15115,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>164</v>
       </c>
@@ -15159,7 +15159,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>164</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>164</v>
       </c>
@@ -15247,7 +15247,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>164</v>
       </c>
@@ -15291,7 +15291,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>164</v>
       </c>
@@ -15375,17 +15375,17 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
-    <col min="6" max="15" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="45.7265625" customWidth="1"/>
+    <col min="6" max="15" width="15.7265625" customWidth="1"/>
+    <col min="16" max="16" width="22.26953125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>190</v>
       </c>
@@ -15435,7 +15435,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>154</v>
       </c>
@@ -15477,7 +15477,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>154</v>
       </c>
@@ -15523,7 +15523,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>154</v>
       </c>
@@ -15569,7 +15569,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>154</v>
       </c>
@@ -15615,7 +15615,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>154</v>
       </c>
@@ -15661,7 +15661,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>154</v>
       </c>
@@ -15707,7 +15707,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>154</v>
       </c>
@@ -15753,7 +15753,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>154</v>
       </c>
@@ -15799,7 +15799,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>162</v>
       </c>
@@ -15841,7 +15841,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>164</v>
       </c>
@@ -15887,7 +15887,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>164</v>
       </c>
@@ -15933,7 +15933,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>164</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>154</v>
       </c>
@@ -16029,7 +16029,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>154</v>
       </c>
@@ -16079,7 +16079,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>154</v>
       </c>
@@ -16123,7 +16123,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>154</v>
       </c>
@@ -16167,7 +16167,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>154</v>
       </c>
@@ -16211,7 +16211,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>162</v>
       </c>
@@ -16261,7 +16261,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>162</v>
       </c>
@@ -16311,7 +16311,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>162</v>
       </c>
@@ -16361,7 +16361,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>162</v>
       </c>
@@ -16411,7 +16411,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>162</v>
       </c>
@@ -16461,7 +16461,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>164</v>
       </c>
@@ -16511,7 +16511,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>164</v>
       </c>
@@ -16555,7 +16555,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>164</v>
       </c>
@@ -16599,7 +16599,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>164</v>
       </c>
@@ -16689,19 +16689,19 @@
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
-    <col min="6" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="45.7265625" customWidth="1"/>
+    <col min="6" max="15" width="15.7265625" customWidth="1"/>
     <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>190</v>
       </c>
@@ -16751,7 +16751,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>154</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>154</v>
       </c>
@@ -16835,7 +16835,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>154</v>
       </c>
@@ -16877,7 +16877,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>154</v>
       </c>
@@ -16919,7 +16919,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>154</v>
       </c>
@@ -16961,7 +16961,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>154</v>
       </c>
@@ -17003,7 +17003,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>154</v>
       </c>
@@ -17045,7 +17045,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>162</v>
       </c>
@@ -17087,7 +17087,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>162</v>
       </c>
@@ -17129,7 +17129,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>162</v>
       </c>
@@ -17171,7 +17171,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>162</v>
       </c>
@@ -17213,7 +17213,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>162</v>
       </c>
@@ -17255,7 +17255,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>162</v>
       </c>
@@ -17297,7 +17297,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>164</v>
       </c>
@@ -17339,7 +17339,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>164</v>
       </c>
@@ -17381,7 +17381,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>164</v>
       </c>
@@ -17423,7 +17423,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>164</v>
       </c>
@@ -17465,7 +17465,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>164</v>
       </c>
@@ -17547,19 +17547,19 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
-    <col min="6" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="45.7265625" customWidth="1"/>
+    <col min="6" max="15" width="15.7265625" customWidth="1"/>
     <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>190</v>
       </c>
@@ -17609,7 +17609,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>154</v>
       </c>
@@ -17655,7 +17655,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>154</v>
       </c>
@@ -17701,7 +17701,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>154</v>
       </c>
@@ -17747,7 +17747,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>154</v>
       </c>
@@ -17793,7 +17793,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>154</v>
       </c>
@@ -17839,7 +17839,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>162</v>
       </c>
@@ -17885,7 +17885,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>162</v>
       </c>
@@ -17931,7 +17931,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>162</v>
       </c>
@@ -17977,7 +17977,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>164</v>
       </c>
@@ -18023,7 +18023,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>164</v>
       </c>
@@ -18069,7 +18069,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>154</v>
       </c>
@@ -18115,7 +18115,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>154</v>
       </c>
@@ -18161,7 +18161,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>154</v>
       </c>
@@ -18207,7 +18207,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>154</v>
       </c>
@@ -18253,7 +18253,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>154</v>
       </c>
@@ -18299,7 +18299,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>154</v>
       </c>
@@ -18345,7 +18345,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>154</v>
       </c>
@@ -18391,7 +18391,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>154</v>
       </c>
@@ -18437,7 +18437,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>164</v>
       </c>
@@ -18483,7 +18483,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>164</v>
       </c>
@@ -18529,7 +18529,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>164</v>
       </c>
@@ -18575,7 +18575,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>154</v>
       </c>
@@ -18621,7 +18621,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>154</v>
       </c>
@@ -18667,7 +18667,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>154</v>
       </c>
@@ -18713,7 +18713,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>164</v>
       </c>
@@ -18759,7 +18759,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>164</v>
       </c>
@@ -18805,7 +18805,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>164</v>
       </c>
@@ -18851,7 +18851,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>154</v>
       </c>
@@ -18901,7 +18901,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>154</v>
       </c>
@@ -18951,7 +18951,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>154</v>
       </c>
@@ -19001,7 +19001,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>154</v>
       </c>
@@ -19051,7 +19051,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>162</v>
       </c>
@@ -19101,7 +19101,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>162</v>
       </c>
@@ -19151,7 +19151,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>162</v>
       </c>
@@ -19201,7 +19201,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>162</v>
       </c>
@@ -19251,7 +19251,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>162</v>
       </c>
@@ -19301,7 +19301,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>164</v>
       </c>
@@ -19351,7 +19351,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>164</v>
       </c>
@@ -19401,7 +19401,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>164</v>
       </c>
@@ -19491,19 +19491,19 @@
       <selection activeCell="P2" sqref="A2:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
-    <col min="6" max="15" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="45.7265625" customWidth="1"/>
+    <col min="6" max="15" width="15.7265625" customWidth="1"/>
+    <col min="16" max="16" width="22.7265625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>190</v>
       </c>
@@ -19553,7 +19553,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>154</v>
       </c>
@@ -19595,7 +19595,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>154</v>
       </c>
@@ -19637,7 +19637,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>154</v>
       </c>
@@ -19679,7 +19679,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>154</v>
       </c>
@@ -19721,7 +19721,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>154</v>
       </c>
@@ -19763,7 +19763,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>154</v>
       </c>
@@ -19805,7 +19805,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>154</v>
       </c>
@@ -19847,7 +19847,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>162</v>
       </c>
@@ -19889,7 +19889,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>162</v>
       </c>
@@ -19931,7 +19931,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>162</v>
       </c>
@@ -19973,7 +19973,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>162</v>
       </c>
@@ -20015,7 +20015,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>162</v>
       </c>
@@ -20057,7 +20057,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>162</v>
       </c>
@@ -20099,7 +20099,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>164</v>
       </c>
@@ -20141,7 +20141,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>164</v>
       </c>
@@ -20183,7 +20183,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>164</v>
       </c>
@@ -20225,7 +20225,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>164</v>
       </c>
@@ -20267,7 +20267,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>164</v>
       </c>
@@ -20349,19 +20349,19 @@
       <selection activeCell="A2" sqref="A2:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
-    <col min="6" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="45.7265625" customWidth="1"/>
+    <col min="6" max="15" width="15.7265625" customWidth="1"/>
     <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>190</v>
       </c>
@@ -20411,7 +20411,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>154</v>
       </c>
@@ -20461,7 +20461,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>154</v>
       </c>
@@ -20511,7 +20511,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>154</v>
       </c>
@@ -20561,7 +20561,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>154</v>
       </c>
@@ -20611,7 +20611,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>154</v>
       </c>
@@ -20661,7 +20661,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>154</v>
       </c>
@@ -20711,7 +20711,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>154</v>
       </c>
@@ -20761,7 +20761,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>162</v>
       </c>
@@ -20811,7 +20811,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>162</v>
       </c>
@@ -20861,7 +20861,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>162</v>
       </c>
@@ -20905,7 +20905,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>162</v>
       </c>
@@ -20955,7 +20955,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>162</v>
       </c>
@@ -21005,7 +21005,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>162</v>
       </c>
@@ -21055,7 +21055,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>164</v>
       </c>
@@ -21105,7 +21105,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>164</v>
       </c>
@@ -21155,7 +21155,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>164</v>
       </c>
@@ -21205,7 +21205,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>164</v>
       </c>
@@ -21255,7 +21255,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>164</v>
       </c>
@@ -21341,23 +21341,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A33A8E7-AD20-48FF-AFAE-81E12293EF6F}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
-    <col min="6" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="45.7265625" customWidth="1"/>
+    <col min="6" max="15" width="15.7265625" customWidth="1"/>
     <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>190</v>
       </c>
@@ -21407,7 +21407,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>154</v>
       </c>
@@ -21449,7 +21449,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>154</v>
       </c>
@@ -21491,7 +21491,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>154</v>
       </c>
@@ -21533,7 +21533,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>154</v>
       </c>
@@ -21575,7 +21575,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>154</v>
       </c>
@@ -21617,7 +21617,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>154</v>
       </c>
@@ -21659,7 +21659,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>154</v>
       </c>
@@ -21701,7 +21701,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>162</v>
       </c>
@@ -21743,7 +21743,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>162</v>
       </c>
@@ -21785,7 +21785,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>162</v>
       </c>
@@ -21827,7 +21827,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>162</v>
       </c>
@@ -21869,7 +21869,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>162</v>
       </c>
@@ -21911,7 +21911,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>162</v>
       </c>
@@ -21953,7 +21953,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>164</v>
       </c>
@@ -21995,7 +21995,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>164</v>
       </c>
@@ -22037,7 +22037,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>164</v>
       </c>
@@ -22079,7 +22079,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>164</v>
       </c>
@@ -22121,7 +22121,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>164</v>
       </c>
@@ -22200,21 +22200,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A144A034-D186-4ABB-9FCB-F1B84E607A97}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
-    <col min="6" max="15" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="45.7265625" customWidth="1"/>
+    <col min="6" max="15" width="15.7265625" customWidth="1"/>
+    <col min="16" max="16" width="22.26953125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>190</v>
       </c>
@@ -22264,7 +22264,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>154</v>
       </c>
@@ -22310,7 +22310,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>154</v>
       </c>
@@ -22333,7 +22333,6 @@
         <v>3.8060541057116102</v>
       </c>
       <c r="H3" s="11">
-        <f>H2+(H5-H2)/(G5-G2)*(G3-G2)</f>
         <v>0.67516963333639435</v>
       </c>
       <c r="I3" s="11">
@@ -22357,7 +22356,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>154</v>
       </c>
@@ -22380,7 +22379,6 @@
         <v>6.43057000077546</v>
       </c>
       <c r="H4" s="1">
-        <f>H2+(H5-H2)/(G5-G2)*(G4-G2)</f>
         <v>0.84060856333843192</v>
       </c>
       <c r="I4" s="1">
@@ -22404,7 +22402,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>154</v>
       </c>
@@ -22430,7 +22428,6 @@
         <v>0.84265734265734304</v>
       </c>
       <c r="I5" s="11">
-        <f>I4+(I7-I4)/(G7-G4)*(G5-G4)</f>
         <v>2.6267966126214652</v>
       </c>
       <c r="J5" s="12" t="s">
@@ -22451,7 +22448,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>154</v>
       </c>
@@ -22477,7 +22474,6 @@
         <v>1.06293706293706</v>
       </c>
       <c r="I6" s="1">
-        <f>I4+(I7-I4)/(G7-G4)*(G6-G4)</f>
         <v>2.6984977042577531</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -22498,7 +22494,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>154</v>
       </c>
@@ -22521,7 +22517,6 @@
         <v>11.9741844913077</v>
       </c>
       <c r="H7" s="11">
-        <f>H6+(H8-H6)/(G8-G6)*(G7-G6)</f>
         <v>1.2799804589753188</v>
       </c>
       <c r="I7" s="11">
@@ -22545,7 +22540,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>154</v>
       </c>
@@ -22591,7 +22586,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>154</v>
       </c>
@@ -22633,7 +22628,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>154</v>
       </c>
@@ -22675,7 +22670,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>154</v>
       </c>
@@ -22717,7 +22712,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>154</v>
       </c>
@@ -22759,7 +22754,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>154</v>
       </c>
@@ -22801,7 +22796,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>154</v>
       </c>
@@ -22843,7 +22838,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>162</v>
       </c>
@@ -22885,7 +22880,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>162</v>
       </c>
@@ -22927,7 +22922,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>162</v>
       </c>
@@ -22969,7 +22964,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>162</v>
       </c>
@@ -23011,7 +23006,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>162</v>
       </c>
@@ -23053,7 +23048,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>162</v>
       </c>
@@ -23095,7 +23090,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>164</v>
       </c>
@@ -23137,7 +23132,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>164</v>
       </c>
@@ -23179,7 +23174,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>164</v>
       </c>
@@ -23221,7 +23216,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>164</v>
       </c>
@@ -23263,7 +23258,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>164</v>
       </c>
@@ -23346,14 +23341,14 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -23379,7 +23374,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
@@ -23395,7 +23390,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -23413,7 +23408,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>197</v>
       </c>
@@ -23435,7 +23430,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>198</v>
       </c>
@@ -23455,7 +23450,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>199</v>
       </c>
@@ -23473,7 +23468,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>200</v>
       </c>
@@ -23495,7 +23490,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>201</v>
       </c>
@@ -23513,7 +23508,7 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>203</v>
       </c>
@@ -23531,7 +23526,7 @@
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>202</v>
       </c>
@@ -23553,7 +23548,7 @@
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>204</v>
       </c>
@@ -23595,34 +23590,34 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <f>ROWS($A$10:A10)</f>
         <v>1</v>
@@ -23631,7 +23626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>ROWS($A$10:A11)</f>
         <v>2</v>
@@ -23640,7 +23635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <f>ROWS($A$10:A12)</f>
         <v>3</v>
@@ -23649,7 +23644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <f>ROWS($A$10:A13)</f>
         <v>4</v>
@@ -23658,7 +23653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <f>ROWS($A$10:A14)</f>
         <v>5</v>
@@ -23667,7 +23662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>6</v>
       </c>
@@ -23675,12 +23670,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -23688,17 +23683,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2</v>
       </c>
@@ -23706,22 +23701,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E29" t="s">
         <v>24</v>
       </c>
@@ -23740,15 +23735,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
+    <col min="4" max="4" width="45.7265625" customWidth="1"/>
+    <col min="5" max="15" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>190</v>
       </c>
@@ -23795,7 +23790,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -23830,7 +23825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>191</v>
       </c>
@@ -23897,15 +23892,15 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
+    <col min="4" max="4" width="45.7265625" customWidth="1"/>
+    <col min="5" max="15" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>190</v>
       </c>
@@ -23952,7 +23947,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -23987,7 +23982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>191</v>
       </c>
@@ -24024,7 +24019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>191</v>
       </c>
@@ -24061,7 +24056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>191</v>
       </c>
@@ -24098,7 +24093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>191</v>
       </c>
@@ -24133,7 +24128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>191</v>
       </c>
@@ -24170,7 +24165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>191</v>
       </c>
@@ -24205,7 +24200,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>191</v>
       </c>
@@ -24240,7 +24235,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>191</v>
       </c>
@@ -24277,7 +24272,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>191</v>
       </c>
@@ -24314,7 +24309,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>191</v>
       </c>
@@ -24351,7 +24346,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>191</v>
       </c>
@@ -24392,7 +24387,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>191</v>
       </c>
@@ -24427,7 +24422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>191</v>
       </c>
@@ -24464,7 +24459,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>191</v>
       </c>
@@ -24501,7 +24496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>191</v>
       </c>
@@ -24538,7 +24533,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>191</v>
       </c>
@@ -24742,15 +24737,15 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
+    <col min="4" max="4" width="45.7265625" customWidth="1"/>
+    <col min="5" max="15" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>190</v>
       </c>
@@ -24797,7 +24792,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -24834,7 +24829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>191</v>
       </c>
@@ -24871,7 +24866,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>191</v>
       </c>
@@ -24908,7 +24903,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>191</v>
       </c>
@@ -24945,7 +24940,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>191</v>
       </c>
@@ -24980,7 +24975,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>191</v>
       </c>
@@ -25017,7 +25012,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>191</v>
       </c>
@@ -25052,7 +25047,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>191</v>
       </c>
@@ -25093,7 +25088,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>191</v>
       </c>
@@ -25128,7 +25123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>191</v>
       </c>
@@ -25163,7 +25158,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>191</v>
       </c>
@@ -25319,15 +25314,15 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="45.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.7265625" customWidth="1"/>
+    <col min="5" max="15" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>190</v>
       </c>
@@ -25374,7 +25369,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -25411,7 +25406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>191</v>
       </c>
@@ -25448,7 +25443,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>191</v>
       </c>
@@ -25485,7 +25480,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>191</v>
       </c>
@@ -25522,7 +25517,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>191</v>
       </c>
@@ -25557,7 +25552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>191</v>
       </c>
@@ -25592,7 +25587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>191</v>
       </c>
@@ -25627,7 +25622,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>191</v>
       </c>
@@ -25664,7 +25659,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>191</v>
       </c>
@@ -25701,7 +25696,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>191</v>
       </c>
@@ -25738,7 +25733,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>191</v>
       </c>
@@ -25773,7 +25768,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>191</v>
       </c>
@@ -25810,7 +25805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>191</v>
       </c>
@@ -25847,7 +25842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>191</v>
       </c>
@@ -25882,7 +25877,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>191</v>
       </c>
@@ -25919,7 +25914,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>191</v>
       </c>
@@ -25956,7 +25951,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>191</v>
       </c>
@@ -26161,15 +26156,15 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
+    <col min="4" max="4" width="45.7265625" customWidth="1"/>
+    <col min="5" max="15" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>190</v>
       </c>
@@ -26216,7 +26211,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -26292,15 +26287,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
+    <col min="4" max="4" width="45.7265625" customWidth="1"/>
+    <col min="5" max="15" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>190</v>
       </c>
@@ -26347,7 +26342,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
@@ -26384,7 +26379,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>191</v>
       </c>
@@ -26421,7 +26416,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>191</v>
       </c>
@@ -26458,7 +26453,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>191</v>
       </c>
@@ -26495,7 +26490,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>191</v>
       </c>
@@ -26530,7 +26525,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>191</v>
       </c>
@@ -26565,7 +26560,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>191</v>
       </c>
@@ -26602,7 +26597,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>191</v>
       </c>
@@ -26639,7 +26634,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>191</v>
       </c>
@@ -26676,7 +26671,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>191</v>
       </c>
@@ -26713,7 +26708,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>191</v>
       </c>
@@ -26750,7 +26745,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>191</v>
       </c>
@@ -26787,7 +26782,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>191</v>
       </c>
@@ -26822,7 +26817,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>191</v>
       </c>
@@ -26857,7 +26852,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>191</v>
       </c>
@@ -26894,7 +26889,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>191</v>
       </c>
@@ -26931,7 +26926,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>191</v>
       </c>
@@ -26968,7 +26963,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>191</v>
       </c>
@@ -27005,7 +27000,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>191</v>
       </c>
@@ -27040,7 +27035,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>191</v>
       </c>
@@ -27077,7 +27072,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>191</v>
       </c>
@@ -27112,7 +27107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>191</v>
       </c>
@@ -27147,7 +27142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>191</v>
       </c>
@@ -27182,7 +27177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>191</v>
       </c>
@@ -27217,7 +27212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>191</v>
       </c>
@@ -27252,7 +27247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>191</v>
       </c>

--- a/InputFiles/ModifyParameters.xlsx
+++ b/InputFiles/ModifyParameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Task 5\WideAreaDecon\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERAZA\Documents\Tasking\(4) EPA Stuff\Task 5 Repo\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD67496-A261-469C-8C0D-1CE7DE9F320E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6460F8B-D925-462A-BFE0-111B97453EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1425" windowWidth="29040" windowHeight="15840" tabRatio="657" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="657" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internal - File Info" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3156" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="264">
   <si>
     <t>SCWAD</t>
   </si>
@@ -830,6 +830,21 @@
   <si>
     <t>$ / m^2</t>
   </si>
+  <si>
+    <t>Personnel Required (PL-1)</t>
+  </si>
+  <si>
+    <t>Number of PL-1 personnel required per team</t>
+  </si>
+  <si>
+    <t>Personnel Per Team (PL-1)</t>
+  </si>
+  <si>
+    <t>Rental Car Cost Per Day</t>
+  </si>
+  <si>
+    <t>Cost of rental car per day</t>
+  </si>
 </sst>
 </file>
 
@@ -1121,308 +1136,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="449">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="350">
     <dxf>
       <fill>
         <patternFill>
@@ -1460,307 +1174,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -1797,307 +1210,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -2134,307 +1246,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -2471,281 +1282,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -2782,307 +1318,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -3117,6 +1352,2195 @@
           <bgColor theme="2" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -3420,42 +3844,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3758,42 +4146,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4095,42 +4447,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4431,42 +4747,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -4803,42 +5083,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -5163,42 +5407,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -5535,394 +5743,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -6223,304 +6043,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -6819,384 +6341,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -7493,24 +6637,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7526,406 +6652,399 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table156" displayName="Table156" ref="A1:O3" totalsRowShown="0" tableBorderDxfId="446">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table156" displayName="Table156" ref="A1:O3" totalsRowShown="0" tableBorderDxfId="349">
   <autoFilter ref="A1:O3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phase" dataDxfId="445"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="444"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="443"/>
-    <tableColumn id="10" xr3:uid="{DA69379A-DE3F-42F4-AF70-91A1718AB7E0}" name="Description" dataDxfId="442"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Units" dataDxfId="441"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distribution Type" dataDxfId="440"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter 1" dataDxfId="439"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="438"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="437"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="436"/>
-    <tableColumn id="14" xr3:uid="{50465694-0FC6-4F52-BBDD-C2367DABB3F3}" name="Parameter 5" dataDxfId="435"/>
-    <tableColumn id="15" xr3:uid="{9D83EAB9-CB4C-4600-AF1C-4966CB714685}" name="Parameter 6" dataDxfId="434"/>
-    <tableColumn id="11" xr3:uid="{6D5D89BA-F5B6-48D7-8EB6-F84737897B28}" name="Lower Limit" dataDxfId="433"/>
-    <tableColumn id="12" xr3:uid="{48C3D1E7-422F-49D2-B091-B1AED1C3D586}" name="Upper Limit" dataDxfId="432"/>
-    <tableColumn id="13" xr3:uid="{C7F66B6D-AE49-4F19-BA50-224FF50E099F}" name="Step" dataDxfId="431"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phase" dataDxfId="348"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="347"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="346"/>
+    <tableColumn id="10" xr3:uid="{DA69379A-DE3F-42F4-AF70-91A1718AB7E0}" name="Description" dataDxfId="345"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Units" dataDxfId="344"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distribution Type" dataDxfId="343"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter 1" dataDxfId="342"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="341"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="340"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="339"/>
+    <tableColumn id="14" xr3:uid="{50465694-0FC6-4F52-BBDD-C2367DABB3F3}" name="Parameter 5" dataDxfId="338"/>
+    <tableColumn id="15" xr3:uid="{9D83EAB9-CB4C-4600-AF1C-4966CB714685}" name="Parameter 6" dataDxfId="337"/>
+    <tableColumn id="11" xr3:uid="{6D5D89BA-F5B6-48D7-8EB6-F84737897B28}" name="Lower Limit" dataDxfId="336"/>
+    <tableColumn id="12" xr3:uid="{48C3D1E7-422F-49D2-B091-B1AED1C3D586}" name="Upper Limit" dataDxfId="335"/>
+    <tableColumn id="13" xr3:uid="{C7F66B6D-AE49-4F19-BA50-224FF50E099F}" name="Step" dataDxfId="334"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{F9C17F91-E3F1-4ABE-9219-5A5F8F4C3152}" name="Table1564518" displayName="Table1564518" ref="A1:P27" totalsRowShown="0" headerRowBorderDxfId="149" tableBorderDxfId="148">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{F9C17F91-E3F1-4ABE-9219-5A5F8F4C3152}" name="Table1564518" displayName="Table1564518" ref="A1:P27" totalsRowShown="0" headerRowBorderDxfId="196" tableBorderDxfId="195">
   <autoFilter ref="A1:P27" xr:uid="{CE70FAE3-DAD6-40A6-BCCE-F46A2CDA0980}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{77AC217A-782C-47D2-9945-D4226DB02CB4}" name="Phase" dataDxfId="147"/>
-    <tableColumn id="22" xr3:uid="{A77A81F7-C018-4F6E-BF69-5FE486BECF62}" name="Category" dataDxfId="146"/>
-    <tableColumn id="12" xr3:uid="{CCA10716-C2B0-4055-953E-1957EC05B7DC}" name="Name" dataDxfId="145"/>
-    <tableColumn id="14" xr3:uid="{9131E52D-9D7C-41BF-ABF5-9AAF65D5BC39}" name="Description" dataDxfId="144"/>
-    <tableColumn id="18" xr3:uid="{819C7026-BBE6-4FEF-81FC-063CF9E923E1}" name="Units" dataDxfId="143"/>
-    <tableColumn id="4" xr3:uid="{BCC0BC54-494B-4CD2-9D93-4A14A321EFDE}" name="Distribution Type" dataDxfId="142"/>
-    <tableColumn id="5" xr3:uid="{890B6437-FEB3-4225-BE1D-8F4BB30A2A95}" name="Parameter 1" dataDxfId="141"/>
-    <tableColumn id="6" xr3:uid="{D95452BF-5FFC-4C2D-BE8B-1138CADE3867}" name="Parameter 2" dataDxfId="140"/>
-    <tableColumn id="7" xr3:uid="{AFAD290F-88ED-4F65-8343-1B7E0B2331C2}" name="Parameter 3" dataDxfId="139"/>
-    <tableColumn id="10" xr3:uid="{C7581E5C-58E6-4080-A3F0-3C90449EE32D}" name="Parameter 4" dataDxfId="138"/>
-    <tableColumn id="11" xr3:uid="{1D5C967F-8BEE-4049-9B30-056174F945AE}" name="Parameter 5" dataDxfId="137"/>
-    <tableColumn id="8" xr3:uid="{058E5821-3943-44C1-B08D-F22618A8CB01}" name="Parameter 6" dataDxfId="136"/>
-    <tableColumn id="15" xr3:uid="{C95BAD13-0F40-4073-97D7-EA904AFBC77C}" name="Lower Limit" dataDxfId="135"/>
-    <tableColumn id="16" xr3:uid="{582C9B39-6E23-469E-818C-CDD30AA83C2C}" name="Upper Limit" dataDxfId="134"/>
-    <tableColumn id="17" xr3:uid="{27D6A1B7-E56F-410E-929C-C8BD6000D2D9}" name="Step" dataDxfId="133"/>
-    <tableColumn id="20" xr3:uid="{86795961-383C-4D69-8607-2882A51CFD11}" name="Surface Type" dataDxfId="132"/>
+    <tableColumn id="9" xr3:uid="{77AC217A-782C-47D2-9945-D4226DB02CB4}" name="Phase" dataDxfId="194"/>
+    <tableColumn id="22" xr3:uid="{A77A81F7-C018-4F6E-BF69-5FE486BECF62}" name="Category" dataDxfId="193"/>
+    <tableColumn id="12" xr3:uid="{CCA10716-C2B0-4055-953E-1957EC05B7DC}" name="Name" dataDxfId="192"/>
+    <tableColumn id="14" xr3:uid="{9131E52D-9D7C-41BF-ABF5-9AAF65D5BC39}" name="Description" dataDxfId="191"/>
+    <tableColumn id="18" xr3:uid="{819C7026-BBE6-4FEF-81FC-063CF9E923E1}" name="Units" dataDxfId="190"/>
+    <tableColumn id="4" xr3:uid="{BCC0BC54-494B-4CD2-9D93-4A14A321EFDE}" name="Distribution Type" dataDxfId="189"/>
+    <tableColumn id="5" xr3:uid="{890B6437-FEB3-4225-BE1D-8F4BB30A2A95}" name="Parameter 1" dataDxfId="188"/>
+    <tableColumn id="6" xr3:uid="{D95452BF-5FFC-4C2D-BE8B-1138CADE3867}" name="Parameter 2" dataDxfId="187"/>
+    <tableColumn id="7" xr3:uid="{AFAD290F-88ED-4F65-8343-1B7E0B2331C2}" name="Parameter 3" dataDxfId="186"/>
+    <tableColumn id="10" xr3:uid="{C7581E5C-58E6-4080-A3F0-3C90449EE32D}" name="Parameter 4" dataDxfId="185"/>
+    <tableColumn id="11" xr3:uid="{1D5C967F-8BEE-4049-9B30-056174F945AE}" name="Parameter 5" dataDxfId="184"/>
+    <tableColumn id="8" xr3:uid="{058E5821-3943-44C1-B08D-F22618A8CB01}" name="Parameter 6" dataDxfId="183"/>
+    <tableColumn id="15" xr3:uid="{C95BAD13-0F40-4073-97D7-EA904AFBC77C}" name="Lower Limit" dataDxfId="182"/>
+    <tableColumn id="16" xr3:uid="{582C9B39-6E23-469E-818C-CDD30AA83C2C}" name="Upper Limit" dataDxfId="181"/>
+    <tableColumn id="17" xr3:uid="{27D6A1B7-E56F-410E-929C-C8BD6000D2D9}" name="Step" dataDxfId="180"/>
+    <tableColumn id="20" xr3:uid="{86795961-383C-4D69-8607-2882A51CFD11}" name="Surface Type" dataDxfId="179"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{432F1329-A516-4974-97D5-CED039B9825E}" name="Table15649" displayName="Table15649" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="127" tableBorderDxfId="126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{432F1329-A516-4974-97D5-CED039B9825E}" name="Table15649" displayName="Table15649" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="178" tableBorderDxfId="177">
   <autoFilter ref="A1:P19" xr:uid="{68B29069-2622-4242-A0DD-EA343A9BF637}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{A65D510F-11AE-4758-A918-595CFAEACDBA}" name="Phase" dataDxfId="125"/>
-    <tableColumn id="20" xr3:uid="{1983ED84-E3C7-438C-9FBC-6F68009993BF}" name="Category" dataDxfId="124"/>
-    <tableColumn id="12" xr3:uid="{5F8CF16A-5A1F-471D-941E-E8FA15DC40D9}" name="Name" dataDxfId="123"/>
-    <tableColumn id="14" xr3:uid="{603CB562-B188-4D78-8AF7-0C257FE01A78}" name="Description" dataDxfId="122"/>
-    <tableColumn id="18" xr3:uid="{25C96984-595F-4E53-AEA3-48FE8964668C}" name="Units" dataDxfId="121"/>
-    <tableColumn id="4" xr3:uid="{3AC7C66C-7352-42C7-A88A-718F1163EBC3}" name="Distribution Type" dataDxfId="120"/>
-    <tableColumn id="5" xr3:uid="{6CD1BB89-2672-4A45-AE6D-45DC8FD8C2D0}" name="Parameter 1" dataDxfId="119"/>
-    <tableColumn id="6" xr3:uid="{713F99C9-7865-434B-9380-0F8833A0B7CE}" name="Parameter 2" dataDxfId="118"/>
-    <tableColumn id="7" xr3:uid="{7B3CBF6D-ABAD-435C-93E5-94B2A9A1570D}" name="Parameter 3" dataDxfId="117"/>
-    <tableColumn id="10" xr3:uid="{FD8F6808-F8E5-4346-BE6E-D40A5DADECAC}" name="Parameter 4" dataDxfId="116"/>
-    <tableColumn id="11" xr3:uid="{DC3102D4-541E-44FE-AEFA-0FB92AC933C5}" name="Parameter 5" dataDxfId="115"/>
-    <tableColumn id="8" xr3:uid="{151C5968-B156-4013-B6C4-5D012F22EEF6}" name="Parameter 6" dataDxfId="114"/>
-    <tableColumn id="15" xr3:uid="{868EF292-2E08-40B9-9605-DAF748095734}" name="Lower Limit" dataDxfId="113"/>
-    <tableColumn id="16" xr3:uid="{42D5D159-9DC2-4FE5-9923-4E2B98164CE9}" name="Upper Limit" dataDxfId="112"/>
-    <tableColumn id="17" xr3:uid="{10AFF230-51CB-4644-8521-A18EFFD37E36}" name="Step" dataDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{197A7EF3-81D9-4184-B44A-B78C515E1412}" name="Surface Type" dataDxfId="110"/>
+    <tableColumn id="9" xr3:uid="{A65D510F-11AE-4758-A918-595CFAEACDBA}" name="Phase" dataDxfId="176"/>
+    <tableColumn id="20" xr3:uid="{1983ED84-E3C7-438C-9FBC-6F68009993BF}" name="Category" dataDxfId="175"/>
+    <tableColumn id="12" xr3:uid="{5F8CF16A-5A1F-471D-941E-E8FA15DC40D9}" name="Name" dataDxfId="174"/>
+    <tableColumn id="14" xr3:uid="{603CB562-B188-4D78-8AF7-0C257FE01A78}" name="Description" dataDxfId="173"/>
+    <tableColumn id="18" xr3:uid="{25C96984-595F-4E53-AEA3-48FE8964668C}" name="Units" dataDxfId="172"/>
+    <tableColumn id="4" xr3:uid="{3AC7C66C-7352-42C7-A88A-718F1163EBC3}" name="Distribution Type" dataDxfId="171"/>
+    <tableColumn id="5" xr3:uid="{6CD1BB89-2672-4A45-AE6D-45DC8FD8C2D0}" name="Parameter 1" dataDxfId="170"/>
+    <tableColumn id="6" xr3:uid="{713F99C9-7865-434B-9380-0F8833A0B7CE}" name="Parameter 2" dataDxfId="169"/>
+    <tableColumn id="7" xr3:uid="{7B3CBF6D-ABAD-435C-93E5-94B2A9A1570D}" name="Parameter 3" dataDxfId="168"/>
+    <tableColumn id="10" xr3:uid="{FD8F6808-F8E5-4346-BE6E-D40A5DADECAC}" name="Parameter 4" dataDxfId="167"/>
+    <tableColumn id="11" xr3:uid="{DC3102D4-541E-44FE-AEFA-0FB92AC933C5}" name="Parameter 5" dataDxfId="166"/>
+    <tableColumn id="8" xr3:uid="{151C5968-B156-4013-B6C4-5D012F22EEF6}" name="Parameter 6" dataDxfId="165"/>
+    <tableColumn id="15" xr3:uid="{868EF292-2E08-40B9-9605-DAF748095734}" name="Lower Limit" dataDxfId="164"/>
+    <tableColumn id="16" xr3:uid="{42D5D159-9DC2-4FE5-9923-4E2B98164CE9}" name="Upper Limit" dataDxfId="163"/>
+    <tableColumn id="17" xr3:uid="{10AFF230-51CB-4644-8521-A18EFFD37E36}" name="Step" dataDxfId="162"/>
+    <tableColumn id="2" xr3:uid="{197A7EF3-81D9-4184-B44A-B78C515E1412}" name="Surface Type" dataDxfId="161"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{DF020213-F975-452A-9830-6EF38DDE7DCF}" name="Table15647" displayName="Table15647" ref="A1:P40" totalsRowShown="0" headerRowBorderDxfId="105" tableBorderDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{DF020213-F975-452A-9830-6EF38DDE7DCF}" name="Table15647" displayName="Table15647" ref="A1:P40" totalsRowShown="0" headerRowBorderDxfId="160" tableBorderDxfId="159">
   <autoFilter ref="A1:P40" xr:uid="{859BD2B0-AA02-48BA-8620-BDF827813892}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{F237A42D-415A-475B-91B7-8CB0D38B7028}" name="Phase" dataDxfId="103"/>
-    <tableColumn id="20" xr3:uid="{D2304797-990E-4466-8277-ACC378FC5EF1}" name="Category" dataDxfId="102"/>
-    <tableColumn id="12" xr3:uid="{E8D03348-3348-4698-9DA9-FDFD93C4108D}" name="Name" dataDxfId="101"/>
-    <tableColumn id="14" xr3:uid="{D9BE976B-814C-40BA-BB9C-F5A4A863809D}" name="Description" dataDxfId="100"/>
-    <tableColumn id="18" xr3:uid="{C8EEDF00-53C4-4BBB-A736-4C222CC37ACE}" name="Units" dataDxfId="99"/>
-    <tableColumn id="4" xr3:uid="{B912A136-218A-46A6-9298-A26FF451BC8B}" name="Distribution Type" dataDxfId="98"/>
-    <tableColumn id="5" xr3:uid="{B469F8C6-AC37-4E2C-B435-D79806B5EB80}" name="Parameter 1" dataDxfId="97"/>
-    <tableColumn id="6" xr3:uid="{6E4BE98D-3625-46DA-8047-5C4657A18F62}" name="Parameter 2" dataDxfId="96"/>
-    <tableColumn id="7" xr3:uid="{24844D85-F2B8-4B62-9347-EE51DBA7335D}" name="Parameter 3" dataDxfId="95"/>
-    <tableColumn id="10" xr3:uid="{A09FB262-3AAD-46E1-B780-FAC155246DCB}" name="Parameter 4" dataDxfId="94"/>
-    <tableColumn id="11" xr3:uid="{C49055A9-0CD5-4B9A-9D72-65429F3A5716}" name="Parameter 5" dataDxfId="93"/>
-    <tableColumn id="8" xr3:uid="{B80ED53B-AC7B-4D83-B11D-F4584FC387E7}" name="Parameter 6" dataDxfId="92"/>
-    <tableColumn id="15" xr3:uid="{196E4D59-E5D8-47FC-8FBC-0DF83057658E}" name="Lower Limit" dataDxfId="91"/>
-    <tableColumn id="16" xr3:uid="{9EDBB862-8D13-4999-A6D8-0549867DD0D7}" name="Upper Limit" dataDxfId="90"/>
-    <tableColumn id="17" xr3:uid="{9F81C7E5-43F7-4126-A586-BB1219F70A02}" name="Step" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{918705C6-C8C7-48DB-9545-3330D9EA84CC}" name="Surface Type" dataDxfId="88"/>
+    <tableColumn id="9" xr3:uid="{F237A42D-415A-475B-91B7-8CB0D38B7028}" name="Phase" dataDxfId="158"/>
+    <tableColumn id="20" xr3:uid="{D2304797-990E-4466-8277-ACC378FC5EF1}" name="Category" dataDxfId="157"/>
+    <tableColumn id="12" xr3:uid="{E8D03348-3348-4698-9DA9-FDFD93C4108D}" name="Name" dataDxfId="156"/>
+    <tableColumn id="14" xr3:uid="{D9BE976B-814C-40BA-BB9C-F5A4A863809D}" name="Description" dataDxfId="155"/>
+    <tableColumn id="18" xr3:uid="{C8EEDF00-53C4-4BBB-A736-4C222CC37ACE}" name="Units" dataDxfId="154"/>
+    <tableColumn id="4" xr3:uid="{B912A136-218A-46A6-9298-A26FF451BC8B}" name="Distribution Type" dataDxfId="153"/>
+    <tableColumn id="5" xr3:uid="{B469F8C6-AC37-4E2C-B435-D79806B5EB80}" name="Parameter 1" dataDxfId="152"/>
+    <tableColumn id="6" xr3:uid="{6E4BE98D-3625-46DA-8047-5C4657A18F62}" name="Parameter 2" dataDxfId="151"/>
+    <tableColumn id="7" xr3:uid="{24844D85-F2B8-4B62-9347-EE51DBA7335D}" name="Parameter 3" dataDxfId="150"/>
+    <tableColumn id="10" xr3:uid="{A09FB262-3AAD-46E1-B780-FAC155246DCB}" name="Parameter 4" dataDxfId="149"/>
+    <tableColumn id="11" xr3:uid="{C49055A9-0CD5-4B9A-9D72-65429F3A5716}" name="Parameter 5" dataDxfId="148"/>
+    <tableColumn id="8" xr3:uid="{B80ED53B-AC7B-4D83-B11D-F4584FC387E7}" name="Parameter 6" dataDxfId="147"/>
+    <tableColumn id="15" xr3:uid="{196E4D59-E5D8-47FC-8FBC-0DF83057658E}" name="Lower Limit" dataDxfId="146"/>
+    <tableColumn id="16" xr3:uid="{9EDBB862-8D13-4999-A6D8-0549867DD0D7}" name="Upper Limit" dataDxfId="145"/>
+    <tableColumn id="17" xr3:uid="{9F81C7E5-43F7-4126-A586-BB1219F70A02}" name="Step" dataDxfId="144"/>
+    <tableColumn id="2" xr3:uid="{918705C6-C8C7-48DB-9545-3330D9EA84CC}" name="Surface Type" dataDxfId="143"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{7550EFF0-9439-4E6A-8D23-02F504FBD1D4}" name="Table156414" displayName="Table156414" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="83" tableBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{7550EFF0-9439-4E6A-8D23-02F504FBD1D4}" name="Table156414" displayName="Table156414" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="142" tableBorderDxfId="141">
   <autoFilter ref="A1:P19" xr:uid="{E89F1AAB-0467-4C13-8286-F7AC331E8CED}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{AE476C5A-DA1D-465E-9CDD-F6537F49B59A}" name="Phase" dataDxfId="81"/>
-    <tableColumn id="12" xr3:uid="{5D89776A-B117-4D83-ACC3-F00ADD3FE56E}" name="Category" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{9037C44A-A90D-462C-A2F2-1224467C2BC0}" name="Name" dataDxfId="79"/>
-    <tableColumn id="14" xr3:uid="{E343E4A4-9362-4305-9A92-A8062E97127D}" name="Description" dataDxfId="78"/>
-    <tableColumn id="18" xr3:uid="{59A60541-5F4F-478A-996C-A136B098D92B}" name="Units" dataDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{30DA923F-FB86-4AC4-B259-AE796033AAED}" name="Distribution Type" dataDxfId="76"/>
-    <tableColumn id="5" xr3:uid="{BD9D6BB8-0A9E-48E1-95D5-0EECCBFE8316}" name="Parameter 1" dataDxfId="75"/>
-    <tableColumn id="6" xr3:uid="{B0E10190-9195-4B9D-A20D-A270CE2F3E98}" name="Parameter 2" dataDxfId="74"/>
-    <tableColumn id="7" xr3:uid="{918B726D-0E60-49F6-94FE-F7B5CF284EB2}" name="Parameter 3" dataDxfId="73"/>
-    <tableColumn id="10" xr3:uid="{F52C94ED-5667-4B4C-AF10-29D9CF45ACB5}" name="Parameter 4" dataDxfId="72"/>
-    <tableColumn id="11" xr3:uid="{9F8440AB-4D90-4F35-8265-07E520410CC0}" name="Parameter 5" dataDxfId="71"/>
-    <tableColumn id="8" xr3:uid="{4F13BDAF-F86A-4434-B9C3-576D1A4571C8}" name="Parameter 6" dataDxfId="70"/>
-    <tableColumn id="15" xr3:uid="{168B9EEC-D86A-4C57-8174-66D02451AA11}" name="Lower Limit" dataDxfId="69"/>
-    <tableColumn id="16" xr3:uid="{B91AA0FC-6FD4-4503-8497-8E2658CD5A9C}" name="Upper Limit" dataDxfId="68"/>
-    <tableColumn id="17" xr3:uid="{85F85B4E-2654-4B9F-8CBF-9AF7D4017806}" name="Step" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{1EE0ED06-66C4-4343-BFD9-DEB0F6951FE5}" name="Surface Type" dataDxfId="66"/>
+    <tableColumn id="9" xr3:uid="{AE476C5A-DA1D-465E-9CDD-F6537F49B59A}" name="Phase" dataDxfId="140"/>
+    <tableColumn id="12" xr3:uid="{5D89776A-B117-4D83-ACC3-F00ADD3FE56E}" name="Category" dataDxfId="139"/>
+    <tableColumn id="3" xr3:uid="{9037C44A-A90D-462C-A2F2-1224467C2BC0}" name="Name" dataDxfId="138"/>
+    <tableColumn id="14" xr3:uid="{E343E4A4-9362-4305-9A92-A8062E97127D}" name="Description" dataDxfId="137"/>
+    <tableColumn id="18" xr3:uid="{59A60541-5F4F-478A-996C-A136B098D92B}" name="Units" dataDxfId="136"/>
+    <tableColumn id="4" xr3:uid="{30DA923F-FB86-4AC4-B259-AE796033AAED}" name="Distribution Type" dataDxfId="135"/>
+    <tableColumn id="5" xr3:uid="{BD9D6BB8-0A9E-48E1-95D5-0EECCBFE8316}" name="Parameter 1" dataDxfId="134"/>
+    <tableColumn id="6" xr3:uid="{B0E10190-9195-4B9D-A20D-A270CE2F3E98}" name="Parameter 2" dataDxfId="133"/>
+    <tableColumn id="7" xr3:uid="{918B726D-0E60-49F6-94FE-F7B5CF284EB2}" name="Parameter 3" dataDxfId="132"/>
+    <tableColumn id="10" xr3:uid="{F52C94ED-5667-4B4C-AF10-29D9CF45ACB5}" name="Parameter 4" dataDxfId="131"/>
+    <tableColumn id="11" xr3:uid="{9F8440AB-4D90-4F35-8265-07E520410CC0}" name="Parameter 5" dataDxfId="130"/>
+    <tableColumn id="8" xr3:uid="{4F13BDAF-F86A-4434-B9C3-576D1A4571C8}" name="Parameter 6" dataDxfId="129"/>
+    <tableColumn id="15" xr3:uid="{168B9EEC-D86A-4C57-8174-66D02451AA11}" name="Lower Limit" dataDxfId="128"/>
+    <tableColumn id="16" xr3:uid="{B91AA0FC-6FD4-4503-8497-8E2658CD5A9C}" name="Upper Limit" dataDxfId="127"/>
+    <tableColumn id="17" xr3:uid="{85F85B4E-2654-4B9F-8CBF-9AF7D4017806}" name="Step" dataDxfId="126"/>
+    <tableColumn id="2" xr3:uid="{1EE0ED06-66C4-4343-BFD9-DEB0F6951FE5}" name="Surface Type" dataDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{544BD654-9B18-4F85-8680-0367091A97FD}" name="Table15646" displayName="Table15646" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="61" tableBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{544BD654-9B18-4F85-8680-0367091A97FD}" name="Table15646" displayName="Table15646" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="124" tableBorderDxfId="123">
   <autoFilter ref="A1:P19" xr:uid="{EC61BB93-4EB0-4480-9F8B-C9A2D56564B4}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{1735A646-077D-4A5C-8ABA-5E5552C83F8B}" name="Phase" dataDxfId="59"/>
-    <tableColumn id="20" xr3:uid="{004108F0-B585-4FC4-8E02-24F2EDB488C0}" name="Category" dataDxfId="58"/>
-    <tableColumn id="12" xr3:uid="{69E4893D-8A0F-46ED-8648-226BDC719B2B}" name="Name" dataDxfId="57"/>
-    <tableColumn id="14" xr3:uid="{A839FAC0-08F6-4AA7-96B8-39B9A47A057D}" name="Description" dataDxfId="56"/>
-    <tableColumn id="18" xr3:uid="{E0746BE3-6AD9-4082-A683-C57740CF7686}" name="Units" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{C6BD6FF1-F034-424C-A7E9-0CF1059B3A7C}" name="Distribution Type" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{41A11BA2-CB19-4A3D-BAB4-C7ABCBD3E30F}" name="Parameter 1" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{648D385E-E212-43CC-A8AA-53DDD8BD0428}" name="Parameter 2" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{A336D93E-1EE2-4808-98BA-CB978FBE172A}" name="Parameter 3" dataDxfId="51"/>
-    <tableColumn id="10" xr3:uid="{03178B46-AD0C-4482-9EC2-A764D5FA6F6C}" name="Parameter 4" dataDxfId="50"/>
-    <tableColumn id="11" xr3:uid="{EAD273F2-76B2-43C4-A1D7-A199E13BAD05}" name="Parameter 5" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{CA066BBA-6299-4A1A-A4D8-73F164A6F41D}" name="Parameter 6" dataDxfId="48"/>
-    <tableColumn id="15" xr3:uid="{F1632EF8-E0CB-4E7B-BEA5-E206CC27F984}" name="Lower Limit" dataDxfId="47"/>
-    <tableColumn id="16" xr3:uid="{4ED75AE2-55E4-419A-A9E6-19CC6C5896E9}" name="Upper Limit" dataDxfId="46"/>
-    <tableColumn id="17" xr3:uid="{D34421A0-FABD-4530-911F-6AAAC527E813}" name="Step" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{385256E7-7F05-4FE1-B140-0C803BFD37D3}" name="Surface Type" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{1735A646-077D-4A5C-8ABA-5E5552C83F8B}" name="Phase" dataDxfId="122"/>
+    <tableColumn id="20" xr3:uid="{004108F0-B585-4FC4-8E02-24F2EDB488C0}" name="Category" dataDxfId="121"/>
+    <tableColumn id="12" xr3:uid="{69E4893D-8A0F-46ED-8648-226BDC719B2B}" name="Name" dataDxfId="120"/>
+    <tableColumn id="14" xr3:uid="{A839FAC0-08F6-4AA7-96B8-39B9A47A057D}" name="Description" dataDxfId="119"/>
+    <tableColumn id="18" xr3:uid="{E0746BE3-6AD9-4082-A683-C57740CF7686}" name="Units" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{C6BD6FF1-F034-424C-A7E9-0CF1059B3A7C}" name="Distribution Type" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{41A11BA2-CB19-4A3D-BAB4-C7ABCBD3E30F}" name="Parameter 1" dataDxfId="116"/>
+    <tableColumn id="6" xr3:uid="{648D385E-E212-43CC-A8AA-53DDD8BD0428}" name="Parameter 2" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{A336D93E-1EE2-4808-98BA-CB978FBE172A}" name="Parameter 3" dataDxfId="114"/>
+    <tableColumn id="10" xr3:uid="{03178B46-AD0C-4482-9EC2-A764D5FA6F6C}" name="Parameter 4" dataDxfId="113"/>
+    <tableColumn id="11" xr3:uid="{EAD273F2-76B2-43C4-A1D7-A199E13BAD05}" name="Parameter 5" dataDxfId="112"/>
+    <tableColumn id="8" xr3:uid="{CA066BBA-6299-4A1A-A4D8-73F164A6F41D}" name="Parameter 6" dataDxfId="111"/>
+    <tableColumn id="15" xr3:uid="{F1632EF8-E0CB-4E7B-BEA5-E206CC27F984}" name="Lower Limit" dataDxfId="110"/>
+    <tableColumn id="16" xr3:uid="{4ED75AE2-55E4-419A-A9E6-19CC6C5896E9}" name="Upper Limit" dataDxfId="109"/>
+    <tableColumn id="17" xr3:uid="{D34421A0-FABD-4530-911F-6AAAC527E813}" name="Step" dataDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{385256E7-7F05-4FE1-B140-0C803BFD37D3}" name="Surface Type" dataDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A9DDAA0B-EDE4-49CE-8D2A-53496C87AC6C}" name="Table156411" displayName="Table156411" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="39" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A9DDAA0B-EDE4-49CE-8D2A-53496C87AC6C}" name="Table156411" displayName="Table156411" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="106" tableBorderDxfId="105">
   <autoFilter ref="A1:P19" xr:uid="{96C1D83B-BC19-489F-9EB7-C4BD46C50E46}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{F67C5E8C-F091-4379-8FA4-1E0A53077B68}" name="Phase" dataDxfId="37"/>
-    <tableColumn id="20" xr3:uid="{F204C7B0-E561-4894-A461-ADBDC80CC735}" name="Category" dataDxfId="36"/>
-    <tableColumn id="12" xr3:uid="{30B72B9B-FF89-4E51-9A96-F8BE3F8041EA}" name="Name" dataDxfId="35"/>
-    <tableColumn id="14" xr3:uid="{DB30649B-C3C1-48BB-B0BA-3762B2EA3DA0}" name="Description" dataDxfId="34"/>
-    <tableColumn id="18" xr3:uid="{3421310D-974A-44DB-BC28-81CC179BFD51}" name="Units" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{A19068C9-4F23-4FE6-A45E-0F5BEA8C7692}" name="Distribution Type" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{8F241659-0C60-4FF4-9636-16A0AEB54DFB}" name="Parameter 1" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{AA2565DE-2D2D-4A58-BC4B-001FAEC9C3F0}" name="Parameter 2" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{CB9ADE6D-1E48-4ECA-BB61-8BFBE1C45E5E}" name="Parameter 3" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{18EB0859-1F88-4B30-8715-88A124D91C9B}" name="Parameter 4" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{6D767472-81BC-463B-A56A-768C0F5A05A9}" name="Parameter 5" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{217B790C-1EC6-4F73-BB6C-25E35A9D36EE}" name="Parameter 6" dataDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{D4DC6753-6BDE-420B-8E58-4073ED5E70CD}" name="Lower Limit" dataDxfId="25"/>
-    <tableColumn id="16" xr3:uid="{9E541401-2A45-4487-861E-572F306DBB90}" name="Upper Limit" dataDxfId="24"/>
-    <tableColumn id="17" xr3:uid="{222205B2-5966-4F6B-A5A4-259C62BDA43D}" name="Step" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{193861A6-3275-4262-94CB-9EBBD7220282}" name="Surface Type" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{F67C5E8C-F091-4379-8FA4-1E0A53077B68}" name="Phase" dataDxfId="104"/>
+    <tableColumn id="20" xr3:uid="{F204C7B0-E561-4894-A461-ADBDC80CC735}" name="Category" dataDxfId="103"/>
+    <tableColumn id="12" xr3:uid="{30B72B9B-FF89-4E51-9A96-F8BE3F8041EA}" name="Name" dataDxfId="102"/>
+    <tableColumn id="14" xr3:uid="{DB30649B-C3C1-48BB-B0BA-3762B2EA3DA0}" name="Description" dataDxfId="101"/>
+    <tableColumn id="18" xr3:uid="{3421310D-974A-44DB-BC28-81CC179BFD51}" name="Units" dataDxfId="100"/>
+    <tableColumn id="4" xr3:uid="{A19068C9-4F23-4FE6-A45E-0F5BEA8C7692}" name="Distribution Type" dataDxfId="99"/>
+    <tableColumn id="5" xr3:uid="{8F241659-0C60-4FF4-9636-16A0AEB54DFB}" name="Parameter 1" dataDxfId="98"/>
+    <tableColumn id="6" xr3:uid="{AA2565DE-2D2D-4A58-BC4B-001FAEC9C3F0}" name="Parameter 2" dataDxfId="97"/>
+    <tableColumn id="7" xr3:uid="{CB9ADE6D-1E48-4ECA-BB61-8BFBE1C45E5E}" name="Parameter 3" dataDxfId="96"/>
+    <tableColumn id="10" xr3:uid="{18EB0859-1F88-4B30-8715-88A124D91C9B}" name="Parameter 4" dataDxfId="95"/>
+    <tableColumn id="11" xr3:uid="{6D767472-81BC-463B-A56A-768C0F5A05A9}" name="Parameter 5" dataDxfId="94"/>
+    <tableColumn id="8" xr3:uid="{217B790C-1EC6-4F73-BB6C-25E35A9D36EE}" name="Parameter 6" dataDxfId="93"/>
+    <tableColumn id="15" xr3:uid="{D4DC6753-6BDE-420B-8E58-4073ED5E70CD}" name="Lower Limit" dataDxfId="92"/>
+    <tableColumn id="16" xr3:uid="{9E541401-2A45-4487-861E-572F306DBB90}" name="Upper Limit" dataDxfId="91"/>
+    <tableColumn id="17" xr3:uid="{222205B2-5966-4F6B-A5A4-259C62BDA43D}" name="Step" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{193861A6-3275-4262-94CB-9EBBD7220282}" name="Surface Type" dataDxfId="89"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1C65CEB6-4F7A-4FD3-92D1-32B0AC0529C7}" name="Table15645" displayName="Table15645" ref="A1:P25" totalsRowShown="0" headerRowBorderDxfId="17" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1C65CEB6-4F7A-4FD3-92D1-32B0AC0529C7}" name="Table15645" displayName="Table15645" ref="A1:P25" totalsRowShown="0" headerRowBorderDxfId="88" tableBorderDxfId="87">
   <autoFilter ref="A1:P25" xr:uid="{CE70FAE3-DAD6-40A6-BCCE-F46A2CDA0980}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{A5634D1E-7F69-4A8B-9B2C-E544A100BE0B}" name="Phase" dataDxfId="15"/>
-    <tableColumn id="22" xr3:uid="{DF0A5598-36C6-480A-8445-5264CD38D6AE}" name="Category" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{322396A3-5A20-4A3E-8F7B-F97F31E5B741}" name="Name" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{1910CF64-CF8F-4994-BC1B-F27FE4E216E6}" name="Description" dataDxfId="12"/>
-    <tableColumn id="18" xr3:uid="{211B9116-478A-42BC-BFD9-0A2AA2AD39A9}" name="Units" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{ABD6291E-7951-4F95-9FF4-C5A1FC0AAC06}" name="Distribution Type" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{ECC3B9FC-E4AE-4AD1-BF4C-89FE38983ABB}" name="Parameter 1" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{8FC5359B-BA7A-46D2-B091-D9665C585235}" name="Parameter 2" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{3BDDE353-FD4F-45F2-8B7C-5F7D6E0D347D}" name="Parameter 3" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{701C65B5-1C54-4F3C-90E2-A67B32AB1876}" name="Parameter 4" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{A8EE834B-F323-4C30-8E59-AEDA8B9E2A61}" name="Parameter 5" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{240B8AE3-DEF4-4C61-BF40-2515EA4A4DDB}" name="Parameter 6" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{5D6076C4-791B-4994-9665-C628F9AE62B7}" name="Lower Limit" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{D06B2878-4A23-45AF-8278-C825D6961D31}" name="Upper Limit" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{54CBA85E-0128-4FD6-8F0E-932C4E402C1C}" name="Step" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{50E0E3C5-5A42-4339-A9FF-1EFEACFF23F1}" name="Surface Type" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{A5634D1E-7F69-4A8B-9B2C-E544A100BE0B}" name="Phase" dataDxfId="86"/>
+    <tableColumn id="22" xr3:uid="{DF0A5598-36C6-480A-8445-5264CD38D6AE}" name="Category" dataDxfId="85"/>
+    <tableColumn id="12" xr3:uid="{322396A3-5A20-4A3E-8F7B-F97F31E5B741}" name="Name" dataDxfId="84"/>
+    <tableColumn id="14" xr3:uid="{1910CF64-CF8F-4994-BC1B-F27FE4E216E6}" name="Description" dataDxfId="83"/>
+    <tableColumn id="18" xr3:uid="{211B9116-478A-42BC-BFD9-0A2AA2AD39A9}" name="Units" dataDxfId="82"/>
+    <tableColumn id="4" xr3:uid="{ABD6291E-7951-4F95-9FF4-C5A1FC0AAC06}" name="Distribution Type" dataDxfId="81"/>
+    <tableColumn id="5" xr3:uid="{ECC3B9FC-E4AE-4AD1-BF4C-89FE38983ABB}" name="Parameter 1" dataDxfId="80"/>
+    <tableColumn id="6" xr3:uid="{8FC5359B-BA7A-46D2-B091-D9665C585235}" name="Parameter 2" dataDxfId="79"/>
+    <tableColumn id="7" xr3:uid="{3BDDE353-FD4F-45F2-8B7C-5F7D6E0D347D}" name="Parameter 3" dataDxfId="78"/>
+    <tableColumn id="10" xr3:uid="{701C65B5-1C54-4F3C-90E2-A67B32AB1876}" name="Parameter 4" dataDxfId="77"/>
+    <tableColumn id="11" xr3:uid="{A8EE834B-F323-4C30-8E59-AEDA8B9E2A61}" name="Parameter 5" dataDxfId="76"/>
+    <tableColumn id="8" xr3:uid="{240B8AE3-DEF4-4C61-BF40-2515EA4A4DDB}" name="Parameter 6" dataDxfId="75"/>
+    <tableColumn id="15" xr3:uid="{5D6076C4-791B-4994-9665-C628F9AE62B7}" name="Lower Limit" dataDxfId="74"/>
+    <tableColumn id="16" xr3:uid="{D06B2878-4A23-45AF-8278-C825D6961D31}" name="Upper Limit" dataDxfId="73"/>
+    <tableColumn id="17" xr3:uid="{54CBA85E-0128-4FD6-8F0E-932C4E402C1C}" name="Step" dataDxfId="72"/>
+    <tableColumn id="20" xr3:uid="{50E0E3C5-5A42-4339-A9FF-1EFEACFF23F1}" name="Surface Type" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:O21" totalsRowShown="0" tableBorderDxfId="388">
-  <autoFilter ref="A1:O21" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:O22" totalsRowShown="0" tableBorderDxfId="333">
+  <autoFilter ref="A1:O22" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phase" dataDxfId="387"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="386"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="385"/>
-    <tableColumn id="10" xr3:uid="{8EBBFD49-190C-4C2F-A6BC-0598AAC3E788}" name="Description" dataDxfId="384"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="383"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="382"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="381"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="380"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="379"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="378"/>
-    <tableColumn id="14" xr3:uid="{E54D398D-B732-4333-A3F2-2EBD48BAA48B}" name="Parameter 5" dataDxfId="377"/>
-    <tableColumn id="15" xr3:uid="{47B382D4-92A3-4B8C-9C52-0458EA4788B1}" name="Parameter 6" dataDxfId="376"/>
-    <tableColumn id="11" xr3:uid="{BD4375F0-63E9-45EC-BE2E-338374C10F8B}" name="Lower Limit" dataDxfId="375"/>
-    <tableColumn id="12" xr3:uid="{E3D45A75-803F-48B4-B112-11C4C63E6D6F}" name="Upper Limit" dataDxfId="374"/>
-    <tableColumn id="13" xr3:uid="{FFEC12A7-FD01-4D8C-85CF-A25BD15B0829}" name="Step" dataDxfId="373"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phase" dataDxfId="332"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="331"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="330"/>
+    <tableColumn id="10" xr3:uid="{8EBBFD49-190C-4C2F-A6BC-0598AAC3E788}" name="Description" dataDxfId="329"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="328"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="327"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="326"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="325"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="324"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="323"/>
+    <tableColumn id="14" xr3:uid="{E54D398D-B732-4333-A3F2-2EBD48BAA48B}" name="Parameter 5" dataDxfId="322"/>
+    <tableColumn id="15" xr3:uid="{47B382D4-92A3-4B8C-9C52-0458EA4788B1}" name="Parameter 6" dataDxfId="321"/>
+    <tableColumn id="11" xr3:uid="{BD4375F0-63E9-45EC-BE2E-338374C10F8B}" name="Lower Limit" dataDxfId="320"/>
+    <tableColumn id="12" xr3:uid="{E3D45A75-803F-48B4-B112-11C4C63E6D6F}" name="Upper Limit" dataDxfId="319"/>
+    <tableColumn id="13" xr3:uid="{FFEC12A7-FD01-4D8C-85CF-A25BD15B0829}" name="Step" dataDxfId="318"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:O12" totalsRowShown="0" tableBorderDxfId="338">
-  <autoFilter ref="A1:O12" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:O13" totalsRowShown="0" tableBorderDxfId="317">
+  <autoFilter ref="A1:O13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Phase" dataDxfId="337"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="336"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="335"/>
-    <tableColumn id="10" xr3:uid="{2D3DA962-F373-48F5-BD94-00CC27106A46}" name="Description" dataDxfId="334"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="333"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="332"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="331"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="330"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="329"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="328"/>
-    <tableColumn id="14" xr3:uid="{5A98E335-B701-4CC9-9D03-A85D24786F3B}" name="Parameter 5" dataDxfId="327"/>
-    <tableColumn id="15" xr3:uid="{79377D49-ED29-41CF-AC28-FD408018808C}" name="Parameter 6" dataDxfId="326"/>
-    <tableColumn id="11" xr3:uid="{FF818C38-99D8-4486-B25F-2B94B62F77AF}" name="Lower Limit" dataDxfId="325"/>
-    <tableColumn id="12" xr3:uid="{8C44E4B8-6916-4798-9055-589FE4E4C903}" name="Upper Limit" dataDxfId="324"/>
-    <tableColumn id="13" xr3:uid="{8266E46A-7EC0-42D8-91D3-D2DC1B4352DE}" name="Step" dataDxfId="323"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Phase" dataDxfId="316"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="315"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="314"/>
+    <tableColumn id="10" xr3:uid="{2D3DA962-F373-48F5-BD94-00CC27106A46}" name="Description" dataDxfId="313"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="312"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="311"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="310"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="309"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="308"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="307"/>
+    <tableColumn id="14" xr3:uid="{5A98E335-B701-4CC9-9D03-A85D24786F3B}" name="Parameter 5" dataDxfId="306"/>
+    <tableColumn id="15" xr3:uid="{79377D49-ED29-41CF-AC28-FD408018808C}" name="Parameter 6" dataDxfId="305"/>
+    <tableColumn id="11" xr3:uid="{FF818C38-99D8-4486-B25F-2B94B62F77AF}" name="Lower Limit" dataDxfId="304"/>
+    <tableColumn id="12" xr3:uid="{8C44E4B8-6916-4798-9055-589FE4E4C903}" name="Upper Limit" dataDxfId="303"/>
+    <tableColumn id="13" xr3:uid="{8266E46A-7EC0-42D8-91D3-D2DC1B4352DE}" name="Step" dataDxfId="302"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:O18" totalsRowShown="0" headerRowBorderDxfId="278" tableBorderDxfId="277">
-  <autoFilter ref="A1:O18" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:O20" totalsRowShown="0" headerRowBorderDxfId="301" tableBorderDxfId="300">
+  <autoFilter ref="A1:O20" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Phase" dataDxfId="276"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="275"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="274"/>
-    <tableColumn id="10" xr3:uid="{A40104D1-3BF7-4068-8777-3D61F27973C1}" name="Description" dataDxfId="273"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="272"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="271"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="270"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="269"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="268"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="267"/>
-    <tableColumn id="14" xr3:uid="{77E616D7-C540-4C6C-A01C-31C8ADF35FBE}" name="Parameter 5" dataDxfId="266"/>
-    <tableColumn id="15" xr3:uid="{68C28D25-E41A-4D3D-A794-809A12A02364}" name="Parameter 6" dataDxfId="265"/>
-    <tableColumn id="11" xr3:uid="{83552614-5368-48EE-AE65-AA7B101E55EF}" name="Lower Limit" dataDxfId="264"/>
-    <tableColumn id="12" xr3:uid="{98998298-F4B1-4980-B79C-0BF0D0D59028}" name="Upper Limit" dataDxfId="263"/>
-    <tableColumn id="13" xr3:uid="{8E3814A1-C526-4157-B0D9-1258E47ACA45}" name="Step" dataDxfId="262"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Phase" dataDxfId="299"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="298"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="297"/>
+    <tableColumn id="10" xr3:uid="{A40104D1-3BF7-4068-8777-3D61F27973C1}" name="Description" dataDxfId="296"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="295"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="294"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="293"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="292"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="291"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="290"/>
+    <tableColumn id="14" xr3:uid="{77E616D7-C540-4C6C-A01C-31C8ADF35FBE}" name="Parameter 5" dataDxfId="289"/>
+    <tableColumn id="15" xr3:uid="{68C28D25-E41A-4D3D-A794-809A12A02364}" name="Parameter 6" dataDxfId="288"/>
+    <tableColumn id="11" xr3:uid="{83552614-5368-48EE-AE65-AA7B101E55EF}" name="Lower Limit" dataDxfId="287"/>
+    <tableColumn id="12" xr3:uid="{98998298-F4B1-4980-B79C-0BF0D0D59028}" name="Upper Limit" dataDxfId="286"/>
+    <tableColumn id="13" xr3:uid="{8E3814A1-C526-4157-B0D9-1258E47ACA45}" name="Step" dataDxfId="285"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15793" displayName="Table15793" ref="A1:O2" totalsRowShown="0" headerRowBorderDxfId="257" tableBorderDxfId="256">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15793" displayName="Table15793" ref="A1:O2" totalsRowShown="0" headerRowBorderDxfId="284" tableBorderDxfId="283">
   <autoFilter ref="A1:O2" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Phase" dataDxfId="255"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="254"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Name" dataDxfId="253"/>
-    <tableColumn id="10" xr3:uid="{4482773E-AA48-4795-9A9F-10283D12A976}" name="Description" dataDxfId="252"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Units" dataDxfId="251"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Distribution Type" dataDxfId="250"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Parameter 1" dataDxfId="249"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Parameter 2" dataDxfId="248"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Parameter 3" dataDxfId="247"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Parameter 4" dataDxfId="246"/>
-    <tableColumn id="14" xr3:uid="{41E058E9-8EB6-430E-BC58-82195628B7D1}" name="Parameter 5" dataDxfId="245"/>
-    <tableColumn id="15" xr3:uid="{1CA16974-E252-4655-813D-3FC48E8CCF45}" name="Parameter 6" dataDxfId="244"/>
-    <tableColumn id="11" xr3:uid="{0ED7EC4B-FD74-44E3-B1E6-428C431FDA88}" name="Lower Limit" dataDxfId="243"/>
-    <tableColumn id="12" xr3:uid="{4CA3754D-692A-40C0-BCC5-14D0E3AAF144}" name="Upper Limit" dataDxfId="242"/>
-    <tableColumn id="13" xr3:uid="{D4791B88-6435-44AE-9946-77D4E8CB6EA8}" name="Step" dataDxfId="241"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Phase" dataDxfId="282"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="281"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Name" dataDxfId="280"/>
+    <tableColumn id="10" xr3:uid="{4482773E-AA48-4795-9A9F-10283D12A976}" name="Description" dataDxfId="279"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Units" dataDxfId="278"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Distribution Type" dataDxfId="277"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Parameter 1" dataDxfId="276"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Parameter 2" dataDxfId="275"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Parameter 3" dataDxfId="274"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Parameter 4" dataDxfId="273"/>
+    <tableColumn id="14" xr3:uid="{41E058E9-8EB6-430E-BC58-82195628B7D1}" name="Parameter 5" dataDxfId="272"/>
+    <tableColumn id="15" xr3:uid="{1CA16974-E252-4655-813D-3FC48E8CCF45}" name="Parameter 6" dataDxfId="271"/>
+    <tableColumn id="11" xr3:uid="{0ED7EC4B-FD74-44E3-B1E6-428C431FDA88}" name="Lower Limit" dataDxfId="270"/>
+    <tableColumn id="12" xr3:uid="{4CA3754D-692A-40C0-BCC5-14D0E3AAF144}" name="Upper Limit" dataDxfId="269"/>
+    <tableColumn id="13" xr3:uid="{D4791B88-6435-44AE-9946-77D4E8CB6EA8}" name="Step" dataDxfId="268"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:O23" totalsRowShown="0" headerRowBorderDxfId="236" tableBorderDxfId="235">
-  <autoFilter ref="A1:O23" xr:uid="{00000000-0009-0000-0100-000006000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="$ / ft^2"/>
-        <filter val="$ / gallon"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:O24" totalsRowShown="0" headerRowBorderDxfId="267" tableBorderDxfId="266">
+  <autoFilter ref="A1:O24" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2">
     <sortCondition ref="B1:B2"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Phase" dataDxfId="234"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="233"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="232"/>
-    <tableColumn id="10" xr3:uid="{3AFE3909-1CDD-46E0-8677-569A824534FB}" name="Description" dataDxfId="231"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="230"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="229"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="228"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="227"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="226"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="225"/>
-    <tableColumn id="14" xr3:uid="{8991E047-B1B0-4B74-A5AA-45E689F51874}" name="Parameter 5" dataDxfId="224"/>
-    <tableColumn id="15" xr3:uid="{A25E7AA9-7C49-405C-8326-53EA8C994FFB}" name="Parameter 6" dataDxfId="223"/>
-    <tableColumn id="11" xr3:uid="{08FFB9BF-C539-434A-A2F4-C19873D3AB3E}" name="Lower Limit" dataDxfId="222"/>
-    <tableColumn id="12" xr3:uid="{CEDB540F-344B-4D49-8CD6-9F7746873840}" name="Upper Limit" dataDxfId="221"/>
-    <tableColumn id="13" xr3:uid="{4B3E9A2A-7D0A-4F2D-B694-DB4D2C83BA0A}" name="Step" dataDxfId="220"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Phase" dataDxfId="265"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="264"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="263"/>
+    <tableColumn id="10" xr3:uid="{3AFE3909-1CDD-46E0-8677-569A824534FB}" name="Description" dataDxfId="262"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="261"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="260"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="259"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="258"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="257"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="256"/>
+    <tableColumn id="14" xr3:uid="{8991E047-B1B0-4B74-A5AA-45E689F51874}" name="Parameter 5" dataDxfId="255"/>
+    <tableColumn id="15" xr3:uid="{A25E7AA9-7C49-405C-8326-53EA8C994FFB}" name="Parameter 6" dataDxfId="254"/>
+    <tableColumn id="11" xr3:uid="{08FFB9BF-C539-434A-A2F4-C19873D3AB3E}" name="Lower Limit" dataDxfId="253"/>
+    <tableColumn id="12" xr3:uid="{CEDB540F-344B-4D49-8CD6-9F7746873840}" name="Upper Limit" dataDxfId="252"/>
+    <tableColumn id="13" xr3:uid="{4B3E9A2A-7D0A-4F2D-B694-DB4D2C83BA0A}" name="Step" dataDxfId="251"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3CB8E65B-B7DB-4610-98F8-15D74050538C}" name="Table156410" displayName="Table156410" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="215" tableBorderDxfId="214">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3CB8E65B-B7DB-4610-98F8-15D74050538C}" name="Table156410" displayName="Table156410" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="250" tableBorderDxfId="249">
   <autoFilter ref="A1:P19" xr:uid="{A2DF75BF-F49D-463D-B10C-635E799069A4}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{33E848DD-559D-4023-9F06-526E6AF9BD94}" name="Phase" dataDxfId="213"/>
-    <tableColumn id="20" xr3:uid="{9EDFC6C3-E3F9-4924-BC6A-804D2BBDAE4E}" name="Category" dataDxfId="212"/>
-    <tableColumn id="12" xr3:uid="{D5F0DA51-2BBD-46FF-88FA-75AA7A464F56}" name="Name" dataDxfId="211"/>
-    <tableColumn id="14" xr3:uid="{C6DADE20-FD43-4249-ADF7-72D9BB6ED860}" name="Description" dataDxfId="210"/>
-    <tableColumn id="18" xr3:uid="{017077E2-A519-4357-81FC-29BBCF542A5D}" name="Units" dataDxfId="209"/>
-    <tableColumn id="4" xr3:uid="{18A3B7BD-46E6-497D-932B-A279201CED36}" name="Distribution Type" dataDxfId="208"/>
-    <tableColumn id="5" xr3:uid="{5BD00F12-3393-4245-9BE0-D37573FCF5E3}" name="Parameter 1" dataDxfId="207"/>
-    <tableColumn id="6" xr3:uid="{F68E7FA0-23DA-4C5B-BCD3-BD3C7B299B02}" name="Parameter 2" dataDxfId="206"/>
-    <tableColumn id="7" xr3:uid="{E074689D-E9A9-4D78-901F-4D6DEAB8F157}" name="Parameter 3" dataDxfId="205"/>
-    <tableColumn id="10" xr3:uid="{24FDA3C5-E39C-430C-90BB-3F6BD09EEDC7}" name="Parameter 4" dataDxfId="204"/>
-    <tableColumn id="11" xr3:uid="{42BED06C-CBA3-4453-AE89-CFE7799A8559}" name="Parameter 5" dataDxfId="203"/>
-    <tableColumn id="8" xr3:uid="{4CFE8BFF-6747-408C-8ABA-AFDB589C4F81}" name="Parameter 6" dataDxfId="202"/>
-    <tableColumn id="15" xr3:uid="{E0BBD4D8-EA8D-4CAF-B849-F7A2CE769A48}" name="Lower Limit" dataDxfId="201"/>
-    <tableColumn id="16" xr3:uid="{4800A8E8-843B-4C41-91BF-C1A3C30DE8D6}" name="Upper Limit" dataDxfId="200"/>
-    <tableColumn id="17" xr3:uid="{A6367C3F-1F51-48D6-9EB3-E8501CEA0DC3}" name="Step" dataDxfId="199"/>
-    <tableColumn id="2" xr3:uid="{35A75B88-2478-4C79-A2CA-47B2F68D1460}" name="Surface Type" dataDxfId="198"/>
+    <tableColumn id="9" xr3:uid="{33E848DD-559D-4023-9F06-526E6AF9BD94}" name="Phase" dataDxfId="248"/>
+    <tableColumn id="20" xr3:uid="{9EDFC6C3-E3F9-4924-BC6A-804D2BBDAE4E}" name="Category" dataDxfId="247"/>
+    <tableColumn id="12" xr3:uid="{D5F0DA51-2BBD-46FF-88FA-75AA7A464F56}" name="Name" dataDxfId="246"/>
+    <tableColumn id="14" xr3:uid="{C6DADE20-FD43-4249-ADF7-72D9BB6ED860}" name="Description" dataDxfId="245"/>
+    <tableColumn id="18" xr3:uid="{017077E2-A519-4357-81FC-29BBCF542A5D}" name="Units" dataDxfId="244"/>
+    <tableColumn id="4" xr3:uid="{18A3B7BD-46E6-497D-932B-A279201CED36}" name="Distribution Type" dataDxfId="243"/>
+    <tableColumn id="5" xr3:uid="{5BD00F12-3393-4245-9BE0-D37573FCF5E3}" name="Parameter 1" dataDxfId="242"/>
+    <tableColumn id="6" xr3:uid="{F68E7FA0-23DA-4C5B-BCD3-BD3C7B299B02}" name="Parameter 2" dataDxfId="241"/>
+    <tableColumn id="7" xr3:uid="{E074689D-E9A9-4D78-901F-4D6DEAB8F157}" name="Parameter 3" dataDxfId="240"/>
+    <tableColumn id="10" xr3:uid="{24FDA3C5-E39C-430C-90BB-3F6BD09EEDC7}" name="Parameter 4" dataDxfId="239"/>
+    <tableColumn id="11" xr3:uid="{42BED06C-CBA3-4453-AE89-CFE7799A8559}" name="Parameter 5" dataDxfId="238"/>
+    <tableColumn id="8" xr3:uid="{4CFE8BFF-6747-408C-8ABA-AFDB589C4F81}" name="Parameter 6" dataDxfId="237"/>
+    <tableColumn id="15" xr3:uid="{E0BBD4D8-EA8D-4CAF-B849-F7A2CE769A48}" name="Lower Limit" dataDxfId="236"/>
+    <tableColumn id="16" xr3:uid="{4800A8E8-843B-4C41-91BF-C1A3C30DE8D6}" name="Upper Limit" dataDxfId="235"/>
+    <tableColumn id="17" xr3:uid="{A6367C3F-1F51-48D6-9EB3-E8501CEA0DC3}" name="Step" dataDxfId="234"/>
+    <tableColumn id="2" xr3:uid="{35A75B88-2478-4C79-A2CA-47B2F68D1460}" name="Surface Type" dataDxfId="233"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{86A1116E-A4B1-4819-B8BD-755AC0F1A27A}" name="Table15648" displayName="Table15648" ref="A1:P123" totalsRowShown="0" headerRowBorderDxfId="193" tableBorderDxfId="192">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{86A1116E-A4B1-4819-B8BD-755AC0F1A27A}" name="Table15648" displayName="Table15648" ref="A1:P123" totalsRowShown="0" headerRowBorderDxfId="232" tableBorderDxfId="231">
   <autoFilter ref="A1:P123" xr:uid="{990E6A50-401C-443A-9431-A3C6B1C33DB9}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{B7EF7E94-8BD1-4B05-A1E1-DE0166BDA299}" name="Phase" dataDxfId="191"/>
-    <tableColumn id="20" xr3:uid="{3E394D25-22F5-47DE-8DD2-1B412C8ACB40}" name="Category" dataDxfId="190"/>
-    <tableColumn id="12" xr3:uid="{581C35A5-6B54-4CCA-AD27-A0086A458CD9}" name="Name" dataDxfId="189"/>
-    <tableColumn id="14" xr3:uid="{02601854-7EF0-4B53-83BA-E1A583AB0E89}" name="Description" dataDxfId="188"/>
-    <tableColumn id="18" xr3:uid="{38E6F539-D589-4AEB-9FF3-0F3407B1F600}" name="Units" dataDxfId="187"/>
-    <tableColumn id="4" xr3:uid="{758D0224-FF70-4B51-A43F-A666DBEE60B5}" name="Distribution Type" dataDxfId="186"/>
-    <tableColumn id="5" xr3:uid="{AA403007-B0D8-4F37-BBED-A39F4CBEC713}" name="Parameter 1" dataDxfId="185"/>
-    <tableColumn id="6" xr3:uid="{AEFD9020-CB8D-46C6-A545-72935F5E17C9}" name="Parameter 2" dataDxfId="184"/>
-    <tableColumn id="7" xr3:uid="{5391F637-3141-4924-AB2D-BB7560C402FC}" name="Parameter 3" dataDxfId="183"/>
-    <tableColumn id="10" xr3:uid="{DD30C7A0-FB24-4548-956F-070EED2E392A}" name="Parameter 4" dataDxfId="182"/>
-    <tableColumn id="11" xr3:uid="{4C51B414-DF9A-46F4-A761-171654CD826B}" name="Parameter 5" dataDxfId="181"/>
-    <tableColumn id="8" xr3:uid="{C36C5078-BCC8-4902-86B0-4CC5F5B94354}" name="Parameter 6" dataDxfId="180"/>
-    <tableColumn id="15" xr3:uid="{0B417314-7BF7-498C-AFAD-AF435E3794CB}" name="Lower Limit" dataDxfId="179"/>
-    <tableColumn id="16" xr3:uid="{869CD7E5-A5F2-42BE-860A-4654BBA29091}" name="Upper Limit" dataDxfId="178"/>
-    <tableColumn id="17" xr3:uid="{9D5645C4-35FE-4467-8F7A-0259A9E00D72}" name="Step" dataDxfId="177"/>
-    <tableColumn id="2" xr3:uid="{50BD2715-2D27-4DE5-B9A0-A7590DC8C3DF}" name="Surface Type" dataDxfId="176"/>
+    <tableColumn id="9" xr3:uid="{B7EF7E94-8BD1-4B05-A1E1-DE0166BDA299}" name="Phase" dataDxfId="230"/>
+    <tableColumn id="20" xr3:uid="{3E394D25-22F5-47DE-8DD2-1B412C8ACB40}" name="Category" dataDxfId="229"/>
+    <tableColumn id="12" xr3:uid="{581C35A5-6B54-4CCA-AD27-A0086A458CD9}" name="Name" dataDxfId="228"/>
+    <tableColumn id="14" xr3:uid="{02601854-7EF0-4B53-83BA-E1A583AB0E89}" name="Description" dataDxfId="227"/>
+    <tableColumn id="18" xr3:uid="{38E6F539-D589-4AEB-9FF3-0F3407B1F600}" name="Units" dataDxfId="226"/>
+    <tableColumn id="4" xr3:uid="{758D0224-FF70-4B51-A43F-A666DBEE60B5}" name="Distribution Type" dataDxfId="225"/>
+    <tableColumn id="5" xr3:uid="{AA403007-B0D8-4F37-BBED-A39F4CBEC713}" name="Parameter 1" dataDxfId="224"/>
+    <tableColumn id="6" xr3:uid="{AEFD9020-CB8D-46C6-A545-72935F5E17C9}" name="Parameter 2" dataDxfId="223"/>
+    <tableColumn id="7" xr3:uid="{5391F637-3141-4924-AB2D-BB7560C402FC}" name="Parameter 3" dataDxfId="222"/>
+    <tableColumn id="10" xr3:uid="{DD30C7A0-FB24-4548-956F-070EED2E392A}" name="Parameter 4" dataDxfId="221"/>
+    <tableColumn id="11" xr3:uid="{4C51B414-DF9A-46F4-A761-171654CD826B}" name="Parameter 5" dataDxfId="220"/>
+    <tableColumn id="8" xr3:uid="{C36C5078-BCC8-4902-86B0-4CC5F5B94354}" name="Parameter 6" dataDxfId="219"/>
+    <tableColumn id="15" xr3:uid="{0B417314-7BF7-498C-AFAD-AF435E3794CB}" name="Lower Limit" dataDxfId="218"/>
+    <tableColumn id="16" xr3:uid="{869CD7E5-A5F2-42BE-860A-4654BBA29091}" name="Upper Limit" dataDxfId="217"/>
+    <tableColumn id="17" xr3:uid="{9D5645C4-35FE-4467-8F7A-0259A9E00D72}" name="Step" dataDxfId="216"/>
+    <tableColumn id="2" xr3:uid="{50BD2715-2D27-4DE5-B9A0-A7590DC8C3DF}" name="Surface Type" dataDxfId="215"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{70557EE6-CCDF-497F-AD58-5C0E1C74D197}" name="Table156412" displayName="Table156412" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="171" tableBorderDxfId="170">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{70557EE6-CCDF-497F-AD58-5C0E1C74D197}" name="Table156412" displayName="Table156412" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="214" tableBorderDxfId="213">
   <autoFilter ref="A1:P19" xr:uid="{98B9CAE8-5809-471F-A0E6-3C63C0FF7931}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{0E927F65-2069-4507-B0B0-8DA725AF99EC}" name="Phase" dataDxfId="169"/>
-    <tableColumn id="20" xr3:uid="{921518C6-F6AF-4306-9A67-62C12E697D60}" name="Category" dataDxfId="168"/>
-    <tableColumn id="12" xr3:uid="{CD5679ED-CB25-488E-8C70-2C446DAB28DC}" name="Name" dataDxfId="167"/>
-    <tableColumn id="14" xr3:uid="{F17E92B1-609F-453F-8FC2-11AB75FFB5B0}" name="Description" dataDxfId="166"/>
-    <tableColumn id="18" xr3:uid="{CA25841B-E30A-4228-B65F-216207437CB0}" name="Units" dataDxfId="165"/>
-    <tableColumn id="4" xr3:uid="{5CF3C293-70A2-445C-B6F4-D4BCEB868AEC}" name="Distribution Type" dataDxfId="164"/>
-    <tableColumn id="5" xr3:uid="{6B896B7D-F74D-42FF-97BC-93D69E611504}" name="Parameter 1" dataDxfId="163"/>
-    <tableColumn id="6" xr3:uid="{02AE94F0-B427-476D-88EB-3C9235866F4E}" name="Parameter 2" dataDxfId="162"/>
-    <tableColumn id="7" xr3:uid="{C0EF4425-A63A-42D7-82B9-4C1366C7BF01}" name="Parameter 3" dataDxfId="161">
+    <tableColumn id="9" xr3:uid="{0E927F65-2069-4507-B0B0-8DA725AF99EC}" name="Phase" dataDxfId="212"/>
+    <tableColumn id="20" xr3:uid="{921518C6-F6AF-4306-9A67-62C12E697D60}" name="Category" dataDxfId="211"/>
+    <tableColumn id="12" xr3:uid="{CD5679ED-CB25-488E-8C70-2C446DAB28DC}" name="Name" dataDxfId="210"/>
+    <tableColumn id="14" xr3:uid="{F17E92B1-609F-453F-8FC2-11AB75FFB5B0}" name="Description" dataDxfId="209"/>
+    <tableColumn id="18" xr3:uid="{CA25841B-E30A-4228-B65F-216207437CB0}" name="Units" dataDxfId="208"/>
+    <tableColumn id="4" xr3:uid="{5CF3C293-70A2-445C-B6F4-D4BCEB868AEC}" name="Distribution Type" dataDxfId="207"/>
+    <tableColumn id="5" xr3:uid="{6B896B7D-F74D-42FF-97BC-93D69E611504}" name="Parameter 1" dataDxfId="206"/>
+    <tableColumn id="6" xr3:uid="{02AE94F0-B427-476D-88EB-3C9235866F4E}" name="Parameter 2" dataDxfId="205"/>
+    <tableColumn id="7" xr3:uid="{C0EF4425-A63A-42D7-82B9-4C1366C7BF01}" name="Parameter 3" dataDxfId="204">
       <calculatedColumnFormula>(Table156412[[#This Row],[Parameter 1]]-1)/(Table156412[[#This Row],[Parameter 1]]+Table156412[[#This Row],[Parameter 2]]-2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{7F665756-5949-4CD6-AE8C-F7531D7A9CAD}" name="Parameter 4" dataDxfId="160"/>
-    <tableColumn id="11" xr3:uid="{59049478-1CD8-416F-BED1-BD7B8FEA0C41}" name="Parameter 5" dataDxfId="159"/>
-    <tableColumn id="8" xr3:uid="{CC7DFE3F-C2E2-4F46-B153-D03CF263B523}" name="Parameter 6" dataDxfId="158"/>
-    <tableColumn id="15" xr3:uid="{F2A6353F-D73A-41E5-B265-D8F18AA4409C}" name="Lower Limit" dataDxfId="157"/>
-    <tableColumn id="16" xr3:uid="{1D8D56B8-5F2C-48C5-9CE4-93C38BD7488F}" name="Upper Limit" dataDxfId="156"/>
-    <tableColumn id="17" xr3:uid="{6AB8DBB9-751A-4840-BC73-4780E1B009AD}" name="Step" dataDxfId="155"/>
-    <tableColumn id="2" xr3:uid="{86F807CE-2B91-41DF-9379-67C8909AB8D2}" name="Surface Type" dataDxfId="154"/>
+    <tableColumn id="10" xr3:uid="{7F665756-5949-4CD6-AE8C-F7531D7A9CAD}" name="Parameter 4" dataDxfId="203"/>
+    <tableColumn id="11" xr3:uid="{59049478-1CD8-416F-BED1-BD7B8FEA0C41}" name="Parameter 5" dataDxfId="202"/>
+    <tableColumn id="8" xr3:uid="{CC7DFE3F-C2E2-4F46-B153-D03CF263B523}" name="Parameter 6" dataDxfId="201"/>
+    <tableColumn id="15" xr3:uid="{F2A6353F-D73A-41E5-B265-D8F18AA4409C}" name="Lower Limit" dataDxfId="200"/>
+    <tableColumn id="16" xr3:uid="{1D8D56B8-5F2C-48C5-9CE4-93C38BD7488F}" name="Upper Limit" dataDxfId="199"/>
+    <tableColumn id="17" xr3:uid="{6AB8DBB9-751A-4840-BC73-4780E1B009AD}" name="Step" dataDxfId="198"/>
+    <tableColumn id="2" xr3:uid="{86F807CE-2B91-41DF-9379-67C8909AB8D2}" name="Surface Type" dataDxfId="197"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9113,20 +8232,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="219" priority="3">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="218" priority="4">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="217" priority="1">
+    <cfRule type="expression" dxfId="37" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14827,20 +13946,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L123">
-    <cfRule type="expression" dxfId="197" priority="3">
+    <cfRule type="expression" dxfId="35" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18 A20 A22 A24 A26 A28 A30 A32 A34 A36 A38 A40 A42 A44 A46 A48 A50 A52 A54 A56 A58 A60 A62 A64 A66 A68 A70 A72 A74 A76 A78 A80 A82 A84 A86 A88 A90 A92 A94 A96 A98 A100 A102 A104 A106 A108 A110 A112 A114 A116 A118 A120 A122">
-    <cfRule type="expression" dxfId="196" priority="1">
+    <cfRule type="expression" dxfId="34" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="2">
+    <cfRule type="expression" dxfId="33" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 A21:L21 A23:L23 A25:L25 A27:L27 A29:L29 A31:L31 A33:L33 A35:L35 A37:L37 A39:L39 A41:L41 A43:L43 A45:L45 A47:L47 A49:L49 A51:L51 A53:L53 A55:L55 A57:L57 A59:L59 A61:L61 A63:L63 A65:L65 A67:L67 A69:L69 A71:L71 A73:L73 A75:L75 A77:L77 A79:L79 A81:L81 A83:L83 A85:L85 A87:L87 A89:L89 A91:L91 A93:L93 A95:L95 A97:L97 A99:L99 A101:L101 A103:L103 A105:L105 A107:L107 A109:L109 A111:L111 A113:L113 A115:L115 A117:L117 A119:L119 A121:L121 A123:L123 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18 B20:L20 B22:L22 B24:L24 B26:L26 B28:L28 B30:L30 B32:L32 B34:L34 B36:L36 B38:L38 B40:L40 B42:L42 B44:L44 B46:L46 B48:L48 B50:L50 B52:L52 B54:L54 B56:L56 B58:L58 B60:L60 B62:L62 B64:L64 B66:L66 B68:L68 B70:L70 B72:L72 B74:L74 B76:L76 B78:L78 B80:L80 B82:L82 B84:L84 B86:L86 B88:L88 B90:L90 B92:L92 B94:L94 B96:L96 B98:L98 B100:L100 B102:L102 B104:L104 B106:L106 B108:L108 B110:L110 B112:L112 B114:L114 B116:L116 B118:L118 B120:L120 B122:L122">
-    <cfRule type="expression" dxfId="194" priority="4">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15721,20 +14840,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="175" priority="3">
+    <cfRule type="expression" dxfId="31" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="174" priority="1">
+    <cfRule type="expression" dxfId="30" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="172" priority="4">
+    <cfRule type="expression" dxfId="28" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17035,20 +16154,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L27">
-    <cfRule type="expression" dxfId="153" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18 A20 A22 A24 A26">
-    <cfRule type="expression" dxfId="152" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 A21:L21 A23:L23 A25:L25 A27:L27 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18 B20:L20 B22:L22 B24:L24 B26:L26">
-    <cfRule type="expression" dxfId="150" priority="4">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17893,20 +17012,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="131" priority="3">
+    <cfRule type="expression" dxfId="23" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="130" priority="1">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="128" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19837,20 +18956,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L40">
-    <cfRule type="expression" dxfId="109" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18 A20 A22 A24 A26 A28 A30 A32 A34 A36 A38 A40">
-    <cfRule type="expression" dxfId="108" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 A21:L21 A23:L23 A25:L25 A27:L27 A29:L29 A31:L31 A33:L33 A35:L35 A37:L37 A39:L39 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18 B20:L20 B22:L22 B24:L24 B26:L26 B28:L28 B30:L30 B32:L32 B34:L34 B36:L36 B38:L38 B40:L40">
-    <cfRule type="expression" dxfId="106" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20695,20 +19814,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="87" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="86" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="84" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21691,20 +20810,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="65" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="64" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="62" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22549,20 +21668,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="43" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="42" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="40" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23686,20 +22805,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L25">
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18 A20 A22 A24">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 A21:L21 A23:L23 A25:L25 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18 B20:L20 B22:L22 B24:L24">
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24250,10 +23369,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:L3">
-    <cfRule type="expression" dxfId="448" priority="133">
+    <cfRule type="expression" dxfId="69" priority="133">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="134">
+    <cfRule type="expression" dxfId="68" priority="134">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24273,10 +23392,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24499,60 +23618,52 @@
         <v>29</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>186</v>
+        <v>260</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="11">
-        <v>1</v>
-      </c>
-      <c r="N6" s="11">
-        <v>50</v>
-      </c>
-      <c r="O6" s="11">
-        <v>1</v>
-      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>164</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="11">
         <v>4</v>
       </c>
-      <c r="G7" s="11">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11">
-        <v>2</v>
-      </c>
+      <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
@@ -24561,7 +23672,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="11">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="O7" s="11">
         <v>1</v>
@@ -24572,36 +23683,38 @@
         <v>164</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>231</v>
+        <v>43</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="11">
-        <v>4.6451500000000001</v>
-      </c>
-      <c r="H8" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="11">
+        <v>2</v>
+      </c>
       <c r="I8" s="11"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N8" s="11">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="O8" s="11">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -24612,19 +23725,19 @@
         <v>45</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="11">
-        <v>9.2903000000000002</v>
+        <v>4.6451500000000001</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -24635,7 +23748,7 @@
         <v>10</v>
       </c>
       <c r="N9" s="11">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="O9" s="11">
         <v>0.1</v>
@@ -24649,19 +23762,19 @@
         <v>45</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>46</v>
+        <v>232</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>47</v>
+        <v>229</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="11">
-        <v>6</v>
+        <v>9.2903000000000002</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -24669,13 +23782,13 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N10" s="11">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="O10" s="11">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -24686,13 +23799,13 @@
         <v>45</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>3</v>
@@ -24720,26 +23833,24 @@
         <v>164</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0.33300000000000002</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
@@ -24751,7 +23862,7 @@
         <v>50</v>
       </c>
       <c r="O12" s="11">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -24762,39 +23873,35 @@
         <v>29</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H13" s="11">
-        <v>3</v>
-      </c>
-      <c r="I13" s="11">
-        <v>1.7150000000000001</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0.78139738375875567</v>
-      </c>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="11">
         <v>0</v>
       </c>
       <c r="N13" s="11">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="O13" s="11">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -24802,36 +23909,42 @@
         <v>164</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
         <v>3</v>
       </c>
-      <c r="G14" s="11">
-        <v>6</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
+      <c r="I14" s="11">
+        <v>1.7150000000000001</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.78139738375875567</v>
+      </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="11">
-        <v>500</v>
+        <v>12</v>
       </c>
       <c r="O14" s="11">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -24842,35 +23955,33 @@
         <v>32</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11">
-        <v>14</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="11">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="O15" s="11">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -24881,35 +23992,35 @@
         <v>32</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H16" s="11">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="11">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="O16" s="11">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -24920,71 +24031,73 @@
         <v>32</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>233</v>
+        <v>56</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>230</v>
+        <v>57</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="11">
-        <v>6.2244999999999999</v>
+        <v>5</v>
       </c>
       <c r="H17" s="11">
-        <v>6.8386959896799997</v>
+        <v>84</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N17" s="11">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O17" s="11">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>33</v>
+      <c r="C18" s="11" t="s">
+        <v>233</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="14">
-        <v>0</v>
-      </c>
-      <c r="N18" s="14">
-        <v>5</v>
-      </c>
-      <c r="O18" s="14">
+        <v>236</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="11">
+        <v>6.2244999999999999</v>
+      </c>
+      <c r="H18" s="11">
+        <v>6.8386959896799997</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="11">
+        <v>20</v>
+      </c>
+      <c r="N18" s="11">
+        <v>150</v>
+      </c>
+      <c r="O18" s="11">
         <v>0.1</v>
       </c>
     </row>
@@ -24996,28 +24109,34 @@
         <v>32</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>193</v>
+        <v>33</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="14">
-        <v>1.63</v>
+        <v>0.5</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
+      <c r="M19" s="14">
+        <v>0</v>
+      </c>
+      <c r="N19" s="14">
+        <v>5</v>
+      </c>
+      <c r="O19" s="14">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
@@ -25027,19 +24146,19 @@
         <v>32</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="14">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -25050,7 +24169,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>164</v>
       </c>
@@ -25058,10 +24177,10 @@
         <v>32</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>222</v>
@@ -25070,7 +24189,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="14">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -25081,180 +24200,59 @@
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
     </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="14">
+        <v>0.79</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G2:L21">
-    <cfRule type="expression" dxfId="430" priority="55">
+  <conditionalFormatting sqref="G2:L22">
+    <cfRule type="expression" dxfId="67" priority="55">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="429" priority="39">
+  <conditionalFormatting sqref="D19 D13 A2:A22 D3:D6">
+    <cfRule type="expression" dxfId="66" priority="39">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="40">
+    <cfRule type="expression" dxfId="65" priority="40">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="427" priority="37">
-      <formula>ISBLANK($F3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="426" priority="38">
-      <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="425" priority="35">
-      <formula>ISBLANK($F4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="424" priority="36">
-      <formula>NOT((COLUMN(A4)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="423" priority="33">
-      <formula>ISBLANK($F5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="422" priority="34">
-      <formula>NOT((COLUMN(A5)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F5, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="421" priority="31">
-      <formula>ISBLANK($F6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="420" priority="32">
-      <formula>NOT((COLUMN(A6)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F6, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="expression" dxfId="419" priority="29">
-      <formula>ISBLANK($F7)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="418" priority="30">
-      <formula>NOT((COLUMN(A7)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F7, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="417" priority="27">
-      <formula>ISBLANK($F8)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="416" priority="28">
-      <formula>NOT((COLUMN(A8)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F8, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="415" priority="25">
-      <formula>ISBLANK($F9)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="414" priority="26">
-      <formula>NOT((COLUMN(A9)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F9, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="413" priority="23">
-      <formula>ISBLANK($F10)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="412" priority="24">
-      <formula>NOT((COLUMN(A10)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F10, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="411" priority="21">
-      <formula>ISBLANK($F11)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="410" priority="22">
-      <formula>NOT((COLUMN(A11)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F11, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="409" priority="19">
-      <formula>ISBLANK($F12)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="408" priority="20">
-      <formula>NOT((COLUMN(A12)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F12, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="407" priority="17">
-      <formula>ISBLANK($F13)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="406" priority="18">
-      <formula>NOT((COLUMN(A13)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F13, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="405" priority="15">
-      <formula>ISBLANK($F14)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="404" priority="16">
-      <formula>NOT((COLUMN(A14)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F14, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="403" priority="13">
-      <formula>ISBLANK($F15)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="402" priority="14">
-      <formula>NOT((COLUMN(A15)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F15, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="401" priority="11">
-      <formula>ISBLANK($F16)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="400" priority="12">
-      <formula>NOT((COLUMN(A16)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F16, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17 A20:A21">
-    <cfRule type="expression" dxfId="399" priority="9">
-      <formula>ISBLANK($F17)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="398" priority="10">
-      <formula>NOT((COLUMN(A17)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F17, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A19">
-    <cfRule type="expression" dxfId="397" priority="7">
-      <formula>ISBLANK($F18)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="396" priority="8">
-      <formula>NOT((COLUMN(A18)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F18, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:L2 B19:L19 B18:C18 E18:L18 B6:L11 B3:C5 E3:L5 B13:L17 B12:C12 E12:L12">
-    <cfRule type="expression" dxfId="395" priority="138">
+  <conditionalFormatting sqref="B2:L2 B20:L20 B19:C19 E19:L19 B7:L12 B14:L18 B13:C13 E13:L13 B3:C6 E3:L6">
+    <cfRule type="expression" dxfId="64" priority="138">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="394" priority="5">
-      <formula>ISBLANK($F18)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="393" priority="6">
-      <formula>NOT((COLUMN(D18)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F18, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="expression" dxfId="392" priority="3">
-      <formula>ISBLANK($F3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="391" priority="4">
-      <formula>NOT((COLUMN(D3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="390" priority="1">
-      <formula>ISBLANK($F12)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="389" priority="2">
-      <formula>NOT((COLUMN(D12)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F12, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F21" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F22" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -25268,10 +24266,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25447,7 +24445,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>164</v>
       </c>
@@ -25487,79 +24485,69 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>164</v>
-      </c>
+      <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>237</v>
+        <v>31</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="11">
-        <v>453.59199999999998</v>
+        <v>0</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="11">
-        <v>0</v>
-      </c>
-      <c r="N6" s="11">
-        <v>5</v>
-      </c>
-      <c r="O6" s="11">
-        <v>0.01</v>
-      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>164</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="11">
-        <v>2.84</v>
-      </c>
-      <c r="H7" s="11">
-        <v>4</v>
-      </c>
+        <v>453.59199999999998</v>
+      </c>
+      <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N7" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O7" s="11">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -25567,36 +24555,38 @@
         <v>164</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="11">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="H8" s="11"/>
+        <v>2.84</v>
+      </c>
+      <c r="H8" s="11">
+        <v>4</v>
+      </c>
       <c r="I8" s="11"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N8" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O8" s="11">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -25607,36 +24597,30 @@
         <v>29</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>170</v>
+        <v>3</v>
       </c>
       <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>3</v>
-      </c>
-      <c r="I9" s="11">
-        <v>1.7150000000000001</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0.78139738375875567</v>
-      </c>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="11">
         <v>0</v>
       </c>
       <c r="N9" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O9" s="11">
         <v>0.01</v>
@@ -25647,36 +24631,42 @@
         <v>164</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F10" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
         <v>3</v>
       </c>
-      <c r="G10" s="11">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
+      <c r="I10" s="11">
+        <v>1.7150000000000001</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.78139738375875567</v>
+      </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="11">
         <v>0</v>
       </c>
       <c r="N10" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O10" s="11">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -25684,22 +24674,22 @@
         <v>164</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>181</v>
+        <v>43</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -25713,194 +24703,127 @@
         <v>5</v>
       </c>
       <c r="O11" s="11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="11">
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
+        <v>5</v>
+      </c>
+      <c r="O12" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D13" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E13" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="14">
-        <v>0</v>
-      </c>
-      <c r="H12" s="14">
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
         <v>9.3045043629999995</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="14">
-        <v>0</v>
-      </c>
-      <c r="N12" s="14">
-        <v>10</v>
-      </c>
-      <c r="O12" s="14">
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="14">
+        <v>0</v>
+      </c>
+      <c r="N13" s="14">
+        <v>10</v>
+      </c>
+      <c r="O13" s="14">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G2:L12">
-    <cfRule type="expression" dxfId="372" priority="50">
+  <conditionalFormatting sqref="G2:L13">
+    <cfRule type="expression" dxfId="63" priority="50">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="371" priority="31">
+  <conditionalFormatting sqref="A2:A13 D12 D9 D3:D6">
+    <cfRule type="expression" dxfId="62" priority="31">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="32">
+    <cfRule type="expression" dxfId="61" priority="32">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="369" priority="29">
-      <formula>ISBLANK($F3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="368" priority="30">
-      <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="367" priority="27">
-      <formula>ISBLANK($F4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="366" priority="28">
-      <formula>NOT((COLUMN(A4)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="365" priority="25">
-      <formula>ISBLANK($F5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="364" priority="26">
-      <formula>NOT((COLUMN(A5)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F5, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="363" priority="23">
-      <formula>ISBLANK($F6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="362" priority="24">
-      <formula>NOT((COLUMN(A6)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F6, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="expression" dxfId="361" priority="21">
-      <formula>ISBLANK($F7)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="360" priority="22">
-      <formula>NOT((COLUMN(A7)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F7, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="359" priority="19">
-      <formula>ISBLANK($F8)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="358" priority="20">
-      <formula>NOT((COLUMN(A8)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F8, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="357" priority="17">
-      <formula>ISBLANK($F9)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="356" priority="18">
-      <formula>NOT((COLUMN(A9)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F9, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="355" priority="15">
-      <formula>ISBLANK($F10)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="354" priority="16">
-      <formula>NOT((COLUMN(A10)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F10, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="353" priority="13">
-      <formula>ISBLANK($F11)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="352" priority="14">
-      <formula>NOT((COLUMN(A11)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F11, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="351" priority="11">
-      <formula>ISBLANK($F12)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="350" priority="12">
-      <formula>NOT((COLUMN(A12)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F12, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:L12 B6:L6 B2:C5 E2:L5 B7:C11 E7:L11">
-    <cfRule type="expression" dxfId="349" priority="141">
+  <conditionalFormatting sqref="B13:L13 B7:L7 B8:C12 E8:L12 B2:C6 E2:L6">
+    <cfRule type="expression" dxfId="60" priority="141">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="348" priority="9">
-      <formula>ISBLANK($F11)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="347" priority="10">
-      <formula>NOT((COLUMN(D11)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F11, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="expression" dxfId="346" priority="7">
-      <formula>ISBLANK($F3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="345" priority="8">
-      <formula>NOT((COLUMN(D3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="59" priority="4">
+      <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="344" priority="5">
+    <cfRule type="expression" dxfId="58" priority="3">
       <formula>ISBLANK($F8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="6">
-      <formula>NOT((COLUMN(D8)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F8, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="342" priority="4">
-      <formula>ISBLANK($F2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="341" priority="3">
-      <formula>ISBLANK($F7)</formula>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="57" priority="2">
+      <formula>ISBLANK($F11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="340" priority="2">
+    <cfRule type="expression" dxfId="56" priority="1">
       <formula>ISBLANK($F10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="339" priority="1">
-      <formula>ISBLANK($F9)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F12" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F13" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -25914,10 +24837,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26134,37 +25057,31 @@
         <v>164</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="11">
-        <v>0</v>
-      </c>
-      <c r="N6" s="11">
-        <v>5</v>
-      </c>
-      <c r="O6" s="11">
-        <v>1</v>
-      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
@@ -26174,58 +25091,50 @@
         <v>29</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>35</v>
+        <v>259</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="11">
-        <v>2</v>
-      </c>
-      <c r="H7" s="11">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="11">
-        <v>0</v>
-      </c>
-      <c r="N7" s="11">
-        <v>10</v>
-      </c>
-      <c r="O7" s="11">
-        <v>1</v>
-      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>164</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="11">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -26236,10 +25145,10 @@
         <v>0</v>
       </c>
       <c r="N8" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O8" s="11">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -26250,22 +25159,22 @@
         <v>29</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="11">
-        <v>1.18</v>
+        <v>2</v>
       </c>
       <c r="H9" s="11">
-        <v>1.81</v>
+        <v>6</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="12"/>
@@ -26275,10 +25184,10 @@
         <v>0</v>
       </c>
       <c r="N9" s="11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O9" s="11">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -26286,26 +25195,24 @@
         <v>164</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" s="11">
-        <v>4.5351667599999999E-2</v>
-      </c>
-      <c r="H10" s="11">
-        <v>9.3045043629999995</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
@@ -26314,10 +25221,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O10" s="11">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -26325,25 +25232,25 @@
         <v>164</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>251</v>
+        <v>194</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>252</v>
+        <v>51</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="11">
-        <v>4.9691509500000001E-2</v>
+        <v>1.18</v>
       </c>
       <c r="H11" s="11">
-        <v>7.6733657539999998</v>
+        <v>1.81</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="12"/>
@@ -26353,10 +25260,10 @@
         <v>0</v>
       </c>
       <c r="N11" s="11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O11" s="11">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -26364,24 +25271,26 @@
         <v>164</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11"/>
+        <v>4.5351667599999999E-2</v>
+      </c>
+      <c r="H12" s="11">
+        <v>9.3045043629999995</v>
+      </c>
       <c r="I12" s="11"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
@@ -26404,22 +25313,22 @@
         <v>32</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="11">
-        <v>27.184200000000001</v>
+        <v>4.9691509500000001E-2</v>
       </c>
       <c r="H13" s="11">
-        <v>4530.6954500000002</v>
+        <v>7.6733657539999998</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="12"/>
@@ -26429,10 +25338,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="11">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="O13" s="11">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -26440,26 +25349,24 @@
         <v>164</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>243</v>
+        <v>67</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" s="11">
-        <v>19.509599999999999</v>
-      </c>
-      <c r="H14" s="11">
-        <v>2666.4426671000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
@@ -26468,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="N14" s="11">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="O14" s="11">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -26479,24 +25386,26 @@
         <v>164</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="11">
-        <v>0.33420154629999999</v>
-      </c>
-      <c r="H15" s="11"/>
+        <v>27.184200000000001</v>
+      </c>
+      <c r="H15" s="11">
+        <v>4530.6954500000002</v>
+      </c>
       <c r="I15" s="11"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
@@ -26505,10 +25414,10 @@
         <v>0</v>
       </c>
       <c r="N15" s="11">
+        <v>500</v>
+      </c>
+      <c r="O15" s="11">
         <v>1</v>
-      </c>
-      <c r="O15" s="11">
-        <v>1E-3</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -26516,25 +25425,25 @@
         <v>164</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>70</v>
+        <v>243</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="11">
-        <v>0.65193239520000001</v>
+        <v>19.509599999999999</v>
       </c>
       <c r="H16" s="11">
-        <v>1.30386479</v>
+        <v>2666.4426671000001</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="12"/>
@@ -26544,10 +25453,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="11">
+        <v>500</v>
+      </c>
+      <c r="O16" s="11">
         <v>1</v>
-      </c>
-      <c r="O16" s="11">
-        <v>1E-3</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -26555,26 +25464,24 @@
         <v>164</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>181</v>
+        <v>249</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>3</v>
-      </c>
+        <v>0.33420154629999999</v>
+      </c>
+      <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
@@ -26583,237 +25490,171 @@
         <v>0</v>
       </c>
       <c r="N17" s="11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O17" s="11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0.65193239520000001</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1.30386479</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="11">
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
+        <v>1</v>
+      </c>
+      <c r="O18" s="11">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>3</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <v>10</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E20" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G20" s="14">
         <v>23.441278462009628</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H20" s="14">
         <v>1579968286277.3491</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="14">
-        <v>0</v>
-      </c>
-      <c r="N18" s="17">
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="14">
+        <v>0</v>
+      </c>
+      <c r="N20" s="17">
         <v>200000000000</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O20" s="17">
         <v>100000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G2:L18">
-    <cfRule type="expression" dxfId="322" priority="63">
+  <conditionalFormatting sqref="G2:L20">
+    <cfRule type="expression" dxfId="55" priority="63">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="321" priority="41">
+  <conditionalFormatting sqref="D19 A2:A20 D3:D7">
+    <cfRule type="expression" dxfId="54" priority="41">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="42">
+    <cfRule type="expression" dxfId="53" priority="42">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="319" priority="39">
-      <formula>ISBLANK($F3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="318" priority="40">
-      <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="317" priority="37">
-      <formula>ISBLANK($F4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="316" priority="38">
-      <formula>NOT((COLUMN(A4)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="315" priority="35">
-      <formula>ISBLANK($F5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="314" priority="36">
-      <formula>NOT((COLUMN(A5)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F5, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="313" priority="33">
-      <formula>ISBLANK($F6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="312" priority="34">
-      <formula>NOT((COLUMN(A6)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F6, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="expression" dxfId="311" priority="31">
-      <formula>ISBLANK($F7)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="310" priority="32">
-      <formula>NOT((COLUMN(A7)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F7, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="309" priority="29">
-      <formula>ISBLANK($F8)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="308" priority="30">
-      <formula>NOT((COLUMN(A8)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F8, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="307" priority="27">
-      <formula>ISBLANK($F9)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="306" priority="28">
-      <formula>NOT((COLUMN(A9)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F9, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="305" priority="25">
-      <formula>ISBLANK($F10)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="304" priority="26">
-      <formula>NOT((COLUMN(A10)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F10, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="303" priority="23">
-      <formula>ISBLANK($F11)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="302" priority="24">
-      <formula>NOT((COLUMN(A11)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F11, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="301" priority="21">
-      <formula>ISBLANK($F12)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="300" priority="22">
-      <formula>NOT((COLUMN(A12)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F12, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="299" priority="19">
-      <formula>ISBLANK($F13)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="298" priority="20">
-      <formula>NOT((COLUMN(A13)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F13, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="297" priority="17">
-      <formula>ISBLANK($F14)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="296" priority="18">
-      <formula>NOT((COLUMN(A14)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F14, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="295" priority="15">
-      <formula>ISBLANK($F15)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="294" priority="16">
-      <formula>NOT((COLUMN(A15)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F15, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="293" priority="13">
-      <formula>ISBLANK($F16)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="292" priority="14">
-      <formula>NOT((COLUMN(A16)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F16, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="291" priority="11">
-      <formula>ISBLANK($F17)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="290" priority="12">
-      <formula>NOT((COLUMN(A17)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F17, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="289" priority="9">
-      <formula>ISBLANK($F18)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="288" priority="10">
-      <formula>NOT((COLUMN(A18)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F18, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:L2 B18:L18 B17:C17 E17:L17 B10:L16 B3:C9 E3:L9">
-    <cfRule type="expression" dxfId="287" priority="138">
+  <conditionalFormatting sqref="B2:L2 B20:L20 B19:C19 E19:L19 B12:L18 B3:C11 E3:L11">
+    <cfRule type="expression" dxfId="52" priority="138">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="286" priority="7">
-      <formula>ISBLANK($F17)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="285" priority="8">
-      <formula>NOT((COLUMN(D17)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F17, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="51" priority="4">
+      <formula>ISBLANK($F9)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="expression" dxfId="284" priority="5">
-      <formula>ISBLANK($F3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="283" priority="6">
-      <formula>NOT((COLUMN(D3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="282" priority="4">
-      <formula>ISBLANK($F7)</formula>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="50" priority="3">
+      <formula>ISBLANK($F10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="281" priority="3">
+    <cfRule type="expression" dxfId="49" priority="2">
       <formula>ISBLANK($F8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="280" priority="2">
-      <formula>ISBLANK($F6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="279" priority="1">
-      <formula>ISBLANK($F9)</formula>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="48" priority="1">
+      <formula>ISBLANK($F11)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F18" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F20" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -26927,20 +25768,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L2">
-    <cfRule type="expression" dxfId="261" priority="26">
+    <cfRule type="expression" dxfId="47" priority="26">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="260" priority="1">
+    <cfRule type="expression" dxfId="46" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="2">
+    <cfRule type="expression" dxfId="45" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2">
-    <cfRule type="expression" dxfId="258" priority="129">
+    <cfRule type="expression" dxfId="44" priority="129">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26959,10 +25800,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27059,7 +25900,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>164</v>
       </c>
@@ -27098,7 +25939,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>164</v>
       </c>
@@ -27137,7 +25978,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>164</v>
       </c>
@@ -27174,7 +26015,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>164</v>
       </c>
@@ -27211,7 +26052,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>164</v>
       </c>
@@ -27248,7 +26089,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>164</v>
       </c>
@@ -27287,7 +26128,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>164</v>
       </c>
@@ -27326,7 +26167,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>164</v>
       </c>
@@ -27365,7 +26206,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>164</v>
       </c>
@@ -27404,7 +26245,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>164</v>
       </c>
@@ -27443,7 +26284,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>164</v>
       </c>
@@ -27482,7 +26323,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>164</v>
       </c>
@@ -27519,7 +26360,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>164</v>
       </c>
@@ -27556,7 +26397,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>164</v>
       </c>
@@ -27634,7 +26475,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>164</v>
       </c>
@@ -27671,7 +26512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>164</v>
       </c>
@@ -27708,7 +26549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>164</v>
       </c>
@@ -27745,7 +26586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>164</v>
       </c>
@@ -27782,7 +26623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>164</v>
       </c>
@@ -27819,7 +26660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>164</v>
       </c>
@@ -27858,28 +26699,59 @@
         <v>1</v>
       </c>
     </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="14">
+        <v>225</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G2:L23">
-    <cfRule type="expression" dxfId="240" priority="29">
+  <conditionalFormatting sqref="G2:L24">
+    <cfRule type="expression" dxfId="43" priority="29">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="239" priority="1">
+    <cfRule type="expression" dxfId="42" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="2">
+    <cfRule type="expression" dxfId="41" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2 A3:L23">
-    <cfRule type="expression" dxfId="237" priority="128">
+    <cfRule type="expression" dxfId="40" priority="128">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F23" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F24" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>

--- a/InputFiles/ModifyParameters.xlsx
+++ b/InputFiles/ModifyParameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERAZA\Documents\Tasking\(4) EPA Stuff\Task 5 Repo\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6460F8B-D925-462A-BFE0-111B97453EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C66F49-B150-4146-9694-524D5BB71C5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="657" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="657" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internal - File Info" sheetId="1" r:id="rId1"/>
@@ -1136,7 +1136,308 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="350">
+  <dxfs count="349">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1174,6 +1475,307 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -1210,6 +1812,307 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -1246,6 +2149,307 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -1282,6 +2486,281 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -1318,6 +2797,307 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -1352,2195 +3132,6 @@
           <bgColor theme="2" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -3844,6 +3435,42 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4146,6 +3773,42 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4447,6 +4110,42 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4747,6 +4446,42 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -5083,6 +4818,42 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -5407,6 +5178,42 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -5743,6 +5550,70 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -6043,6 +5914,70 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -6341,6 +6276,42 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -6637,6 +6608,24 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6652,399 +6641,399 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table156" displayName="Table156" ref="A1:O3" totalsRowShown="0" tableBorderDxfId="349">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table156" displayName="Table156" ref="A1:O3" totalsRowShown="0" tableBorderDxfId="346">
   <autoFilter ref="A1:O3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phase" dataDxfId="348"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="347"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="346"/>
-    <tableColumn id="10" xr3:uid="{DA69379A-DE3F-42F4-AF70-91A1718AB7E0}" name="Description" dataDxfId="345"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Units" dataDxfId="344"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distribution Type" dataDxfId="343"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter 1" dataDxfId="342"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="341"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="340"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="339"/>
-    <tableColumn id="14" xr3:uid="{50465694-0FC6-4F52-BBDD-C2367DABB3F3}" name="Parameter 5" dataDxfId="338"/>
-    <tableColumn id="15" xr3:uid="{9D83EAB9-CB4C-4600-AF1C-4966CB714685}" name="Parameter 6" dataDxfId="337"/>
-    <tableColumn id="11" xr3:uid="{6D5D89BA-F5B6-48D7-8EB6-F84737897B28}" name="Lower Limit" dataDxfId="336"/>
-    <tableColumn id="12" xr3:uid="{48C3D1E7-422F-49D2-B091-B1AED1C3D586}" name="Upper Limit" dataDxfId="335"/>
-    <tableColumn id="13" xr3:uid="{C7F66B6D-AE49-4F19-BA50-224FF50E099F}" name="Step" dataDxfId="334"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phase" dataDxfId="345"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="344"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="343"/>
+    <tableColumn id="10" xr3:uid="{DA69379A-DE3F-42F4-AF70-91A1718AB7E0}" name="Description" dataDxfId="342"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Units" dataDxfId="341"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distribution Type" dataDxfId="340"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter 1" dataDxfId="339"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="338"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="337"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="336"/>
+    <tableColumn id="14" xr3:uid="{50465694-0FC6-4F52-BBDD-C2367DABB3F3}" name="Parameter 5" dataDxfId="335"/>
+    <tableColumn id="15" xr3:uid="{9D83EAB9-CB4C-4600-AF1C-4966CB714685}" name="Parameter 6" dataDxfId="334"/>
+    <tableColumn id="11" xr3:uid="{6D5D89BA-F5B6-48D7-8EB6-F84737897B28}" name="Lower Limit" dataDxfId="333"/>
+    <tableColumn id="12" xr3:uid="{48C3D1E7-422F-49D2-B091-B1AED1C3D586}" name="Upper Limit" dataDxfId="332"/>
+    <tableColumn id="13" xr3:uid="{C7F66B6D-AE49-4F19-BA50-224FF50E099F}" name="Step" dataDxfId="331"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{F9C17F91-E3F1-4ABE-9219-5A5F8F4C3152}" name="Table1564518" displayName="Table1564518" ref="A1:P27" totalsRowShown="0" headerRowBorderDxfId="196" tableBorderDxfId="195">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{F9C17F91-E3F1-4ABE-9219-5A5F8F4C3152}" name="Table1564518" displayName="Table1564518" ref="A1:P27" totalsRowShown="0" headerRowBorderDxfId="149" tableBorderDxfId="148">
   <autoFilter ref="A1:P27" xr:uid="{CE70FAE3-DAD6-40A6-BCCE-F46A2CDA0980}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{77AC217A-782C-47D2-9945-D4226DB02CB4}" name="Phase" dataDxfId="194"/>
-    <tableColumn id="22" xr3:uid="{A77A81F7-C018-4F6E-BF69-5FE486BECF62}" name="Category" dataDxfId="193"/>
-    <tableColumn id="12" xr3:uid="{CCA10716-C2B0-4055-953E-1957EC05B7DC}" name="Name" dataDxfId="192"/>
-    <tableColumn id="14" xr3:uid="{9131E52D-9D7C-41BF-ABF5-9AAF65D5BC39}" name="Description" dataDxfId="191"/>
-    <tableColumn id="18" xr3:uid="{819C7026-BBE6-4FEF-81FC-063CF9E923E1}" name="Units" dataDxfId="190"/>
-    <tableColumn id="4" xr3:uid="{BCC0BC54-494B-4CD2-9D93-4A14A321EFDE}" name="Distribution Type" dataDxfId="189"/>
-    <tableColumn id="5" xr3:uid="{890B6437-FEB3-4225-BE1D-8F4BB30A2A95}" name="Parameter 1" dataDxfId="188"/>
-    <tableColumn id="6" xr3:uid="{D95452BF-5FFC-4C2D-BE8B-1138CADE3867}" name="Parameter 2" dataDxfId="187"/>
-    <tableColumn id="7" xr3:uid="{AFAD290F-88ED-4F65-8343-1B7E0B2331C2}" name="Parameter 3" dataDxfId="186"/>
-    <tableColumn id="10" xr3:uid="{C7581E5C-58E6-4080-A3F0-3C90449EE32D}" name="Parameter 4" dataDxfId="185"/>
-    <tableColumn id="11" xr3:uid="{1D5C967F-8BEE-4049-9B30-056174F945AE}" name="Parameter 5" dataDxfId="184"/>
-    <tableColumn id="8" xr3:uid="{058E5821-3943-44C1-B08D-F22618A8CB01}" name="Parameter 6" dataDxfId="183"/>
-    <tableColumn id="15" xr3:uid="{C95BAD13-0F40-4073-97D7-EA904AFBC77C}" name="Lower Limit" dataDxfId="182"/>
-    <tableColumn id="16" xr3:uid="{582C9B39-6E23-469E-818C-CDD30AA83C2C}" name="Upper Limit" dataDxfId="181"/>
-    <tableColumn id="17" xr3:uid="{27D6A1B7-E56F-410E-929C-C8BD6000D2D9}" name="Step" dataDxfId="180"/>
-    <tableColumn id="20" xr3:uid="{86795961-383C-4D69-8607-2882A51CFD11}" name="Surface Type" dataDxfId="179"/>
+    <tableColumn id="9" xr3:uid="{77AC217A-782C-47D2-9945-D4226DB02CB4}" name="Phase" dataDxfId="147"/>
+    <tableColumn id="22" xr3:uid="{A77A81F7-C018-4F6E-BF69-5FE486BECF62}" name="Category" dataDxfId="146"/>
+    <tableColumn id="12" xr3:uid="{CCA10716-C2B0-4055-953E-1957EC05B7DC}" name="Name" dataDxfId="145"/>
+    <tableColumn id="14" xr3:uid="{9131E52D-9D7C-41BF-ABF5-9AAF65D5BC39}" name="Description" dataDxfId="144"/>
+    <tableColumn id="18" xr3:uid="{819C7026-BBE6-4FEF-81FC-063CF9E923E1}" name="Units" dataDxfId="143"/>
+    <tableColumn id="4" xr3:uid="{BCC0BC54-494B-4CD2-9D93-4A14A321EFDE}" name="Distribution Type" dataDxfId="142"/>
+    <tableColumn id="5" xr3:uid="{890B6437-FEB3-4225-BE1D-8F4BB30A2A95}" name="Parameter 1" dataDxfId="141"/>
+    <tableColumn id="6" xr3:uid="{D95452BF-5FFC-4C2D-BE8B-1138CADE3867}" name="Parameter 2" dataDxfId="140"/>
+    <tableColumn id="7" xr3:uid="{AFAD290F-88ED-4F65-8343-1B7E0B2331C2}" name="Parameter 3" dataDxfId="139"/>
+    <tableColumn id="10" xr3:uid="{C7581E5C-58E6-4080-A3F0-3C90449EE32D}" name="Parameter 4" dataDxfId="138"/>
+    <tableColumn id="11" xr3:uid="{1D5C967F-8BEE-4049-9B30-056174F945AE}" name="Parameter 5" dataDxfId="137"/>
+    <tableColumn id="8" xr3:uid="{058E5821-3943-44C1-B08D-F22618A8CB01}" name="Parameter 6" dataDxfId="136"/>
+    <tableColumn id="15" xr3:uid="{C95BAD13-0F40-4073-97D7-EA904AFBC77C}" name="Lower Limit" dataDxfId="135"/>
+    <tableColumn id="16" xr3:uid="{582C9B39-6E23-469E-818C-CDD30AA83C2C}" name="Upper Limit" dataDxfId="134"/>
+    <tableColumn id="17" xr3:uid="{27D6A1B7-E56F-410E-929C-C8BD6000D2D9}" name="Step" dataDxfId="133"/>
+    <tableColumn id="20" xr3:uid="{86795961-383C-4D69-8607-2882A51CFD11}" name="Surface Type" dataDxfId="132"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{432F1329-A516-4974-97D5-CED039B9825E}" name="Table15649" displayName="Table15649" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="178" tableBorderDxfId="177">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{432F1329-A516-4974-97D5-CED039B9825E}" name="Table15649" displayName="Table15649" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="127" tableBorderDxfId="126">
   <autoFilter ref="A1:P19" xr:uid="{68B29069-2622-4242-A0DD-EA343A9BF637}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{A65D510F-11AE-4758-A918-595CFAEACDBA}" name="Phase" dataDxfId="176"/>
-    <tableColumn id="20" xr3:uid="{1983ED84-E3C7-438C-9FBC-6F68009993BF}" name="Category" dataDxfId="175"/>
-    <tableColumn id="12" xr3:uid="{5F8CF16A-5A1F-471D-941E-E8FA15DC40D9}" name="Name" dataDxfId="174"/>
-    <tableColumn id="14" xr3:uid="{603CB562-B188-4D78-8AF7-0C257FE01A78}" name="Description" dataDxfId="173"/>
-    <tableColumn id="18" xr3:uid="{25C96984-595F-4E53-AEA3-48FE8964668C}" name="Units" dataDxfId="172"/>
-    <tableColumn id="4" xr3:uid="{3AC7C66C-7352-42C7-A88A-718F1163EBC3}" name="Distribution Type" dataDxfId="171"/>
-    <tableColumn id="5" xr3:uid="{6CD1BB89-2672-4A45-AE6D-45DC8FD8C2D0}" name="Parameter 1" dataDxfId="170"/>
-    <tableColumn id="6" xr3:uid="{713F99C9-7865-434B-9380-0F8833A0B7CE}" name="Parameter 2" dataDxfId="169"/>
-    <tableColumn id="7" xr3:uid="{7B3CBF6D-ABAD-435C-93E5-94B2A9A1570D}" name="Parameter 3" dataDxfId="168"/>
-    <tableColumn id="10" xr3:uid="{FD8F6808-F8E5-4346-BE6E-D40A5DADECAC}" name="Parameter 4" dataDxfId="167"/>
-    <tableColumn id="11" xr3:uid="{DC3102D4-541E-44FE-AEFA-0FB92AC933C5}" name="Parameter 5" dataDxfId="166"/>
-    <tableColumn id="8" xr3:uid="{151C5968-B156-4013-B6C4-5D012F22EEF6}" name="Parameter 6" dataDxfId="165"/>
-    <tableColumn id="15" xr3:uid="{868EF292-2E08-40B9-9605-DAF748095734}" name="Lower Limit" dataDxfId="164"/>
-    <tableColumn id="16" xr3:uid="{42D5D159-9DC2-4FE5-9923-4E2B98164CE9}" name="Upper Limit" dataDxfId="163"/>
-    <tableColumn id="17" xr3:uid="{10AFF230-51CB-4644-8521-A18EFFD37E36}" name="Step" dataDxfId="162"/>
-    <tableColumn id="2" xr3:uid="{197A7EF3-81D9-4184-B44A-B78C515E1412}" name="Surface Type" dataDxfId="161"/>
+    <tableColumn id="9" xr3:uid="{A65D510F-11AE-4758-A918-595CFAEACDBA}" name="Phase" dataDxfId="125"/>
+    <tableColumn id="20" xr3:uid="{1983ED84-E3C7-438C-9FBC-6F68009993BF}" name="Category" dataDxfId="124"/>
+    <tableColumn id="12" xr3:uid="{5F8CF16A-5A1F-471D-941E-E8FA15DC40D9}" name="Name" dataDxfId="123"/>
+    <tableColumn id="14" xr3:uid="{603CB562-B188-4D78-8AF7-0C257FE01A78}" name="Description" dataDxfId="122"/>
+    <tableColumn id="18" xr3:uid="{25C96984-595F-4E53-AEA3-48FE8964668C}" name="Units" dataDxfId="121"/>
+    <tableColumn id="4" xr3:uid="{3AC7C66C-7352-42C7-A88A-718F1163EBC3}" name="Distribution Type" dataDxfId="120"/>
+    <tableColumn id="5" xr3:uid="{6CD1BB89-2672-4A45-AE6D-45DC8FD8C2D0}" name="Parameter 1" dataDxfId="119"/>
+    <tableColumn id="6" xr3:uid="{713F99C9-7865-434B-9380-0F8833A0B7CE}" name="Parameter 2" dataDxfId="118"/>
+    <tableColumn id="7" xr3:uid="{7B3CBF6D-ABAD-435C-93E5-94B2A9A1570D}" name="Parameter 3" dataDxfId="117"/>
+    <tableColumn id="10" xr3:uid="{FD8F6808-F8E5-4346-BE6E-D40A5DADECAC}" name="Parameter 4" dataDxfId="116"/>
+    <tableColumn id="11" xr3:uid="{DC3102D4-541E-44FE-AEFA-0FB92AC933C5}" name="Parameter 5" dataDxfId="115"/>
+    <tableColumn id="8" xr3:uid="{151C5968-B156-4013-B6C4-5D012F22EEF6}" name="Parameter 6" dataDxfId="114"/>
+    <tableColumn id="15" xr3:uid="{868EF292-2E08-40B9-9605-DAF748095734}" name="Lower Limit" dataDxfId="113"/>
+    <tableColumn id="16" xr3:uid="{42D5D159-9DC2-4FE5-9923-4E2B98164CE9}" name="Upper Limit" dataDxfId="112"/>
+    <tableColumn id="17" xr3:uid="{10AFF230-51CB-4644-8521-A18EFFD37E36}" name="Step" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{197A7EF3-81D9-4184-B44A-B78C515E1412}" name="Surface Type" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{DF020213-F975-452A-9830-6EF38DDE7DCF}" name="Table15647" displayName="Table15647" ref="A1:P40" totalsRowShown="0" headerRowBorderDxfId="160" tableBorderDxfId="159">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{DF020213-F975-452A-9830-6EF38DDE7DCF}" name="Table15647" displayName="Table15647" ref="A1:P40" totalsRowShown="0" headerRowBorderDxfId="105" tableBorderDxfId="104">
   <autoFilter ref="A1:P40" xr:uid="{859BD2B0-AA02-48BA-8620-BDF827813892}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{F237A42D-415A-475B-91B7-8CB0D38B7028}" name="Phase" dataDxfId="158"/>
-    <tableColumn id="20" xr3:uid="{D2304797-990E-4466-8277-ACC378FC5EF1}" name="Category" dataDxfId="157"/>
-    <tableColumn id="12" xr3:uid="{E8D03348-3348-4698-9DA9-FDFD93C4108D}" name="Name" dataDxfId="156"/>
-    <tableColumn id="14" xr3:uid="{D9BE976B-814C-40BA-BB9C-F5A4A863809D}" name="Description" dataDxfId="155"/>
-    <tableColumn id="18" xr3:uid="{C8EEDF00-53C4-4BBB-A736-4C222CC37ACE}" name="Units" dataDxfId="154"/>
-    <tableColumn id="4" xr3:uid="{B912A136-218A-46A6-9298-A26FF451BC8B}" name="Distribution Type" dataDxfId="153"/>
-    <tableColumn id="5" xr3:uid="{B469F8C6-AC37-4E2C-B435-D79806B5EB80}" name="Parameter 1" dataDxfId="152"/>
-    <tableColumn id="6" xr3:uid="{6E4BE98D-3625-46DA-8047-5C4657A18F62}" name="Parameter 2" dataDxfId="151"/>
-    <tableColumn id="7" xr3:uid="{24844D85-F2B8-4B62-9347-EE51DBA7335D}" name="Parameter 3" dataDxfId="150"/>
-    <tableColumn id="10" xr3:uid="{A09FB262-3AAD-46E1-B780-FAC155246DCB}" name="Parameter 4" dataDxfId="149"/>
-    <tableColumn id="11" xr3:uid="{C49055A9-0CD5-4B9A-9D72-65429F3A5716}" name="Parameter 5" dataDxfId="148"/>
-    <tableColumn id="8" xr3:uid="{B80ED53B-AC7B-4D83-B11D-F4584FC387E7}" name="Parameter 6" dataDxfId="147"/>
-    <tableColumn id="15" xr3:uid="{196E4D59-E5D8-47FC-8FBC-0DF83057658E}" name="Lower Limit" dataDxfId="146"/>
-    <tableColumn id="16" xr3:uid="{9EDBB862-8D13-4999-A6D8-0549867DD0D7}" name="Upper Limit" dataDxfId="145"/>
-    <tableColumn id="17" xr3:uid="{9F81C7E5-43F7-4126-A586-BB1219F70A02}" name="Step" dataDxfId="144"/>
-    <tableColumn id="2" xr3:uid="{918705C6-C8C7-48DB-9545-3330D9EA84CC}" name="Surface Type" dataDxfId="143"/>
+    <tableColumn id="9" xr3:uid="{F237A42D-415A-475B-91B7-8CB0D38B7028}" name="Phase" dataDxfId="103"/>
+    <tableColumn id="20" xr3:uid="{D2304797-990E-4466-8277-ACC378FC5EF1}" name="Category" dataDxfId="102"/>
+    <tableColumn id="12" xr3:uid="{E8D03348-3348-4698-9DA9-FDFD93C4108D}" name="Name" dataDxfId="101"/>
+    <tableColumn id="14" xr3:uid="{D9BE976B-814C-40BA-BB9C-F5A4A863809D}" name="Description" dataDxfId="100"/>
+    <tableColumn id="18" xr3:uid="{C8EEDF00-53C4-4BBB-A736-4C222CC37ACE}" name="Units" dataDxfId="99"/>
+    <tableColumn id="4" xr3:uid="{B912A136-218A-46A6-9298-A26FF451BC8B}" name="Distribution Type" dataDxfId="98"/>
+    <tableColumn id="5" xr3:uid="{B469F8C6-AC37-4E2C-B435-D79806B5EB80}" name="Parameter 1" dataDxfId="97"/>
+    <tableColumn id="6" xr3:uid="{6E4BE98D-3625-46DA-8047-5C4657A18F62}" name="Parameter 2" dataDxfId="96"/>
+    <tableColumn id="7" xr3:uid="{24844D85-F2B8-4B62-9347-EE51DBA7335D}" name="Parameter 3" dataDxfId="95"/>
+    <tableColumn id="10" xr3:uid="{A09FB262-3AAD-46E1-B780-FAC155246DCB}" name="Parameter 4" dataDxfId="94"/>
+    <tableColumn id="11" xr3:uid="{C49055A9-0CD5-4B9A-9D72-65429F3A5716}" name="Parameter 5" dataDxfId="93"/>
+    <tableColumn id="8" xr3:uid="{B80ED53B-AC7B-4D83-B11D-F4584FC387E7}" name="Parameter 6" dataDxfId="92"/>
+    <tableColumn id="15" xr3:uid="{196E4D59-E5D8-47FC-8FBC-0DF83057658E}" name="Lower Limit" dataDxfId="91"/>
+    <tableColumn id="16" xr3:uid="{9EDBB862-8D13-4999-A6D8-0549867DD0D7}" name="Upper Limit" dataDxfId="90"/>
+    <tableColumn id="17" xr3:uid="{9F81C7E5-43F7-4126-A586-BB1219F70A02}" name="Step" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{918705C6-C8C7-48DB-9545-3330D9EA84CC}" name="Surface Type" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{7550EFF0-9439-4E6A-8D23-02F504FBD1D4}" name="Table156414" displayName="Table156414" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="142" tableBorderDxfId="141">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{7550EFF0-9439-4E6A-8D23-02F504FBD1D4}" name="Table156414" displayName="Table156414" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="83" tableBorderDxfId="82">
   <autoFilter ref="A1:P19" xr:uid="{E89F1AAB-0467-4C13-8286-F7AC331E8CED}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{AE476C5A-DA1D-465E-9CDD-F6537F49B59A}" name="Phase" dataDxfId="140"/>
-    <tableColumn id="12" xr3:uid="{5D89776A-B117-4D83-ACC3-F00ADD3FE56E}" name="Category" dataDxfId="139"/>
-    <tableColumn id="3" xr3:uid="{9037C44A-A90D-462C-A2F2-1224467C2BC0}" name="Name" dataDxfId="138"/>
-    <tableColumn id="14" xr3:uid="{E343E4A4-9362-4305-9A92-A8062E97127D}" name="Description" dataDxfId="137"/>
-    <tableColumn id="18" xr3:uid="{59A60541-5F4F-478A-996C-A136B098D92B}" name="Units" dataDxfId="136"/>
-    <tableColumn id="4" xr3:uid="{30DA923F-FB86-4AC4-B259-AE796033AAED}" name="Distribution Type" dataDxfId="135"/>
-    <tableColumn id="5" xr3:uid="{BD9D6BB8-0A9E-48E1-95D5-0EECCBFE8316}" name="Parameter 1" dataDxfId="134"/>
-    <tableColumn id="6" xr3:uid="{B0E10190-9195-4B9D-A20D-A270CE2F3E98}" name="Parameter 2" dataDxfId="133"/>
-    <tableColumn id="7" xr3:uid="{918B726D-0E60-49F6-94FE-F7B5CF284EB2}" name="Parameter 3" dataDxfId="132"/>
-    <tableColumn id="10" xr3:uid="{F52C94ED-5667-4B4C-AF10-29D9CF45ACB5}" name="Parameter 4" dataDxfId="131"/>
-    <tableColumn id="11" xr3:uid="{9F8440AB-4D90-4F35-8265-07E520410CC0}" name="Parameter 5" dataDxfId="130"/>
-    <tableColumn id="8" xr3:uid="{4F13BDAF-F86A-4434-B9C3-576D1A4571C8}" name="Parameter 6" dataDxfId="129"/>
-    <tableColumn id="15" xr3:uid="{168B9EEC-D86A-4C57-8174-66D02451AA11}" name="Lower Limit" dataDxfId="128"/>
-    <tableColumn id="16" xr3:uid="{B91AA0FC-6FD4-4503-8497-8E2658CD5A9C}" name="Upper Limit" dataDxfId="127"/>
-    <tableColumn id="17" xr3:uid="{85F85B4E-2654-4B9F-8CBF-9AF7D4017806}" name="Step" dataDxfId="126"/>
-    <tableColumn id="2" xr3:uid="{1EE0ED06-66C4-4343-BFD9-DEB0F6951FE5}" name="Surface Type" dataDxfId="125"/>
+    <tableColumn id="9" xr3:uid="{AE476C5A-DA1D-465E-9CDD-F6537F49B59A}" name="Phase" dataDxfId="81"/>
+    <tableColumn id="12" xr3:uid="{5D89776A-B117-4D83-ACC3-F00ADD3FE56E}" name="Category" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{9037C44A-A90D-462C-A2F2-1224467C2BC0}" name="Name" dataDxfId="79"/>
+    <tableColumn id="14" xr3:uid="{E343E4A4-9362-4305-9A92-A8062E97127D}" name="Description" dataDxfId="78"/>
+    <tableColumn id="18" xr3:uid="{59A60541-5F4F-478A-996C-A136B098D92B}" name="Units" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{30DA923F-FB86-4AC4-B259-AE796033AAED}" name="Distribution Type" dataDxfId="76"/>
+    <tableColumn id="5" xr3:uid="{BD9D6BB8-0A9E-48E1-95D5-0EECCBFE8316}" name="Parameter 1" dataDxfId="75"/>
+    <tableColumn id="6" xr3:uid="{B0E10190-9195-4B9D-A20D-A270CE2F3E98}" name="Parameter 2" dataDxfId="74"/>
+    <tableColumn id="7" xr3:uid="{918B726D-0E60-49F6-94FE-F7B5CF284EB2}" name="Parameter 3" dataDxfId="73"/>
+    <tableColumn id="10" xr3:uid="{F52C94ED-5667-4B4C-AF10-29D9CF45ACB5}" name="Parameter 4" dataDxfId="72"/>
+    <tableColumn id="11" xr3:uid="{9F8440AB-4D90-4F35-8265-07E520410CC0}" name="Parameter 5" dataDxfId="71"/>
+    <tableColumn id="8" xr3:uid="{4F13BDAF-F86A-4434-B9C3-576D1A4571C8}" name="Parameter 6" dataDxfId="70"/>
+    <tableColumn id="15" xr3:uid="{168B9EEC-D86A-4C57-8174-66D02451AA11}" name="Lower Limit" dataDxfId="69"/>
+    <tableColumn id="16" xr3:uid="{B91AA0FC-6FD4-4503-8497-8E2658CD5A9C}" name="Upper Limit" dataDxfId="68"/>
+    <tableColumn id="17" xr3:uid="{85F85B4E-2654-4B9F-8CBF-9AF7D4017806}" name="Step" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{1EE0ED06-66C4-4343-BFD9-DEB0F6951FE5}" name="Surface Type" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{544BD654-9B18-4F85-8680-0367091A97FD}" name="Table15646" displayName="Table15646" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="124" tableBorderDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{544BD654-9B18-4F85-8680-0367091A97FD}" name="Table15646" displayName="Table15646" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="61" tableBorderDxfId="60">
   <autoFilter ref="A1:P19" xr:uid="{EC61BB93-4EB0-4480-9F8B-C9A2D56564B4}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{1735A646-077D-4A5C-8ABA-5E5552C83F8B}" name="Phase" dataDxfId="122"/>
-    <tableColumn id="20" xr3:uid="{004108F0-B585-4FC4-8E02-24F2EDB488C0}" name="Category" dataDxfId="121"/>
-    <tableColumn id="12" xr3:uid="{69E4893D-8A0F-46ED-8648-226BDC719B2B}" name="Name" dataDxfId="120"/>
-    <tableColumn id="14" xr3:uid="{A839FAC0-08F6-4AA7-96B8-39B9A47A057D}" name="Description" dataDxfId="119"/>
-    <tableColumn id="18" xr3:uid="{E0746BE3-6AD9-4082-A683-C57740CF7686}" name="Units" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{C6BD6FF1-F034-424C-A7E9-0CF1059B3A7C}" name="Distribution Type" dataDxfId="117"/>
-    <tableColumn id="5" xr3:uid="{41A11BA2-CB19-4A3D-BAB4-C7ABCBD3E30F}" name="Parameter 1" dataDxfId="116"/>
-    <tableColumn id="6" xr3:uid="{648D385E-E212-43CC-A8AA-53DDD8BD0428}" name="Parameter 2" dataDxfId="115"/>
-    <tableColumn id="7" xr3:uid="{A336D93E-1EE2-4808-98BA-CB978FBE172A}" name="Parameter 3" dataDxfId="114"/>
-    <tableColumn id="10" xr3:uid="{03178B46-AD0C-4482-9EC2-A764D5FA6F6C}" name="Parameter 4" dataDxfId="113"/>
-    <tableColumn id="11" xr3:uid="{EAD273F2-76B2-43C4-A1D7-A199E13BAD05}" name="Parameter 5" dataDxfId="112"/>
-    <tableColumn id="8" xr3:uid="{CA066BBA-6299-4A1A-A4D8-73F164A6F41D}" name="Parameter 6" dataDxfId="111"/>
-    <tableColumn id="15" xr3:uid="{F1632EF8-E0CB-4E7B-BEA5-E206CC27F984}" name="Lower Limit" dataDxfId="110"/>
-    <tableColumn id="16" xr3:uid="{4ED75AE2-55E4-419A-A9E6-19CC6C5896E9}" name="Upper Limit" dataDxfId="109"/>
-    <tableColumn id="17" xr3:uid="{D34421A0-FABD-4530-911F-6AAAC527E813}" name="Step" dataDxfId="108"/>
-    <tableColumn id="2" xr3:uid="{385256E7-7F05-4FE1-B140-0C803BFD37D3}" name="Surface Type" dataDxfId="107"/>
+    <tableColumn id="9" xr3:uid="{1735A646-077D-4A5C-8ABA-5E5552C83F8B}" name="Phase" dataDxfId="59"/>
+    <tableColumn id="20" xr3:uid="{004108F0-B585-4FC4-8E02-24F2EDB488C0}" name="Category" dataDxfId="58"/>
+    <tableColumn id="12" xr3:uid="{69E4893D-8A0F-46ED-8648-226BDC719B2B}" name="Name" dataDxfId="57"/>
+    <tableColumn id="14" xr3:uid="{A839FAC0-08F6-4AA7-96B8-39B9A47A057D}" name="Description" dataDxfId="56"/>
+    <tableColumn id="18" xr3:uid="{E0746BE3-6AD9-4082-A683-C57740CF7686}" name="Units" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{C6BD6FF1-F034-424C-A7E9-0CF1059B3A7C}" name="Distribution Type" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{41A11BA2-CB19-4A3D-BAB4-C7ABCBD3E30F}" name="Parameter 1" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{648D385E-E212-43CC-A8AA-53DDD8BD0428}" name="Parameter 2" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{A336D93E-1EE2-4808-98BA-CB978FBE172A}" name="Parameter 3" dataDxfId="51"/>
+    <tableColumn id="10" xr3:uid="{03178B46-AD0C-4482-9EC2-A764D5FA6F6C}" name="Parameter 4" dataDxfId="50"/>
+    <tableColumn id="11" xr3:uid="{EAD273F2-76B2-43C4-A1D7-A199E13BAD05}" name="Parameter 5" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{CA066BBA-6299-4A1A-A4D8-73F164A6F41D}" name="Parameter 6" dataDxfId="48"/>
+    <tableColumn id="15" xr3:uid="{F1632EF8-E0CB-4E7B-BEA5-E206CC27F984}" name="Lower Limit" dataDxfId="47"/>
+    <tableColumn id="16" xr3:uid="{4ED75AE2-55E4-419A-A9E6-19CC6C5896E9}" name="Upper Limit" dataDxfId="46"/>
+    <tableColumn id="17" xr3:uid="{D34421A0-FABD-4530-911F-6AAAC527E813}" name="Step" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{385256E7-7F05-4FE1-B140-0C803BFD37D3}" name="Surface Type" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A9DDAA0B-EDE4-49CE-8D2A-53496C87AC6C}" name="Table156411" displayName="Table156411" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="106" tableBorderDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A9DDAA0B-EDE4-49CE-8D2A-53496C87AC6C}" name="Table156411" displayName="Table156411" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="39" tableBorderDxfId="38">
   <autoFilter ref="A1:P19" xr:uid="{96C1D83B-BC19-489F-9EB7-C4BD46C50E46}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{F67C5E8C-F091-4379-8FA4-1E0A53077B68}" name="Phase" dataDxfId="104"/>
-    <tableColumn id="20" xr3:uid="{F204C7B0-E561-4894-A461-ADBDC80CC735}" name="Category" dataDxfId="103"/>
-    <tableColumn id="12" xr3:uid="{30B72B9B-FF89-4E51-9A96-F8BE3F8041EA}" name="Name" dataDxfId="102"/>
-    <tableColumn id="14" xr3:uid="{DB30649B-C3C1-48BB-B0BA-3762B2EA3DA0}" name="Description" dataDxfId="101"/>
-    <tableColumn id="18" xr3:uid="{3421310D-974A-44DB-BC28-81CC179BFD51}" name="Units" dataDxfId="100"/>
-    <tableColumn id="4" xr3:uid="{A19068C9-4F23-4FE6-A45E-0F5BEA8C7692}" name="Distribution Type" dataDxfId="99"/>
-    <tableColumn id="5" xr3:uid="{8F241659-0C60-4FF4-9636-16A0AEB54DFB}" name="Parameter 1" dataDxfId="98"/>
-    <tableColumn id="6" xr3:uid="{AA2565DE-2D2D-4A58-BC4B-001FAEC9C3F0}" name="Parameter 2" dataDxfId="97"/>
-    <tableColumn id="7" xr3:uid="{CB9ADE6D-1E48-4ECA-BB61-8BFBE1C45E5E}" name="Parameter 3" dataDxfId="96"/>
-    <tableColumn id="10" xr3:uid="{18EB0859-1F88-4B30-8715-88A124D91C9B}" name="Parameter 4" dataDxfId="95"/>
-    <tableColumn id="11" xr3:uid="{6D767472-81BC-463B-A56A-768C0F5A05A9}" name="Parameter 5" dataDxfId="94"/>
-    <tableColumn id="8" xr3:uid="{217B790C-1EC6-4F73-BB6C-25E35A9D36EE}" name="Parameter 6" dataDxfId="93"/>
-    <tableColumn id="15" xr3:uid="{D4DC6753-6BDE-420B-8E58-4073ED5E70CD}" name="Lower Limit" dataDxfId="92"/>
-    <tableColumn id="16" xr3:uid="{9E541401-2A45-4487-861E-572F306DBB90}" name="Upper Limit" dataDxfId="91"/>
-    <tableColumn id="17" xr3:uid="{222205B2-5966-4F6B-A5A4-259C62BDA43D}" name="Step" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{193861A6-3275-4262-94CB-9EBBD7220282}" name="Surface Type" dataDxfId="89"/>
+    <tableColumn id="9" xr3:uid="{F67C5E8C-F091-4379-8FA4-1E0A53077B68}" name="Phase" dataDxfId="37"/>
+    <tableColumn id="20" xr3:uid="{F204C7B0-E561-4894-A461-ADBDC80CC735}" name="Category" dataDxfId="36"/>
+    <tableColumn id="12" xr3:uid="{30B72B9B-FF89-4E51-9A96-F8BE3F8041EA}" name="Name" dataDxfId="35"/>
+    <tableColumn id="14" xr3:uid="{DB30649B-C3C1-48BB-B0BA-3762B2EA3DA0}" name="Description" dataDxfId="34"/>
+    <tableColumn id="18" xr3:uid="{3421310D-974A-44DB-BC28-81CC179BFD51}" name="Units" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{A19068C9-4F23-4FE6-A45E-0F5BEA8C7692}" name="Distribution Type" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{8F241659-0C60-4FF4-9636-16A0AEB54DFB}" name="Parameter 1" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{AA2565DE-2D2D-4A58-BC4B-001FAEC9C3F0}" name="Parameter 2" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{CB9ADE6D-1E48-4ECA-BB61-8BFBE1C45E5E}" name="Parameter 3" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{18EB0859-1F88-4B30-8715-88A124D91C9B}" name="Parameter 4" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{6D767472-81BC-463B-A56A-768C0F5A05A9}" name="Parameter 5" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{217B790C-1EC6-4F73-BB6C-25E35A9D36EE}" name="Parameter 6" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{D4DC6753-6BDE-420B-8E58-4073ED5E70CD}" name="Lower Limit" dataDxfId="25"/>
+    <tableColumn id="16" xr3:uid="{9E541401-2A45-4487-861E-572F306DBB90}" name="Upper Limit" dataDxfId="24"/>
+    <tableColumn id="17" xr3:uid="{222205B2-5966-4F6B-A5A4-259C62BDA43D}" name="Step" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{193861A6-3275-4262-94CB-9EBBD7220282}" name="Surface Type" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1C65CEB6-4F7A-4FD3-92D1-32B0AC0529C7}" name="Table15645" displayName="Table15645" ref="A1:P25" totalsRowShown="0" headerRowBorderDxfId="88" tableBorderDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1C65CEB6-4F7A-4FD3-92D1-32B0AC0529C7}" name="Table15645" displayName="Table15645" ref="A1:P25" totalsRowShown="0" headerRowBorderDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="A1:P25" xr:uid="{CE70FAE3-DAD6-40A6-BCCE-F46A2CDA0980}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{A5634D1E-7F69-4A8B-9B2C-E544A100BE0B}" name="Phase" dataDxfId="86"/>
-    <tableColumn id="22" xr3:uid="{DF0A5598-36C6-480A-8445-5264CD38D6AE}" name="Category" dataDxfId="85"/>
-    <tableColumn id="12" xr3:uid="{322396A3-5A20-4A3E-8F7B-F97F31E5B741}" name="Name" dataDxfId="84"/>
-    <tableColumn id="14" xr3:uid="{1910CF64-CF8F-4994-BC1B-F27FE4E216E6}" name="Description" dataDxfId="83"/>
-    <tableColumn id="18" xr3:uid="{211B9116-478A-42BC-BFD9-0A2AA2AD39A9}" name="Units" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{ABD6291E-7951-4F95-9FF4-C5A1FC0AAC06}" name="Distribution Type" dataDxfId="81"/>
-    <tableColumn id="5" xr3:uid="{ECC3B9FC-E4AE-4AD1-BF4C-89FE38983ABB}" name="Parameter 1" dataDxfId="80"/>
-    <tableColumn id="6" xr3:uid="{8FC5359B-BA7A-46D2-B091-D9665C585235}" name="Parameter 2" dataDxfId="79"/>
-    <tableColumn id="7" xr3:uid="{3BDDE353-FD4F-45F2-8B7C-5F7D6E0D347D}" name="Parameter 3" dataDxfId="78"/>
-    <tableColumn id="10" xr3:uid="{701C65B5-1C54-4F3C-90E2-A67B32AB1876}" name="Parameter 4" dataDxfId="77"/>
-    <tableColumn id="11" xr3:uid="{A8EE834B-F323-4C30-8E59-AEDA8B9E2A61}" name="Parameter 5" dataDxfId="76"/>
-    <tableColumn id="8" xr3:uid="{240B8AE3-DEF4-4C61-BF40-2515EA4A4DDB}" name="Parameter 6" dataDxfId="75"/>
-    <tableColumn id="15" xr3:uid="{5D6076C4-791B-4994-9665-C628F9AE62B7}" name="Lower Limit" dataDxfId="74"/>
-    <tableColumn id="16" xr3:uid="{D06B2878-4A23-45AF-8278-C825D6961D31}" name="Upper Limit" dataDxfId="73"/>
-    <tableColumn id="17" xr3:uid="{54CBA85E-0128-4FD6-8F0E-932C4E402C1C}" name="Step" dataDxfId="72"/>
-    <tableColumn id="20" xr3:uid="{50E0E3C5-5A42-4339-A9FF-1EFEACFF23F1}" name="Surface Type" dataDxfId="71"/>
+    <tableColumn id="9" xr3:uid="{A5634D1E-7F69-4A8B-9B2C-E544A100BE0B}" name="Phase" dataDxfId="15"/>
+    <tableColumn id="22" xr3:uid="{DF0A5598-36C6-480A-8445-5264CD38D6AE}" name="Category" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{322396A3-5A20-4A3E-8F7B-F97F31E5B741}" name="Name" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{1910CF64-CF8F-4994-BC1B-F27FE4E216E6}" name="Description" dataDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{211B9116-478A-42BC-BFD9-0A2AA2AD39A9}" name="Units" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{ABD6291E-7951-4F95-9FF4-C5A1FC0AAC06}" name="Distribution Type" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{ECC3B9FC-E4AE-4AD1-BF4C-89FE38983ABB}" name="Parameter 1" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{8FC5359B-BA7A-46D2-B091-D9665C585235}" name="Parameter 2" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{3BDDE353-FD4F-45F2-8B7C-5F7D6E0D347D}" name="Parameter 3" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{701C65B5-1C54-4F3C-90E2-A67B32AB1876}" name="Parameter 4" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{A8EE834B-F323-4C30-8E59-AEDA8B9E2A61}" name="Parameter 5" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{240B8AE3-DEF4-4C61-BF40-2515EA4A4DDB}" name="Parameter 6" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{5D6076C4-791B-4994-9665-C628F9AE62B7}" name="Lower Limit" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{D06B2878-4A23-45AF-8278-C825D6961D31}" name="Upper Limit" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{54CBA85E-0128-4FD6-8F0E-932C4E402C1C}" name="Step" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{50E0E3C5-5A42-4339-A9FF-1EFEACFF23F1}" name="Surface Type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:O22" totalsRowShown="0" tableBorderDxfId="333">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:O22" totalsRowShown="0" tableBorderDxfId="326">
   <autoFilter ref="A1:O22" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phase" dataDxfId="332"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="331"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="330"/>
-    <tableColumn id="10" xr3:uid="{8EBBFD49-190C-4C2F-A6BC-0598AAC3E788}" name="Description" dataDxfId="329"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="328"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="327"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="326"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="325"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="324"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="323"/>
-    <tableColumn id="14" xr3:uid="{E54D398D-B732-4333-A3F2-2EBD48BAA48B}" name="Parameter 5" dataDxfId="322"/>
-    <tableColumn id="15" xr3:uid="{47B382D4-92A3-4B8C-9C52-0458EA4788B1}" name="Parameter 6" dataDxfId="321"/>
-    <tableColumn id="11" xr3:uid="{BD4375F0-63E9-45EC-BE2E-338374C10F8B}" name="Lower Limit" dataDxfId="320"/>
-    <tableColumn id="12" xr3:uid="{E3D45A75-803F-48B4-B112-11C4C63E6D6F}" name="Upper Limit" dataDxfId="319"/>
-    <tableColumn id="13" xr3:uid="{FFEC12A7-FD01-4D8C-85CF-A25BD15B0829}" name="Step" dataDxfId="318"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phase" dataDxfId="325"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="324"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="323"/>
+    <tableColumn id="10" xr3:uid="{8EBBFD49-190C-4C2F-A6BC-0598AAC3E788}" name="Description" dataDxfId="322"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="321"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="320"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="319"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="318"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="317"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="316"/>
+    <tableColumn id="14" xr3:uid="{E54D398D-B732-4333-A3F2-2EBD48BAA48B}" name="Parameter 5" dataDxfId="315"/>
+    <tableColumn id="15" xr3:uid="{47B382D4-92A3-4B8C-9C52-0458EA4788B1}" name="Parameter 6" dataDxfId="314"/>
+    <tableColumn id="11" xr3:uid="{BD4375F0-63E9-45EC-BE2E-338374C10F8B}" name="Lower Limit" dataDxfId="313"/>
+    <tableColumn id="12" xr3:uid="{E3D45A75-803F-48B4-B112-11C4C63E6D6F}" name="Upper Limit" dataDxfId="312"/>
+    <tableColumn id="13" xr3:uid="{FFEC12A7-FD01-4D8C-85CF-A25BD15B0829}" name="Step" dataDxfId="311"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:O13" totalsRowShown="0" tableBorderDxfId="317">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:O13" totalsRowShown="0" tableBorderDxfId="302">
   <autoFilter ref="A1:O13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Phase" dataDxfId="316"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="315"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="314"/>
-    <tableColumn id="10" xr3:uid="{2D3DA962-F373-48F5-BD94-00CC27106A46}" name="Description" dataDxfId="313"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="312"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="311"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="310"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="309"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="308"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="307"/>
-    <tableColumn id="14" xr3:uid="{5A98E335-B701-4CC9-9D03-A85D24786F3B}" name="Parameter 5" dataDxfId="306"/>
-    <tableColumn id="15" xr3:uid="{79377D49-ED29-41CF-AC28-FD408018808C}" name="Parameter 6" dataDxfId="305"/>
-    <tableColumn id="11" xr3:uid="{FF818C38-99D8-4486-B25F-2B94B62F77AF}" name="Lower Limit" dataDxfId="304"/>
-    <tableColumn id="12" xr3:uid="{8C44E4B8-6916-4798-9055-589FE4E4C903}" name="Upper Limit" dataDxfId="303"/>
-    <tableColumn id="13" xr3:uid="{8266E46A-7EC0-42D8-91D3-D2DC1B4352DE}" name="Step" dataDxfId="302"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Phase" dataDxfId="301"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="300"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="299"/>
+    <tableColumn id="10" xr3:uid="{2D3DA962-F373-48F5-BD94-00CC27106A46}" name="Description" dataDxfId="298"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="297"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="296"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="295"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="294"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="293"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="292"/>
+    <tableColumn id="14" xr3:uid="{5A98E335-B701-4CC9-9D03-A85D24786F3B}" name="Parameter 5" dataDxfId="291"/>
+    <tableColumn id="15" xr3:uid="{79377D49-ED29-41CF-AC28-FD408018808C}" name="Parameter 6" dataDxfId="290"/>
+    <tableColumn id="11" xr3:uid="{FF818C38-99D8-4486-B25F-2B94B62F77AF}" name="Lower Limit" dataDxfId="289"/>
+    <tableColumn id="12" xr3:uid="{8C44E4B8-6916-4798-9055-589FE4E4C903}" name="Upper Limit" dataDxfId="288"/>
+    <tableColumn id="13" xr3:uid="{8266E46A-7EC0-42D8-91D3-D2DC1B4352DE}" name="Step" dataDxfId="287"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:O20" totalsRowShown="0" headerRowBorderDxfId="301" tableBorderDxfId="300">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:O20" totalsRowShown="0" headerRowBorderDxfId="278" tableBorderDxfId="277">
   <autoFilter ref="A1:O20" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Phase" dataDxfId="299"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="298"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="297"/>
-    <tableColumn id="10" xr3:uid="{A40104D1-3BF7-4068-8777-3D61F27973C1}" name="Description" dataDxfId="296"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="295"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="294"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="293"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="292"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="291"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="290"/>
-    <tableColumn id="14" xr3:uid="{77E616D7-C540-4C6C-A01C-31C8ADF35FBE}" name="Parameter 5" dataDxfId="289"/>
-    <tableColumn id="15" xr3:uid="{68C28D25-E41A-4D3D-A794-809A12A02364}" name="Parameter 6" dataDxfId="288"/>
-    <tableColumn id="11" xr3:uid="{83552614-5368-48EE-AE65-AA7B101E55EF}" name="Lower Limit" dataDxfId="287"/>
-    <tableColumn id="12" xr3:uid="{98998298-F4B1-4980-B79C-0BF0D0D59028}" name="Upper Limit" dataDxfId="286"/>
-    <tableColumn id="13" xr3:uid="{8E3814A1-C526-4157-B0D9-1258E47ACA45}" name="Step" dataDxfId="285"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Phase" dataDxfId="276"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="275"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="274"/>
+    <tableColumn id="10" xr3:uid="{A40104D1-3BF7-4068-8777-3D61F27973C1}" name="Description" dataDxfId="273"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="272"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="271"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="270"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="269"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="268"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="267"/>
+    <tableColumn id="14" xr3:uid="{77E616D7-C540-4C6C-A01C-31C8ADF35FBE}" name="Parameter 5" dataDxfId="266"/>
+    <tableColumn id="15" xr3:uid="{68C28D25-E41A-4D3D-A794-809A12A02364}" name="Parameter 6" dataDxfId="265"/>
+    <tableColumn id="11" xr3:uid="{83552614-5368-48EE-AE65-AA7B101E55EF}" name="Lower Limit" dataDxfId="264"/>
+    <tableColumn id="12" xr3:uid="{98998298-F4B1-4980-B79C-0BF0D0D59028}" name="Upper Limit" dataDxfId="263"/>
+    <tableColumn id="13" xr3:uid="{8E3814A1-C526-4157-B0D9-1258E47ACA45}" name="Step" dataDxfId="262"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15793" displayName="Table15793" ref="A1:O2" totalsRowShown="0" headerRowBorderDxfId="284" tableBorderDxfId="283">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15793" displayName="Table15793" ref="A1:O2" totalsRowShown="0" headerRowBorderDxfId="257" tableBorderDxfId="256">
   <autoFilter ref="A1:O2" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Phase" dataDxfId="282"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="281"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Name" dataDxfId="280"/>
-    <tableColumn id="10" xr3:uid="{4482773E-AA48-4795-9A9F-10283D12A976}" name="Description" dataDxfId="279"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Units" dataDxfId="278"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Distribution Type" dataDxfId="277"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Parameter 1" dataDxfId="276"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Parameter 2" dataDxfId="275"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Parameter 3" dataDxfId="274"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Parameter 4" dataDxfId="273"/>
-    <tableColumn id="14" xr3:uid="{41E058E9-8EB6-430E-BC58-82195628B7D1}" name="Parameter 5" dataDxfId="272"/>
-    <tableColumn id="15" xr3:uid="{1CA16974-E252-4655-813D-3FC48E8CCF45}" name="Parameter 6" dataDxfId="271"/>
-    <tableColumn id="11" xr3:uid="{0ED7EC4B-FD74-44E3-B1E6-428C431FDA88}" name="Lower Limit" dataDxfId="270"/>
-    <tableColumn id="12" xr3:uid="{4CA3754D-692A-40C0-BCC5-14D0E3AAF144}" name="Upper Limit" dataDxfId="269"/>
-    <tableColumn id="13" xr3:uid="{D4791B88-6435-44AE-9946-77D4E8CB6EA8}" name="Step" dataDxfId="268"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Phase" dataDxfId="255"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="254"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Name" dataDxfId="253"/>
+    <tableColumn id="10" xr3:uid="{4482773E-AA48-4795-9A9F-10283D12A976}" name="Description" dataDxfId="252"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Units" dataDxfId="251"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Distribution Type" dataDxfId="250"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Parameter 1" dataDxfId="249"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Parameter 2" dataDxfId="248"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Parameter 3" dataDxfId="247"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Parameter 4" dataDxfId="246"/>
+    <tableColumn id="14" xr3:uid="{41E058E9-8EB6-430E-BC58-82195628B7D1}" name="Parameter 5" dataDxfId="245"/>
+    <tableColumn id="15" xr3:uid="{1CA16974-E252-4655-813D-3FC48E8CCF45}" name="Parameter 6" dataDxfId="244"/>
+    <tableColumn id="11" xr3:uid="{0ED7EC4B-FD74-44E3-B1E6-428C431FDA88}" name="Lower Limit" dataDxfId="243"/>
+    <tableColumn id="12" xr3:uid="{4CA3754D-692A-40C0-BCC5-14D0E3AAF144}" name="Upper Limit" dataDxfId="242"/>
+    <tableColumn id="13" xr3:uid="{D4791B88-6435-44AE-9946-77D4E8CB6EA8}" name="Step" dataDxfId="241"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:O24" totalsRowShown="0" headerRowBorderDxfId="267" tableBorderDxfId="266">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:O24" totalsRowShown="0" headerRowBorderDxfId="236" tableBorderDxfId="235">
   <autoFilter ref="A1:O24" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2">
     <sortCondition ref="B1:B2"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Phase" dataDxfId="265"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="264"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="263"/>
-    <tableColumn id="10" xr3:uid="{3AFE3909-1CDD-46E0-8677-569A824534FB}" name="Description" dataDxfId="262"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="261"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="260"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="259"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="258"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="257"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="256"/>
-    <tableColumn id="14" xr3:uid="{8991E047-B1B0-4B74-A5AA-45E689F51874}" name="Parameter 5" dataDxfId="255"/>
-    <tableColumn id="15" xr3:uid="{A25E7AA9-7C49-405C-8326-53EA8C994FFB}" name="Parameter 6" dataDxfId="254"/>
-    <tableColumn id="11" xr3:uid="{08FFB9BF-C539-434A-A2F4-C19873D3AB3E}" name="Lower Limit" dataDxfId="253"/>
-    <tableColumn id="12" xr3:uid="{CEDB540F-344B-4D49-8CD6-9F7746873840}" name="Upper Limit" dataDxfId="252"/>
-    <tableColumn id="13" xr3:uid="{4B3E9A2A-7D0A-4F2D-B694-DB4D2C83BA0A}" name="Step" dataDxfId="251"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Phase" dataDxfId="234"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="233"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="232"/>
+    <tableColumn id="10" xr3:uid="{3AFE3909-1CDD-46E0-8677-569A824534FB}" name="Description" dataDxfId="231"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="230"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="229"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="228"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="227"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="226"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="225"/>
+    <tableColumn id="14" xr3:uid="{8991E047-B1B0-4B74-A5AA-45E689F51874}" name="Parameter 5" dataDxfId="224"/>
+    <tableColumn id="15" xr3:uid="{A25E7AA9-7C49-405C-8326-53EA8C994FFB}" name="Parameter 6" dataDxfId="223"/>
+    <tableColumn id="11" xr3:uid="{08FFB9BF-C539-434A-A2F4-C19873D3AB3E}" name="Lower Limit" dataDxfId="222"/>
+    <tableColumn id="12" xr3:uid="{CEDB540F-344B-4D49-8CD6-9F7746873840}" name="Upper Limit" dataDxfId="221"/>
+    <tableColumn id="13" xr3:uid="{4B3E9A2A-7D0A-4F2D-B694-DB4D2C83BA0A}" name="Step" dataDxfId="220"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3CB8E65B-B7DB-4610-98F8-15D74050538C}" name="Table156410" displayName="Table156410" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="250" tableBorderDxfId="249">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3CB8E65B-B7DB-4610-98F8-15D74050538C}" name="Table156410" displayName="Table156410" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="215" tableBorderDxfId="214">
   <autoFilter ref="A1:P19" xr:uid="{A2DF75BF-F49D-463D-B10C-635E799069A4}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{33E848DD-559D-4023-9F06-526E6AF9BD94}" name="Phase" dataDxfId="248"/>
-    <tableColumn id="20" xr3:uid="{9EDFC6C3-E3F9-4924-BC6A-804D2BBDAE4E}" name="Category" dataDxfId="247"/>
-    <tableColumn id="12" xr3:uid="{D5F0DA51-2BBD-46FF-88FA-75AA7A464F56}" name="Name" dataDxfId="246"/>
-    <tableColumn id="14" xr3:uid="{C6DADE20-FD43-4249-ADF7-72D9BB6ED860}" name="Description" dataDxfId="245"/>
-    <tableColumn id="18" xr3:uid="{017077E2-A519-4357-81FC-29BBCF542A5D}" name="Units" dataDxfId="244"/>
-    <tableColumn id="4" xr3:uid="{18A3B7BD-46E6-497D-932B-A279201CED36}" name="Distribution Type" dataDxfId="243"/>
-    <tableColumn id="5" xr3:uid="{5BD00F12-3393-4245-9BE0-D37573FCF5E3}" name="Parameter 1" dataDxfId="242"/>
-    <tableColumn id="6" xr3:uid="{F68E7FA0-23DA-4C5B-BCD3-BD3C7B299B02}" name="Parameter 2" dataDxfId="241"/>
-    <tableColumn id="7" xr3:uid="{E074689D-E9A9-4D78-901F-4D6DEAB8F157}" name="Parameter 3" dataDxfId="240"/>
-    <tableColumn id="10" xr3:uid="{24FDA3C5-E39C-430C-90BB-3F6BD09EEDC7}" name="Parameter 4" dataDxfId="239"/>
-    <tableColumn id="11" xr3:uid="{42BED06C-CBA3-4453-AE89-CFE7799A8559}" name="Parameter 5" dataDxfId="238"/>
-    <tableColumn id="8" xr3:uid="{4CFE8BFF-6747-408C-8ABA-AFDB589C4F81}" name="Parameter 6" dataDxfId="237"/>
-    <tableColumn id="15" xr3:uid="{E0BBD4D8-EA8D-4CAF-B849-F7A2CE769A48}" name="Lower Limit" dataDxfId="236"/>
-    <tableColumn id="16" xr3:uid="{4800A8E8-843B-4C41-91BF-C1A3C30DE8D6}" name="Upper Limit" dataDxfId="235"/>
-    <tableColumn id="17" xr3:uid="{A6367C3F-1F51-48D6-9EB3-E8501CEA0DC3}" name="Step" dataDxfId="234"/>
-    <tableColumn id="2" xr3:uid="{35A75B88-2478-4C79-A2CA-47B2F68D1460}" name="Surface Type" dataDxfId="233"/>
+    <tableColumn id="9" xr3:uid="{33E848DD-559D-4023-9F06-526E6AF9BD94}" name="Phase" dataDxfId="213"/>
+    <tableColumn id="20" xr3:uid="{9EDFC6C3-E3F9-4924-BC6A-804D2BBDAE4E}" name="Category" dataDxfId="212"/>
+    <tableColumn id="12" xr3:uid="{D5F0DA51-2BBD-46FF-88FA-75AA7A464F56}" name="Name" dataDxfId="211"/>
+    <tableColumn id="14" xr3:uid="{C6DADE20-FD43-4249-ADF7-72D9BB6ED860}" name="Description" dataDxfId="210"/>
+    <tableColumn id="18" xr3:uid="{017077E2-A519-4357-81FC-29BBCF542A5D}" name="Units" dataDxfId="209"/>
+    <tableColumn id="4" xr3:uid="{18A3B7BD-46E6-497D-932B-A279201CED36}" name="Distribution Type" dataDxfId="208"/>
+    <tableColumn id="5" xr3:uid="{5BD00F12-3393-4245-9BE0-D37573FCF5E3}" name="Parameter 1" dataDxfId="207"/>
+    <tableColumn id="6" xr3:uid="{F68E7FA0-23DA-4C5B-BCD3-BD3C7B299B02}" name="Parameter 2" dataDxfId="206"/>
+    <tableColumn id="7" xr3:uid="{E074689D-E9A9-4D78-901F-4D6DEAB8F157}" name="Parameter 3" dataDxfId="205"/>
+    <tableColumn id="10" xr3:uid="{24FDA3C5-E39C-430C-90BB-3F6BD09EEDC7}" name="Parameter 4" dataDxfId="204"/>
+    <tableColumn id="11" xr3:uid="{42BED06C-CBA3-4453-AE89-CFE7799A8559}" name="Parameter 5" dataDxfId="203"/>
+    <tableColumn id="8" xr3:uid="{4CFE8BFF-6747-408C-8ABA-AFDB589C4F81}" name="Parameter 6" dataDxfId="202"/>
+    <tableColumn id="15" xr3:uid="{E0BBD4D8-EA8D-4CAF-B849-F7A2CE769A48}" name="Lower Limit" dataDxfId="201"/>
+    <tableColumn id="16" xr3:uid="{4800A8E8-843B-4C41-91BF-C1A3C30DE8D6}" name="Upper Limit" dataDxfId="200"/>
+    <tableColumn id="17" xr3:uid="{A6367C3F-1F51-48D6-9EB3-E8501CEA0DC3}" name="Step" dataDxfId="199"/>
+    <tableColumn id="2" xr3:uid="{35A75B88-2478-4C79-A2CA-47B2F68D1460}" name="Surface Type" dataDxfId="198"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{86A1116E-A4B1-4819-B8BD-755AC0F1A27A}" name="Table15648" displayName="Table15648" ref="A1:P123" totalsRowShown="0" headerRowBorderDxfId="232" tableBorderDxfId="231">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{86A1116E-A4B1-4819-B8BD-755AC0F1A27A}" name="Table15648" displayName="Table15648" ref="A1:P123" totalsRowShown="0" headerRowBorderDxfId="193" tableBorderDxfId="192">
   <autoFilter ref="A1:P123" xr:uid="{990E6A50-401C-443A-9431-A3C6B1C33DB9}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{B7EF7E94-8BD1-4B05-A1E1-DE0166BDA299}" name="Phase" dataDxfId="230"/>
-    <tableColumn id="20" xr3:uid="{3E394D25-22F5-47DE-8DD2-1B412C8ACB40}" name="Category" dataDxfId="229"/>
-    <tableColumn id="12" xr3:uid="{581C35A5-6B54-4CCA-AD27-A0086A458CD9}" name="Name" dataDxfId="228"/>
-    <tableColumn id="14" xr3:uid="{02601854-7EF0-4B53-83BA-E1A583AB0E89}" name="Description" dataDxfId="227"/>
-    <tableColumn id="18" xr3:uid="{38E6F539-D589-4AEB-9FF3-0F3407B1F600}" name="Units" dataDxfId="226"/>
-    <tableColumn id="4" xr3:uid="{758D0224-FF70-4B51-A43F-A666DBEE60B5}" name="Distribution Type" dataDxfId="225"/>
-    <tableColumn id="5" xr3:uid="{AA403007-B0D8-4F37-BBED-A39F4CBEC713}" name="Parameter 1" dataDxfId="224"/>
-    <tableColumn id="6" xr3:uid="{AEFD9020-CB8D-46C6-A545-72935F5E17C9}" name="Parameter 2" dataDxfId="223"/>
-    <tableColumn id="7" xr3:uid="{5391F637-3141-4924-AB2D-BB7560C402FC}" name="Parameter 3" dataDxfId="222"/>
-    <tableColumn id="10" xr3:uid="{DD30C7A0-FB24-4548-956F-070EED2E392A}" name="Parameter 4" dataDxfId="221"/>
-    <tableColumn id="11" xr3:uid="{4C51B414-DF9A-46F4-A761-171654CD826B}" name="Parameter 5" dataDxfId="220"/>
-    <tableColumn id="8" xr3:uid="{C36C5078-BCC8-4902-86B0-4CC5F5B94354}" name="Parameter 6" dataDxfId="219"/>
-    <tableColumn id="15" xr3:uid="{0B417314-7BF7-498C-AFAD-AF435E3794CB}" name="Lower Limit" dataDxfId="218"/>
-    <tableColumn id="16" xr3:uid="{869CD7E5-A5F2-42BE-860A-4654BBA29091}" name="Upper Limit" dataDxfId="217"/>
-    <tableColumn id="17" xr3:uid="{9D5645C4-35FE-4467-8F7A-0259A9E00D72}" name="Step" dataDxfId="216"/>
-    <tableColumn id="2" xr3:uid="{50BD2715-2D27-4DE5-B9A0-A7590DC8C3DF}" name="Surface Type" dataDxfId="215"/>
+    <tableColumn id="9" xr3:uid="{B7EF7E94-8BD1-4B05-A1E1-DE0166BDA299}" name="Phase" dataDxfId="191"/>
+    <tableColumn id="20" xr3:uid="{3E394D25-22F5-47DE-8DD2-1B412C8ACB40}" name="Category" dataDxfId="190"/>
+    <tableColumn id="12" xr3:uid="{581C35A5-6B54-4CCA-AD27-A0086A458CD9}" name="Name" dataDxfId="189"/>
+    <tableColumn id="14" xr3:uid="{02601854-7EF0-4B53-83BA-E1A583AB0E89}" name="Description" dataDxfId="188"/>
+    <tableColumn id="18" xr3:uid="{38E6F539-D589-4AEB-9FF3-0F3407B1F600}" name="Units" dataDxfId="187"/>
+    <tableColumn id="4" xr3:uid="{758D0224-FF70-4B51-A43F-A666DBEE60B5}" name="Distribution Type" dataDxfId="186"/>
+    <tableColumn id="5" xr3:uid="{AA403007-B0D8-4F37-BBED-A39F4CBEC713}" name="Parameter 1" dataDxfId="185"/>
+    <tableColumn id="6" xr3:uid="{AEFD9020-CB8D-46C6-A545-72935F5E17C9}" name="Parameter 2" dataDxfId="184"/>
+    <tableColumn id="7" xr3:uid="{5391F637-3141-4924-AB2D-BB7560C402FC}" name="Parameter 3" dataDxfId="183"/>
+    <tableColumn id="10" xr3:uid="{DD30C7A0-FB24-4548-956F-070EED2E392A}" name="Parameter 4" dataDxfId="182"/>
+    <tableColumn id="11" xr3:uid="{4C51B414-DF9A-46F4-A761-171654CD826B}" name="Parameter 5" dataDxfId="181"/>
+    <tableColumn id="8" xr3:uid="{C36C5078-BCC8-4902-86B0-4CC5F5B94354}" name="Parameter 6" dataDxfId="180"/>
+    <tableColumn id="15" xr3:uid="{0B417314-7BF7-498C-AFAD-AF435E3794CB}" name="Lower Limit" dataDxfId="179"/>
+    <tableColumn id="16" xr3:uid="{869CD7E5-A5F2-42BE-860A-4654BBA29091}" name="Upper Limit" dataDxfId="178"/>
+    <tableColumn id="17" xr3:uid="{9D5645C4-35FE-4467-8F7A-0259A9E00D72}" name="Step" dataDxfId="177"/>
+    <tableColumn id="2" xr3:uid="{50BD2715-2D27-4DE5-B9A0-A7590DC8C3DF}" name="Surface Type" dataDxfId="176"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{70557EE6-CCDF-497F-AD58-5C0E1C74D197}" name="Table156412" displayName="Table156412" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="214" tableBorderDxfId="213">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{70557EE6-CCDF-497F-AD58-5C0E1C74D197}" name="Table156412" displayName="Table156412" ref="A1:P19" totalsRowShown="0" headerRowBorderDxfId="171" tableBorderDxfId="170">
   <autoFilter ref="A1:P19" xr:uid="{98B9CAE8-5809-471F-A0E6-3C63C0FF7931}"/>
   <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{0E927F65-2069-4507-B0B0-8DA725AF99EC}" name="Phase" dataDxfId="212"/>
-    <tableColumn id="20" xr3:uid="{921518C6-F6AF-4306-9A67-62C12E697D60}" name="Category" dataDxfId="211"/>
-    <tableColumn id="12" xr3:uid="{CD5679ED-CB25-488E-8C70-2C446DAB28DC}" name="Name" dataDxfId="210"/>
-    <tableColumn id="14" xr3:uid="{F17E92B1-609F-453F-8FC2-11AB75FFB5B0}" name="Description" dataDxfId="209"/>
-    <tableColumn id="18" xr3:uid="{CA25841B-E30A-4228-B65F-216207437CB0}" name="Units" dataDxfId="208"/>
-    <tableColumn id="4" xr3:uid="{5CF3C293-70A2-445C-B6F4-D4BCEB868AEC}" name="Distribution Type" dataDxfId="207"/>
-    <tableColumn id="5" xr3:uid="{6B896B7D-F74D-42FF-97BC-93D69E611504}" name="Parameter 1" dataDxfId="206"/>
-    <tableColumn id="6" xr3:uid="{02AE94F0-B427-476D-88EB-3C9235866F4E}" name="Parameter 2" dataDxfId="205"/>
-    <tableColumn id="7" xr3:uid="{C0EF4425-A63A-42D7-82B9-4C1366C7BF01}" name="Parameter 3" dataDxfId="204">
+    <tableColumn id="9" xr3:uid="{0E927F65-2069-4507-B0B0-8DA725AF99EC}" name="Phase" dataDxfId="169"/>
+    <tableColumn id="20" xr3:uid="{921518C6-F6AF-4306-9A67-62C12E697D60}" name="Category" dataDxfId="168"/>
+    <tableColumn id="12" xr3:uid="{CD5679ED-CB25-488E-8C70-2C446DAB28DC}" name="Name" dataDxfId="167"/>
+    <tableColumn id="14" xr3:uid="{F17E92B1-609F-453F-8FC2-11AB75FFB5B0}" name="Description" dataDxfId="166"/>
+    <tableColumn id="18" xr3:uid="{CA25841B-E30A-4228-B65F-216207437CB0}" name="Units" dataDxfId="165"/>
+    <tableColumn id="4" xr3:uid="{5CF3C293-70A2-445C-B6F4-D4BCEB868AEC}" name="Distribution Type" dataDxfId="164"/>
+    <tableColumn id="5" xr3:uid="{6B896B7D-F74D-42FF-97BC-93D69E611504}" name="Parameter 1" dataDxfId="163"/>
+    <tableColumn id="6" xr3:uid="{02AE94F0-B427-476D-88EB-3C9235866F4E}" name="Parameter 2" dataDxfId="162"/>
+    <tableColumn id="7" xr3:uid="{C0EF4425-A63A-42D7-82B9-4C1366C7BF01}" name="Parameter 3" dataDxfId="161">
       <calculatedColumnFormula>(Table156412[[#This Row],[Parameter 1]]-1)/(Table156412[[#This Row],[Parameter 1]]+Table156412[[#This Row],[Parameter 2]]-2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{7F665756-5949-4CD6-AE8C-F7531D7A9CAD}" name="Parameter 4" dataDxfId="203"/>
-    <tableColumn id="11" xr3:uid="{59049478-1CD8-416F-BED1-BD7B8FEA0C41}" name="Parameter 5" dataDxfId="202"/>
-    <tableColumn id="8" xr3:uid="{CC7DFE3F-C2E2-4F46-B153-D03CF263B523}" name="Parameter 6" dataDxfId="201"/>
-    <tableColumn id="15" xr3:uid="{F2A6353F-D73A-41E5-B265-D8F18AA4409C}" name="Lower Limit" dataDxfId="200"/>
-    <tableColumn id="16" xr3:uid="{1D8D56B8-5F2C-48C5-9CE4-93C38BD7488F}" name="Upper Limit" dataDxfId="199"/>
-    <tableColumn id="17" xr3:uid="{6AB8DBB9-751A-4840-BC73-4780E1B009AD}" name="Step" dataDxfId="198"/>
-    <tableColumn id="2" xr3:uid="{86F807CE-2B91-41DF-9379-67C8909AB8D2}" name="Surface Type" dataDxfId="197"/>
+    <tableColumn id="10" xr3:uid="{7F665756-5949-4CD6-AE8C-F7531D7A9CAD}" name="Parameter 4" dataDxfId="160"/>
+    <tableColumn id="11" xr3:uid="{59049478-1CD8-416F-BED1-BD7B8FEA0C41}" name="Parameter 5" dataDxfId="159"/>
+    <tableColumn id="8" xr3:uid="{CC7DFE3F-C2E2-4F46-B153-D03CF263B523}" name="Parameter 6" dataDxfId="158"/>
+    <tableColumn id="15" xr3:uid="{F2A6353F-D73A-41E5-B265-D8F18AA4409C}" name="Lower Limit" dataDxfId="157"/>
+    <tableColumn id="16" xr3:uid="{1D8D56B8-5F2C-48C5-9CE4-93C38BD7488F}" name="Upper Limit" dataDxfId="156"/>
+    <tableColumn id="17" xr3:uid="{6AB8DBB9-751A-4840-BC73-4780E1B009AD}" name="Step" dataDxfId="155"/>
+    <tableColumn id="2" xr3:uid="{86F807CE-2B91-41DF-9379-67C8909AB8D2}" name="Surface Type" dataDxfId="154"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7373,7 +7362,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011106CA-034C-42C6-970E-BB5575CB6577}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8232,20 +8223,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="39" priority="3">
+    <cfRule type="expression" dxfId="219" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="38" priority="4">
+    <cfRule type="expression" dxfId="218" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="37" priority="1">
+    <cfRule type="expression" dxfId="217" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="216" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13946,20 +13937,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L123">
-    <cfRule type="expression" dxfId="35" priority="3">
+    <cfRule type="expression" dxfId="197" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18 A20 A22 A24 A26 A28 A30 A32 A34 A36 A38 A40 A42 A44 A46 A48 A50 A52 A54 A56 A58 A60 A62 A64 A66 A68 A70 A72 A74 A76 A78 A80 A82 A84 A86 A88 A90 A92 A94 A96 A98 A100 A102 A104 A106 A108 A110 A112 A114 A116 A118 A120 A122">
-    <cfRule type="expression" dxfId="34" priority="1">
+    <cfRule type="expression" dxfId="196" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="2">
+    <cfRule type="expression" dxfId="195" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 A21:L21 A23:L23 A25:L25 A27:L27 A29:L29 A31:L31 A33:L33 A35:L35 A37:L37 A39:L39 A41:L41 A43:L43 A45:L45 A47:L47 A49:L49 A51:L51 A53:L53 A55:L55 A57:L57 A59:L59 A61:L61 A63:L63 A65:L65 A67:L67 A69:L69 A71:L71 A73:L73 A75:L75 A77:L77 A79:L79 A81:L81 A83:L83 A85:L85 A87:L87 A89:L89 A91:L91 A93:L93 A95:L95 A97:L97 A99:L99 A101:L101 A103:L103 A105:L105 A107:L107 A109:L109 A111:L111 A113:L113 A115:L115 A117:L117 A119:L119 A121:L121 A123:L123 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18 B20:L20 B22:L22 B24:L24 B26:L26 B28:L28 B30:L30 B32:L32 B34:L34 B36:L36 B38:L38 B40:L40 B42:L42 B44:L44 B46:L46 B48:L48 B50:L50 B52:L52 B54:L54 B56:L56 B58:L58 B60:L60 B62:L62 B64:L64 B66:L66 B68:L68 B70:L70 B72:L72 B74:L74 B76:L76 B78:L78 B80:L80 B82:L82 B84:L84 B86:L86 B88:L88 B90:L90 B92:L92 B94:L94 B96:L96 B98:L98 B100:L100 B102:L102 B104:L104 B106:L106 B108:L108 B110:L110 B112:L112 B114:L114 B116:L116 B118:L118 B120:L120 B122:L122">
-    <cfRule type="expression" dxfId="32" priority="4">
+    <cfRule type="expression" dxfId="194" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14840,20 +14831,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="31" priority="3">
+    <cfRule type="expression" dxfId="175" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="30" priority="1">
+    <cfRule type="expression" dxfId="174" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="173" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="28" priority="4">
+    <cfRule type="expression" dxfId="172" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16154,20 +16145,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L27">
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="153" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18 A20 A22 A24 A26">
-    <cfRule type="expression" dxfId="26" priority="1">
+    <cfRule type="expression" dxfId="152" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="151" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 A21:L21 A23:L23 A25:L25 A27:L27 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18 B20:L20 B22:L22 B24:L24 B26:L26">
-    <cfRule type="expression" dxfId="24" priority="4">
+    <cfRule type="expression" dxfId="150" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17012,20 +17003,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="23" priority="3">
+    <cfRule type="expression" dxfId="131" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="130" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="129" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="128" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18956,20 +18947,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L40">
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="109" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18 A20 A22 A24 A26 A28 A30 A32 A34 A36 A38 A40">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="108" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="107" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 A21:L21 A23:L23 A25:L25 A27:L27 A29:L29 A31:L31 A33:L33 A35:L35 A37:L37 A39:L39 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18 B20:L20 B22:L22 B24:L24 B26:L26 B28:L28 B30:L30 B32:L32 B34:L34 B36:L36 B38:L38 B40:L40">
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="106" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19814,20 +19805,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="87" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="86" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="85" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="84" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20810,20 +20801,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="65" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="64" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="63" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="62" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21668,20 +21659,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="43" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="42" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="41" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="40" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22805,20 +22796,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L25">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18 A20 A22 A24">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 A21:L21 A23:L23 A25:L25 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18 B20:L20 B22:L22 B24:L24">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23233,7 +23224,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -23369,10 +23360,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:L3">
-    <cfRule type="expression" dxfId="69" priority="133">
+    <cfRule type="expression" dxfId="348" priority="133">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="134">
+    <cfRule type="expression" dxfId="347" priority="134">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23394,8 +23385,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23637,9 +23628,15 @@
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <v>50</v>
+      </c>
+      <c r="O6" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
@@ -24165,9 +24162,15 @@
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
+      <c r="M20" s="14">
+        <v>0</v>
+      </c>
+      <c r="N20" s="14">
+        <v>5</v>
+      </c>
+      <c r="O20" s="14">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
@@ -24196,9 +24199,15 @@
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
+      <c r="M21" s="14">
+        <v>0</v>
+      </c>
+      <c r="N21" s="14">
+        <v>5</v>
+      </c>
+      <c r="O21" s="14">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
@@ -24227,27 +24236,33 @@
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
+      <c r="M22" s="14">
+        <v>0</v>
+      </c>
+      <c r="N22" s="14">
+        <v>5</v>
+      </c>
+      <c r="O22" s="14">
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L22">
-    <cfRule type="expression" dxfId="67" priority="55">
+    <cfRule type="expression" dxfId="330" priority="55">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19 D13 A2:A22 D3:D6">
-    <cfRule type="expression" dxfId="66" priority="39">
+    <cfRule type="expression" dxfId="329" priority="39">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="40">
+    <cfRule type="expression" dxfId="328" priority="40">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2 B20:L20 B19:C19 E19:L19 B7:L12 B14:L18 B13:C13 E13:L13 B3:C6 E3:L6">
-    <cfRule type="expression" dxfId="64" priority="138">
+    <cfRule type="expression" dxfId="327" priority="138">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24268,8 +24283,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24509,9 +24524,15 @@
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <v>5</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
@@ -24785,40 +24806,40 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L13">
-    <cfRule type="expression" dxfId="63" priority="50">
+    <cfRule type="expression" dxfId="310" priority="50">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A13 D12 D9 D3:D6">
-    <cfRule type="expression" dxfId="62" priority="31">
+    <cfRule type="expression" dxfId="309" priority="31">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="32">
+    <cfRule type="expression" dxfId="308" priority="32">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:L13 B7:L7 B8:C12 E8:L12 B2:C6 E2:L6">
-    <cfRule type="expression" dxfId="60" priority="141">
+    <cfRule type="expression" dxfId="307" priority="141">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="59" priority="4">
+    <cfRule type="expression" dxfId="306" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="58" priority="3">
+    <cfRule type="expression" dxfId="305" priority="3">
       <formula>ISBLANK($F8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="57" priority="2">
+    <cfRule type="expression" dxfId="304" priority="2">
       <formula>ISBLANK($F11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="56" priority="1">
+    <cfRule type="expression" dxfId="303" priority="1">
       <formula>ISBLANK($F10)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24839,8 +24860,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25079,9 +25100,15 @@
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <v>10</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
@@ -25110,9 +25137,15 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
+        <v>10</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
@@ -25616,40 +25649,40 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L20">
-    <cfRule type="expression" dxfId="55" priority="63">
+    <cfRule type="expression" dxfId="286" priority="63">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19 A2:A20 D3:D7">
-    <cfRule type="expression" dxfId="54" priority="41">
+    <cfRule type="expression" dxfId="285" priority="41">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="42">
+    <cfRule type="expression" dxfId="284" priority="42">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2 B20:L20 B19:C19 E19:L19 B12:L18 B3:C11 E3:L11">
-    <cfRule type="expression" dxfId="52" priority="138">
+    <cfRule type="expression" dxfId="283" priority="138">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="51" priority="4">
+    <cfRule type="expression" dxfId="282" priority="4">
       <formula>ISBLANK($F9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="50" priority="3">
+    <cfRule type="expression" dxfId="281" priority="3">
       <formula>ISBLANK($F10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="49" priority="2">
+    <cfRule type="expression" dxfId="280" priority="2">
       <formula>ISBLANK($F8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="48" priority="1">
+    <cfRule type="expression" dxfId="279" priority="1">
       <formula>ISBLANK($F11)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25669,7 +25702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -25768,20 +25801,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L2">
-    <cfRule type="expression" dxfId="47" priority="26">
+    <cfRule type="expression" dxfId="261" priority="26">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="46" priority="1">
+    <cfRule type="expression" dxfId="260" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="259" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2">
-    <cfRule type="expression" dxfId="44" priority="129">
+    <cfRule type="expression" dxfId="258" priority="129">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25802,8 +25835,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26726,27 +26759,33 @@
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
+      <c r="M24" s="14">
+        <v>0</v>
+      </c>
+      <c r="N24" s="14">
+        <v>500</v>
+      </c>
+      <c r="O24" s="14">
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L24">
-    <cfRule type="expression" dxfId="43" priority="29">
+    <cfRule type="expression" dxfId="240" priority="29">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="42" priority="1">
+    <cfRule type="expression" dxfId="239" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="2">
+    <cfRule type="expression" dxfId="238" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2 A3:L23">
-    <cfRule type="expression" dxfId="40" priority="128">
+    <cfRule type="expression" dxfId="237" priority="128">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/InputFiles/ModifyParameters.xlsx
+++ b/InputFiles/ModifyParameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERAZA\Documents\Tasking\(4) EPA Stuff\Task 5 Repo\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C66F49-B150-4146-9694-524D5BB71C5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C96C675-B312-4B46-B5BF-8041BB52B3EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="657" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="657" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internal - File Info" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3186" uniqueCount="264">
   <si>
     <t>SCWAD</t>
   </si>
@@ -7362,7 +7362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011106CA-034C-42C6-970E-BB5575CB6577}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -8256,8 +8256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A10D7BB-05A6-4B60-851F-B04551ABF90A}">
   <dimension ref="A1:P123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="A2:P3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13970,8 +13970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F08034A-F53B-42A8-9F6B-D4DE0BCAA15B}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14864,7 +14864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459556E1-C9FD-4A07-9122-D9DBD384813B}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -16178,7 +16178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A13EB3-4467-4D4B-9547-358B09BEE45B}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -17036,7 +17036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016DBC76-7827-41B0-AF96-73B2E7F68B47}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -18980,7 +18980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFEC960-EBFD-4A3D-8E0F-940934014ADD}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="P2" sqref="A2:P3"/>
     </sheetView>
   </sheetViews>
@@ -19838,7 +19838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C1A5AA-6B1A-46A5-9161-7FD11EDFA325}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:P3"/>
     </sheetView>
   </sheetViews>
@@ -20834,7 +20834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A33A8E7-AD20-48FF-AFAE-81E12293EF6F}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -21693,8 +21693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A144A034-D186-4ABB-9FCB-F1B84E607A97}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23385,7 +23385,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
@@ -24283,8 +24283,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24460,7 +24460,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>164</v>
       </c>
@@ -24500,7 +24500,9 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+      <c r="A6" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="B6" s="10" t="s">
         <v>29</v>
       </c>
@@ -24810,7 +24812,7 @@
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A13 D12 D9 D3:D6">
+  <conditionalFormatting sqref="D12 D9 D3:D6 A2:A13">
     <cfRule type="expression" dxfId="309" priority="31">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
@@ -24861,7 +24863,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:O7"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25702,7 +25704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/InputFiles/ModifyParameters.xlsx
+++ b/InputFiles/ModifyParameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\EPA\WideAreaDecon\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERAZA\Documents\Tasking\(4) EPA Stuff\Task 5 Repo\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4738646D-B296-430B-BEC9-BDAE1D70B515}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0349B6DA-8329-498C-8D1F-02A580FD5F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="657" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="657" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internal - File Info" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="265">
   <si>
     <t>SCWAD</t>
   </si>
@@ -838,6 +838,15 @@
   </si>
   <si>
     <t>Cost of rental car per day</t>
+  </si>
+  <si>
+    <t>Fraction Samples Sent to Each Lab</t>
+  </si>
+  <si>
+    <t>The fraction of total samples that are sent to each lab</t>
+  </si>
+  <si>
+    <t>fraction of samples</t>
   </si>
 </sst>
 </file>
@@ -1130,14 +1139,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="339">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="340">
     <dxf>
       <font>
         <i/>
@@ -1150,6 +1152,289 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -1186,6 +1471,289 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -1222,6 +1790,289 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -1258,6 +2109,289 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -1294,6 +2428,263 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -1330,6 +2721,289 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -1364,2076 +3038,6 @@
           <bgColor theme="2" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -3719,6 +3323,42 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4003,6 +3643,42 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4286,6 +3962,42 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4516,6 +4228,24 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -4550,6 +4280,42 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -4886,6 +4652,42 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -5210,6 +5012,42 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -5546,6 +5384,70 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -5846,6 +5748,70 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -6144,6 +6110,42 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -6440,6 +6442,24 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6455,389 +6475,389 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table156" displayName="Table156" ref="A1:O3" totalsRowShown="0" tableBorderDxfId="338">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table156" displayName="Table156" ref="A1:O3" totalsRowShown="0" tableBorderDxfId="337">
   <autoFilter ref="A1:O3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phase" dataDxfId="337"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="336"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="335"/>
-    <tableColumn id="10" xr3:uid="{DA69379A-DE3F-42F4-AF70-91A1718AB7E0}" name="Description" dataDxfId="334"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Units" dataDxfId="333"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distribution Type" dataDxfId="332"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter 1" dataDxfId="331"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="330"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="329"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="328"/>
-    <tableColumn id="14" xr3:uid="{50465694-0FC6-4F52-BBDD-C2367DABB3F3}" name="Parameter 5" dataDxfId="327"/>
-    <tableColumn id="15" xr3:uid="{9D83EAB9-CB4C-4600-AF1C-4966CB714685}" name="Parameter 6" dataDxfId="326"/>
-    <tableColumn id="11" xr3:uid="{6D5D89BA-F5B6-48D7-8EB6-F84737897B28}" name="Lower Limit" dataDxfId="325"/>
-    <tableColumn id="12" xr3:uid="{48C3D1E7-422F-49D2-B091-B1AED1C3D586}" name="Upper Limit" dataDxfId="324"/>
-    <tableColumn id="13" xr3:uid="{C7F66B6D-AE49-4F19-BA50-224FF50E099F}" name="Step" dataDxfId="323"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phase" dataDxfId="336"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="335"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="334"/>
+    <tableColumn id="10" xr3:uid="{DA69379A-DE3F-42F4-AF70-91A1718AB7E0}" name="Description" dataDxfId="333"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Units" dataDxfId="332"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distribution Type" dataDxfId="331"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter 1" dataDxfId="330"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="329"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="328"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="327"/>
+    <tableColumn id="14" xr3:uid="{50465694-0FC6-4F52-BBDD-C2367DABB3F3}" name="Parameter 5" dataDxfId="326"/>
+    <tableColumn id="15" xr3:uid="{9D83EAB9-CB4C-4600-AF1C-4966CB714685}" name="Parameter 6" dataDxfId="325"/>
+    <tableColumn id="11" xr3:uid="{6D5D89BA-F5B6-48D7-8EB6-F84737897B28}" name="Lower Limit" dataDxfId="324"/>
+    <tableColumn id="12" xr3:uid="{48C3D1E7-422F-49D2-B091-B1AED1C3D586}" name="Upper Limit" dataDxfId="323"/>
+    <tableColumn id="13" xr3:uid="{C7F66B6D-AE49-4F19-BA50-224FF50E099F}" name="Step" dataDxfId="322"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{F9C17F91-E3F1-4ABE-9219-5A5F8F4C3152}" name="Table1564518" displayName="Table1564518" ref="A1:O27" totalsRowShown="0" headerRowBorderDxfId="189" tableBorderDxfId="188">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{F9C17F91-E3F1-4ABE-9219-5A5F8F4C3152}" name="Table1564518" displayName="Table1564518" ref="A1:O27" totalsRowShown="0" headerRowBorderDxfId="143" tableBorderDxfId="142">
   <autoFilter ref="A1:O27" xr:uid="{CE70FAE3-DAD6-40A6-BCCE-F46A2CDA0980}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{77AC217A-782C-47D2-9945-D4226DB02CB4}" name="Phase" dataDxfId="187"/>
-    <tableColumn id="22" xr3:uid="{A77A81F7-C018-4F6E-BF69-5FE486BECF62}" name="Category" dataDxfId="186"/>
-    <tableColumn id="12" xr3:uid="{CCA10716-C2B0-4055-953E-1957EC05B7DC}" name="Name" dataDxfId="185"/>
-    <tableColumn id="14" xr3:uid="{9131E52D-9D7C-41BF-ABF5-9AAF65D5BC39}" name="Description" dataDxfId="184"/>
-    <tableColumn id="18" xr3:uid="{819C7026-BBE6-4FEF-81FC-063CF9E923E1}" name="Units" dataDxfId="183"/>
-    <tableColumn id="4" xr3:uid="{BCC0BC54-494B-4CD2-9D93-4A14A321EFDE}" name="Distribution Type" dataDxfId="182"/>
-    <tableColumn id="5" xr3:uid="{890B6437-FEB3-4225-BE1D-8F4BB30A2A95}" name="Parameter 1" dataDxfId="181"/>
-    <tableColumn id="6" xr3:uid="{D95452BF-5FFC-4C2D-BE8B-1138CADE3867}" name="Parameter 2" dataDxfId="180"/>
-    <tableColumn id="7" xr3:uid="{AFAD290F-88ED-4F65-8343-1B7E0B2331C2}" name="Parameter 3" dataDxfId="179"/>
-    <tableColumn id="10" xr3:uid="{C7581E5C-58E6-4080-A3F0-3C90449EE32D}" name="Parameter 4" dataDxfId="178"/>
-    <tableColumn id="11" xr3:uid="{1D5C967F-8BEE-4049-9B30-056174F945AE}" name="Parameter 5" dataDxfId="177"/>
-    <tableColumn id="8" xr3:uid="{058E5821-3943-44C1-B08D-F22618A8CB01}" name="Parameter 6" dataDxfId="176"/>
-    <tableColumn id="15" xr3:uid="{C95BAD13-0F40-4073-97D7-EA904AFBC77C}" name="Lower Limit" dataDxfId="175"/>
-    <tableColumn id="16" xr3:uid="{582C9B39-6E23-469E-818C-CDD30AA83C2C}" name="Upper Limit" dataDxfId="174"/>
-    <tableColumn id="17" xr3:uid="{27D6A1B7-E56F-410E-929C-C8BD6000D2D9}" name="Step" dataDxfId="173"/>
+    <tableColumn id="9" xr3:uid="{77AC217A-782C-47D2-9945-D4226DB02CB4}" name="Phase" dataDxfId="141"/>
+    <tableColumn id="22" xr3:uid="{A77A81F7-C018-4F6E-BF69-5FE486BECF62}" name="Category" dataDxfId="140"/>
+    <tableColumn id="12" xr3:uid="{CCA10716-C2B0-4055-953E-1957EC05B7DC}" name="Name" dataDxfId="139"/>
+    <tableColumn id="14" xr3:uid="{9131E52D-9D7C-41BF-ABF5-9AAF65D5BC39}" name="Description" dataDxfId="138"/>
+    <tableColumn id="18" xr3:uid="{819C7026-BBE6-4FEF-81FC-063CF9E923E1}" name="Units" dataDxfId="137"/>
+    <tableColumn id="4" xr3:uid="{BCC0BC54-494B-4CD2-9D93-4A14A321EFDE}" name="Distribution Type" dataDxfId="136"/>
+    <tableColumn id="5" xr3:uid="{890B6437-FEB3-4225-BE1D-8F4BB30A2A95}" name="Parameter 1" dataDxfId="135"/>
+    <tableColumn id="6" xr3:uid="{D95452BF-5FFC-4C2D-BE8B-1138CADE3867}" name="Parameter 2" dataDxfId="134"/>
+    <tableColumn id="7" xr3:uid="{AFAD290F-88ED-4F65-8343-1B7E0B2331C2}" name="Parameter 3" dataDxfId="133"/>
+    <tableColumn id="10" xr3:uid="{C7581E5C-58E6-4080-A3F0-3C90449EE32D}" name="Parameter 4" dataDxfId="132"/>
+    <tableColumn id="11" xr3:uid="{1D5C967F-8BEE-4049-9B30-056174F945AE}" name="Parameter 5" dataDxfId="131"/>
+    <tableColumn id="8" xr3:uid="{058E5821-3943-44C1-B08D-F22618A8CB01}" name="Parameter 6" dataDxfId="130"/>
+    <tableColumn id="15" xr3:uid="{C95BAD13-0F40-4073-97D7-EA904AFBC77C}" name="Lower Limit" dataDxfId="129"/>
+    <tableColumn id="16" xr3:uid="{582C9B39-6E23-469E-818C-CDD30AA83C2C}" name="Upper Limit" dataDxfId="128"/>
+    <tableColumn id="17" xr3:uid="{27D6A1B7-E56F-410E-929C-C8BD6000D2D9}" name="Step" dataDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{432F1329-A516-4974-97D5-CED039B9825E}" name="Table15649" displayName="Table15649" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="172" tableBorderDxfId="171">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{432F1329-A516-4974-97D5-CED039B9825E}" name="Table15649" displayName="Table15649" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="122" tableBorderDxfId="121">
   <autoFilter ref="A1:O19" xr:uid="{68B29069-2622-4242-A0DD-EA343A9BF637}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{A65D510F-11AE-4758-A918-595CFAEACDBA}" name="Phase" dataDxfId="170"/>
-    <tableColumn id="20" xr3:uid="{1983ED84-E3C7-438C-9FBC-6F68009993BF}" name="Category" dataDxfId="169"/>
-    <tableColumn id="12" xr3:uid="{5F8CF16A-5A1F-471D-941E-E8FA15DC40D9}" name="Name" dataDxfId="168"/>
-    <tableColumn id="14" xr3:uid="{603CB562-B188-4D78-8AF7-0C257FE01A78}" name="Description" dataDxfId="167"/>
-    <tableColumn id="18" xr3:uid="{25C96984-595F-4E53-AEA3-48FE8964668C}" name="Units" dataDxfId="166"/>
-    <tableColumn id="4" xr3:uid="{3AC7C66C-7352-42C7-A88A-718F1163EBC3}" name="Distribution Type" dataDxfId="165"/>
-    <tableColumn id="5" xr3:uid="{6CD1BB89-2672-4A45-AE6D-45DC8FD8C2D0}" name="Parameter 1" dataDxfId="164"/>
-    <tableColumn id="6" xr3:uid="{713F99C9-7865-434B-9380-0F8833A0B7CE}" name="Parameter 2" dataDxfId="163"/>
-    <tableColumn id="7" xr3:uid="{7B3CBF6D-ABAD-435C-93E5-94B2A9A1570D}" name="Parameter 3" dataDxfId="162"/>
-    <tableColumn id="10" xr3:uid="{FD8F6808-F8E5-4346-BE6E-D40A5DADECAC}" name="Parameter 4" dataDxfId="161"/>
-    <tableColumn id="11" xr3:uid="{DC3102D4-541E-44FE-AEFA-0FB92AC933C5}" name="Parameter 5" dataDxfId="160"/>
-    <tableColumn id="8" xr3:uid="{151C5968-B156-4013-B6C4-5D012F22EEF6}" name="Parameter 6" dataDxfId="159"/>
-    <tableColumn id="15" xr3:uid="{868EF292-2E08-40B9-9605-DAF748095734}" name="Lower Limit" dataDxfId="158"/>
-    <tableColumn id="16" xr3:uid="{42D5D159-9DC2-4FE5-9923-4E2B98164CE9}" name="Upper Limit" dataDxfId="157"/>
-    <tableColumn id="17" xr3:uid="{10AFF230-51CB-4644-8521-A18EFFD37E36}" name="Step" dataDxfId="156"/>
+    <tableColumn id="9" xr3:uid="{A65D510F-11AE-4758-A918-595CFAEACDBA}" name="Phase" dataDxfId="120"/>
+    <tableColumn id="20" xr3:uid="{1983ED84-E3C7-438C-9FBC-6F68009993BF}" name="Category" dataDxfId="119"/>
+    <tableColumn id="12" xr3:uid="{5F8CF16A-5A1F-471D-941E-E8FA15DC40D9}" name="Name" dataDxfId="118"/>
+    <tableColumn id="14" xr3:uid="{603CB562-B188-4D78-8AF7-0C257FE01A78}" name="Description" dataDxfId="117"/>
+    <tableColumn id="18" xr3:uid="{25C96984-595F-4E53-AEA3-48FE8964668C}" name="Units" dataDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{3AC7C66C-7352-42C7-A88A-718F1163EBC3}" name="Distribution Type" dataDxfId="115"/>
+    <tableColumn id="5" xr3:uid="{6CD1BB89-2672-4A45-AE6D-45DC8FD8C2D0}" name="Parameter 1" dataDxfId="114"/>
+    <tableColumn id="6" xr3:uid="{713F99C9-7865-434B-9380-0F8833A0B7CE}" name="Parameter 2" dataDxfId="113"/>
+    <tableColumn id="7" xr3:uid="{7B3CBF6D-ABAD-435C-93E5-94B2A9A1570D}" name="Parameter 3" dataDxfId="112"/>
+    <tableColumn id="10" xr3:uid="{FD8F6808-F8E5-4346-BE6E-D40A5DADECAC}" name="Parameter 4" dataDxfId="111"/>
+    <tableColumn id="11" xr3:uid="{DC3102D4-541E-44FE-AEFA-0FB92AC933C5}" name="Parameter 5" dataDxfId="110"/>
+    <tableColumn id="8" xr3:uid="{151C5968-B156-4013-B6C4-5D012F22EEF6}" name="Parameter 6" dataDxfId="109"/>
+    <tableColumn id="15" xr3:uid="{868EF292-2E08-40B9-9605-DAF748095734}" name="Lower Limit" dataDxfId="108"/>
+    <tableColumn id="16" xr3:uid="{42D5D159-9DC2-4FE5-9923-4E2B98164CE9}" name="Upper Limit" dataDxfId="107"/>
+    <tableColumn id="17" xr3:uid="{10AFF230-51CB-4644-8521-A18EFFD37E36}" name="Step" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{DF020213-F975-452A-9830-6EF38DDE7DCF}" name="Table15647" displayName="Table15647" ref="A1:O40" totalsRowShown="0" headerRowBorderDxfId="155" tableBorderDxfId="154">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{DF020213-F975-452A-9830-6EF38DDE7DCF}" name="Table15647" displayName="Table15647" ref="A1:O40" totalsRowShown="0" headerRowBorderDxfId="101" tableBorderDxfId="100">
   <autoFilter ref="A1:O40" xr:uid="{859BD2B0-AA02-48BA-8620-BDF827813892}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{F237A42D-415A-475B-91B7-8CB0D38B7028}" name="Phase" dataDxfId="153"/>
-    <tableColumn id="20" xr3:uid="{D2304797-990E-4466-8277-ACC378FC5EF1}" name="Category" dataDxfId="152"/>
-    <tableColumn id="12" xr3:uid="{E8D03348-3348-4698-9DA9-FDFD93C4108D}" name="Name" dataDxfId="151"/>
-    <tableColumn id="14" xr3:uid="{D9BE976B-814C-40BA-BB9C-F5A4A863809D}" name="Description" dataDxfId="150"/>
-    <tableColumn id="18" xr3:uid="{C8EEDF00-53C4-4BBB-A736-4C222CC37ACE}" name="Units" dataDxfId="149"/>
-    <tableColumn id="4" xr3:uid="{B912A136-218A-46A6-9298-A26FF451BC8B}" name="Distribution Type" dataDxfId="148"/>
-    <tableColumn id="5" xr3:uid="{B469F8C6-AC37-4E2C-B435-D79806B5EB80}" name="Parameter 1" dataDxfId="147"/>
-    <tableColumn id="6" xr3:uid="{6E4BE98D-3625-46DA-8047-5C4657A18F62}" name="Parameter 2" dataDxfId="146"/>
-    <tableColumn id="7" xr3:uid="{24844D85-F2B8-4B62-9347-EE51DBA7335D}" name="Parameter 3" dataDxfId="145"/>
-    <tableColumn id="10" xr3:uid="{A09FB262-3AAD-46E1-B780-FAC155246DCB}" name="Parameter 4" dataDxfId="144"/>
-    <tableColumn id="11" xr3:uid="{C49055A9-0CD5-4B9A-9D72-65429F3A5716}" name="Parameter 5" dataDxfId="143"/>
-    <tableColumn id="8" xr3:uid="{B80ED53B-AC7B-4D83-B11D-F4584FC387E7}" name="Parameter 6" dataDxfId="142"/>
-    <tableColumn id="15" xr3:uid="{196E4D59-E5D8-47FC-8FBC-0DF83057658E}" name="Lower Limit" dataDxfId="141"/>
-    <tableColumn id="16" xr3:uid="{9EDBB862-8D13-4999-A6D8-0549867DD0D7}" name="Upper Limit" dataDxfId="140"/>
-    <tableColumn id="17" xr3:uid="{9F81C7E5-43F7-4126-A586-BB1219F70A02}" name="Step" dataDxfId="139"/>
+    <tableColumn id="9" xr3:uid="{F237A42D-415A-475B-91B7-8CB0D38B7028}" name="Phase" dataDxfId="99"/>
+    <tableColumn id="20" xr3:uid="{D2304797-990E-4466-8277-ACC378FC5EF1}" name="Category" dataDxfId="98"/>
+    <tableColumn id="12" xr3:uid="{E8D03348-3348-4698-9DA9-FDFD93C4108D}" name="Name" dataDxfId="97"/>
+    <tableColumn id="14" xr3:uid="{D9BE976B-814C-40BA-BB9C-F5A4A863809D}" name="Description" dataDxfId="96"/>
+    <tableColumn id="18" xr3:uid="{C8EEDF00-53C4-4BBB-A736-4C222CC37ACE}" name="Units" dataDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{B912A136-218A-46A6-9298-A26FF451BC8B}" name="Distribution Type" dataDxfId="94"/>
+    <tableColumn id="5" xr3:uid="{B469F8C6-AC37-4E2C-B435-D79806B5EB80}" name="Parameter 1" dataDxfId="93"/>
+    <tableColumn id="6" xr3:uid="{6E4BE98D-3625-46DA-8047-5C4657A18F62}" name="Parameter 2" dataDxfId="92"/>
+    <tableColumn id="7" xr3:uid="{24844D85-F2B8-4B62-9347-EE51DBA7335D}" name="Parameter 3" dataDxfId="91"/>
+    <tableColumn id="10" xr3:uid="{A09FB262-3AAD-46E1-B780-FAC155246DCB}" name="Parameter 4" dataDxfId="90"/>
+    <tableColumn id="11" xr3:uid="{C49055A9-0CD5-4B9A-9D72-65429F3A5716}" name="Parameter 5" dataDxfId="89"/>
+    <tableColumn id="8" xr3:uid="{B80ED53B-AC7B-4D83-B11D-F4584FC387E7}" name="Parameter 6" dataDxfId="88"/>
+    <tableColumn id="15" xr3:uid="{196E4D59-E5D8-47FC-8FBC-0DF83057658E}" name="Lower Limit" dataDxfId="87"/>
+    <tableColumn id="16" xr3:uid="{9EDBB862-8D13-4999-A6D8-0549867DD0D7}" name="Upper Limit" dataDxfId="86"/>
+    <tableColumn id="17" xr3:uid="{9F81C7E5-43F7-4126-A586-BB1219F70A02}" name="Step" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{7550EFF0-9439-4E6A-8D23-02F504FBD1D4}" name="Table156414" displayName="Table156414" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="138" tableBorderDxfId="137">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{7550EFF0-9439-4E6A-8D23-02F504FBD1D4}" name="Table156414" displayName="Table156414" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="80" tableBorderDxfId="79">
   <autoFilter ref="A1:O19" xr:uid="{E89F1AAB-0467-4C13-8286-F7AC331E8CED}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{AE476C5A-DA1D-465E-9CDD-F6537F49B59A}" name="Phase" dataDxfId="136"/>
-    <tableColumn id="12" xr3:uid="{5D89776A-B117-4D83-ACC3-F00ADD3FE56E}" name="Category" dataDxfId="135"/>
-    <tableColumn id="3" xr3:uid="{9037C44A-A90D-462C-A2F2-1224467C2BC0}" name="Name" dataDxfId="134"/>
-    <tableColumn id="14" xr3:uid="{E343E4A4-9362-4305-9A92-A8062E97127D}" name="Description" dataDxfId="133"/>
-    <tableColumn id="18" xr3:uid="{59A60541-5F4F-478A-996C-A136B098D92B}" name="Units" dataDxfId="132"/>
-    <tableColumn id="4" xr3:uid="{30DA923F-FB86-4AC4-B259-AE796033AAED}" name="Distribution Type" dataDxfId="131"/>
-    <tableColumn id="5" xr3:uid="{BD9D6BB8-0A9E-48E1-95D5-0EECCBFE8316}" name="Parameter 1" dataDxfId="130"/>
-    <tableColumn id="6" xr3:uid="{B0E10190-9195-4B9D-A20D-A270CE2F3E98}" name="Parameter 2" dataDxfId="129"/>
-    <tableColumn id="7" xr3:uid="{918B726D-0E60-49F6-94FE-F7B5CF284EB2}" name="Parameter 3" dataDxfId="128"/>
-    <tableColumn id="10" xr3:uid="{F52C94ED-5667-4B4C-AF10-29D9CF45ACB5}" name="Parameter 4" dataDxfId="127"/>
-    <tableColumn id="11" xr3:uid="{9F8440AB-4D90-4F35-8265-07E520410CC0}" name="Parameter 5" dataDxfId="126"/>
-    <tableColumn id="8" xr3:uid="{4F13BDAF-F86A-4434-B9C3-576D1A4571C8}" name="Parameter 6" dataDxfId="125"/>
-    <tableColumn id="15" xr3:uid="{168B9EEC-D86A-4C57-8174-66D02451AA11}" name="Lower Limit" dataDxfId="124"/>
-    <tableColumn id="16" xr3:uid="{B91AA0FC-6FD4-4503-8497-8E2658CD5A9C}" name="Upper Limit" dataDxfId="123"/>
-    <tableColumn id="17" xr3:uid="{85F85B4E-2654-4B9F-8CBF-9AF7D4017806}" name="Step" dataDxfId="122"/>
+    <tableColumn id="9" xr3:uid="{AE476C5A-DA1D-465E-9CDD-F6537F49B59A}" name="Phase" dataDxfId="78"/>
+    <tableColumn id="12" xr3:uid="{5D89776A-B117-4D83-ACC3-F00ADD3FE56E}" name="Category" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{9037C44A-A90D-462C-A2F2-1224467C2BC0}" name="Name" dataDxfId="76"/>
+    <tableColumn id="14" xr3:uid="{E343E4A4-9362-4305-9A92-A8062E97127D}" name="Description" dataDxfId="75"/>
+    <tableColumn id="18" xr3:uid="{59A60541-5F4F-478A-996C-A136B098D92B}" name="Units" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{30DA923F-FB86-4AC4-B259-AE796033AAED}" name="Distribution Type" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{BD9D6BB8-0A9E-48E1-95D5-0EECCBFE8316}" name="Parameter 1" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{B0E10190-9195-4B9D-A20D-A270CE2F3E98}" name="Parameter 2" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{918B726D-0E60-49F6-94FE-F7B5CF284EB2}" name="Parameter 3" dataDxfId="70"/>
+    <tableColumn id="10" xr3:uid="{F52C94ED-5667-4B4C-AF10-29D9CF45ACB5}" name="Parameter 4" dataDxfId="69"/>
+    <tableColumn id="11" xr3:uid="{9F8440AB-4D90-4F35-8265-07E520410CC0}" name="Parameter 5" dataDxfId="68"/>
+    <tableColumn id="8" xr3:uid="{4F13BDAF-F86A-4434-B9C3-576D1A4571C8}" name="Parameter 6" dataDxfId="67"/>
+    <tableColumn id="15" xr3:uid="{168B9EEC-D86A-4C57-8174-66D02451AA11}" name="Lower Limit" dataDxfId="66"/>
+    <tableColumn id="16" xr3:uid="{B91AA0FC-6FD4-4503-8497-8E2658CD5A9C}" name="Upper Limit" dataDxfId="65"/>
+    <tableColumn id="17" xr3:uid="{85F85B4E-2654-4B9F-8CBF-9AF7D4017806}" name="Step" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{544BD654-9B18-4F85-8680-0367091A97FD}" name="Table15646" displayName="Table15646" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="121" tableBorderDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{544BD654-9B18-4F85-8680-0367091A97FD}" name="Table15646" displayName="Table15646" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="59" tableBorderDxfId="58">
   <autoFilter ref="A1:O19" xr:uid="{EC61BB93-4EB0-4480-9F8B-C9A2D56564B4}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{1735A646-077D-4A5C-8ABA-5E5552C83F8B}" name="Phase" dataDxfId="119"/>
-    <tableColumn id="20" xr3:uid="{004108F0-B585-4FC4-8E02-24F2EDB488C0}" name="Category" dataDxfId="70"/>
-    <tableColumn id="12" xr3:uid="{69E4893D-8A0F-46ED-8648-226BDC719B2B}" name="Name" dataDxfId="118"/>
-    <tableColumn id="14" xr3:uid="{A839FAC0-08F6-4AA7-96B8-39B9A47A057D}" name="Description" dataDxfId="117"/>
-    <tableColumn id="18" xr3:uid="{E0746BE3-6AD9-4082-A683-C57740CF7686}" name="Units" dataDxfId="116"/>
-    <tableColumn id="4" xr3:uid="{C6BD6FF1-F034-424C-A7E9-0CF1059B3A7C}" name="Distribution Type" dataDxfId="115"/>
-    <tableColumn id="5" xr3:uid="{41A11BA2-CB19-4A3D-BAB4-C7ABCBD3E30F}" name="Parameter 1" dataDxfId="114"/>
-    <tableColumn id="6" xr3:uid="{648D385E-E212-43CC-A8AA-53DDD8BD0428}" name="Parameter 2" dataDxfId="113"/>
-    <tableColumn id="7" xr3:uid="{A336D93E-1EE2-4808-98BA-CB978FBE172A}" name="Parameter 3" dataDxfId="112"/>
-    <tableColumn id="10" xr3:uid="{03178B46-AD0C-4482-9EC2-A764D5FA6F6C}" name="Parameter 4" dataDxfId="111"/>
-    <tableColumn id="11" xr3:uid="{EAD273F2-76B2-43C4-A1D7-A199E13BAD05}" name="Parameter 5" dataDxfId="110"/>
-    <tableColumn id="8" xr3:uid="{CA066BBA-6299-4A1A-A4D8-73F164A6F41D}" name="Parameter 6" dataDxfId="109"/>
-    <tableColumn id="15" xr3:uid="{F1632EF8-E0CB-4E7B-BEA5-E206CC27F984}" name="Lower Limit" dataDxfId="108"/>
-    <tableColumn id="16" xr3:uid="{4ED75AE2-55E4-419A-A9E6-19CC6C5896E9}" name="Upper Limit" dataDxfId="107"/>
-    <tableColumn id="17" xr3:uid="{D34421A0-FABD-4530-911F-6AAAC527E813}" name="Step" dataDxfId="106"/>
+    <tableColumn id="9" xr3:uid="{1735A646-077D-4A5C-8ABA-5E5552C83F8B}" name="Phase" dataDxfId="57"/>
+    <tableColumn id="20" xr3:uid="{004108F0-B585-4FC4-8E02-24F2EDB488C0}" name="Category" dataDxfId="56"/>
+    <tableColumn id="12" xr3:uid="{69E4893D-8A0F-46ED-8648-226BDC719B2B}" name="Name" dataDxfId="55"/>
+    <tableColumn id="14" xr3:uid="{A839FAC0-08F6-4AA7-96B8-39B9A47A057D}" name="Description" dataDxfId="54"/>
+    <tableColumn id="18" xr3:uid="{E0746BE3-6AD9-4082-A683-C57740CF7686}" name="Units" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{C6BD6FF1-F034-424C-A7E9-0CF1059B3A7C}" name="Distribution Type" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{41A11BA2-CB19-4A3D-BAB4-C7ABCBD3E30F}" name="Parameter 1" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{648D385E-E212-43CC-A8AA-53DDD8BD0428}" name="Parameter 2" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{A336D93E-1EE2-4808-98BA-CB978FBE172A}" name="Parameter 3" dataDxfId="49"/>
+    <tableColumn id="10" xr3:uid="{03178B46-AD0C-4482-9EC2-A764D5FA6F6C}" name="Parameter 4" dataDxfId="48"/>
+    <tableColumn id="11" xr3:uid="{EAD273F2-76B2-43C4-A1D7-A199E13BAD05}" name="Parameter 5" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{CA066BBA-6299-4A1A-A4D8-73F164A6F41D}" name="Parameter 6" dataDxfId="46"/>
+    <tableColumn id="15" xr3:uid="{F1632EF8-E0CB-4E7B-BEA5-E206CC27F984}" name="Lower Limit" dataDxfId="45"/>
+    <tableColumn id="16" xr3:uid="{4ED75AE2-55E4-419A-A9E6-19CC6C5896E9}" name="Upper Limit" dataDxfId="44"/>
+    <tableColumn id="17" xr3:uid="{D34421A0-FABD-4530-911F-6AAAC527E813}" name="Step" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A9DDAA0B-EDE4-49CE-8D2A-53496C87AC6C}" name="Table156411" displayName="Table156411" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="105" tableBorderDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A9DDAA0B-EDE4-49CE-8D2A-53496C87AC6C}" name="Table156411" displayName="Table156411" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="38" tableBorderDxfId="37">
   <autoFilter ref="A1:O19" xr:uid="{96C1D83B-BC19-489F-9EB7-C4BD46C50E46}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{F67C5E8C-F091-4379-8FA4-1E0A53077B68}" name="Phase" dataDxfId="103"/>
-    <tableColumn id="20" xr3:uid="{F204C7B0-E561-4894-A461-ADBDC80CC735}" name="Category" dataDxfId="102"/>
-    <tableColumn id="12" xr3:uid="{30B72B9B-FF89-4E51-9A96-F8BE3F8041EA}" name="Name" dataDxfId="101"/>
-    <tableColumn id="14" xr3:uid="{DB30649B-C3C1-48BB-B0BA-3762B2EA3DA0}" name="Description" dataDxfId="100"/>
-    <tableColumn id="18" xr3:uid="{3421310D-974A-44DB-BC28-81CC179BFD51}" name="Units" dataDxfId="99"/>
-    <tableColumn id="4" xr3:uid="{A19068C9-4F23-4FE6-A45E-0F5BEA8C7692}" name="Distribution Type" dataDxfId="98"/>
-    <tableColumn id="5" xr3:uid="{8F241659-0C60-4FF4-9636-16A0AEB54DFB}" name="Parameter 1" dataDxfId="97"/>
-    <tableColumn id="6" xr3:uid="{AA2565DE-2D2D-4A58-BC4B-001FAEC9C3F0}" name="Parameter 2" dataDxfId="96"/>
-    <tableColumn id="7" xr3:uid="{CB9ADE6D-1E48-4ECA-BB61-8BFBE1C45E5E}" name="Parameter 3" dataDxfId="95"/>
-    <tableColumn id="10" xr3:uid="{18EB0859-1F88-4B30-8715-88A124D91C9B}" name="Parameter 4" dataDxfId="94"/>
-    <tableColumn id="11" xr3:uid="{6D767472-81BC-463B-A56A-768C0F5A05A9}" name="Parameter 5" dataDxfId="93"/>
-    <tableColumn id="8" xr3:uid="{217B790C-1EC6-4F73-BB6C-25E35A9D36EE}" name="Parameter 6" dataDxfId="92"/>
-    <tableColumn id="15" xr3:uid="{D4DC6753-6BDE-420B-8E58-4073ED5E70CD}" name="Lower Limit" dataDxfId="91"/>
-    <tableColumn id="16" xr3:uid="{9E541401-2A45-4487-861E-572F306DBB90}" name="Upper Limit" dataDxfId="90"/>
-    <tableColumn id="17" xr3:uid="{222205B2-5966-4F6B-A5A4-259C62BDA43D}" name="Step" dataDxfId="89"/>
+    <tableColumn id="9" xr3:uid="{F67C5E8C-F091-4379-8FA4-1E0A53077B68}" name="Phase" dataDxfId="36"/>
+    <tableColumn id="20" xr3:uid="{F204C7B0-E561-4894-A461-ADBDC80CC735}" name="Category" dataDxfId="35"/>
+    <tableColumn id="12" xr3:uid="{30B72B9B-FF89-4E51-9A96-F8BE3F8041EA}" name="Name" dataDxfId="34"/>
+    <tableColumn id="14" xr3:uid="{DB30649B-C3C1-48BB-B0BA-3762B2EA3DA0}" name="Description" dataDxfId="33"/>
+    <tableColumn id="18" xr3:uid="{3421310D-974A-44DB-BC28-81CC179BFD51}" name="Units" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{A19068C9-4F23-4FE6-A45E-0F5BEA8C7692}" name="Distribution Type" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{8F241659-0C60-4FF4-9636-16A0AEB54DFB}" name="Parameter 1" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{AA2565DE-2D2D-4A58-BC4B-001FAEC9C3F0}" name="Parameter 2" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{CB9ADE6D-1E48-4ECA-BB61-8BFBE1C45E5E}" name="Parameter 3" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{18EB0859-1F88-4B30-8715-88A124D91C9B}" name="Parameter 4" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{6D767472-81BC-463B-A56A-768C0F5A05A9}" name="Parameter 5" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{217B790C-1EC6-4F73-BB6C-25E35A9D36EE}" name="Parameter 6" dataDxfId="25"/>
+    <tableColumn id="15" xr3:uid="{D4DC6753-6BDE-420B-8E58-4073ED5E70CD}" name="Lower Limit" dataDxfId="24"/>
+    <tableColumn id="16" xr3:uid="{9E541401-2A45-4487-861E-572F306DBB90}" name="Upper Limit" dataDxfId="23"/>
+    <tableColumn id="17" xr3:uid="{222205B2-5966-4F6B-A5A4-259C62BDA43D}" name="Step" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1C65CEB6-4F7A-4FD3-92D1-32B0AC0529C7}" name="Table15645" displayName="Table15645" ref="A1:O25" totalsRowShown="0" headerRowBorderDxfId="88" tableBorderDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1C65CEB6-4F7A-4FD3-92D1-32B0AC0529C7}" name="Table15645" displayName="Table15645" ref="A1:O25" totalsRowShown="0" headerRowBorderDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="A1:O25" xr:uid="{CE70FAE3-DAD6-40A6-BCCE-F46A2CDA0980}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{A5634D1E-7F69-4A8B-9B2C-E544A100BE0B}" name="Phase" dataDxfId="86"/>
-    <tableColumn id="22" xr3:uid="{DF0A5598-36C6-480A-8445-5264CD38D6AE}" name="Category" dataDxfId="85"/>
-    <tableColumn id="12" xr3:uid="{322396A3-5A20-4A3E-8F7B-F97F31E5B741}" name="Name" dataDxfId="84"/>
-    <tableColumn id="14" xr3:uid="{1910CF64-CF8F-4994-BC1B-F27FE4E216E6}" name="Description" dataDxfId="83"/>
-    <tableColumn id="18" xr3:uid="{211B9116-478A-42BC-BFD9-0A2AA2AD39A9}" name="Units" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{ABD6291E-7951-4F95-9FF4-C5A1FC0AAC06}" name="Distribution Type" dataDxfId="81"/>
-    <tableColumn id="5" xr3:uid="{ECC3B9FC-E4AE-4AD1-BF4C-89FE38983ABB}" name="Parameter 1" dataDxfId="80"/>
-    <tableColumn id="6" xr3:uid="{8FC5359B-BA7A-46D2-B091-D9665C585235}" name="Parameter 2" dataDxfId="79"/>
-    <tableColumn id="7" xr3:uid="{3BDDE353-FD4F-45F2-8B7C-5F7D6E0D347D}" name="Parameter 3" dataDxfId="78"/>
-    <tableColumn id="10" xr3:uid="{701C65B5-1C54-4F3C-90E2-A67B32AB1876}" name="Parameter 4" dataDxfId="77"/>
-    <tableColumn id="11" xr3:uid="{A8EE834B-F323-4C30-8E59-AEDA8B9E2A61}" name="Parameter 5" dataDxfId="76"/>
-    <tableColumn id="8" xr3:uid="{240B8AE3-DEF4-4C61-BF40-2515EA4A4DDB}" name="Parameter 6" dataDxfId="75"/>
-    <tableColumn id="15" xr3:uid="{5D6076C4-791B-4994-9665-C628F9AE62B7}" name="Lower Limit" dataDxfId="74"/>
-    <tableColumn id="16" xr3:uid="{D06B2878-4A23-45AF-8278-C825D6961D31}" name="Upper Limit" dataDxfId="73"/>
-    <tableColumn id="17" xr3:uid="{54CBA85E-0128-4FD6-8F0E-932C4E402C1C}" name="Step" dataDxfId="72"/>
+    <tableColumn id="9" xr3:uid="{A5634D1E-7F69-4A8B-9B2C-E544A100BE0B}" name="Phase" dataDxfId="15"/>
+    <tableColumn id="22" xr3:uid="{DF0A5598-36C6-480A-8445-5264CD38D6AE}" name="Category" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{322396A3-5A20-4A3E-8F7B-F97F31E5B741}" name="Name" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{1910CF64-CF8F-4994-BC1B-F27FE4E216E6}" name="Description" dataDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{211B9116-478A-42BC-BFD9-0A2AA2AD39A9}" name="Units" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{ABD6291E-7951-4F95-9FF4-C5A1FC0AAC06}" name="Distribution Type" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{ECC3B9FC-E4AE-4AD1-BF4C-89FE38983ABB}" name="Parameter 1" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{8FC5359B-BA7A-46D2-B091-D9665C585235}" name="Parameter 2" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{3BDDE353-FD4F-45F2-8B7C-5F7D6E0D347D}" name="Parameter 3" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{701C65B5-1C54-4F3C-90E2-A67B32AB1876}" name="Parameter 4" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{A8EE834B-F323-4C30-8E59-AEDA8B9E2A61}" name="Parameter 5" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{240B8AE3-DEF4-4C61-BF40-2515EA4A4DDB}" name="Parameter 6" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{5D6076C4-791B-4994-9665-C628F9AE62B7}" name="Lower Limit" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{D06B2878-4A23-45AF-8278-C825D6961D31}" name="Upper Limit" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{54CBA85E-0128-4FD6-8F0E-932C4E402C1C}" name="Step" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:O22" totalsRowShown="0" tableBorderDxfId="322">
-  <autoFilter ref="A1:O22" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:O23" totalsRowShown="0" tableBorderDxfId="317">
+  <autoFilter ref="A1:O23" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phase" dataDxfId="321"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="320"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="319"/>
-    <tableColumn id="10" xr3:uid="{8EBBFD49-190C-4C2F-A6BC-0598AAC3E788}" name="Description" dataDxfId="318"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="317"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="316"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="315"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="314"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="313"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="312"/>
-    <tableColumn id="14" xr3:uid="{E54D398D-B732-4333-A3F2-2EBD48BAA48B}" name="Parameter 5" dataDxfId="311"/>
-    <tableColumn id="15" xr3:uid="{47B382D4-92A3-4B8C-9C52-0458EA4788B1}" name="Parameter 6" dataDxfId="310"/>
-    <tableColumn id="11" xr3:uid="{BD4375F0-63E9-45EC-BE2E-338374C10F8B}" name="Lower Limit" dataDxfId="309"/>
-    <tableColumn id="12" xr3:uid="{E3D45A75-803F-48B4-B112-11C4C63E6D6F}" name="Upper Limit" dataDxfId="308"/>
-    <tableColumn id="13" xr3:uid="{FFEC12A7-FD01-4D8C-85CF-A25BD15B0829}" name="Step" dataDxfId="307"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phase" dataDxfId="316"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="315"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="314"/>
+    <tableColumn id="10" xr3:uid="{8EBBFD49-190C-4C2F-A6BC-0598AAC3E788}" name="Description" dataDxfId="313"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="312"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="311"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="310"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="309"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="308"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="307"/>
+    <tableColumn id="14" xr3:uid="{E54D398D-B732-4333-A3F2-2EBD48BAA48B}" name="Parameter 5" dataDxfId="306"/>
+    <tableColumn id="15" xr3:uid="{47B382D4-92A3-4B8C-9C52-0458EA4788B1}" name="Parameter 6" dataDxfId="305"/>
+    <tableColumn id="11" xr3:uid="{BD4375F0-63E9-45EC-BE2E-338374C10F8B}" name="Lower Limit" dataDxfId="304"/>
+    <tableColumn id="12" xr3:uid="{E3D45A75-803F-48B4-B112-11C4C63E6D6F}" name="Upper Limit" dataDxfId="303"/>
+    <tableColumn id="13" xr3:uid="{FFEC12A7-FD01-4D8C-85CF-A25BD15B0829}" name="Step" dataDxfId="302"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:O13" totalsRowShown="0" tableBorderDxfId="306">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:O13" totalsRowShown="0" tableBorderDxfId="293">
   <autoFilter ref="A1:O13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Phase" dataDxfId="305"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="304"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="303"/>
-    <tableColumn id="10" xr3:uid="{2D3DA962-F373-48F5-BD94-00CC27106A46}" name="Description" dataDxfId="302"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="301"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="300"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="299"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="298"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="297"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="296"/>
-    <tableColumn id="14" xr3:uid="{5A98E335-B701-4CC9-9D03-A85D24786F3B}" name="Parameter 5" dataDxfId="295"/>
-    <tableColumn id="15" xr3:uid="{79377D49-ED29-41CF-AC28-FD408018808C}" name="Parameter 6" dataDxfId="294"/>
-    <tableColumn id="11" xr3:uid="{FF818C38-99D8-4486-B25F-2B94B62F77AF}" name="Lower Limit" dataDxfId="293"/>
-    <tableColumn id="12" xr3:uid="{8C44E4B8-6916-4798-9055-589FE4E4C903}" name="Upper Limit" dataDxfId="292"/>
-    <tableColumn id="13" xr3:uid="{8266E46A-7EC0-42D8-91D3-D2DC1B4352DE}" name="Step" dataDxfId="291"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Phase" dataDxfId="292"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="291"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="290"/>
+    <tableColumn id="10" xr3:uid="{2D3DA962-F373-48F5-BD94-00CC27106A46}" name="Description" dataDxfId="289"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="288"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="287"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="286"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="285"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="284"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="283"/>
+    <tableColumn id="14" xr3:uid="{5A98E335-B701-4CC9-9D03-A85D24786F3B}" name="Parameter 5" dataDxfId="282"/>
+    <tableColumn id="15" xr3:uid="{79377D49-ED29-41CF-AC28-FD408018808C}" name="Parameter 6" dataDxfId="281"/>
+    <tableColumn id="11" xr3:uid="{FF818C38-99D8-4486-B25F-2B94B62F77AF}" name="Lower Limit" dataDxfId="280"/>
+    <tableColumn id="12" xr3:uid="{8C44E4B8-6916-4798-9055-589FE4E4C903}" name="Upper Limit" dataDxfId="279"/>
+    <tableColumn id="13" xr3:uid="{8266E46A-7EC0-42D8-91D3-D2DC1B4352DE}" name="Step" dataDxfId="278"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:O20" totalsRowShown="0" headerRowBorderDxfId="290" tableBorderDxfId="289">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:O20" totalsRowShown="0" headerRowBorderDxfId="269" tableBorderDxfId="268">
   <autoFilter ref="A1:O20" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Phase" dataDxfId="288"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="287"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="286"/>
-    <tableColumn id="10" xr3:uid="{A40104D1-3BF7-4068-8777-3D61F27973C1}" name="Description" dataDxfId="285"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="284"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="283"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="282"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="281"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="280"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="279"/>
-    <tableColumn id="14" xr3:uid="{77E616D7-C540-4C6C-A01C-31C8ADF35FBE}" name="Parameter 5" dataDxfId="278"/>
-    <tableColumn id="15" xr3:uid="{68C28D25-E41A-4D3D-A794-809A12A02364}" name="Parameter 6" dataDxfId="277"/>
-    <tableColumn id="11" xr3:uid="{83552614-5368-48EE-AE65-AA7B101E55EF}" name="Lower Limit" dataDxfId="276"/>
-    <tableColumn id="12" xr3:uid="{98998298-F4B1-4980-B79C-0BF0D0D59028}" name="Upper Limit" dataDxfId="275"/>
-    <tableColumn id="13" xr3:uid="{8E3814A1-C526-4157-B0D9-1258E47ACA45}" name="Step" dataDxfId="274"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Phase" dataDxfId="267"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="266"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="265"/>
+    <tableColumn id="10" xr3:uid="{A40104D1-3BF7-4068-8777-3D61F27973C1}" name="Description" dataDxfId="264"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="263"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="262"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="261"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="260"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="259"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="258"/>
+    <tableColumn id="14" xr3:uid="{77E616D7-C540-4C6C-A01C-31C8ADF35FBE}" name="Parameter 5" dataDxfId="257"/>
+    <tableColumn id="15" xr3:uid="{68C28D25-E41A-4D3D-A794-809A12A02364}" name="Parameter 6" dataDxfId="256"/>
+    <tableColumn id="11" xr3:uid="{83552614-5368-48EE-AE65-AA7B101E55EF}" name="Lower Limit" dataDxfId="255"/>
+    <tableColumn id="12" xr3:uid="{98998298-F4B1-4980-B79C-0BF0D0D59028}" name="Upper Limit" dataDxfId="254"/>
+    <tableColumn id="13" xr3:uid="{8E3814A1-C526-4157-B0D9-1258E47ACA45}" name="Step" dataDxfId="253"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15793" displayName="Table15793" ref="A1:O2" totalsRowShown="0" headerRowBorderDxfId="273" tableBorderDxfId="272">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15793" displayName="Table15793" ref="A1:O2" totalsRowShown="0" headerRowBorderDxfId="248" tableBorderDxfId="247">
   <autoFilter ref="A1:O2" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Phase" dataDxfId="271"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="270"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Name" dataDxfId="269"/>
-    <tableColumn id="10" xr3:uid="{4482773E-AA48-4795-9A9F-10283D12A976}" name="Description" dataDxfId="268"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Units" dataDxfId="267"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Distribution Type" dataDxfId="266"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Parameter 1" dataDxfId="265"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Parameter 2" dataDxfId="264"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Parameter 3" dataDxfId="263"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Parameter 4" dataDxfId="262"/>
-    <tableColumn id="14" xr3:uid="{41E058E9-8EB6-430E-BC58-82195628B7D1}" name="Parameter 5" dataDxfId="261"/>
-    <tableColumn id="15" xr3:uid="{1CA16974-E252-4655-813D-3FC48E8CCF45}" name="Parameter 6" dataDxfId="260"/>
-    <tableColumn id="11" xr3:uid="{0ED7EC4B-FD74-44E3-B1E6-428C431FDA88}" name="Lower Limit" dataDxfId="259"/>
-    <tableColumn id="12" xr3:uid="{4CA3754D-692A-40C0-BCC5-14D0E3AAF144}" name="Upper Limit" dataDxfId="258"/>
-    <tableColumn id="13" xr3:uid="{D4791B88-6435-44AE-9946-77D4E8CB6EA8}" name="Step" dataDxfId="257"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Phase" dataDxfId="246"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="245"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Name" dataDxfId="244"/>
+    <tableColumn id="10" xr3:uid="{4482773E-AA48-4795-9A9F-10283D12A976}" name="Description" dataDxfId="243"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Units" dataDxfId="242"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Distribution Type" dataDxfId="241"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Parameter 1" dataDxfId="240"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Parameter 2" dataDxfId="239"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Parameter 3" dataDxfId="238"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Parameter 4" dataDxfId="237"/>
+    <tableColumn id="14" xr3:uid="{41E058E9-8EB6-430E-BC58-82195628B7D1}" name="Parameter 5" dataDxfId="236"/>
+    <tableColumn id="15" xr3:uid="{1CA16974-E252-4655-813D-3FC48E8CCF45}" name="Parameter 6" dataDxfId="235"/>
+    <tableColumn id="11" xr3:uid="{0ED7EC4B-FD74-44E3-B1E6-428C431FDA88}" name="Lower Limit" dataDxfId="234"/>
+    <tableColumn id="12" xr3:uid="{4CA3754D-692A-40C0-BCC5-14D0E3AAF144}" name="Upper Limit" dataDxfId="233"/>
+    <tableColumn id="13" xr3:uid="{D4791B88-6435-44AE-9946-77D4E8CB6EA8}" name="Step" dataDxfId="232"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:O24" totalsRowShown="0" headerRowBorderDxfId="256" tableBorderDxfId="255">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:O24" totalsRowShown="0" headerRowBorderDxfId="227" tableBorderDxfId="226">
   <autoFilter ref="A1:O24" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2">
     <sortCondition ref="B1:B2"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Phase" dataDxfId="254"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="253"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="252"/>
-    <tableColumn id="10" xr3:uid="{3AFE3909-1CDD-46E0-8677-569A824534FB}" name="Description" dataDxfId="251"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="250"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="249"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="248"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="247"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="246"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="245"/>
-    <tableColumn id="14" xr3:uid="{8991E047-B1B0-4B74-A5AA-45E689F51874}" name="Parameter 5" dataDxfId="244"/>
-    <tableColumn id="15" xr3:uid="{A25E7AA9-7C49-405C-8326-53EA8C994FFB}" name="Parameter 6" dataDxfId="243"/>
-    <tableColumn id="11" xr3:uid="{08FFB9BF-C539-434A-A2F4-C19873D3AB3E}" name="Lower Limit" dataDxfId="242"/>
-    <tableColumn id="12" xr3:uid="{CEDB540F-344B-4D49-8CD6-9F7746873840}" name="Upper Limit" dataDxfId="241"/>
-    <tableColumn id="13" xr3:uid="{4B3E9A2A-7D0A-4F2D-B694-DB4D2C83BA0A}" name="Step" dataDxfId="240"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Phase" dataDxfId="225"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="224"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="223"/>
+    <tableColumn id="10" xr3:uid="{3AFE3909-1CDD-46E0-8677-569A824534FB}" name="Description" dataDxfId="222"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="221"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="220"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="219"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="218"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="217"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="216"/>
+    <tableColumn id="14" xr3:uid="{8991E047-B1B0-4B74-A5AA-45E689F51874}" name="Parameter 5" dataDxfId="215"/>
+    <tableColumn id="15" xr3:uid="{A25E7AA9-7C49-405C-8326-53EA8C994FFB}" name="Parameter 6" dataDxfId="214"/>
+    <tableColumn id="11" xr3:uid="{08FFB9BF-C539-434A-A2F4-C19873D3AB3E}" name="Lower Limit" dataDxfId="213"/>
+    <tableColumn id="12" xr3:uid="{CEDB540F-344B-4D49-8CD6-9F7746873840}" name="Upper Limit" dataDxfId="212"/>
+    <tableColumn id="13" xr3:uid="{4B3E9A2A-7D0A-4F2D-B694-DB4D2C83BA0A}" name="Step" dataDxfId="211"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3CB8E65B-B7DB-4610-98F8-15D74050538C}" name="Table156410" displayName="Table156410" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="239" tableBorderDxfId="238">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3CB8E65B-B7DB-4610-98F8-15D74050538C}" name="Table156410" displayName="Table156410" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="206" tableBorderDxfId="205">
   <autoFilter ref="A1:O19" xr:uid="{A2DF75BF-F49D-463D-B10C-635E799069A4}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{33E848DD-559D-4023-9F06-526E6AF9BD94}" name="Phase" dataDxfId="237"/>
-    <tableColumn id="20" xr3:uid="{9EDFC6C3-E3F9-4924-BC6A-804D2BBDAE4E}" name="Category" dataDxfId="71"/>
-    <tableColumn id="12" xr3:uid="{D5F0DA51-2BBD-46FF-88FA-75AA7A464F56}" name="Name" dataDxfId="236"/>
-    <tableColumn id="14" xr3:uid="{C6DADE20-FD43-4249-ADF7-72D9BB6ED860}" name="Description" dataDxfId="235"/>
-    <tableColumn id="18" xr3:uid="{017077E2-A519-4357-81FC-29BBCF542A5D}" name="Units" dataDxfId="234"/>
-    <tableColumn id="4" xr3:uid="{18A3B7BD-46E6-497D-932B-A279201CED36}" name="Distribution Type" dataDxfId="233"/>
-    <tableColumn id="5" xr3:uid="{5BD00F12-3393-4245-9BE0-D37573FCF5E3}" name="Parameter 1" dataDxfId="232"/>
-    <tableColumn id="6" xr3:uid="{F68E7FA0-23DA-4C5B-BCD3-BD3C7B299B02}" name="Parameter 2" dataDxfId="231"/>
-    <tableColumn id="7" xr3:uid="{E074689D-E9A9-4D78-901F-4D6DEAB8F157}" name="Parameter 3" dataDxfId="230"/>
-    <tableColumn id="10" xr3:uid="{24FDA3C5-E39C-430C-90BB-3F6BD09EEDC7}" name="Parameter 4" dataDxfId="229"/>
-    <tableColumn id="11" xr3:uid="{42BED06C-CBA3-4453-AE89-CFE7799A8559}" name="Parameter 5" dataDxfId="228"/>
-    <tableColumn id="8" xr3:uid="{4CFE8BFF-6747-408C-8ABA-AFDB589C4F81}" name="Parameter 6" dataDxfId="227"/>
-    <tableColumn id="15" xr3:uid="{E0BBD4D8-EA8D-4CAF-B849-F7A2CE769A48}" name="Lower Limit" dataDxfId="226"/>
-    <tableColumn id="16" xr3:uid="{4800A8E8-843B-4C41-91BF-C1A3C30DE8D6}" name="Upper Limit" dataDxfId="225"/>
-    <tableColumn id="17" xr3:uid="{A6367C3F-1F51-48D6-9EB3-E8501CEA0DC3}" name="Step" dataDxfId="224"/>
+    <tableColumn id="9" xr3:uid="{33E848DD-559D-4023-9F06-526E6AF9BD94}" name="Phase" dataDxfId="204"/>
+    <tableColumn id="20" xr3:uid="{9EDFC6C3-E3F9-4924-BC6A-804D2BBDAE4E}" name="Category" dataDxfId="203"/>
+    <tableColumn id="12" xr3:uid="{D5F0DA51-2BBD-46FF-88FA-75AA7A464F56}" name="Name" dataDxfId="202"/>
+    <tableColumn id="14" xr3:uid="{C6DADE20-FD43-4249-ADF7-72D9BB6ED860}" name="Description" dataDxfId="201"/>
+    <tableColumn id="18" xr3:uid="{017077E2-A519-4357-81FC-29BBCF542A5D}" name="Units" dataDxfId="200"/>
+    <tableColumn id="4" xr3:uid="{18A3B7BD-46E6-497D-932B-A279201CED36}" name="Distribution Type" dataDxfId="199"/>
+    <tableColumn id="5" xr3:uid="{5BD00F12-3393-4245-9BE0-D37573FCF5E3}" name="Parameter 1" dataDxfId="198"/>
+    <tableColumn id="6" xr3:uid="{F68E7FA0-23DA-4C5B-BCD3-BD3C7B299B02}" name="Parameter 2" dataDxfId="197"/>
+    <tableColumn id="7" xr3:uid="{E074689D-E9A9-4D78-901F-4D6DEAB8F157}" name="Parameter 3" dataDxfId="196"/>
+    <tableColumn id="10" xr3:uid="{24FDA3C5-E39C-430C-90BB-3F6BD09EEDC7}" name="Parameter 4" dataDxfId="195"/>
+    <tableColumn id="11" xr3:uid="{42BED06C-CBA3-4453-AE89-CFE7799A8559}" name="Parameter 5" dataDxfId="194"/>
+    <tableColumn id="8" xr3:uid="{4CFE8BFF-6747-408C-8ABA-AFDB589C4F81}" name="Parameter 6" dataDxfId="193"/>
+    <tableColumn id="15" xr3:uid="{E0BBD4D8-EA8D-4CAF-B849-F7A2CE769A48}" name="Lower Limit" dataDxfId="192"/>
+    <tableColumn id="16" xr3:uid="{4800A8E8-843B-4C41-91BF-C1A3C30DE8D6}" name="Upper Limit" dataDxfId="191"/>
+    <tableColumn id="17" xr3:uid="{A6367C3F-1F51-48D6-9EB3-E8501CEA0DC3}" name="Step" dataDxfId="190"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{86A1116E-A4B1-4819-B8BD-755AC0F1A27A}" name="Table15648" displayName="Table15648" ref="A1:O123" totalsRowShown="0" headerRowBorderDxfId="223" tableBorderDxfId="222">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{86A1116E-A4B1-4819-B8BD-755AC0F1A27A}" name="Table15648" displayName="Table15648" ref="A1:O123" totalsRowShown="0" headerRowBorderDxfId="185" tableBorderDxfId="184">
   <autoFilter ref="A1:O123" xr:uid="{990E6A50-401C-443A-9431-A3C6B1C33DB9}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{B7EF7E94-8BD1-4B05-A1E1-DE0166BDA299}" name="Phase" dataDxfId="221"/>
-    <tableColumn id="20" xr3:uid="{3E394D25-22F5-47DE-8DD2-1B412C8ACB40}" name="Category" dataDxfId="220"/>
-    <tableColumn id="12" xr3:uid="{581C35A5-6B54-4CCA-AD27-A0086A458CD9}" name="Name" dataDxfId="219"/>
-    <tableColumn id="14" xr3:uid="{02601854-7EF0-4B53-83BA-E1A583AB0E89}" name="Description" dataDxfId="218"/>
-    <tableColumn id="18" xr3:uid="{38E6F539-D589-4AEB-9FF3-0F3407B1F600}" name="Units" dataDxfId="217"/>
-    <tableColumn id="4" xr3:uid="{758D0224-FF70-4B51-A43F-A666DBEE60B5}" name="Distribution Type" dataDxfId="216"/>
-    <tableColumn id="5" xr3:uid="{AA403007-B0D8-4F37-BBED-A39F4CBEC713}" name="Parameter 1" dataDxfId="215"/>
-    <tableColumn id="6" xr3:uid="{AEFD9020-CB8D-46C6-A545-72935F5E17C9}" name="Parameter 2" dataDxfId="214"/>
-    <tableColumn id="7" xr3:uid="{5391F637-3141-4924-AB2D-BB7560C402FC}" name="Parameter 3" dataDxfId="213"/>
-    <tableColumn id="10" xr3:uid="{DD30C7A0-FB24-4548-956F-070EED2E392A}" name="Parameter 4" dataDxfId="212"/>
-    <tableColumn id="11" xr3:uid="{4C51B414-DF9A-46F4-A761-171654CD826B}" name="Parameter 5" dataDxfId="211"/>
-    <tableColumn id="8" xr3:uid="{C36C5078-BCC8-4902-86B0-4CC5F5B94354}" name="Parameter 6" dataDxfId="210"/>
-    <tableColumn id="15" xr3:uid="{0B417314-7BF7-498C-AFAD-AF435E3794CB}" name="Lower Limit" dataDxfId="209"/>
-    <tableColumn id="16" xr3:uid="{869CD7E5-A5F2-42BE-860A-4654BBA29091}" name="Upper Limit" dataDxfId="208"/>
-    <tableColumn id="17" xr3:uid="{9D5645C4-35FE-4467-8F7A-0259A9E00D72}" name="Step" dataDxfId="207"/>
+    <tableColumn id="9" xr3:uid="{B7EF7E94-8BD1-4B05-A1E1-DE0166BDA299}" name="Phase" dataDxfId="183"/>
+    <tableColumn id="20" xr3:uid="{3E394D25-22F5-47DE-8DD2-1B412C8ACB40}" name="Category" dataDxfId="182"/>
+    <tableColumn id="12" xr3:uid="{581C35A5-6B54-4CCA-AD27-A0086A458CD9}" name="Name" dataDxfId="181"/>
+    <tableColumn id="14" xr3:uid="{02601854-7EF0-4B53-83BA-E1A583AB0E89}" name="Description" dataDxfId="180"/>
+    <tableColumn id="18" xr3:uid="{38E6F539-D589-4AEB-9FF3-0F3407B1F600}" name="Units" dataDxfId="179"/>
+    <tableColumn id="4" xr3:uid="{758D0224-FF70-4B51-A43F-A666DBEE60B5}" name="Distribution Type" dataDxfId="178"/>
+    <tableColumn id="5" xr3:uid="{AA403007-B0D8-4F37-BBED-A39F4CBEC713}" name="Parameter 1" dataDxfId="177"/>
+    <tableColumn id="6" xr3:uid="{AEFD9020-CB8D-46C6-A545-72935F5E17C9}" name="Parameter 2" dataDxfId="176"/>
+    <tableColumn id="7" xr3:uid="{5391F637-3141-4924-AB2D-BB7560C402FC}" name="Parameter 3" dataDxfId="175"/>
+    <tableColumn id="10" xr3:uid="{DD30C7A0-FB24-4548-956F-070EED2E392A}" name="Parameter 4" dataDxfId="174"/>
+    <tableColumn id="11" xr3:uid="{4C51B414-DF9A-46F4-A761-171654CD826B}" name="Parameter 5" dataDxfId="173"/>
+    <tableColumn id="8" xr3:uid="{C36C5078-BCC8-4902-86B0-4CC5F5B94354}" name="Parameter 6" dataDxfId="172"/>
+    <tableColumn id="15" xr3:uid="{0B417314-7BF7-498C-AFAD-AF435E3794CB}" name="Lower Limit" dataDxfId="171"/>
+    <tableColumn id="16" xr3:uid="{869CD7E5-A5F2-42BE-860A-4654BBA29091}" name="Upper Limit" dataDxfId="170"/>
+    <tableColumn id="17" xr3:uid="{9D5645C4-35FE-4467-8F7A-0259A9E00D72}" name="Step" dataDxfId="169"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{70557EE6-CCDF-497F-AD58-5C0E1C74D197}" name="Table156412" displayName="Table156412" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="206" tableBorderDxfId="205">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{70557EE6-CCDF-497F-AD58-5C0E1C74D197}" name="Table156412" displayName="Table156412" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="164" tableBorderDxfId="163">
   <autoFilter ref="A1:O19" xr:uid="{98B9CAE8-5809-471F-A0E6-3C63C0FF7931}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{0E927F65-2069-4507-B0B0-8DA725AF99EC}" name="Phase" dataDxfId="204"/>
-    <tableColumn id="20" xr3:uid="{921518C6-F6AF-4306-9A67-62C12E697D60}" name="Category" dataDxfId="203"/>
-    <tableColumn id="12" xr3:uid="{CD5679ED-CB25-488E-8C70-2C446DAB28DC}" name="Name" dataDxfId="202"/>
-    <tableColumn id="14" xr3:uid="{F17E92B1-609F-453F-8FC2-11AB75FFB5B0}" name="Description" dataDxfId="201"/>
-    <tableColumn id="18" xr3:uid="{CA25841B-E30A-4228-B65F-216207437CB0}" name="Units" dataDxfId="200"/>
-    <tableColumn id="4" xr3:uid="{5CF3C293-70A2-445C-B6F4-D4BCEB868AEC}" name="Distribution Type" dataDxfId="199"/>
-    <tableColumn id="5" xr3:uid="{6B896B7D-F74D-42FF-97BC-93D69E611504}" name="Parameter 1" dataDxfId="198"/>
-    <tableColumn id="6" xr3:uid="{02AE94F0-B427-476D-88EB-3C9235866F4E}" name="Parameter 2" dataDxfId="197"/>
-    <tableColumn id="7" xr3:uid="{C0EF4425-A63A-42D7-82B9-4C1366C7BF01}" name="Parameter 3" dataDxfId="196">
+    <tableColumn id="9" xr3:uid="{0E927F65-2069-4507-B0B0-8DA725AF99EC}" name="Phase" dataDxfId="162"/>
+    <tableColumn id="20" xr3:uid="{921518C6-F6AF-4306-9A67-62C12E697D60}" name="Category" dataDxfId="161"/>
+    <tableColumn id="12" xr3:uid="{CD5679ED-CB25-488E-8C70-2C446DAB28DC}" name="Name" dataDxfId="160"/>
+    <tableColumn id="14" xr3:uid="{F17E92B1-609F-453F-8FC2-11AB75FFB5B0}" name="Description" dataDxfId="159"/>
+    <tableColumn id="18" xr3:uid="{CA25841B-E30A-4228-B65F-216207437CB0}" name="Units" dataDxfId="158"/>
+    <tableColumn id="4" xr3:uid="{5CF3C293-70A2-445C-B6F4-D4BCEB868AEC}" name="Distribution Type" dataDxfId="157"/>
+    <tableColumn id="5" xr3:uid="{6B896B7D-F74D-42FF-97BC-93D69E611504}" name="Parameter 1" dataDxfId="156"/>
+    <tableColumn id="6" xr3:uid="{02AE94F0-B427-476D-88EB-3C9235866F4E}" name="Parameter 2" dataDxfId="155"/>
+    <tableColumn id="7" xr3:uid="{C0EF4425-A63A-42D7-82B9-4C1366C7BF01}" name="Parameter 3" dataDxfId="154">
       <calculatedColumnFormula>(Table156412[[#This Row],[Parameter 1]]-1)/(Table156412[[#This Row],[Parameter 1]]+Table156412[[#This Row],[Parameter 2]]-2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{7F665756-5949-4CD6-AE8C-F7531D7A9CAD}" name="Parameter 4" dataDxfId="195"/>
-    <tableColumn id="11" xr3:uid="{59049478-1CD8-416F-BED1-BD7B8FEA0C41}" name="Parameter 5" dataDxfId="194"/>
-    <tableColumn id="8" xr3:uid="{CC7DFE3F-C2E2-4F46-B153-D03CF263B523}" name="Parameter 6" dataDxfId="193"/>
-    <tableColumn id="15" xr3:uid="{F2A6353F-D73A-41E5-B265-D8F18AA4409C}" name="Lower Limit" dataDxfId="192"/>
-    <tableColumn id="16" xr3:uid="{1D8D56B8-5F2C-48C5-9CE4-93C38BD7488F}" name="Upper Limit" dataDxfId="191"/>
-    <tableColumn id="17" xr3:uid="{6AB8DBB9-751A-4840-BC73-4780E1B009AD}" name="Step" dataDxfId="190"/>
+    <tableColumn id="10" xr3:uid="{7F665756-5949-4CD6-AE8C-F7531D7A9CAD}" name="Parameter 4" dataDxfId="153"/>
+    <tableColumn id="11" xr3:uid="{59049478-1CD8-416F-BED1-BD7B8FEA0C41}" name="Parameter 5" dataDxfId="152"/>
+    <tableColumn id="8" xr3:uid="{CC7DFE3F-C2E2-4F46-B153-D03CF263B523}" name="Parameter 6" dataDxfId="151"/>
+    <tableColumn id="15" xr3:uid="{F2A6353F-D73A-41E5-B265-D8F18AA4409C}" name="Lower Limit" dataDxfId="150"/>
+    <tableColumn id="16" xr3:uid="{1D8D56B8-5F2C-48C5-9CE4-93C38BD7488F}" name="Upper Limit" dataDxfId="149"/>
+    <tableColumn id="17" xr3:uid="{6AB8DBB9-751A-4840-BC73-4780E1B009AD}" name="Step" dataDxfId="148"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7147,9 +7167,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7170,18 +7190,18 @@
       <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
-    <col min="6" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="6" max="15" width="15.6640625" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>162</v>
       </c>
@@ -7228,7 +7248,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>126</v>
       </c>
@@ -7269,7 +7289,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>126</v>
       </c>
@@ -7310,7 +7330,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>126</v>
       </c>
@@ -7351,7 +7371,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>126</v>
       </c>
@@ -7392,7 +7412,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>126</v>
       </c>
@@ -7433,7 +7453,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>126</v>
       </c>
@@ -7474,7 +7494,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>126</v>
       </c>
@@ -7515,7 +7535,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>134</v>
       </c>
@@ -7556,7 +7576,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>134</v>
       </c>
@@ -7597,7 +7617,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>134</v>
       </c>
@@ -7638,7 +7658,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>134</v>
       </c>
@@ -7679,7 +7699,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>134</v>
       </c>
@@ -7720,7 +7740,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>134</v>
       </c>
@@ -7761,7 +7781,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>136</v>
       </c>
@@ -7802,7 +7822,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>136</v>
       </c>
@@ -7843,7 +7863,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>136</v>
       </c>
@@ -7884,7 +7904,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>136</v>
       </c>
@@ -7925,7 +7945,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>136</v>
       </c>
@@ -7969,20 +7989,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="39" priority="3">
+    <cfRule type="expression" dxfId="210" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="38" priority="4">
+    <cfRule type="expression" dxfId="209" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="37" priority="1">
+    <cfRule type="expression" dxfId="208" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="207" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8006,18 +8026,18 @@
       <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
-    <col min="6" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="6" max="15" width="15.6640625" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>162</v>
       </c>
@@ -8064,7 +8084,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>126</v>
       </c>
@@ -8107,7 +8127,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>126</v>
       </c>
@@ -8150,7 +8170,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>134</v>
       </c>
@@ -8193,7 +8213,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>134</v>
       </c>
@@ -8236,7 +8256,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>134</v>
       </c>
@@ -8279,7 +8299,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>134</v>
       </c>
@@ -8322,7 +8342,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>134</v>
       </c>
@@ -8365,7 +8385,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>134</v>
       </c>
@@ -8408,7 +8428,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>126</v>
       </c>
@@ -8451,7 +8471,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>126</v>
       </c>
@@ -8494,7 +8514,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>126</v>
       </c>
@@ -8537,7 +8557,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>126</v>
       </c>
@@ -8580,7 +8600,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>126</v>
       </c>
@@ -8623,7 +8643,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>126</v>
       </c>
@@ -8666,7 +8686,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>126</v>
       </c>
@@ -8709,7 +8729,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>126</v>
       </c>
@@ -8752,7 +8772,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>126</v>
       </c>
@@ -8795,7 +8815,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>126</v>
       </c>
@@ -8838,7 +8858,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>126</v>
       </c>
@@ -8881,7 +8901,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>126</v>
       </c>
@@ -8924,7 +8944,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>126</v>
       </c>
@@ -8967,7 +8987,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>126</v>
       </c>
@@ -9010,7 +9030,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>134</v>
       </c>
@@ -9053,7 +9073,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>134</v>
       </c>
@@ -9096,7 +9116,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>134</v>
       </c>
@@ -9139,7 +9159,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>134</v>
       </c>
@@ -9182,7 +9202,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>134</v>
       </c>
@@ -9225,7 +9245,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>134</v>
       </c>
@@ -9268,7 +9288,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>134</v>
       </c>
@@ -9311,7 +9331,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>134</v>
       </c>
@@ -9354,7 +9374,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>134</v>
       </c>
@@ -9397,7 +9417,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>134</v>
       </c>
@@ -9440,7 +9460,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>134</v>
       </c>
@@ -9483,7 +9503,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>134</v>
       </c>
@@ -9526,7 +9546,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>136</v>
       </c>
@@ -9569,7 +9589,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>136</v>
       </c>
@@ -9612,7 +9632,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>136</v>
       </c>
@@ -9655,7 +9675,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>136</v>
       </c>
@@ -9698,7 +9718,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>136</v>
       </c>
@@ -9741,7 +9761,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>136</v>
       </c>
@@ -9784,7 +9804,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>136</v>
       </c>
@@ -9827,7 +9847,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>136</v>
       </c>
@@ -9870,7 +9890,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>136</v>
       </c>
@@ -9913,7 +9933,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>136</v>
       </c>
@@ -9956,7 +9976,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>126</v>
       </c>
@@ -9999,7 +10019,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>126</v>
       </c>
@@ -10042,7 +10062,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>126</v>
       </c>
@@ -10085,7 +10105,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>126</v>
       </c>
@@ -10128,7 +10148,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>126</v>
       </c>
@@ -10171,7 +10191,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>126</v>
       </c>
@@ -10214,7 +10234,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>126</v>
       </c>
@@ -10257,7 +10277,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>126</v>
       </c>
@@ -10300,7 +10320,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>126</v>
       </c>
@@ -10343,7 +10363,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>126</v>
       </c>
@@ -10386,7 +10406,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>126</v>
       </c>
@@ -10429,7 +10449,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>126</v>
       </c>
@@ -10472,7 +10492,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>126</v>
       </c>
@@ -10515,7 +10535,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>126</v>
       </c>
@@ -10558,7 +10578,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>126</v>
       </c>
@@ -10601,7 +10621,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>126</v>
       </c>
@@ -10644,7 +10664,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>126</v>
       </c>
@@ -10687,7 +10707,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>126</v>
       </c>
@@ -10730,7 +10750,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>126</v>
       </c>
@@ -10773,7 +10793,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>126</v>
       </c>
@@ -10816,7 +10836,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>126</v>
       </c>
@@ -10859,7 +10879,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>126</v>
       </c>
@@ -10902,7 +10922,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>126</v>
       </c>
@@ -10945,7 +10965,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>126</v>
       </c>
@@ -10988,7 +11008,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>126</v>
       </c>
@@ -11031,7 +11051,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>126</v>
       </c>
@@ -11074,7 +11094,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>126</v>
       </c>
@@ -11117,7 +11137,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>126</v>
       </c>
@@ -11160,7 +11180,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>134</v>
       </c>
@@ -11203,7 +11223,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>134</v>
       </c>
@@ -11246,7 +11266,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>134</v>
       </c>
@@ -11289,7 +11309,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>134</v>
       </c>
@@ -11332,7 +11352,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>134</v>
       </c>
@@ -11375,7 +11395,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>134</v>
       </c>
@@ -11418,7 +11438,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>134</v>
       </c>
@@ -11461,7 +11481,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>134</v>
       </c>
@@ -11504,7 +11524,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>134</v>
       </c>
@@ -11547,7 +11567,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>134</v>
       </c>
@@ -11590,7 +11610,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>134</v>
       </c>
@@ -11633,7 +11653,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>134</v>
       </c>
@@ -11676,7 +11696,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>134</v>
       </c>
@@ -11719,7 +11739,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>134</v>
       </c>
@@ -11762,7 +11782,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>134</v>
       </c>
@@ -11805,7 +11825,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>134</v>
       </c>
@@ -11848,7 +11868,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>134</v>
       </c>
@@ -11891,7 +11911,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>134</v>
       </c>
@@ -11934,7 +11954,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>134</v>
       </c>
@@ -11977,7 +11997,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>134</v>
       </c>
@@ -12020,7 +12040,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>134</v>
       </c>
@@ -12063,7 +12083,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>134</v>
       </c>
@@ -12106,7 +12126,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>134</v>
       </c>
@@ -12149,7 +12169,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>134</v>
       </c>
@@ -12192,7 +12212,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>136</v>
       </c>
@@ -12235,7 +12255,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>136</v>
       </c>
@@ -12278,7 +12298,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>136</v>
       </c>
@@ -12321,7 +12341,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>136</v>
       </c>
@@ -12364,7 +12384,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>136</v>
       </c>
@@ -12407,7 +12427,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>136</v>
       </c>
@@ -12450,7 +12470,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>136</v>
       </c>
@@ -12493,7 +12513,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>136</v>
       </c>
@@ -12536,7 +12556,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>136</v>
       </c>
@@ -12579,7 +12599,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>136</v>
       </c>
@@ -12622,7 +12642,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>136</v>
       </c>
@@ -12665,7 +12685,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>136</v>
       </c>
@@ -12708,7 +12728,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>136</v>
       </c>
@@ -12751,7 +12771,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>136</v>
       </c>
@@ -12794,7 +12814,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>136</v>
       </c>
@@ -12837,7 +12857,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>136</v>
       </c>
@@ -12880,7 +12900,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>136</v>
       </c>
@@ -12923,7 +12943,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>136</v>
       </c>
@@ -12966,7 +12986,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>136</v>
       </c>
@@ -13009,7 +13029,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>136</v>
       </c>
@@ -13052,7 +13072,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>126</v>
       </c>
@@ -13095,7 +13115,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>126</v>
       </c>
@@ -13138,7 +13158,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>126</v>
       </c>
@@ -13181,7 +13201,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>134</v>
       </c>
@@ -13224,7 +13244,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>134</v>
       </c>
@@ -13267,7 +13287,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>134</v>
       </c>
@@ -13313,20 +13333,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L123">
-    <cfRule type="expression" dxfId="35" priority="3">
+    <cfRule type="expression" dxfId="189" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18 A20 A22 A24 A26 A28 A30 A32 A34 A36 A38 A40 A42 A44 A46 A48 A50 A52 A54 A56 A58 A60 A62 A64 A66 A68 A70 A72 A74 A76 A78 A80 A82 A84 A86 A88 A90 A92 A94 A96 A98 A100 A102 A104 A106 A108 A110 A112 A114 A116 A118 A120 A122">
-    <cfRule type="expression" dxfId="34" priority="1">
+    <cfRule type="expression" dxfId="188" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="2">
+    <cfRule type="expression" dxfId="187" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 A21:L21 A23:L23 A25:L25 A27:L27 A29:L29 A31:L31 A33:L33 A35:L35 A37:L37 A39:L39 A41:L41 A43:L43 A45:L45 A47:L47 A49:L49 A51:L51 A53:L53 A55:L55 A57:L57 A59:L59 A61:L61 A63:L63 A65:L65 A67:L67 A69:L69 A71:L71 A73:L73 A75:L75 A77:L77 A79:L79 A81:L81 A83:L83 A85:L85 A87:L87 A89:L89 A91:L91 A93:L93 A95:L95 A97:L97 A99:L99 A101:L101 A103:L103 A105:L105 A107:L107 A109:L109 A111:L111 A113:L113 A115:L115 A117:L117 A119:L119 A121:L121 A123:L123 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18 B20:L20 B22:L22 B24:L24 B26:L26 B28:L28 B30:L30 B32:L32 B34:L34 B36:L36 B38:L38 B40:L40 B42:L42 B44:L44 B46:L46 B48:L48 B50:L50 B52:L52 B54:L54 B56:L56 B58:L58 B60:L60 B62:L62 B64:L64 B66:L66 B68:L68 B70:L70 B72:L72 B74:L74 B76:L76 B78:L78 B80:L80 B82:L82 B84:L84 B86:L86 B88:L88 B90:L90 B92:L92 B94:L94 B96:L96 B98:L98 B100:L100 B102:L102 B104:L104 B106:L106 B108:L108 B110:L110 B112:L112 B114:L114 B116:L116 B118:L118 B120:L120 B122:L122">
-    <cfRule type="expression" dxfId="32" priority="4">
+    <cfRule type="expression" dxfId="186" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13350,18 +13370,18 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
-    <col min="6" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="6" max="15" width="15.6640625" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>162</v>
       </c>
@@ -13408,7 +13428,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>126</v>
       </c>
@@ -13449,7 +13469,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>126</v>
       </c>
@@ -13490,7 +13510,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>126</v>
       </c>
@@ -13531,7 +13551,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>126</v>
       </c>
@@ -13572,7 +13592,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>126</v>
       </c>
@@ -13613,7 +13633,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>126</v>
       </c>
@@ -13654,7 +13674,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>126</v>
       </c>
@@ -13695,7 +13715,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>134</v>
       </c>
@@ -13736,7 +13756,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>134</v>
       </c>
@@ -13777,7 +13797,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>134</v>
       </c>
@@ -13818,7 +13838,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>134</v>
       </c>
@@ -13859,7 +13879,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>134</v>
       </c>
@@ -13900,7 +13920,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>134</v>
       </c>
@@ -13941,7 +13961,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>136</v>
       </c>
@@ -13982,7 +14002,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>136</v>
       </c>
@@ -14023,7 +14043,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>136</v>
       </c>
@@ -14064,7 +14084,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>136</v>
       </c>
@@ -14105,7 +14125,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>136</v>
       </c>
@@ -14149,20 +14169,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="31" priority="3">
+    <cfRule type="expression" dxfId="168" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="30" priority="1">
+    <cfRule type="expression" dxfId="167" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="166" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="28" priority="4">
+    <cfRule type="expression" dxfId="165" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14182,20 +14202,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459556E1-C9FD-4A07-9122-D9DBD384813B}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
-    <col min="6" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="6" max="15" width="15.6640625" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>162</v>
       </c>
@@ -14242,7 +14262,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>126</v>
       </c>
@@ -14279,7 +14299,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>126</v>
       </c>
@@ -14322,7 +14342,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>126</v>
       </c>
@@ -14365,7 +14385,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>126</v>
       </c>
@@ -14408,7 +14428,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>126</v>
       </c>
@@ -14451,7 +14471,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>126</v>
       </c>
@@ -14494,7 +14514,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>126</v>
       </c>
@@ -14537,7 +14557,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>126</v>
       </c>
@@ -14580,7 +14600,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>134</v>
       </c>
@@ -14619,7 +14639,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>136</v>
       </c>
@@ -14662,7 +14682,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>136</v>
       </c>
@@ -14705,7 +14725,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>136</v>
       </c>
@@ -14748,7 +14768,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>126</v>
       </c>
@@ -14795,7 +14815,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>126</v>
       </c>
@@ -14842,7 +14862,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>126</v>
       </c>
@@ -14883,7 +14903,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>126</v>
       </c>
@@ -14924,7 +14944,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>126</v>
       </c>
@@ -14965,7 +14985,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>134</v>
       </c>
@@ -15012,7 +15032,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>134</v>
       </c>
@@ -15059,7 +15079,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>134</v>
       </c>
@@ -15106,7 +15126,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>134</v>
       </c>
@@ -15153,7 +15173,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>134</v>
       </c>
@@ -15200,7 +15220,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>136</v>
       </c>
@@ -15247,7 +15267,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>136</v>
       </c>
@@ -15288,7 +15308,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>136</v>
       </c>
@@ -15329,7 +15349,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>136</v>
       </c>
@@ -15379,20 +15399,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L27">
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="147" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18 A20 A22 A24 A26">
-    <cfRule type="expression" dxfId="26" priority="1">
+    <cfRule type="expression" dxfId="146" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="145" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 A21:L21 A23:L23 A25:L25 A27:L27 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18 B20:L20 B22:L22 B24:L24 B26:L26">
-    <cfRule type="expression" dxfId="24" priority="4">
+    <cfRule type="expression" dxfId="144" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15416,18 +15436,18 @@
       <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
-    <col min="6" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="6" max="15" width="15.6640625" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>162</v>
       </c>
@@ -15474,7 +15494,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>126</v>
       </c>
@@ -15513,7 +15533,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>126</v>
       </c>
@@ -15552,7 +15572,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>126</v>
       </c>
@@ -15591,7 +15611,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>126</v>
       </c>
@@ -15630,7 +15650,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>126</v>
       </c>
@@ -15669,7 +15689,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>126</v>
       </c>
@@ -15708,7 +15728,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>126</v>
       </c>
@@ -15747,7 +15767,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>134</v>
       </c>
@@ -15786,7 +15806,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>134</v>
       </c>
@@ -15825,7 +15845,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>134</v>
       </c>
@@ -15864,7 +15884,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>134</v>
       </c>
@@ -15903,7 +15923,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>134</v>
       </c>
@@ -15942,7 +15962,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>134</v>
       </c>
@@ -15981,7 +16001,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>136</v>
       </c>
@@ -16020,7 +16040,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>136</v>
       </c>
@@ -16059,7 +16079,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>136</v>
       </c>
@@ -16098,7 +16118,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>136</v>
       </c>
@@ -16137,7 +16157,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>136</v>
       </c>
@@ -16179,20 +16199,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="23" priority="3">
+    <cfRule type="expression" dxfId="126" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="125" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="124" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="123" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16216,18 +16236,18 @@
       <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
-    <col min="6" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="6" max="15" width="15.6640625" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>162</v>
       </c>
@@ -16274,7 +16294,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>126</v>
       </c>
@@ -16317,7 +16337,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>126</v>
       </c>
@@ -16360,7 +16380,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>126</v>
       </c>
@@ -16403,7 +16423,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>126</v>
       </c>
@@ -16446,7 +16466,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>126</v>
       </c>
@@ -16489,7 +16509,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>134</v>
       </c>
@@ -16532,7 +16552,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>134</v>
       </c>
@@ -16575,7 +16595,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>134</v>
       </c>
@@ -16618,7 +16638,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>136</v>
       </c>
@@ -16661,7 +16681,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>136</v>
       </c>
@@ -16704,7 +16724,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>126</v>
       </c>
@@ -16747,7 +16767,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>126</v>
       </c>
@@ -16790,7 +16810,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>126</v>
       </c>
@@ -16833,7 +16853,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>126</v>
       </c>
@@ -16876,7 +16896,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>126</v>
       </c>
@@ -16919,7 +16939,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>126</v>
       </c>
@@ -16962,7 +16982,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>126</v>
       </c>
@@ -17005,7 +17025,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>126</v>
       </c>
@@ -17048,7 +17068,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>136</v>
       </c>
@@ -17091,7 +17111,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>136</v>
       </c>
@@ -17134,7 +17154,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>136</v>
       </c>
@@ -17177,7 +17197,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>126</v>
       </c>
@@ -17220,7 +17240,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>126</v>
       </c>
@@ -17263,7 +17283,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>126</v>
       </c>
@@ -17306,7 +17326,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>136</v>
       </c>
@@ -17349,7 +17369,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>136</v>
       </c>
@@ -17392,7 +17412,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>136</v>
       </c>
@@ -17435,7 +17455,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>126</v>
       </c>
@@ -17482,7 +17502,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>126</v>
       </c>
@@ -17529,7 +17549,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>126</v>
       </c>
@@ -17576,7 +17596,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>126</v>
       </c>
@@ -17623,7 +17643,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>134</v>
       </c>
@@ -17670,7 +17690,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>134</v>
       </c>
@@ -17717,7 +17737,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>134</v>
       </c>
@@ -17764,7 +17784,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>134</v>
       </c>
@@ -17811,7 +17831,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>134</v>
       </c>
@@ -17858,7 +17878,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>136</v>
       </c>
@@ -17905,7 +17925,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>136</v>
       </c>
@@ -17952,7 +17972,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>136</v>
       </c>
@@ -18002,20 +18022,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L40">
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="105" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18 A20 A22 A24 A26 A28 A30 A32 A34 A36 A38 A40">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="104" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="103" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 A21:L21 A23:L23 A25:L25 A27:L27 A29:L29 A31:L31 A33:L33 A35:L35 A37:L37 A39:L39 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18 B20:L20 B22:L22 B24:L24 B26:L26 B28:L28 B30:L30 B32:L32 B34:L34 B36:L36 B38:L38 B40:L40">
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="102" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18039,18 +18059,18 @@
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
-    <col min="6" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="6" max="15" width="15.6640625" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>162</v>
       </c>
@@ -18097,7 +18117,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>126</v>
       </c>
@@ -18136,7 +18156,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>126</v>
       </c>
@@ -18175,7 +18195,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>126</v>
       </c>
@@ -18214,7 +18234,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>126</v>
       </c>
@@ -18253,7 +18273,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>126</v>
       </c>
@@ -18292,7 +18312,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>126</v>
       </c>
@@ -18331,7 +18351,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>126</v>
       </c>
@@ -18370,7 +18390,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>134</v>
       </c>
@@ -18409,7 +18429,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>134</v>
       </c>
@@ -18448,7 +18468,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>134</v>
       </c>
@@ -18487,7 +18507,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>134</v>
       </c>
@@ -18526,7 +18546,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>134</v>
       </c>
@@ -18565,7 +18585,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>134</v>
       </c>
@@ -18604,7 +18624,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>136</v>
       </c>
@@ -18643,7 +18663,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>136</v>
       </c>
@@ -18682,7 +18702,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>136</v>
       </c>
@@ -18721,7 +18741,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>136</v>
       </c>
@@ -18760,7 +18780,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>136</v>
       </c>
@@ -18802,20 +18822,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="84" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="83" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="82" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="81" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18839,18 +18859,18 @@
       <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
-    <col min="6" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="6" max="15" width="15.6640625" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>162</v>
       </c>
@@ -18897,7 +18917,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>126</v>
       </c>
@@ -18944,7 +18964,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>126</v>
       </c>
@@ -18991,7 +19011,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>126</v>
       </c>
@@ -19038,7 +19058,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>126</v>
       </c>
@@ -19085,7 +19105,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>126</v>
       </c>
@@ -19132,7 +19152,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>126</v>
       </c>
@@ -19179,7 +19199,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>126</v>
       </c>
@@ -19226,7 +19246,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>134</v>
       </c>
@@ -19273,7 +19293,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>134</v>
       </c>
@@ -19320,7 +19340,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>134</v>
       </c>
@@ -19361,7 +19381,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>134</v>
       </c>
@@ -19408,7 +19428,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>134</v>
       </c>
@@ -19455,7 +19475,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>134</v>
       </c>
@@ -19502,7 +19522,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>136</v>
       </c>
@@ -19549,7 +19569,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>136</v>
       </c>
@@ -19596,7 +19616,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>136</v>
       </c>
@@ -19643,7 +19663,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>136</v>
       </c>
@@ -19690,7 +19710,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>136</v>
       </c>
@@ -19740,20 +19760,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="63" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="62" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="61" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="60" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19777,18 +19797,18 @@
       <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
-    <col min="6" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="6" max="15" width="15.6640625" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>162</v>
       </c>
@@ -19835,7 +19855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>126</v>
       </c>
@@ -19874,7 +19894,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>126</v>
       </c>
@@ -19913,7 +19933,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>126</v>
       </c>
@@ -19952,7 +19972,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>126</v>
       </c>
@@ -19991,7 +20011,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>126</v>
       </c>
@@ -20030,7 +20050,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>126</v>
       </c>
@@ -20069,7 +20089,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>126</v>
       </c>
@@ -20108,7 +20128,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>134</v>
       </c>
@@ -20147,7 +20167,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>134</v>
       </c>
@@ -20186,7 +20206,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>134</v>
       </c>
@@ -20225,7 +20245,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>134</v>
       </c>
@@ -20264,7 +20284,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>134</v>
       </c>
@@ -20303,7 +20323,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>134</v>
       </c>
@@ -20342,7 +20362,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>136</v>
       </c>
@@ -20381,7 +20401,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>136</v>
       </c>
@@ -20420,7 +20440,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>136</v>
       </c>
@@ -20459,7 +20479,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>136</v>
       </c>
@@ -20498,7 +20518,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>136</v>
       </c>
@@ -20540,20 +20560,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="42" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="41" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="39" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20578,16 +20598,16 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
-    <col min="6" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="6" max="15" width="15.6640625" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>162</v>
       </c>
@@ -20634,7 +20654,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>126</v>
       </c>
@@ -20677,7 +20697,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>126</v>
       </c>
@@ -20720,7 +20740,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>126</v>
       </c>
@@ -20763,7 +20783,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>126</v>
       </c>
@@ -20806,7 +20826,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>126</v>
       </c>
@@ -20849,7 +20869,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>126</v>
       </c>
@@ -20892,7 +20912,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>126</v>
       </c>
@@ -20935,7 +20955,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>126</v>
       </c>
@@ -20974,7 +20994,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>126</v>
       </c>
@@ -21013,7 +21033,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>126</v>
       </c>
@@ -21052,7 +21072,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>126</v>
       </c>
@@ -21091,7 +21111,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>126</v>
       </c>
@@ -21130,7 +21150,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>126</v>
       </c>
@@ -21169,7 +21189,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>134</v>
       </c>
@@ -21208,7 +21228,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>134</v>
       </c>
@@ -21247,7 +21267,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>134</v>
       </c>
@@ -21286,7 +21306,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>134</v>
       </c>
@@ -21325,7 +21345,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>134</v>
       </c>
@@ -21364,7 +21384,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>134</v>
       </c>
@@ -21403,7 +21423,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>136</v>
       </c>
@@ -21442,7 +21462,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>136</v>
       </c>
@@ -21481,7 +21501,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>136</v>
       </c>
@@ -21520,7 +21540,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>136</v>
       </c>
@@ -21559,7 +21579,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>136</v>
       </c>
@@ -21601,20 +21621,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L25">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18 A20 A22 A24">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 A21:L21 A23:L23 A25:L25 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18 B20:L20 B22:L22 B24:L24">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21639,14 +21659,14 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -21672,7 +21692,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
@@ -21688,7 +21708,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -21706,7 +21726,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>168</v>
       </c>
@@ -21728,7 +21748,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>169</v>
       </c>
@@ -21748,7 +21768,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>170</v>
       </c>
@@ -21766,7 +21786,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>171</v>
       </c>
@@ -21788,7 +21808,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>172</v>
       </c>
@@ -21806,7 +21826,7 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>174</v>
       </c>
@@ -21824,7 +21844,7 @@
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>173</v>
       </c>
@@ -21846,7 +21866,7 @@
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>175</v>
       </c>
@@ -21888,34 +21908,34 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <f>ROWS($A$10:A10)</f>
         <v>1</v>
@@ -21924,7 +21944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>ROWS($A$10:A11)</f>
         <v>2</v>
@@ -21933,7 +21953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>ROWS($A$10:A12)</f>
         <v>3</v>
@@ -21942,7 +21962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>ROWS($A$10:A13)</f>
         <v>4</v>
@@ -21951,7 +21971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>ROWS($A$10:A14)</f>
         <v>5</v>
@@ -21960,7 +21980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
@@ -21968,12 +21988,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -21981,17 +22001,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -21999,22 +22019,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>24</v>
       </c>
@@ -22033,15 +22053,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="5" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>162</v>
       </c>
@@ -22088,7 +22108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>163</v>
       </c>
@@ -22125,7 +22145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>163</v>
       </c>
@@ -22165,10 +22185,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:L3">
-    <cfRule type="expression" dxfId="69" priority="133">
+    <cfRule type="expression" dxfId="339" priority="133">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="134">
+    <cfRule type="expression" dxfId="338" priority="134">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22188,22 +22208,22 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>162</v>
       </c>
@@ -22250,7 +22270,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>163</v>
       </c>
@@ -22289,7 +22309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>163</v>
       </c>
@@ -22328,7 +22348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>163</v>
       </c>
@@ -22367,7 +22387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>163</v>
       </c>
@@ -22406,7 +22426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>163</v>
       </c>
@@ -22443,7 +22463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>163</v>
       </c>
@@ -22480,7 +22500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>163</v>
       </c>
@@ -22519,7 +22539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>163</v>
       </c>
@@ -22556,7 +22576,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>163</v>
       </c>
@@ -22593,7 +22613,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>163</v>
       </c>
@@ -22630,7 +22650,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>163</v>
       </c>
@@ -22667,7 +22687,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>163</v>
       </c>
@@ -22706,7 +22726,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>163</v>
       </c>
@@ -22749,7 +22769,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>163</v>
       </c>
@@ -22786,7 +22806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>163</v>
       </c>
@@ -22825,7 +22845,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>163</v>
       </c>
@@ -22864,7 +22884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>163</v>
       </c>
@@ -22903,7 +22923,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>163</v>
       </c>
@@ -22940,7 +22960,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>163</v>
       </c>
@@ -22977,7 +22997,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>163</v>
       </c>
@@ -23014,7 +23034,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>163</v>
       </c>
@@ -23051,28 +23071,67 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="11">
+        <v>9.5652173899999998E-2</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0.4217391304</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+      <c r="N23" s="11">
+        <v>1</v>
+      </c>
+      <c r="O23" s="11">
+        <v>1E-3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G2:L22">
-    <cfRule type="expression" dxfId="67" priority="55">
+  <conditionalFormatting sqref="G2:L23">
+    <cfRule type="expression" dxfId="321" priority="55">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19 D13 A2:A22 D3:D6">
-    <cfRule type="expression" dxfId="66" priority="39">
+  <conditionalFormatting sqref="D19 D13 D3:D6 A2:A23">
+    <cfRule type="expression" dxfId="320" priority="39">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="40">
+    <cfRule type="expression" dxfId="319" priority="40">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2 B20:L20 B19:C19 E19:L19 B7:L12 B14:L18 B13:C13 E13:L13 B3:C6 E3:L6">
-    <cfRule type="expression" dxfId="64" priority="138">
+    <cfRule type="expression" dxfId="318" priority="138">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F22" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F23" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -23092,16 +23151,16 @@
       <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>162</v>
       </c>
@@ -23148,7 +23207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>163</v>
       </c>
@@ -23187,7 +23246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>163</v>
       </c>
@@ -23226,7 +23285,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>163</v>
       </c>
@@ -23265,7 +23324,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>163</v>
       </c>
@@ -23304,7 +23363,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>163</v>
       </c>
@@ -23341,7 +23400,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>163</v>
       </c>
@@ -23378,7 +23437,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>163</v>
       </c>
@@ -23417,7 +23476,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>163</v>
       </c>
@@ -23454,7 +23513,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>163</v>
       </c>
@@ -23497,7 +23556,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>163</v>
       </c>
@@ -23534,7 +23593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>163</v>
       </c>
@@ -23571,7 +23630,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>163</v>
       </c>
@@ -23613,40 +23672,40 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L13">
-    <cfRule type="expression" dxfId="63" priority="50">
+    <cfRule type="expression" dxfId="301" priority="50">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12 D9 D3:D6 A2:A13">
-    <cfRule type="expression" dxfId="62" priority="31">
+    <cfRule type="expression" dxfId="300" priority="31">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="32">
+    <cfRule type="expression" dxfId="299" priority="32">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:L13 B7:L7 B8:C12 E8:L12 B2:C6 E2:L6">
-    <cfRule type="expression" dxfId="60" priority="141">
+    <cfRule type="expression" dxfId="298" priority="141">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="59" priority="4">
+    <cfRule type="expression" dxfId="297" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="58" priority="3">
+    <cfRule type="expression" dxfId="296" priority="3">
       <formula>ISBLANK($F8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="57" priority="2">
+    <cfRule type="expression" dxfId="295" priority="2">
       <formula>ISBLANK($F11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="56" priority="1">
+    <cfRule type="expression" dxfId="294" priority="1">
       <formula>ISBLANK($F10)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23671,15 +23730,15 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="5" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>162</v>
       </c>
@@ -23726,7 +23785,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>163</v>
       </c>
@@ -23765,7 +23824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>163</v>
       </c>
@@ -23802,7 +23861,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>163</v>
       </c>
@@ -23841,7 +23900,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>163</v>
       </c>
@@ -23880,7 +23939,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>163</v>
       </c>
@@ -23917,7 +23976,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>163</v>
       </c>
@@ -23954,7 +24013,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>163</v>
       </c>
@@ -23991,7 +24050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>163</v>
       </c>
@@ -24030,7 +24089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>163</v>
       </c>
@@ -24067,7 +24126,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>163</v>
       </c>
@@ -24106,7 +24165,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>163</v>
       </c>
@@ -24145,7 +24204,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>163</v>
       </c>
@@ -24184,7 +24243,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>163</v>
       </c>
@@ -24221,7 +24280,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>163</v>
       </c>
@@ -24260,7 +24319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>163</v>
       </c>
@@ -24299,7 +24358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>163</v>
       </c>
@@ -24336,7 +24395,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>163</v>
       </c>
@@ -24375,7 +24434,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>163</v>
       </c>
@@ -24414,7 +24473,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>163</v>
       </c>
@@ -24456,40 +24515,40 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L20">
-    <cfRule type="expression" dxfId="55" priority="63">
+    <cfRule type="expression" dxfId="277" priority="63">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19 A2:A20 D3:D7">
-    <cfRule type="expression" dxfId="54" priority="41">
+    <cfRule type="expression" dxfId="276" priority="41">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="42">
+    <cfRule type="expression" dxfId="275" priority="42">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2 B20:L20 B19:C19 E19:L19 B12:L18 B3:C11 E3:L11">
-    <cfRule type="expression" dxfId="52" priority="138">
+    <cfRule type="expression" dxfId="274" priority="138">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="51" priority="4">
+    <cfRule type="expression" dxfId="273" priority="4">
       <formula>ISBLANK($F9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="50" priority="3">
+    <cfRule type="expression" dxfId="272" priority="3">
       <formula>ISBLANK($F10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="49" priority="2">
+    <cfRule type="expression" dxfId="271" priority="2">
       <formula>ISBLANK($F8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="48" priority="1">
+    <cfRule type="expression" dxfId="270" priority="1">
       <formula>ISBLANK($F11)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24513,15 +24572,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="5" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>162</v>
       </c>
@@ -24568,7 +24627,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>163</v>
       </c>
@@ -24608,20 +24667,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L2">
-    <cfRule type="expression" dxfId="47" priority="26">
+    <cfRule type="expression" dxfId="252" priority="26">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="46" priority="1">
+    <cfRule type="expression" dxfId="251" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="250" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2">
-    <cfRule type="expression" dxfId="44" priority="129">
+    <cfRule type="expression" dxfId="249" priority="129">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24646,15 +24705,15 @@
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="5" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>162</v>
       </c>
@@ -24701,7 +24760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>163</v>
       </c>
@@ -24740,7 +24799,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>163</v>
       </c>
@@ -24779,7 +24838,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>163</v>
       </c>
@@ -24818,7 +24877,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>163</v>
       </c>
@@ -24855,7 +24914,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>163</v>
       </c>
@@ -24892,7 +24951,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>163</v>
       </c>
@@ -24929,7 +24988,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>163</v>
       </c>
@@ -24968,7 +25027,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>163</v>
       </c>
@@ -25007,7 +25066,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>163</v>
       </c>
@@ -25046,7 +25105,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>163</v>
       </c>
@@ -25085,7 +25144,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>163</v>
       </c>
@@ -25124,7 +25183,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>163</v>
       </c>
@@ -25163,7 +25222,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>163</v>
       </c>
@@ -25200,7 +25259,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>163</v>
       </c>
@@ -25237,7 +25296,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>163</v>
       </c>
@@ -25276,7 +25335,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>163</v>
       </c>
@@ -25315,7 +25374,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>163</v>
       </c>
@@ -25352,7 +25411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>163</v>
       </c>
@@ -25389,7 +25448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>163</v>
       </c>
@@ -25426,7 +25485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>163</v>
       </c>
@@ -25463,7 +25522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>163</v>
       </c>
@@ -25500,7 +25559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>163</v>
       </c>
@@ -25539,7 +25598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>163</v>
       </c>
@@ -25579,20 +25638,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L24">
-    <cfRule type="expression" dxfId="43" priority="29">
+    <cfRule type="expression" dxfId="231" priority="29">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="42" priority="1">
+    <cfRule type="expression" dxfId="230" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="2">
+    <cfRule type="expression" dxfId="229" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2 A3:L23">
-    <cfRule type="expression" dxfId="40" priority="128">
+    <cfRule type="expression" dxfId="228" priority="128">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/InputFiles/ModifyParameters.xlsx
+++ b/InputFiles/ModifyParameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERAZA\Documents\Tasking\(4) EPA Stuff\Task 5 Repo\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C0699F-232F-4AB1-A835-28E30D011CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB5B32A-9B7A-40B5-A1C1-550578C3A61B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="657" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="657" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internal - File Info" sheetId="1" r:id="rId1"/>
@@ -1143,7 +1143,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="382">
+  <dxfs count="347">
     <dxf>
       <fill>
         <patternFill>
@@ -1289,13 +1289,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1332,6 +1325,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1541,13 +1541,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1566,6 +1559,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1577,6 +1577,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1613,13 +1620,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1656,6 +1656,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1692,6 +1720,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1757,13 +1813,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1778,376 +1827,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6861,389 +6540,389 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table156" displayName="Table156" ref="A1:O3" totalsRowShown="0" tableBorderDxfId="381">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table156" displayName="Table156" ref="A1:O3" totalsRowShown="0" tableBorderDxfId="346">
   <autoFilter ref="A1:O3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phase" dataDxfId="380"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="379"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="378"/>
-    <tableColumn id="10" xr3:uid="{DA69379A-DE3F-42F4-AF70-91A1718AB7E0}" name="Description" dataDxfId="377"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Units" dataDxfId="376"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distribution Type" dataDxfId="375"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter 1" dataDxfId="374"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="373"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="372"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="371"/>
-    <tableColumn id="14" xr3:uid="{50465694-0FC6-4F52-BBDD-C2367DABB3F3}" name="Parameter 5" dataDxfId="370"/>
-    <tableColumn id="15" xr3:uid="{9D83EAB9-CB4C-4600-AF1C-4966CB714685}" name="Parameter 6" dataDxfId="369"/>
-    <tableColumn id="11" xr3:uid="{6D5D89BA-F5B6-48D7-8EB6-F84737897B28}" name="Lower Limit" dataDxfId="368"/>
-    <tableColumn id="12" xr3:uid="{48C3D1E7-422F-49D2-B091-B1AED1C3D586}" name="Upper Limit" dataDxfId="367"/>
-    <tableColumn id="13" xr3:uid="{C7F66B6D-AE49-4F19-BA50-224FF50E099F}" name="Step" dataDxfId="366"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phase" dataDxfId="345"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="344"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="343"/>
+    <tableColumn id="10" xr3:uid="{DA69379A-DE3F-42F4-AF70-91A1718AB7E0}" name="Description" dataDxfId="342"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Units" dataDxfId="341"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distribution Type" dataDxfId="340"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter 1" dataDxfId="339"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="338"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="337"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="336"/>
+    <tableColumn id="14" xr3:uid="{50465694-0FC6-4F52-BBDD-C2367DABB3F3}" name="Parameter 5" dataDxfId="335"/>
+    <tableColumn id="15" xr3:uid="{9D83EAB9-CB4C-4600-AF1C-4966CB714685}" name="Parameter 6" dataDxfId="334"/>
+    <tableColumn id="11" xr3:uid="{6D5D89BA-F5B6-48D7-8EB6-F84737897B28}" name="Lower Limit" dataDxfId="333"/>
+    <tableColumn id="12" xr3:uid="{48C3D1E7-422F-49D2-B091-B1AED1C3D586}" name="Upper Limit" dataDxfId="332"/>
+    <tableColumn id="13" xr3:uid="{C7F66B6D-AE49-4F19-BA50-224FF50E099F}" name="Step" dataDxfId="331"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{F9C17F91-E3F1-4ABE-9219-5A5F8F4C3152}" name="Table1564518" displayName="Table1564518" ref="A1:O27" totalsRowShown="0" headerRowBorderDxfId="231" tableBorderDxfId="230">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{F9C17F91-E3F1-4ABE-9219-5A5F8F4C3152}" name="Table1564518" displayName="Table1564518" ref="A1:O27" totalsRowShown="0" headerRowBorderDxfId="196" tableBorderDxfId="195">
   <autoFilter ref="A1:O27" xr:uid="{CE70FAE3-DAD6-40A6-BCCE-F46A2CDA0980}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{77AC217A-782C-47D2-9945-D4226DB02CB4}" name="Phase" dataDxfId="229"/>
-    <tableColumn id="22" xr3:uid="{A77A81F7-C018-4F6E-BF69-5FE486BECF62}" name="Category" dataDxfId="228"/>
-    <tableColumn id="12" xr3:uid="{CCA10716-C2B0-4055-953E-1957EC05B7DC}" name="Name" dataDxfId="227"/>
-    <tableColumn id="14" xr3:uid="{9131E52D-9D7C-41BF-ABF5-9AAF65D5BC39}" name="Description" dataDxfId="226"/>
-    <tableColumn id="18" xr3:uid="{819C7026-BBE6-4FEF-81FC-063CF9E923E1}" name="Units" dataDxfId="225"/>
-    <tableColumn id="4" xr3:uid="{BCC0BC54-494B-4CD2-9D93-4A14A321EFDE}" name="Distribution Type" dataDxfId="224"/>
-    <tableColumn id="5" xr3:uid="{890B6437-FEB3-4225-BE1D-8F4BB30A2A95}" name="Parameter 1" dataDxfId="223"/>
-    <tableColumn id="6" xr3:uid="{D95452BF-5FFC-4C2D-BE8B-1138CADE3867}" name="Parameter 2" dataDxfId="222"/>
-    <tableColumn id="7" xr3:uid="{AFAD290F-88ED-4F65-8343-1B7E0B2331C2}" name="Parameter 3" dataDxfId="221"/>
-    <tableColumn id="10" xr3:uid="{C7581E5C-58E6-4080-A3F0-3C90449EE32D}" name="Parameter 4" dataDxfId="220"/>
-    <tableColumn id="11" xr3:uid="{1D5C967F-8BEE-4049-9B30-056174F945AE}" name="Parameter 5" dataDxfId="219"/>
-    <tableColumn id="8" xr3:uid="{058E5821-3943-44C1-B08D-F22618A8CB01}" name="Parameter 6" dataDxfId="218"/>
-    <tableColumn id="15" xr3:uid="{C95BAD13-0F40-4073-97D7-EA904AFBC77C}" name="Lower Limit" dataDxfId="217"/>
-    <tableColumn id="16" xr3:uid="{582C9B39-6E23-469E-818C-CDD30AA83C2C}" name="Upper Limit" dataDxfId="216"/>
-    <tableColumn id="17" xr3:uid="{27D6A1B7-E56F-410E-929C-C8BD6000D2D9}" name="Step" dataDxfId="215"/>
+    <tableColumn id="9" xr3:uid="{77AC217A-782C-47D2-9945-D4226DB02CB4}" name="Phase" dataDxfId="194"/>
+    <tableColumn id="22" xr3:uid="{A77A81F7-C018-4F6E-BF69-5FE486BECF62}" name="Category" dataDxfId="193"/>
+    <tableColumn id="12" xr3:uid="{CCA10716-C2B0-4055-953E-1957EC05B7DC}" name="Name" dataDxfId="192"/>
+    <tableColumn id="14" xr3:uid="{9131E52D-9D7C-41BF-ABF5-9AAF65D5BC39}" name="Description" dataDxfId="191"/>
+    <tableColumn id="18" xr3:uid="{819C7026-BBE6-4FEF-81FC-063CF9E923E1}" name="Units" dataDxfId="190"/>
+    <tableColumn id="4" xr3:uid="{BCC0BC54-494B-4CD2-9D93-4A14A321EFDE}" name="Distribution Type" dataDxfId="189"/>
+    <tableColumn id="5" xr3:uid="{890B6437-FEB3-4225-BE1D-8F4BB30A2A95}" name="Parameter 1" dataDxfId="188"/>
+    <tableColumn id="6" xr3:uid="{D95452BF-5FFC-4C2D-BE8B-1138CADE3867}" name="Parameter 2" dataDxfId="187"/>
+    <tableColumn id="7" xr3:uid="{AFAD290F-88ED-4F65-8343-1B7E0B2331C2}" name="Parameter 3" dataDxfId="186"/>
+    <tableColumn id="10" xr3:uid="{C7581E5C-58E6-4080-A3F0-3C90449EE32D}" name="Parameter 4" dataDxfId="185"/>
+    <tableColumn id="11" xr3:uid="{1D5C967F-8BEE-4049-9B30-056174F945AE}" name="Parameter 5" dataDxfId="184"/>
+    <tableColumn id="8" xr3:uid="{058E5821-3943-44C1-B08D-F22618A8CB01}" name="Parameter 6" dataDxfId="183"/>
+    <tableColumn id="15" xr3:uid="{C95BAD13-0F40-4073-97D7-EA904AFBC77C}" name="Lower Limit" dataDxfId="182"/>
+    <tableColumn id="16" xr3:uid="{582C9B39-6E23-469E-818C-CDD30AA83C2C}" name="Upper Limit" dataDxfId="181"/>
+    <tableColumn id="17" xr3:uid="{27D6A1B7-E56F-410E-929C-C8BD6000D2D9}" name="Step" dataDxfId="180"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{432F1329-A516-4974-97D5-CED039B9825E}" name="Table15649" displayName="Table15649" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="214" tableBorderDxfId="213">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{432F1329-A516-4974-97D5-CED039B9825E}" name="Table15649" displayName="Table15649" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="179" tableBorderDxfId="178">
   <autoFilter ref="A1:O19" xr:uid="{68B29069-2622-4242-A0DD-EA343A9BF637}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{A65D510F-11AE-4758-A918-595CFAEACDBA}" name="Phase" dataDxfId="212"/>
-    <tableColumn id="20" xr3:uid="{1983ED84-E3C7-438C-9FBC-6F68009993BF}" name="Category" dataDxfId="211"/>
-    <tableColumn id="12" xr3:uid="{5F8CF16A-5A1F-471D-941E-E8FA15DC40D9}" name="Name" dataDxfId="210"/>
-    <tableColumn id="14" xr3:uid="{603CB562-B188-4D78-8AF7-0C257FE01A78}" name="Description" dataDxfId="209"/>
-    <tableColumn id="18" xr3:uid="{25C96984-595F-4E53-AEA3-48FE8964668C}" name="Units" dataDxfId="208"/>
-    <tableColumn id="4" xr3:uid="{3AC7C66C-7352-42C7-A88A-718F1163EBC3}" name="Distribution Type" dataDxfId="207"/>
-    <tableColumn id="5" xr3:uid="{6CD1BB89-2672-4A45-AE6D-45DC8FD8C2D0}" name="Parameter 1" dataDxfId="206"/>
-    <tableColumn id="6" xr3:uid="{713F99C9-7865-434B-9380-0F8833A0B7CE}" name="Parameter 2" dataDxfId="205"/>
-    <tableColumn id="7" xr3:uid="{7B3CBF6D-ABAD-435C-93E5-94B2A9A1570D}" name="Parameter 3" dataDxfId="204"/>
-    <tableColumn id="10" xr3:uid="{FD8F6808-F8E5-4346-BE6E-D40A5DADECAC}" name="Parameter 4" dataDxfId="203"/>
-    <tableColumn id="11" xr3:uid="{DC3102D4-541E-44FE-AEFA-0FB92AC933C5}" name="Parameter 5" dataDxfId="202"/>
-    <tableColumn id="8" xr3:uid="{151C5968-B156-4013-B6C4-5D012F22EEF6}" name="Parameter 6" dataDxfId="201"/>
-    <tableColumn id="15" xr3:uid="{868EF292-2E08-40B9-9605-DAF748095734}" name="Lower Limit" dataDxfId="200"/>
-    <tableColumn id="16" xr3:uid="{42D5D159-9DC2-4FE5-9923-4E2B98164CE9}" name="Upper Limit" dataDxfId="199"/>
-    <tableColumn id="17" xr3:uid="{10AFF230-51CB-4644-8521-A18EFFD37E36}" name="Step" dataDxfId="198"/>
+    <tableColumn id="9" xr3:uid="{A65D510F-11AE-4758-A918-595CFAEACDBA}" name="Phase" dataDxfId="177"/>
+    <tableColumn id="20" xr3:uid="{1983ED84-E3C7-438C-9FBC-6F68009993BF}" name="Category" dataDxfId="176"/>
+    <tableColumn id="12" xr3:uid="{5F8CF16A-5A1F-471D-941E-E8FA15DC40D9}" name="Name" dataDxfId="175"/>
+    <tableColumn id="14" xr3:uid="{603CB562-B188-4D78-8AF7-0C257FE01A78}" name="Description" dataDxfId="174"/>
+    <tableColumn id="18" xr3:uid="{25C96984-595F-4E53-AEA3-48FE8964668C}" name="Units" dataDxfId="173"/>
+    <tableColumn id="4" xr3:uid="{3AC7C66C-7352-42C7-A88A-718F1163EBC3}" name="Distribution Type" dataDxfId="172"/>
+    <tableColumn id="5" xr3:uid="{6CD1BB89-2672-4A45-AE6D-45DC8FD8C2D0}" name="Parameter 1" dataDxfId="171"/>
+    <tableColumn id="6" xr3:uid="{713F99C9-7865-434B-9380-0F8833A0B7CE}" name="Parameter 2" dataDxfId="170"/>
+    <tableColumn id="7" xr3:uid="{7B3CBF6D-ABAD-435C-93E5-94B2A9A1570D}" name="Parameter 3" dataDxfId="169"/>
+    <tableColumn id="10" xr3:uid="{FD8F6808-F8E5-4346-BE6E-D40A5DADECAC}" name="Parameter 4" dataDxfId="168"/>
+    <tableColumn id="11" xr3:uid="{DC3102D4-541E-44FE-AEFA-0FB92AC933C5}" name="Parameter 5" dataDxfId="167"/>
+    <tableColumn id="8" xr3:uid="{151C5968-B156-4013-B6C4-5D012F22EEF6}" name="Parameter 6" dataDxfId="166"/>
+    <tableColumn id="15" xr3:uid="{868EF292-2E08-40B9-9605-DAF748095734}" name="Lower Limit" dataDxfId="165"/>
+    <tableColumn id="16" xr3:uid="{42D5D159-9DC2-4FE5-9923-4E2B98164CE9}" name="Upper Limit" dataDxfId="164"/>
+    <tableColumn id="17" xr3:uid="{10AFF230-51CB-4644-8521-A18EFFD37E36}" name="Step" dataDxfId="163"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{DF020213-F975-452A-9830-6EF38DDE7DCF}" name="Table15647" displayName="Table15647" ref="A1:O40" totalsRowShown="0" headerRowBorderDxfId="197" tableBorderDxfId="196">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{DF020213-F975-452A-9830-6EF38DDE7DCF}" name="Table15647" displayName="Table15647" ref="A1:O40" totalsRowShown="0" headerRowBorderDxfId="162" tableBorderDxfId="161">
   <autoFilter ref="A1:O40" xr:uid="{859BD2B0-AA02-48BA-8620-BDF827813892}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{F237A42D-415A-475B-91B7-8CB0D38B7028}" name="Phase" dataDxfId="195"/>
-    <tableColumn id="20" xr3:uid="{D2304797-990E-4466-8277-ACC378FC5EF1}" name="Category" dataDxfId="194"/>
-    <tableColumn id="12" xr3:uid="{E8D03348-3348-4698-9DA9-FDFD93C4108D}" name="Name" dataDxfId="193"/>
-    <tableColumn id="14" xr3:uid="{D9BE976B-814C-40BA-BB9C-F5A4A863809D}" name="Description" dataDxfId="192"/>
-    <tableColumn id="18" xr3:uid="{C8EEDF00-53C4-4BBB-A736-4C222CC37ACE}" name="Units" dataDxfId="191"/>
-    <tableColumn id="4" xr3:uid="{B912A136-218A-46A6-9298-A26FF451BC8B}" name="Distribution Type" dataDxfId="190"/>
-    <tableColumn id="5" xr3:uid="{B469F8C6-AC37-4E2C-B435-D79806B5EB80}" name="Parameter 1" dataDxfId="189"/>
-    <tableColumn id="6" xr3:uid="{6E4BE98D-3625-46DA-8047-5C4657A18F62}" name="Parameter 2" dataDxfId="188"/>
-    <tableColumn id="7" xr3:uid="{24844D85-F2B8-4B62-9347-EE51DBA7335D}" name="Parameter 3" dataDxfId="187"/>
-    <tableColumn id="10" xr3:uid="{A09FB262-3AAD-46E1-B780-FAC155246DCB}" name="Parameter 4" dataDxfId="186"/>
-    <tableColumn id="11" xr3:uid="{C49055A9-0CD5-4B9A-9D72-65429F3A5716}" name="Parameter 5" dataDxfId="185"/>
-    <tableColumn id="8" xr3:uid="{B80ED53B-AC7B-4D83-B11D-F4584FC387E7}" name="Parameter 6" dataDxfId="184"/>
-    <tableColumn id="15" xr3:uid="{196E4D59-E5D8-47FC-8FBC-0DF83057658E}" name="Lower Limit" dataDxfId="183"/>
-    <tableColumn id="16" xr3:uid="{9EDBB862-8D13-4999-A6D8-0549867DD0D7}" name="Upper Limit" dataDxfId="182"/>
-    <tableColumn id="17" xr3:uid="{9F81C7E5-43F7-4126-A586-BB1219F70A02}" name="Step" dataDxfId="181"/>
+    <tableColumn id="9" xr3:uid="{F237A42D-415A-475B-91B7-8CB0D38B7028}" name="Phase" dataDxfId="160"/>
+    <tableColumn id="20" xr3:uid="{D2304797-990E-4466-8277-ACC378FC5EF1}" name="Category" dataDxfId="159"/>
+    <tableColumn id="12" xr3:uid="{E8D03348-3348-4698-9DA9-FDFD93C4108D}" name="Name" dataDxfId="158"/>
+    <tableColumn id="14" xr3:uid="{D9BE976B-814C-40BA-BB9C-F5A4A863809D}" name="Description" dataDxfId="157"/>
+    <tableColumn id="18" xr3:uid="{C8EEDF00-53C4-4BBB-A736-4C222CC37ACE}" name="Units" dataDxfId="156"/>
+    <tableColumn id="4" xr3:uid="{B912A136-218A-46A6-9298-A26FF451BC8B}" name="Distribution Type" dataDxfId="155"/>
+    <tableColumn id="5" xr3:uid="{B469F8C6-AC37-4E2C-B435-D79806B5EB80}" name="Parameter 1" dataDxfId="154"/>
+    <tableColumn id="6" xr3:uid="{6E4BE98D-3625-46DA-8047-5C4657A18F62}" name="Parameter 2" dataDxfId="153"/>
+    <tableColumn id="7" xr3:uid="{24844D85-F2B8-4B62-9347-EE51DBA7335D}" name="Parameter 3" dataDxfId="152"/>
+    <tableColumn id="10" xr3:uid="{A09FB262-3AAD-46E1-B780-FAC155246DCB}" name="Parameter 4" dataDxfId="151"/>
+    <tableColumn id="11" xr3:uid="{C49055A9-0CD5-4B9A-9D72-65429F3A5716}" name="Parameter 5" dataDxfId="150"/>
+    <tableColumn id="8" xr3:uid="{B80ED53B-AC7B-4D83-B11D-F4584FC387E7}" name="Parameter 6" dataDxfId="149"/>
+    <tableColumn id="15" xr3:uid="{196E4D59-E5D8-47FC-8FBC-0DF83057658E}" name="Lower Limit" dataDxfId="148"/>
+    <tableColumn id="16" xr3:uid="{9EDBB862-8D13-4999-A6D8-0549867DD0D7}" name="Upper Limit" dataDxfId="147"/>
+    <tableColumn id="17" xr3:uid="{9F81C7E5-43F7-4126-A586-BB1219F70A02}" name="Step" dataDxfId="146"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{7550EFF0-9439-4E6A-8D23-02F504FBD1D4}" name="Table156414" displayName="Table156414" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="180" tableBorderDxfId="179">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{7550EFF0-9439-4E6A-8D23-02F504FBD1D4}" name="Table156414" displayName="Table156414" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="145" tableBorderDxfId="144">
   <autoFilter ref="A1:O19" xr:uid="{E89F1AAB-0467-4C13-8286-F7AC331E8CED}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{AE476C5A-DA1D-465E-9CDD-F6537F49B59A}" name="Phase" dataDxfId="178"/>
-    <tableColumn id="12" xr3:uid="{5D89776A-B117-4D83-ACC3-F00ADD3FE56E}" name="Category" dataDxfId="177"/>
-    <tableColumn id="3" xr3:uid="{9037C44A-A90D-462C-A2F2-1224467C2BC0}" name="Name" dataDxfId="176"/>
-    <tableColumn id="14" xr3:uid="{E343E4A4-9362-4305-9A92-A8062E97127D}" name="Description" dataDxfId="175"/>
-    <tableColumn id="18" xr3:uid="{59A60541-5F4F-478A-996C-A136B098D92B}" name="Units" dataDxfId="174"/>
-    <tableColumn id="4" xr3:uid="{30DA923F-FB86-4AC4-B259-AE796033AAED}" name="Distribution Type" dataDxfId="173"/>
-    <tableColumn id="5" xr3:uid="{BD9D6BB8-0A9E-48E1-95D5-0EECCBFE8316}" name="Parameter 1" dataDxfId="172"/>
-    <tableColumn id="6" xr3:uid="{B0E10190-9195-4B9D-A20D-A270CE2F3E98}" name="Parameter 2" dataDxfId="171"/>
-    <tableColumn id="7" xr3:uid="{918B726D-0E60-49F6-94FE-F7B5CF284EB2}" name="Parameter 3" dataDxfId="170"/>
-    <tableColumn id="10" xr3:uid="{F52C94ED-5667-4B4C-AF10-29D9CF45ACB5}" name="Parameter 4" dataDxfId="169"/>
-    <tableColumn id="11" xr3:uid="{9F8440AB-4D90-4F35-8265-07E520410CC0}" name="Parameter 5" dataDxfId="168"/>
-    <tableColumn id="8" xr3:uid="{4F13BDAF-F86A-4434-B9C3-576D1A4571C8}" name="Parameter 6" dataDxfId="167"/>
-    <tableColumn id="15" xr3:uid="{168B9EEC-D86A-4C57-8174-66D02451AA11}" name="Lower Limit" dataDxfId="166"/>
-    <tableColumn id="16" xr3:uid="{B91AA0FC-6FD4-4503-8497-8E2658CD5A9C}" name="Upper Limit" dataDxfId="165"/>
-    <tableColumn id="17" xr3:uid="{85F85B4E-2654-4B9F-8CBF-9AF7D4017806}" name="Step" dataDxfId="164"/>
+    <tableColumn id="9" xr3:uid="{AE476C5A-DA1D-465E-9CDD-F6537F49B59A}" name="Phase" dataDxfId="143"/>
+    <tableColumn id="12" xr3:uid="{5D89776A-B117-4D83-ACC3-F00ADD3FE56E}" name="Category" dataDxfId="142"/>
+    <tableColumn id="3" xr3:uid="{9037C44A-A90D-462C-A2F2-1224467C2BC0}" name="Name" dataDxfId="141"/>
+    <tableColumn id="14" xr3:uid="{E343E4A4-9362-4305-9A92-A8062E97127D}" name="Description" dataDxfId="140"/>
+    <tableColumn id="18" xr3:uid="{59A60541-5F4F-478A-996C-A136B098D92B}" name="Units" dataDxfId="139"/>
+    <tableColumn id="4" xr3:uid="{30DA923F-FB86-4AC4-B259-AE796033AAED}" name="Distribution Type" dataDxfId="138"/>
+    <tableColumn id="5" xr3:uid="{BD9D6BB8-0A9E-48E1-95D5-0EECCBFE8316}" name="Parameter 1" dataDxfId="137"/>
+    <tableColumn id="6" xr3:uid="{B0E10190-9195-4B9D-A20D-A270CE2F3E98}" name="Parameter 2" dataDxfId="136"/>
+    <tableColumn id="7" xr3:uid="{918B726D-0E60-49F6-94FE-F7B5CF284EB2}" name="Parameter 3" dataDxfId="135"/>
+    <tableColumn id="10" xr3:uid="{F52C94ED-5667-4B4C-AF10-29D9CF45ACB5}" name="Parameter 4" dataDxfId="134"/>
+    <tableColumn id="11" xr3:uid="{9F8440AB-4D90-4F35-8265-07E520410CC0}" name="Parameter 5" dataDxfId="133"/>
+    <tableColumn id="8" xr3:uid="{4F13BDAF-F86A-4434-B9C3-576D1A4571C8}" name="Parameter 6" dataDxfId="132"/>
+    <tableColumn id="15" xr3:uid="{168B9EEC-D86A-4C57-8174-66D02451AA11}" name="Lower Limit" dataDxfId="131"/>
+    <tableColumn id="16" xr3:uid="{B91AA0FC-6FD4-4503-8497-8E2658CD5A9C}" name="Upper Limit" dataDxfId="130"/>
+    <tableColumn id="17" xr3:uid="{85F85B4E-2654-4B9F-8CBF-9AF7D4017806}" name="Step" dataDxfId="129"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{544BD654-9B18-4F85-8680-0367091A97FD}" name="Table15646" displayName="Table15646" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="163" tableBorderDxfId="162">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{544BD654-9B18-4F85-8680-0367091A97FD}" name="Table15646" displayName="Table15646" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="128" tableBorderDxfId="127">
   <autoFilter ref="A1:O19" xr:uid="{EC61BB93-4EB0-4480-9F8B-C9A2D56564B4}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{1735A646-077D-4A5C-8ABA-5E5552C83F8B}" name="Phase" dataDxfId="161"/>
-    <tableColumn id="20" xr3:uid="{004108F0-B585-4FC4-8E02-24F2EDB488C0}" name="Category" dataDxfId="160"/>
-    <tableColumn id="12" xr3:uid="{69E4893D-8A0F-46ED-8648-226BDC719B2B}" name="Name" dataDxfId="159"/>
-    <tableColumn id="14" xr3:uid="{A839FAC0-08F6-4AA7-96B8-39B9A47A057D}" name="Description" dataDxfId="158"/>
-    <tableColumn id="18" xr3:uid="{E0746BE3-6AD9-4082-A683-C57740CF7686}" name="Units" dataDxfId="157"/>
-    <tableColumn id="4" xr3:uid="{C6BD6FF1-F034-424C-A7E9-0CF1059B3A7C}" name="Distribution Type" dataDxfId="156"/>
-    <tableColumn id="5" xr3:uid="{41A11BA2-CB19-4A3D-BAB4-C7ABCBD3E30F}" name="Parameter 1" dataDxfId="155"/>
-    <tableColumn id="6" xr3:uid="{648D385E-E212-43CC-A8AA-53DDD8BD0428}" name="Parameter 2" dataDxfId="154"/>
-    <tableColumn id="7" xr3:uid="{A336D93E-1EE2-4808-98BA-CB978FBE172A}" name="Parameter 3" dataDxfId="153"/>
-    <tableColumn id="10" xr3:uid="{03178B46-AD0C-4482-9EC2-A764D5FA6F6C}" name="Parameter 4" dataDxfId="152"/>
-    <tableColumn id="11" xr3:uid="{EAD273F2-76B2-43C4-A1D7-A199E13BAD05}" name="Parameter 5" dataDxfId="151"/>
-    <tableColumn id="8" xr3:uid="{CA066BBA-6299-4A1A-A4D8-73F164A6F41D}" name="Parameter 6" dataDxfId="150"/>
-    <tableColumn id="15" xr3:uid="{F1632EF8-E0CB-4E7B-BEA5-E206CC27F984}" name="Lower Limit" dataDxfId="149"/>
-    <tableColumn id="16" xr3:uid="{4ED75AE2-55E4-419A-A9E6-19CC6C5896E9}" name="Upper Limit" dataDxfId="148"/>
-    <tableColumn id="17" xr3:uid="{D34421A0-FABD-4530-911F-6AAAC527E813}" name="Step" dataDxfId="147"/>
+    <tableColumn id="9" xr3:uid="{1735A646-077D-4A5C-8ABA-5E5552C83F8B}" name="Phase" dataDxfId="126"/>
+    <tableColumn id="20" xr3:uid="{004108F0-B585-4FC4-8E02-24F2EDB488C0}" name="Category" dataDxfId="125"/>
+    <tableColumn id="12" xr3:uid="{69E4893D-8A0F-46ED-8648-226BDC719B2B}" name="Name" dataDxfId="124"/>
+    <tableColumn id="14" xr3:uid="{A839FAC0-08F6-4AA7-96B8-39B9A47A057D}" name="Description" dataDxfId="123"/>
+    <tableColumn id="18" xr3:uid="{E0746BE3-6AD9-4082-A683-C57740CF7686}" name="Units" dataDxfId="122"/>
+    <tableColumn id="4" xr3:uid="{C6BD6FF1-F034-424C-A7E9-0CF1059B3A7C}" name="Distribution Type" dataDxfId="121"/>
+    <tableColumn id="5" xr3:uid="{41A11BA2-CB19-4A3D-BAB4-C7ABCBD3E30F}" name="Parameter 1" dataDxfId="120"/>
+    <tableColumn id="6" xr3:uid="{648D385E-E212-43CC-A8AA-53DDD8BD0428}" name="Parameter 2" dataDxfId="119"/>
+    <tableColumn id="7" xr3:uid="{A336D93E-1EE2-4808-98BA-CB978FBE172A}" name="Parameter 3" dataDxfId="118"/>
+    <tableColumn id="10" xr3:uid="{03178B46-AD0C-4482-9EC2-A764D5FA6F6C}" name="Parameter 4" dataDxfId="117"/>
+    <tableColumn id="11" xr3:uid="{EAD273F2-76B2-43C4-A1D7-A199E13BAD05}" name="Parameter 5" dataDxfId="116"/>
+    <tableColumn id="8" xr3:uid="{CA066BBA-6299-4A1A-A4D8-73F164A6F41D}" name="Parameter 6" dataDxfId="115"/>
+    <tableColumn id="15" xr3:uid="{F1632EF8-E0CB-4E7B-BEA5-E206CC27F984}" name="Lower Limit" dataDxfId="114"/>
+    <tableColumn id="16" xr3:uid="{4ED75AE2-55E4-419A-A9E6-19CC6C5896E9}" name="Upper Limit" dataDxfId="113"/>
+    <tableColumn id="17" xr3:uid="{D34421A0-FABD-4530-911F-6AAAC527E813}" name="Step" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A9DDAA0B-EDE4-49CE-8D2A-53496C87AC6C}" name="Table156411" displayName="Table156411" ref="A1:O10" totalsRowShown="0" headerRowBorderDxfId="146" tableBorderDxfId="145">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A9DDAA0B-EDE4-49CE-8D2A-53496C87AC6C}" name="Table156411" displayName="Table156411" ref="A1:O10" totalsRowShown="0" headerRowBorderDxfId="111" tableBorderDxfId="110">
   <autoFilter ref="A1:O10" xr:uid="{96C1D83B-BC19-489F-9EB7-C4BD46C50E46}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{F67C5E8C-F091-4379-8FA4-1E0A53077B68}" name="Phase" dataDxfId="144"/>
-    <tableColumn id="20" xr3:uid="{F204C7B0-E561-4894-A461-ADBDC80CC735}" name="Category" dataDxfId="143"/>
-    <tableColumn id="12" xr3:uid="{30B72B9B-FF89-4E51-9A96-F8BE3F8041EA}" name="Name" dataDxfId="142"/>
-    <tableColumn id="14" xr3:uid="{DB30649B-C3C1-48BB-B0BA-3762B2EA3DA0}" name="Description" dataDxfId="141"/>
-    <tableColumn id="18" xr3:uid="{3421310D-974A-44DB-BC28-81CC179BFD51}" name="Units" dataDxfId="140"/>
-    <tableColumn id="4" xr3:uid="{A19068C9-4F23-4FE6-A45E-0F5BEA8C7692}" name="Distribution Type" dataDxfId="139"/>
-    <tableColumn id="5" xr3:uid="{8F241659-0C60-4FF4-9636-16A0AEB54DFB}" name="Parameter 1" dataDxfId="138"/>
-    <tableColumn id="6" xr3:uid="{AA2565DE-2D2D-4A58-BC4B-001FAEC9C3F0}" name="Parameter 2" dataDxfId="137"/>
-    <tableColumn id="7" xr3:uid="{CB9ADE6D-1E48-4ECA-BB61-8BFBE1C45E5E}" name="Parameter 3" dataDxfId="136"/>
-    <tableColumn id="10" xr3:uid="{18EB0859-1F88-4B30-8715-88A124D91C9B}" name="Parameter 4" dataDxfId="135"/>
-    <tableColumn id="11" xr3:uid="{6D767472-81BC-463B-A56A-768C0F5A05A9}" name="Parameter 5" dataDxfId="134"/>
-    <tableColumn id="8" xr3:uid="{217B790C-1EC6-4F73-BB6C-25E35A9D36EE}" name="Parameter 6" dataDxfId="133"/>
-    <tableColumn id="15" xr3:uid="{D4DC6753-6BDE-420B-8E58-4073ED5E70CD}" name="Lower Limit" dataDxfId="132"/>
-    <tableColumn id="16" xr3:uid="{9E541401-2A45-4487-861E-572F306DBB90}" name="Upper Limit" dataDxfId="131"/>
-    <tableColumn id="17" xr3:uid="{222205B2-5966-4F6B-A5A4-259C62BDA43D}" name="Step" dataDxfId="130"/>
+    <tableColumn id="9" xr3:uid="{F67C5E8C-F091-4379-8FA4-1E0A53077B68}" name="Phase" dataDxfId="109"/>
+    <tableColumn id="20" xr3:uid="{F204C7B0-E561-4894-A461-ADBDC80CC735}" name="Category" dataDxfId="108"/>
+    <tableColumn id="12" xr3:uid="{30B72B9B-FF89-4E51-9A96-F8BE3F8041EA}" name="Name" dataDxfId="107"/>
+    <tableColumn id="14" xr3:uid="{DB30649B-C3C1-48BB-B0BA-3762B2EA3DA0}" name="Description" dataDxfId="106"/>
+    <tableColumn id="18" xr3:uid="{3421310D-974A-44DB-BC28-81CC179BFD51}" name="Units" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{A19068C9-4F23-4FE6-A45E-0F5BEA8C7692}" name="Distribution Type" dataDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{8F241659-0C60-4FF4-9636-16A0AEB54DFB}" name="Parameter 1" dataDxfId="103"/>
+    <tableColumn id="6" xr3:uid="{AA2565DE-2D2D-4A58-BC4B-001FAEC9C3F0}" name="Parameter 2" dataDxfId="102"/>
+    <tableColumn id="7" xr3:uid="{CB9ADE6D-1E48-4ECA-BB61-8BFBE1C45E5E}" name="Parameter 3" dataDxfId="101"/>
+    <tableColumn id="10" xr3:uid="{18EB0859-1F88-4B30-8715-88A124D91C9B}" name="Parameter 4" dataDxfId="100"/>
+    <tableColumn id="11" xr3:uid="{6D767472-81BC-463B-A56A-768C0F5A05A9}" name="Parameter 5" dataDxfId="99"/>
+    <tableColumn id="8" xr3:uid="{217B790C-1EC6-4F73-BB6C-25E35A9D36EE}" name="Parameter 6" dataDxfId="98"/>
+    <tableColumn id="15" xr3:uid="{D4DC6753-6BDE-420B-8E58-4073ED5E70CD}" name="Lower Limit" dataDxfId="97"/>
+    <tableColumn id="16" xr3:uid="{9E541401-2A45-4487-861E-572F306DBB90}" name="Upper Limit" dataDxfId="96"/>
+    <tableColumn id="17" xr3:uid="{222205B2-5966-4F6B-A5A4-259C62BDA43D}" name="Step" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1C65CEB6-4F7A-4FD3-92D1-32B0AC0529C7}" name="Table15645" displayName="Table15645" ref="A1:O25" totalsRowShown="0" headerRowBorderDxfId="129" tableBorderDxfId="128">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1C65CEB6-4F7A-4FD3-92D1-32B0AC0529C7}" name="Table15645" displayName="Table15645" ref="A1:O25" totalsRowShown="0" headerRowBorderDxfId="94" tableBorderDxfId="93">
   <autoFilter ref="A1:O25" xr:uid="{CE70FAE3-DAD6-40A6-BCCE-F46A2CDA0980}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{A5634D1E-7F69-4A8B-9B2C-E544A100BE0B}" name="Phase" dataDxfId="127"/>
-    <tableColumn id="22" xr3:uid="{DF0A5598-36C6-480A-8445-5264CD38D6AE}" name="Category" dataDxfId="126"/>
-    <tableColumn id="12" xr3:uid="{322396A3-5A20-4A3E-8F7B-F97F31E5B741}" name="Name" dataDxfId="125"/>
-    <tableColumn id="14" xr3:uid="{1910CF64-CF8F-4994-BC1B-F27FE4E216E6}" name="Description" dataDxfId="124"/>
-    <tableColumn id="18" xr3:uid="{211B9116-478A-42BC-BFD9-0A2AA2AD39A9}" name="Units" dataDxfId="123"/>
-    <tableColumn id="4" xr3:uid="{ABD6291E-7951-4F95-9FF4-C5A1FC0AAC06}" name="Distribution Type" dataDxfId="122"/>
-    <tableColumn id="5" xr3:uid="{ECC3B9FC-E4AE-4AD1-BF4C-89FE38983ABB}" name="Parameter 1" dataDxfId="121"/>
-    <tableColumn id="6" xr3:uid="{8FC5359B-BA7A-46D2-B091-D9665C585235}" name="Parameter 2" dataDxfId="120"/>
-    <tableColumn id="7" xr3:uid="{3BDDE353-FD4F-45F2-8B7C-5F7D6E0D347D}" name="Parameter 3" dataDxfId="119"/>
-    <tableColumn id="10" xr3:uid="{701C65B5-1C54-4F3C-90E2-A67B32AB1876}" name="Parameter 4" dataDxfId="118"/>
-    <tableColumn id="11" xr3:uid="{A8EE834B-F323-4C30-8E59-AEDA8B9E2A61}" name="Parameter 5" dataDxfId="117"/>
-    <tableColumn id="8" xr3:uid="{240B8AE3-DEF4-4C61-BF40-2515EA4A4DDB}" name="Parameter 6" dataDxfId="116"/>
-    <tableColumn id="15" xr3:uid="{5D6076C4-791B-4994-9665-C628F9AE62B7}" name="Lower Limit" dataDxfId="115"/>
-    <tableColumn id="16" xr3:uid="{D06B2878-4A23-45AF-8278-C825D6961D31}" name="Upper Limit" dataDxfId="114"/>
-    <tableColumn id="17" xr3:uid="{54CBA85E-0128-4FD6-8F0E-932C4E402C1C}" name="Step" dataDxfId="113"/>
+    <tableColumn id="9" xr3:uid="{A5634D1E-7F69-4A8B-9B2C-E544A100BE0B}" name="Phase" dataDxfId="92"/>
+    <tableColumn id="22" xr3:uid="{DF0A5598-36C6-480A-8445-5264CD38D6AE}" name="Category" dataDxfId="91"/>
+    <tableColumn id="12" xr3:uid="{322396A3-5A20-4A3E-8F7B-F97F31E5B741}" name="Name" dataDxfId="90"/>
+    <tableColumn id="14" xr3:uid="{1910CF64-CF8F-4994-BC1B-F27FE4E216E6}" name="Description" dataDxfId="89"/>
+    <tableColumn id="18" xr3:uid="{211B9116-478A-42BC-BFD9-0A2AA2AD39A9}" name="Units" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{ABD6291E-7951-4F95-9FF4-C5A1FC0AAC06}" name="Distribution Type" dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{ECC3B9FC-E4AE-4AD1-BF4C-89FE38983ABB}" name="Parameter 1" dataDxfId="86"/>
+    <tableColumn id="6" xr3:uid="{8FC5359B-BA7A-46D2-B091-D9665C585235}" name="Parameter 2" dataDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{3BDDE353-FD4F-45F2-8B7C-5F7D6E0D347D}" name="Parameter 3" dataDxfId="84"/>
+    <tableColumn id="10" xr3:uid="{701C65B5-1C54-4F3C-90E2-A67B32AB1876}" name="Parameter 4" dataDxfId="83"/>
+    <tableColumn id="11" xr3:uid="{A8EE834B-F323-4C30-8E59-AEDA8B9E2A61}" name="Parameter 5" dataDxfId="82"/>
+    <tableColumn id="8" xr3:uid="{240B8AE3-DEF4-4C61-BF40-2515EA4A4DDB}" name="Parameter 6" dataDxfId="81"/>
+    <tableColumn id="15" xr3:uid="{5D6076C4-791B-4994-9665-C628F9AE62B7}" name="Lower Limit" dataDxfId="80"/>
+    <tableColumn id="16" xr3:uid="{D06B2878-4A23-45AF-8278-C825D6961D31}" name="Upper Limit" dataDxfId="79"/>
+    <tableColumn id="17" xr3:uid="{54CBA85E-0128-4FD6-8F0E-932C4E402C1C}" name="Step" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:O22" totalsRowShown="0" tableBorderDxfId="365">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:O22" totalsRowShown="0" tableBorderDxfId="330">
   <autoFilter ref="A1:O22" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phase" dataDxfId="364"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="363"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="362"/>
-    <tableColumn id="10" xr3:uid="{8EBBFD49-190C-4C2F-A6BC-0598AAC3E788}" name="Description" dataDxfId="361"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="360"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="359"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="358"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="357"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="356"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="355"/>
-    <tableColumn id="14" xr3:uid="{E54D398D-B732-4333-A3F2-2EBD48BAA48B}" name="Parameter 5" dataDxfId="354"/>
-    <tableColumn id="15" xr3:uid="{47B382D4-92A3-4B8C-9C52-0458EA4788B1}" name="Parameter 6" dataDxfId="353"/>
-    <tableColumn id="11" xr3:uid="{BD4375F0-63E9-45EC-BE2E-338374C10F8B}" name="Lower Limit" dataDxfId="352"/>
-    <tableColumn id="12" xr3:uid="{E3D45A75-803F-48B4-B112-11C4C63E6D6F}" name="Upper Limit" dataDxfId="351"/>
-    <tableColumn id="13" xr3:uid="{FFEC12A7-FD01-4D8C-85CF-A25BD15B0829}" name="Step" dataDxfId="350"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phase" dataDxfId="329"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="328"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="327"/>
+    <tableColumn id="10" xr3:uid="{8EBBFD49-190C-4C2F-A6BC-0598AAC3E788}" name="Description" dataDxfId="326"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="325"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="324"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="323"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="322"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="321"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="320"/>
+    <tableColumn id="14" xr3:uid="{E54D398D-B732-4333-A3F2-2EBD48BAA48B}" name="Parameter 5" dataDxfId="319"/>
+    <tableColumn id="15" xr3:uid="{47B382D4-92A3-4B8C-9C52-0458EA4788B1}" name="Parameter 6" dataDxfId="318"/>
+    <tableColumn id="11" xr3:uid="{BD4375F0-63E9-45EC-BE2E-338374C10F8B}" name="Lower Limit" dataDxfId="317"/>
+    <tableColumn id="12" xr3:uid="{E3D45A75-803F-48B4-B112-11C4C63E6D6F}" name="Upper Limit" dataDxfId="316"/>
+    <tableColumn id="13" xr3:uid="{FFEC12A7-FD01-4D8C-85CF-A25BD15B0829}" name="Step" dataDxfId="315"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:O13" totalsRowShown="0" tableBorderDxfId="349">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:O13" totalsRowShown="0" tableBorderDxfId="314">
   <autoFilter ref="A1:O13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Phase" dataDxfId="348"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="347"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="346"/>
-    <tableColumn id="10" xr3:uid="{2D3DA962-F373-48F5-BD94-00CC27106A46}" name="Description" dataDxfId="345"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="344"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="343"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="342"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="341"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="340"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="339"/>
-    <tableColumn id="14" xr3:uid="{5A98E335-B701-4CC9-9D03-A85D24786F3B}" name="Parameter 5" dataDxfId="338"/>
-    <tableColumn id="15" xr3:uid="{79377D49-ED29-41CF-AC28-FD408018808C}" name="Parameter 6" dataDxfId="337"/>
-    <tableColumn id="11" xr3:uid="{FF818C38-99D8-4486-B25F-2B94B62F77AF}" name="Lower Limit" dataDxfId="336"/>
-    <tableColumn id="12" xr3:uid="{8C44E4B8-6916-4798-9055-589FE4E4C903}" name="Upper Limit" dataDxfId="335"/>
-    <tableColumn id="13" xr3:uid="{8266E46A-7EC0-42D8-91D3-D2DC1B4352DE}" name="Step" dataDxfId="334"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Phase" dataDxfId="313"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="312"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="311"/>
+    <tableColumn id="10" xr3:uid="{2D3DA962-F373-48F5-BD94-00CC27106A46}" name="Description" dataDxfId="310"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="309"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="308"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="307"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="306"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="305"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="304"/>
+    <tableColumn id="14" xr3:uid="{5A98E335-B701-4CC9-9D03-A85D24786F3B}" name="Parameter 5" dataDxfId="303"/>
+    <tableColumn id="15" xr3:uid="{79377D49-ED29-41CF-AC28-FD408018808C}" name="Parameter 6" dataDxfId="302"/>
+    <tableColumn id="11" xr3:uid="{FF818C38-99D8-4486-B25F-2B94B62F77AF}" name="Lower Limit" dataDxfId="301"/>
+    <tableColumn id="12" xr3:uid="{8C44E4B8-6916-4798-9055-589FE4E4C903}" name="Upper Limit" dataDxfId="300"/>
+    <tableColumn id="13" xr3:uid="{8266E46A-7EC0-42D8-91D3-D2DC1B4352DE}" name="Step" dataDxfId="299"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:O20" totalsRowShown="0" headerRowBorderDxfId="333" tableBorderDxfId="332">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:O20" totalsRowShown="0" headerRowBorderDxfId="298" tableBorderDxfId="297">
   <autoFilter ref="A1:O20" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Phase" dataDxfId="331"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="330"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="329"/>
-    <tableColumn id="10" xr3:uid="{A40104D1-3BF7-4068-8777-3D61F27973C1}" name="Description" dataDxfId="328"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="327"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="326"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="325"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="324"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="323"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="322"/>
-    <tableColumn id="14" xr3:uid="{77E616D7-C540-4C6C-A01C-31C8ADF35FBE}" name="Parameter 5" dataDxfId="321"/>
-    <tableColumn id="15" xr3:uid="{68C28D25-E41A-4D3D-A794-809A12A02364}" name="Parameter 6" dataDxfId="320"/>
-    <tableColumn id="11" xr3:uid="{83552614-5368-48EE-AE65-AA7B101E55EF}" name="Lower Limit" dataDxfId="319"/>
-    <tableColumn id="12" xr3:uid="{98998298-F4B1-4980-B79C-0BF0D0D59028}" name="Upper Limit" dataDxfId="318"/>
-    <tableColumn id="13" xr3:uid="{8E3814A1-C526-4157-B0D9-1258E47ACA45}" name="Step" dataDxfId="317"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Phase" dataDxfId="296"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="295"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="294"/>
+    <tableColumn id="10" xr3:uid="{A40104D1-3BF7-4068-8777-3D61F27973C1}" name="Description" dataDxfId="293"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="292"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="291"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="290"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="289"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="288"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="287"/>
+    <tableColumn id="14" xr3:uid="{77E616D7-C540-4C6C-A01C-31C8ADF35FBE}" name="Parameter 5" dataDxfId="286"/>
+    <tableColumn id="15" xr3:uid="{68C28D25-E41A-4D3D-A794-809A12A02364}" name="Parameter 6" dataDxfId="285"/>
+    <tableColumn id="11" xr3:uid="{83552614-5368-48EE-AE65-AA7B101E55EF}" name="Lower Limit" dataDxfId="284"/>
+    <tableColumn id="12" xr3:uid="{98998298-F4B1-4980-B79C-0BF0D0D59028}" name="Upper Limit" dataDxfId="283"/>
+    <tableColumn id="13" xr3:uid="{8E3814A1-C526-4157-B0D9-1258E47ACA45}" name="Step" dataDxfId="282"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15793" displayName="Table15793" ref="A1:O2" totalsRowShown="0" headerRowBorderDxfId="316" tableBorderDxfId="315">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15793" displayName="Table15793" ref="A1:O2" totalsRowShown="0" headerRowBorderDxfId="281" tableBorderDxfId="280">
   <autoFilter ref="A1:O2" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Phase" dataDxfId="314"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="313"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Name" dataDxfId="312"/>
-    <tableColumn id="10" xr3:uid="{4482773E-AA48-4795-9A9F-10283D12A976}" name="Description" dataDxfId="311"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Units" dataDxfId="310"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Distribution Type" dataDxfId="309"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Parameter 1" dataDxfId="308"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Parameter 2" dataDxfId="307"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Parameter 3" dataDxfId="306"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Parameter 4" dataDxfId="305"/>
-    <tableColumn id="14" xr3:uid="{41E058E9-8EB6-430E-BC58-82195628B7D1}" name="Parameter 5" dataDxfId="304"/>
-    <tableColumn id="15" xr3:uid="{1CA16974-E252-4655-813D-3FC48E8CCF45}" name="Parameter 6" dataDxfId="303"/>
-    <tableColumn id="11" xr3:uid="{0ED7EC4B-FD74-44E3-B1E6-428C431FDA88}" name="Lower Limit" dataDxfId="302"/>
-    <tableColumn id="12" xr3:uid="{4CA3754D-692A-40C0-BCC5-14D0E3AAF144}" name="Upper Limit" dataDxfId="301"/>
-    <tableColumn id="13" xr3:uid="{D4791B88-6435-44AE-9946-77D4E8CB6EA8}" name="Step" dataDxfId="300"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Phase" dataDxfId="279"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="278"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Name" dataDxfId="277"/>
+    <tableColumn id="10" xr3:uid="{4482773E-AA48-4795-9A9F-10283D12A976}" name="Description" dataDxfId="276"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Units" dataDxfId="275"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Distribution Type" dataDxfId="274"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Parameter 1" dataDxfId="273"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Parameter 2" dataDxfId="272"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Parameter 3" dataDxfId="271"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Parameter 4" dataDxfId="270"/>
+    <tableColumn id="14" xr3:uid="{41E058E9-8EB6-430E-BC58-82195628B7D1}" name="Parameter 5" dataDxfId="269"/>
+    <tableColumn id="15" xr3:uid="{1CA16974-E252-4655-813D-3FC48E8CCF45}" name="Parameter 6" dataDxfId="268"/>
+    <tableColumn id="11" xr3:uid="{0ED7EC4B-FD74-44E3-B1E6-428C431FDA88}" name="Lower Limit" dataDxfId="267"/>
+    <tableColumn id="12" xr3:uid="{4CA3754D-692A-40C0-BCC5-14D0E3AAF144}" name="Upper Limit" dataDxfId="266"/>
+    <tableColumn id="13" xr3:uid="{D4791B88-6435-44AE-9946-77D4E8CB6EA8}" name="Step" dataDxfId="265"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:O24" totalsRowShown="0" headerRowBorderDxfId="299" tableBorderDxfId="298">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:O24" totalsRowShown="0" headerRowBorderDxfId="264" tableBorderDxfId="263">
   <autoFilter ref="A1:O24" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2">
     <sortCondition ref="B1:B2"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Phase" dataDxfId="297"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="296"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="295"/>
-    <tableColumn id="10" xr3:uid="{3AFE3909-1CDD-46E0-8677-569A824534FB}" name="Description" dataDxfId="294"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="293"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="292"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="291"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="290"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="289"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="288"/>
-    <tableColumn id="14" xr3:uid="{8991E047-B1B0-4B74-A5AA-45E689F51874}" name="Parameter 5" dataDxfId="287"/>
-    <tableColumn id="15" xr3:uid="{A25E7AA9-7C49-405C-8326-53EA8C994FFB}" name="Parameter 6" dataDxfId="286"/>
-    <tableColumn id="11" xr3:uid="{08FFB9BF-C539-434A-A2F4-C19873D3AB3E}" name="Lower Limit" dataDxfId="285"/>
-    <tableColumn id="12" xr3:uid="{CEDB540F-344B-4D49-8CD6-9F7746873840}" name="Upper Limit" dataDxfId="284"/>
-    <tableColumn id="13" xr3:uid="{4B3E9A2A-7D0A-4F2D-B694-DB4D2C83BA0A}" name="Step" dataDxfId="283"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Phase" dataDxfId="262"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="261"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="260"/>
+    <tableColumn id="10" xr3:uid="{3AFE3909-1CDD-46E0-8677-569A824534FB}" name="Description" dataDxfId="259"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="258"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="257"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="256"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="255"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="254"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="253"/>
+    <tableColumn id="14" xr3:uid="{8991E047-B1B0-4B74-A5AA-45E689F51874}" name="Parameter 5" dataDxfId="252"/>
+    <tableColumn id="15" xr3:uid="{A25E7AA9-7C49-405C-8326-53EA8C994FFB}" name="Parameter 6" dataDxfId="251"/>
+    <tableColumn id="11" xr3:uid="{08FFB9BF-C539-434A-A2F4-C19873D3AB3E}" name="Lower Limit" dataDxfId="250"/>
+    <tableColumn id="12" xr3:uid="{CEDB540F-344B-4D49-8CD6-9F7746873840}" name="Upper Limit" dataDxfId="249"/>
+    <tableColumn id="13" xr3:uid="{4B3E9A2A-7D0A-4F2D-B694-DB4D2C83BA0A}" name="Step" dataDxfId="248"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3CB8E65B-B7DB-4610-98F8-15D74050538C}" name="Table156410" displayName="Table156410" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="282" tableBorderDxfId="281">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3CB8E65B-B7DB-4610-98F8-15D74050538C}" name="Table156410" displayName="Table156410" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="247" tableBorderDxfId="246">
   <autoFilter ref="A1:O19" xr:uid="{A2DF75BF-F49D-463D-B10C-635E799069A4}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{33E848DD-559D-4023-9F06-526E6AF9BD94}" name="Phase" dataDxfId="280"/>
-    <tableColumn id="20" xr3:uid="{9EDFC6C3-E3F9-4924-BC6A-804D2BBDAE4E}" name="Category" dataDxfId="279"/>
-    <tableColumn id="12" xr3:uid="{D5F0DA51-2BBD-46FF-88FA-75AA7A464F56}" name="Name" dataDxfId="278"/>
-    <tableColumn id="14" xr3:uid="{C6DADE20-FD43-4249-ADF7-72D9BB6ED860}" name="Description" dataDxfId="277"/>
-    <tableColumn id="18" xr3:uid="{017077E2-A519-4357-81FC-29BBCF542A5D}" name="Units" dataDxfId="276"/>
-    <tableColumn id="4" xr3:uid="{18A3B7BD-46E6-497D-932B-A279201CED36}" name="Distribution Type" dataDxfId="275"/>
-    <tableColumn id="5" xr3:uid="{5BD00F12-3393-4245-9BE0-D37573FCF5E3}" name="Parameter 1" dataDxfId="274"/>
-    <tableColumn id="6" xr3:uid="{F68E7FA0-23DA-4C5B-BCD3-BD3C7B299B02}" name="Parameter 2" dataDxfId="273"/>
-    <tableColumn id="7" xr3:uid="{E074689D-E9A9-4D78-901F-4D6DEAB8F157}" name="Parameter 3" dataDxfId="272"/>
-    <tableColumn id="10" xr3:uid="{24FDA3C5-E39C-430C-90BB-3F6BD09EEDC7}" name="Parameter 4" dataDxfId="271"/>
-    <tableColumn id="11" xr3:uid="{42BED06C-CBA3-4453-AE89-CFE7799A8559}" name="Parameter 5" dataDxfId="270"/>
-    <tableColumn id="8" xr3:uid="{4CFE8BFF-6747-408C-8ABA-AFDB589C4F81}" name="Parameter 6" dataDxfId="269"/>
-    <tableColumn id="15" xr3:uid="{E0BBD4D8-EA8D-4CAF-B849-F7A2CE769A48}" name="Lower Limit" dataDxfId="268"/>
-    <tableColumn id="16" xr3:uid="{4800A8E8-843B-4C41-91BF-C1A3C30DE8D6}" name="Upper Limit" dataDxfId="267"/>
-    <tableColumn id="17" xr3:uid="{A6367C3F-1F51-48D6-9EB3-E8501CEA0DC3}" name="Step" dataDxfId="266"/>
+    <tableColumn id="9" xr3:uid="{33E848DD-559D-4023-9F06-526E6AF9BD94}" name="Phase" dataDxfId="245"/>
+    <tableColumn id="20" xr3:uid="{9EDFC6C3-E3F9-4924-BC6A-804D2BBDAE4E}" name="Category" dataDxfId="244"/>
+    <tableColumn id="12" xr3:uid="{D5F0DA51-2BBD-46FF-88FA-75AA7A464F56}" name="Name" dataDxfId="243"/>
+    <tableColumn id="14" xr3:uid="{C6DADE20-FD43-4249-ADF7-72D9BB6ED860}" name="Description" dataDxfId="242"/>
+    <tableColumn id="18" xr3:uid="{017077E2-A519-4357-81FC-29BBCF542A5D}" name="Units" dataDxfId="241"/>
+    <tableColumn id="4" xr3:uid="{18A3B7BD-46E6-497D-932B-A279201CED36}" name="Distribution Type" dataDxfId="240"/>
+    <tableColumn id="5" xr3:uid="{5BD00F12-3393-4245-9BE0-D37573FCF5E3}" name="Parameter 1" dataDxfId="239"/>
+    <tableColumn id="6" xr3:uid="{F68E7FA0-23DA-4C5B-BCD3-BD3C7B299B02}" name="Parameter 2" dataDxfId="238"/>
+    <tableColumn id="7" xr3:uid="{E074689D-E9A9-4D78-901F-4D6DEAB8F157}" name="Parameter 3" dataDxfId="237"/>
+    <tableColumn id="10" xr3:uid="{24FDA3C5-E39C-430C-90BB-3F6BD09EEDC7}" name="Parameter 4" dataDxfId="236"/>
+    <tableColumn id="11" xr3:uid="{42BED06C-CBA3-4453-AE89-CFE7799A8559}" name="Parameter 5" dataDxfId="235"/>
+    <tableColumn id="8" xr3:uid="{4CFE8BFF-6747-408C-8ABA-AFDB589C4F81}" name="Parameter 6" dataDxfId="234"/>
+    <tableColumn id="15" xr3:uid="{E0BBD4D8-EA8D-4CAF-B849-F7A2CE769A48}" name="Lower Limit" dataDxfId="233"/>
+    <tableColumn id="16" xr3:uid="{4800A8E8-843B-4C41-91BF-C1A3C30DE8D6}" name="Upper Limit" dataDxfId="232"/>
+    <tableColumn id="17" xr3:uid="{A6367C3F-1F51-48D6-9EB3-E8501CEA0DC3}" name="Step" dataDxfId="231"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{86A1116E-A4B1-4819-B8BD-755AC0F1A27A}" name="Table15648" displayName="Table15648" ref="A1:O36" totalsRowShown="0" headerRowBorderDxfId="265" tableBorderDxfId="264">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{86A1116E-A4B1-4819-B8BD-755AC0F1A27A}" name="Table15648" displayName="Table15648" ref="A1:O36" totalsRowShown="0" headerRowBorderDxfId="230" tableBorderDxfId="229">
   <autoFilter ref="A1:O36" xr:uid="{990E6A50-401C-443A-9431-A3C6B1C33DB9}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{B7EF7E94-8BD1-4B05-A1E1-DE0166BDA299}" name="Phase" dataDxfId="263"/>
-    <tableColumn id="20" xr3:uid="{3E394D25-22F5-47DE-8DD2-1B412C8ACB40}" name="Category" dataDxfId="262"/>
-    <tableColumn id="12" xr3:uid="{581C35A5-6B54-4CCA-AD27-A0086A458CD9}" name="Name" dataDxfId="261"/>
-    <tableColumn id="14" xr3:uid="{02601854-7EF0-4B53-83BA-E1A583AB0E89}" name="Description" dataDxfId="260"/>
-    <tableColumn id="18" xr3:uid="{38E6F539-D589-4AEB-9FF3-0F3407B1F600}" name="Units" dataDxfId="259"/>
-    <tableColumn id="4" xr3:uid="{758D0224-FF70-4B51-A43F-A666DBEE60B5}" name="Distribution Type" dataDxfId="258"/>
-    <tableColumn id="5" xr3:uid="{AA403007-B0D8-4F37-BBED-A39F4CBEC713}" name="Parameter 1" dataDxfId="257"/>
-    <tableColumn id="6" xr3:uid="{AEFD9020-CB8D-46C6-A545-72935F5E17C9}" name="Parameter 2" dataDxfId="256"/>
-    <tableColumn id="7" xr3:uid="{5391F637-3141-4924-AB2D-BB7560C402FC}" name="Parameter 3" dataDxfId="255"/>
-    <tableColumn id="10" xr3:uid="{DD30C7A0-FB24-4548-956F-070EED2E392A}" name="Parameter 4" dataDxfId="254"/>
-    <tableColumn id="11" xr3:uid="{4C51B414-DF9A-46F4-A761-171654CD826B}" name="Parameter 5" dataDxfId="253"/>
-    <tableColumn id="8" xr3:uid="{C36C5078-BCC8-4902-86B0-4CC5F5B94354}" name="Parameter 6" dataDxfId="252"/>
-    <tableColumn id="15" xr3:uid="{0B417314-7BF7-498C-AFAD-AF435E3794CB}" name="Lower Limit" dataDxfId="251"/>
-    <tableColumn id="16" xr3:uid="{869CD7E5-A5F2-42BE-860A-4654BBA29091}" name="Upper Limit" dataDxfId="250"/>
-    <tableColumn id="17" xr3:uid="{9D5645C4-35FE-4467-8F7A-0259A9E00D72}" name="Step" dataDxfId="249"/>
+    <tableColumn id="9" xr3:uid="{B7EF7E94-8BD1-4B05-A1E1-DE0166BDA299}" name="Phase" dataDxfId="228"/>
+    <tableColumn id="20" xr3:uid="{3E394D25-22F5-47DE-8DD2-1B412C8ACB40}" name="Category" dataDxfId="227"/>
+    <tableColumn id="12" xr3:uid="{581C35A5-6B54-4CCA-AD27-A0086A458CD9}" name="Name" dataDxfId="226"/>
+    <tableColumn id="14" xr3:uid="{02601854-7EF0-4B53-83BA-E1A583AB0E89}" name="Description" dataDxfId="225"/>
+    <tableColumn id="18" xr3:uid="{38E6F539-D589-4AEB-9FF3-0F3407B1F600}" name="Units" dataDxfId="224"/>
+    <tableColumn id="4" xr3:uid="{758D0224-FF70-4B51-A43F-A666DBEE60B5}" name="Distribution Type" dataDxfId="223"/>
+    <tableColumn id="5" xr3:uid="{AA403007-B0D8-4F37-BBED-A39F4CBEC713}" name="Parameter 1" dataDxfId="222"/>
+    <tableColumn id="6" xr3:uid="{AEFD9020-CB8D-46C6-A545-72935F5E17C9}" name="Parameter 2" dataDxfId="221"/>
+    <tableColumn id="7" xr3:uid="{5391F637-3141-4924-AB2D-BB7560C402FC}" name="Parameter 3" dataDxfId="220"/>
+    <tableColumn id="10" xr3:uid="{DD30C7A0-FB24-4548-956F-070EED2E392A}" name="Parameter 4" dataDxfId="219"/>
+    <tableColumn id="11" xr3:uid="{4C51B414-DF9A-46F4-A761-171654CD826B}" name="Parameter 5" dataDxfId="218"/>
+    <tableColumn id="8" xr3:uid="{C36C5078-BCC8-4902-86B0-4CC5F5B94354}" name="Parameter 6" dataDxfId="217"/>
+    <tableColumn id="15" xr3:uid="{0B417314-7BF7-498C-AFAD-AF435E3794CB}" name="Lower Limit" dataDxfId="216"/>
+    <tableColumn id="16" xr3:uid="{869CD7E5-A5F2-42BE-860A-4654BBA29091}" name="Upper Limit" dataDxfId="215"/>
+    <tableColumn id="17" xr3:uid="{9D5645C4-35FE-4467-8F7A-0259A9E00D72}" name="Step" dataDxfId="214"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{70557EE6-CCDF-497F-AD58-5C0E1C74D197}" name="Table156412" displayName="Table156412" ref="A1:O4" totalsRowShown="0" headerRowBorderDxfId="248" tableBorderDxfId="247">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{70557EE6-CCDF-497F-AD58-5C0E1C74D197}" name="Table156412" displayName="Table156412" ref="A1:O4" totalsRowShown="0" headerRowBorderDxfId="213" tableBorderDxfId="212">
   <autoFilter ref="A1:O4" xr:uid="{98B9CAE8-5809-471F-A0E6-3C63C0FF7931}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{0E927F65-2069-4507-B0B0-8DA725AF99EC}" name="Phase" dataDxfId="246"/>
-    <tableColumn id="20" xr3:uid="{921518C6-F6AF-4306-9A67-62C12E697D60}" name="Category" dataDxfId="245"/>
-    <tableColumn id="12" xr3:uid="{CD5679ED-CB25-488E-8C70-2C446DAB28DC}" name="Name" dataDxfId="244"/>
-    <tableColumn id="14" xr3:uid="{F17E92B1-609F-453F-8FC2-11AB75FFB5B0}" name="Description" dataDxfId="243"/>
-    <tableColumn id="18" xr3:uid="{CA25841B-E30A-4228-B65F-216207437CB0}" name="Units" dataDxfId="242"/>
-    <tableColumn id="4" xr3:uid="{5CF3C293-70A2-445C-B6F4-D4BCEB868AEC}" name="Distribution Type" dataDxfId="241"/>
-    <tableColumn id="5" xr3:uid="{6B896B7D-F74D-42FF-97BC-93D69E611504}" name="Parameter 1" dataDxfId="240"/>
-    <tableColumn id="6" xr3:uid="{02AE94F0-B427-476D-88EB-3C9235866F4E}" name="Parameter 2" dataDxfId="239"/>
-    <tableColumn id="7" xr3:uid="{C0EF4425-A63A-42D7-82B9-4C1366C7BF01}" name="Parameter 3" dataDxfId="238">
+    <tableColumn id="9" xr3:uid="{0E927F65-2069-4507-B0B0-8DA725AF99EC}" name="Phase" dataDxfId="211"/>
+    <tableColumn id="20" xr3:uid="{921518C6-F6AF-4306-9A67-62C12E697D60}" name="Category" dataDxfId="210"/>
+    <tableColumn id="12" xr3:uid="{CD5679ED-CB25-488E-8C70-2C446DAB28DC}" name="Name" dataDxfId="209"/>
+    <tableColumn id="14" xr3:uid="{F17E92B1-609F-453F-8FC2-11AB75FFB5B0}" name="Description" dataDxfId="208"/>
+    <tableColumn id="18" xr3:uid="{CA25841B-E30A-4228-B65F-216207437CB0}" name="Units" dataDxfId="207"/>
+    <tableColumn id="4" xr3:uid="{5CF3C293-70A2-445C-B6F4-D4BCEB868AEC}" name="Distribution Type" dataDxfId="206"/>
+    <tableColumn id="5" xr3:uid="{6B896B7D-F74D-42FF-97BC-93D69E611504}" name="Parameter 1" dataDxfId="205"/>
+    <tableColumn id="6" xr3:uid="{02AE94F0-B427-476D-88EB-3C9235866F4E}" name="Parameter 2" dataDxfId="204"/>
+    <tableColumn id="7" xr3:uid="{C0EF4425-A63A-42D7-82B9-4C1366C7BF01}" name="Parameter 3" dataDxfId="203">
       <calculatedColumnFormula>(Table156412[[#This Row],[Parameter 1]]-1)/(Table156412[[#This Row],[Parameter 1]]+Table156412[[#This Row],[Parameter 2]]-2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{7F665756-5949-4CD6-AE8C-F7531D7A9CAD}" name="Parameter 4" dataDxfId="237"/>
-    <tableColumn id="11" xr3:uid="{59049478-1CD8-416F-BED1-BD7B8FEA0C41}" name="Parameter 5" dataDxfId="236"/>
-    <tableColumn id="8" xr3:uid="{CC7DFE3F-C2E2-4F46-B153-D03CF263B523}" name="Parameter 6" dataDxfId="235"/>
-    <tableColumn id="15" xr3:uid="{F2A6353F-D73A-41E5-B265-D8F18AA4409C}" name="Lower Limit" dataDxfId="234"/>
-    <tableColumn id="16" xr3:uid="{1D8D56B8-5F2C-48C5-9CE4-93C38BD7488F}" name="Upper Limit" dataDxfId="233"/>
-    <tableColumn id="17" xr3:uid="{6AB8DBB9-751A-4840-BC73-4780E1B009AD}" name="Step" dataDxfId="232"/>
+    <tableColumn id="10" xr3:uid="{7F665756-5949-4CD6-AE8C-F7531D7A9CAD}" name="Parameter 4" dataDxfId="202"/>
+    <tableColumn id="11" xr3:uid="{59049478-1CD8-416F-BED1-BD7B8FEA0C41}" name="Parameter 5" dataDxfId="201"/>
+    <tableColumn id="8" xr3:uid="{CC7DFE3F-C2E2-4F46-B153-D03CF263B523}" name="Parameter 6" dataDxfId="200"/>
+    <tableColumn id="15" xr3:uid="{F2A6353F-D73A-41E5-B265-D8F18AA4409C}" name="Lower Limit" dataDxfId="199"/>
+    <tableColumn id="16" xr3:uid="{1D8D56B8-5F2C-48C5-9CE4-93C38BD7488F}" name="Upper Limit" dataDxfId="198"/>
+    <tableColumn id="17" xr3:uid="{6AB8DBB9-751A-4840-BC73-4780E1B009AD}" name="Step" dataDxfId="197"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8375,20 +8054,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="79" priority="3">
+    <cfRule type="expression" dxfId="47" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="78" priority="4">
+    <cfRule type="expression" dxfId="46" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="77" priority="1">
+    <cfRule type="expression" dxfId="45" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="2">
+    <cfRule type="expression" dxfId="44" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8408,8 +8087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A10D7BB-05A6-4B60-851F-B04551ABF90A}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9979,20 +9658,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L36">
-    <cfRule type="expression" dxfId="75" priority="3">
+    <cfRule type="expression" dxfId="43" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18 A20 A22 A24 A26 A31 A33 A35">
-    <cfRule type="expression" dxfId="74" priority="1">
+    <cfRule type="expression" dxfId="42" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="2">
+    <cfRule type="expression" dxfId="41" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11 A13 A15 A17 A19 A21 A23 A25 A32:L32 A34:L34 A36:L36 B2:L2 B4:L4 B6:L6 B8:L8 B31:L31 B33:L33 B35:L35 A28:L30 A27 B10:L27">
-    <cfRule type="expression" dxfId="72" priority="4">
+    <cfRule type="expression" dxfId="40" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10200,20 +9879,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L4">
-    <cfRule type="expression" dxfId="71" priority="3">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="70" priority="1">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="2">
+    <cfRule type="expression" dxfId="37" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L4 B2:L2">
-    <cfRule type="expression" dxfId="68" priority="4">
+    <cfRule type="expression" dxfId="36" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11443,20 +11122,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L27">
-    <cfRule type="expression" dxfId="67" priority="3">
+    <cfRule type="expression" dxfId="35" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3 A5 A7 A12 A14 A16 A18 A20 A22 A24 A26 A9:A10">
-    <cfRule type="expression" dxfId="66" priority="1">
+    <cfRule type="expression" dxfId="34" priority="1">
       <formula>ISBLANK($F3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="2">
+    <cfRule type="expression" dxfId="33" priority="2">
       <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:L2 A4:L4 A6:L6 A8:L8 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 A21:L21 A23:L23 A25:L25 A27:L27 B3:L3 B5:L5 B7:L7 B12:L12 B14:L14 B16:L16 B18:L18 B20:L20 B22:L22 B24:L24 B26:L26 B9:L10">
-    <cfRule type="expression" dxfId="64" priority="4">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12243,20 +11922,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="63" priority="3">
+    <cfRule type="expression" dxfId="31" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="62" priority="1">
+    <cfRule type="expression" dxfId="30" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="60" priority="4">
+    <cfRule type="expression" dxfId="28" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14067,20 +13746,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L40">
-    <cfRule type="expression" dxfId="59" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18 A20 A22 A24 A26 A28 A30 A32 A34 A36 A38 A40">
-    <cfRule type="expression" dxfId="58" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 A21:L21 A23:L23 A25:L25 A27:L27 A29:L29 A31:L31 A33:L33 A35:L35 A37:L37 A39:L39 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18 B20:L20 B22:L22 B24:L24 B26:L26 B28:L28 B30:L30 B32:L32 B34:L34 B36:L36 B38:L38 B40:L40">
-    <cfRule type="expression" dxfId="56" priority="4">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14940,40 +14619,40 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L7">
-    <cfRule type="expression" dxfId="55" priority="11">
+    <cfRule type="expression" dxfId="23" priority="11">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A8 A14">
-    <cfRule type="expression" dxfId="54" priority="9">
+    <cfRule type="expression" dxfId="22" priority="9">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="10">
+    <cfRule type="expression" dxfId="21" priority="10">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2 J3:J7 C3:F7">
-    <cfRule type="expression" dxfId="52" priority="8">
+    <cfRule type="expression" dxfId="20" priority="8">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:L14 J15:J19 C15:F19">
-    <cfRule type="expression" dxfId="51" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>ISBLANK($F14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:L13">
-    <cfRule type="expression" dxfId="50" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>NOT((COLUMN(G8)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F8, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:L8 J9:J13 C9:F13">
-    <cfRule type="expression" dxfId="49" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>ISBLANK($F8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:L19">
-    <cfRule type="expression" dxfId="48" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>NOT((COLUMN(G14)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F14, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15899,20 +15578,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="47" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18">
-    <cfRule type="expression" dxfId="46" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18">
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16385,20 +16064,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L4">
-    <cfRule type="expression" dxfId="43" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A10">
-    <cfRule type="expression" dxfId="42" priority="5">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L3 C4:L4 B4:B10">
-    <cfRule type="expression" dxfId="40" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16439,7 +16118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A144A034-D186-4ABB-9FCB-F1B84E607A97}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -17466,20 +17145,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L25">
-    <cfRule type="expression" dxfId="39" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18 A20 A22 A24">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 A21:L21 A23:L23 A25:L25 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18 B20:L20 B22:L22 B24:L24">
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18030,10 +17709,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:L3">
-    <cfRule type="expression" dxfId="109" priority="133">
+    <cfRule type="expression" dxfId="77" priority="133">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="134">
+    <cfRule type="expression" dxfId="76" priority="134">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18919,20 +18598,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L22">
-    <cfRule type="expression" dxfId="107" priority="55">
+    <cfRule type="expression" dxfId="75" priority="55">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19 D13 A2:A22 D3:D6">
-    <cfRule type="expression" dxfId="106" priority="39">
+    <cfRule type="expression" dxfId="74" priority="39">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="40">
+    <cfRule type="expression" dxfId="73" priority="40">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2 B20:L20 B19:C19 E19:L19 B7:L12 B14:L18 B13:C13 E13:L13 B3:C6 E3:L6">
-    <cfRule type="expression" dxfId="104" priority="138">
+    <cfRule type="expression" dxfId="72" priority="138">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19478,40 +19157,40 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L13">
-    <cfRule type="expression" dxfId="103" priority="50">
+    <cfRule type="expression" dxfId="71" priority="50">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12 D9 D3:D6 A2:A13">
-    <cfRule type="expression" dxfId="102" priority="31">
+    <cfRule type="expression" dxfId="70" priority="31">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="32">
+    <cfRule type="expression" dxfId="69" priority="32">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:L13 B7:L7 B8:C12 E8:L12 B2:C6 E2:L6">
-    <cfRule type="expression" dxfId="100" priority="141">
+    <cfRule type="expression" dxfId="68" priority="141">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="99" priority="4">
+    <cfRule type="expression" dxfId="67" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="98" priority="3">
+    <cfRule type="expression" dxfId="66" priority="3">
       <formula>ISBLANK($F8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="97" priority="2">
+    <cfRule type="expression" dxfId="65" priority="2">
       <formula>ISBLANK($F11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="96" priority="1">
+    <cfRule type="expression" dxfId="64" priority="1">
       <formula>ISBLANK($F10)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20321,40 +20000,40 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L20">
-    <cfRule type="expression" dxfId="95" priority="63">
+    <cfRule type="expression" dxfId="63" priority="63">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19 A2:A20 D3:D7">
-    <cfRule type="expression" dxfId="94" priority="41">
+    <cfRule type="expression" dxfId="62" priority="41">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="42">
+    <cfRule type="expression" dxfId="61" priority="42">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2 B20:L20 B19:C19 E19:L19 B12:L18 B3:C11 E3:L11">
-    <cfRule type="expression" dxfId="92" priority="138">
+    <cfRule type="expression" dxfId="60" priority="138">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="91" priority="4">
+    <cfRule type="expression" dxfId="59" priority="4">
       <formula>ISBLANK($F9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="90" priority="3">
+    <cfRule type="expression" dxfId="58" priority="3">
       <formula>ISBLANK($F10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="89" priority="2">
+    <cfRule type="expression" dxfId="57" priority="2">
       <formula>ISBLANK($F8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="88" priority="1">
+    <cfRule type="expression" dxfId="56" priority="1">
       <formula>ISBLANK($F11)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20473,20 +20152,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L2">
-    <cfRule type="expression" dxfId="87" priority="26">
+    <cfRule type="expression" dxfId="55" priority="26">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="86" priority="1">
+    <cfRule type="expression" dxfId="54" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="2">
+    <cfRule type="expression" dxfId="53" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2">
-    <cfRule type="expression" dxfId="84" priority="129">
+    <cfRule type="expression" dxfId="52" priority="129">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21444,20 +21123,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L24">
-    <cfRule type="expression" dxfId="83" priority="29">
+    <cfRule type="expression" dxfId="51" priority="29">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="82" priority="1">
+    <cfRule type="expression" dxfId="50" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="2">
+    <cfRule type="expression" dxfId="49" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2 A3:L23">
-    <cfRule type="expression" dxfId="80" priority="128">
+    <cfRule type="expression" dxfId="48" priority="128">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/InputFiles/ModifyParameters.xlsx
+++ b/InputFiles/ModifyParameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERAZA\Documents\Tasking\(4) EPA Stuff\Task 5 Repo\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F7BC31-6D86-45F9-B0F8-0E34352E55FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489A16C8-273E-4AAC-8D67-7346F1D65383}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="657" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="657" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internal - File Info" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="281">
   <si>
     <t>SCWAD</t>
   </si>
@@ -279,9 +279,6 @@
     <t>Cost of Decon Agent</t>
   </si>
   <si>
-    <t>EMT</t>
-  </si>
-  <si>
     <t>$ / hour</t>
   </si>
   <si>
@@ -300,24 +297,9 @@
     <t>$ / day</t>
   </si>
   <si>
-    <t>IC Expendables</t>
-  </si>
-  <si>
     <t>Per Diem</t>
   </si>
   <si>
-    <t>PL-1</t>
-  </si>
-  <si>
-    <t>PL-2</t>
-  </si>
-  <si>
-    <t>PL-3</t>
-  </si>
-  <si>
-    <t>PL-4</t>
-  </si>
-  <si>
     <t>Rental per Day (IC)</t>
   </si>
   <si>
@@ -339,9 +321,6 @@
     <t>PPE Level D Cost</t>
   </si>
   <si>
-    <t>(I/C) Supplies Cost</t>
-  </si>
-  <si>
     <t>$ / sample</t>
   </si>
   <si>
@@ -633,9 +612,6 @@
     <t>Number of personnel in one rental car</t>
   </si>
   <si>
-    <t>Hourly wage for EMT personnel</t>
-  </si>
-  <si>
     <t>Hourly wage for PL-1 personnel</t>
   </si>
   <si>
@@ -657,9 +633,6 @@
     <t>HEPA vacuum rental cost per day</t>
   </si>
   <si>
-    <t>Cost of incident command expendables per day</t>
-  </si>
-  <si>
     <t>Hourly wage for OSC personnel</t>
   </si>
   <si>
@@ -708,9 +681,6 @@
     <t>Time required for one wipe sample to be analyzed in a lab</t>
   </si>
   <si>
-    <t>OSC</t>
-  </si>
-  <si>
     <t>Cost of HEPA Sample Analyzed</t>
   </si>
   <si>
@@ -853,6 +823,78 @@
   </si>
   <si>
     <t>LiquidWipe</t>
+  </si>
+  <si>
+    <t>Fraction of HEPA Samples to Each Lab</t>
+  </si>
+  <si>
+    <t>Fraction of Wipe Samples to Each Lab</t>
+  </si>
+  <si>
+    <t>Lab Distance From Site</t>
+  </si>
+  <si>
+    <t>Time of Result Transmission to IC</t>
+  </si>
+  <si>
+    <t>PPE Required (A)</t>
+  </si>
+  <si>
+    <t>PPE Required (B)</t>
+  </si>
+  <si>
+    <t>PPE Required (C)</t>
+  </si>
+  <si>
+    <t>PPE Required (D)</t>
+  </si>
+  <si>
+    <t>Roundtrip Days</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>Number of travel days both to and from site</t>
+  </si>
+  <si>
+    <t>Total Available Personnel (OSC)</t>
+  </si>
+  <si>
+    <t>Total Available Personnel (PL-1)</t>
+  </si>
+  <si>
+    <t>Total Available Personnel (PL-2)</t>
+  </si>
+  <si>
+    <t>Total Available Personnel (PL-3)</t>
+  </si>
+  <si>
+    <t>Total Available Personnel (PL-4)</t>
+  </si>
+  <si>
+    <t>OSC Hourly Wage</t>
+  </si>
+  <si>
+    <t>PL-1 Hourly Wage</t>
+  </si>
+  <si>
+    <t>PL-2 Hourly Wage</t>
+  </si>
+  <si>
+    <t>PL-3 Hourly Wage</t>
+  </si>
+  <si>
+    <t>PL-4 Hourly Wage</t>
+  </si>
+  <si>
+    <t>Supplies Cost (IC)</t>
+  </si>
+  <si>
+    <t>Material Removal Per Surface Area</t>
+  </si>
+  <si>
+    <t>Roundtrip Ticket Cost Per Person</t>
   </si>
 </sst>
 </file>
@@ -900,7 +942,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1113,12 +1155,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1140,19 +1193,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="340">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="368">
     <dxf>
       <font>
         <i/>
@@ -1165,13 +1212,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1442,13 +1482,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1478,6 +1511,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1496,13 +1536,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1514,13 +1547,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1539,6 +1565,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1593,34 +1626,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1721,6 +1726,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1750,6 +1783,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1764,6 +1804,276 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6475,389 +6785,389 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table156" displayName="Table156" ref="A1:O3" totalsRowShown="0" tableBorderDxfId="339">
-  <autoFilter ref="A1:O3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table156" displayName="Table156" ref="A1:O7" totalsRowShown="0" tableBorderDxfId="367">
+  <autoFilter ref="A1:O7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phase" dataDxfId="338"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="337"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="336"/>
-    <tableColumn id="10" xr3:uid="{DA69379A-DE3F-42F4-AF70-91A1718AB7E0}" name="Description" dataDxfId="335"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Units" dataDxfId="334"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distribution Type" dataDxfId="333"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter 1" dataDxfId="332"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="331"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="330"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="329"/>
-    <tableColumn id="14" xr3:uid="{50465694-0FC6-4F52-BBDD-C2367DABB3F3}" name="Parameter 5" dataDxfId="328"/>
-    <tableColumn id="15" xr3:uid="{9D83EAB9-CB4C-4600-AF1C-4966CB714685}" name="Parameter 6" dataDxfId="327"/>
-    <tableColumn id="11" xr3:uid="{6D5D89BA-F5B6-48D7-8EB6-F84737897B28}" name="Lower Limit" dataDxfId="326"/>
-    <tableColumn id="12" xr3:uid="{48C3D1E7-422F-49D2-B091-B1AED1C3D586}" name="Upper Limit" dataDxfId="325"/>
-    <tableColumn id="13" xr3:uid="{C7F66B6D-AE49-4F19-BA50-224FF50E099F}" name="Step" dataDxfId="324"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phase" dataDxfId="366"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="365"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="364"/>
+    <tableColumn id="10" xr3:uid="{DA69379A-DE3F-42F4-AF70-91A1718AB7E0}" name="Description" dataDxfId="363"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Units" dataDxfId="362"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distribution Type" dataDxfId="361"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter 1" dataDxfId="360"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="359"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="358"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="357"/>
+    <tableColumn id="14" xr3:uid="{50465694-0FC6-4F52-BBDD-C2367DABB3F3}" name="Parameter 5" dataDxfId="356"/>
+    <tableColumn id="15" xr3:uid="{9D83EAB9-CB4C-4600-AF1C-4966CB714685}" name="Parameter 6" dataDxfId="355"/>
+    <tableColumn id="11" xr3:uid="{6D5D89BA-F5B6-48D7-8EB6-F84737897B28}" name="Lower Limit" dataDxfId="354"/>
+    <tableColumn id="12" xr3:uid="{48C3D1E7-422F-49D2-B091-B1AED1C3D586}" name="Upper Limit" dataDxfId="353"/>
+    <tableColumn id="13" xr3:uid="{C7F66B6D-AE49-4F19-BA50-224FF50E099F}" name="Step" dataDxfId="352"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{F9C17F91-E3F1-4ABE-9219-5A5F8F4C3152}" name="Table1564518" displayName="Table1564518" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="189" tableBorderDxfId="188">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{F9C17F91-E3F1-4ABE-9219-5A5F8F4C3152}" name="Table1564518" displayName="Table1564518" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="217" tableBorderDxfId="216">
   <autoFilter ref="A1:O19" xr:uid="{CE70FAE3-DAD6-40A6-BCCE-F46A2CDA0980}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{77AC217A-782C-47D2-9945-D4226DB02CB4}" name="Phase" dataDxfId="187"/>
-    <tableColumn id="22" xr3:uid="{A77A81F7-C018-4F6E-BF69-5FE486BECF62}" name="Category" dataDxfId="186"/>
-    <tableColumn id="12" xr3:uid="{CCA10716-C2B0-4055-953E-1957EC05B7DC}" name="Name" dataDxfId="185"/>
-    <tableColumn id="14" xr3:uid="{9131E52D-9D7C-41BF-ABF5-9AAF65D5BC39}" name="Description" dataDxfId="184"/>
-    <tableColumn id="18" xr3:uid="{819C7026-BBE6-4FEF-81FC-063CF9E923E1}" name="Units" dataDxfId="183"/>
-    <tableColumn id="4" xr3:uid="{BCC0BC54-494B-4CD2-9D93-4A14A321EFDE}" name="Distribution Type" dataDxfId="182"/>
-    <tableColumn id="5" xr3:uid="{890B6437-FEB3-4225-BE1D-8F4BB30A2A95}" name="Parameter 1" dataDxfId="181"/>
-    <tableColumn id="6" xr3:uid="{D95452BF-5FFC-4C2D-BE8B-1138CADE3867}" name="Parameter 2" dataDxfId="180"/>
-    <tableColumn id="7" xr3:uid="{AFAD290F-88ED-4F65-8343-1B7E0B2331C2}" name="Parameter 3" dataDxfId="179"/>
-    <tableColumn id="10" xr3:uid="{C7581E5C-58E6-4080-A3F0-3C90449EE32D}" name="Parameter 4" dataDxfId="178"/>
-    <tableColumn id="11" xr3:uid="{1D5C967F-8BEE-4049-9B30-056174F945AE}" name="Parameter 5" dataDxfId="177"/>
-    <tableColumn id="8" xr3:uid="{058E5821-3943-44C1-B08D-F22618A8CB01}" name="Parameter 6" dataDxfId="176"/>
-    <tableColumn id="15" xr3:uid="{C95BAD13-0F40-4073-97D7-EA904AFBC77C}" name="Lower Limit" dataDxfId="175"/>
-    <tableColumn id="16" xr3:uid="{582C9B39-6E23-469E-818C-CDD30AA83C2C}" name="Upper Limit" dataDxfId="174"/>
-    <tableColumn id="17" xr3:uid="{27D6A1B7-E56F-410E-929C-C8BD6000D2D9}" name="Step" dataDxfId="173"/>
+    <tableColumn id="9" xr3:uid="{77AC217A-782C-47D2-9945-D4226DB02CB4}" name="Phase" dataDxfId="215"/>
+    <tableColumn id="22" xr3:uid="{A77A81F7-C018-4F6E-BF69-5FE486BECF62}" name="Category" dataDxfId="214"/>
+    <tableColumn id="12" xr3:uid="{CCA10716-C2B0-4055-953E-1957EC05B7DC}" name="Name" dataDxfId="213"/>
+    <tableColumn id="14" xr3:uid="{9131E52D-9D7C-41BF-ABF5-9AAF65D5BC39}" name="Description" dataDxfId="212"/>
+    <tableColumn id="18" xr3:uid="{819C7026-BBE6-4FEF-81FC-063CF9E923E1}" name="Units" dataDxfId="211"/>
+    <tableColumn id="4" xr3:uid="{BCC0BC54-494B-4CD2-9D93-4A14A321EFDE}" name="Distribution Type" dataDxfId="210"/>
+    <tableColumn id="5" xr3:uid="{890B6437-FEB3-4225-BE1D-8F4BB30A2A95}" name="Parameter 1" dataDxfId="209"/>
+    <tableColumn id="6" xr3:uid="{D95452BF-5FFC-4C2D-BE8B-1138CADE3867}" name="Parameter 2" dataDxfId="208"/>
+    <tableColumn id="7" xr3:uid="{AFAD290F-88ED-4F65-8343-1B7E0B2331C2}" name="Parameter 3" dataDxfId="207"/>
+    <tableColumn id="10" xr3:uid="{C7581E5C-58E6-4080-A3F0-3C90449EE32D}" name="Parameter 4" dataDxfId="206"/>
+    <tableColumn id="11" xr3:uid="{1D5C967F-8BEE-4049-9B30-056174F945AE}" name="Parameter 5" dataDxfId="205"/>
+    <tableColumn id="8" xr3:uid="{058E5821-3943-44C1-B08D-F22618A8CB01}" name="Parameter 6" dataDxfId="204"/>
+    <tableColumn id="15" xr3:uid="{C95BAD13-0F40-4073-97D7-EA904AFBC77C}" name="Lower Limit" dataDxfId="203"/>
+    <tableColumn id="16" xr3:uid="{582C9B39-6E23-469E-818C-CDD30AA83C2C}" name="Upper Limit" dataDxfId="202"/>
+    <tableColumn id="17" xr3:uid="{27D6A1B7-E56F-410E-929C-C8BD6000D2D9}" name="Step" dataDxfId="201"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{432F1329-A516-4974-97D5-CED039B9825E}" name="Table15649" displayName="Table15649" ref="A1:O2" totalsRowShown="0" headerRowBorderDxfId="172" tableBorderDxfId="171">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{432F1329-A516-4974-97D5-CED039B9825E}" name="Table15649" displayName="Table15649" ref="A1:O2" totalsRowShown="0" headerRowBorderDxfId="200" tableBorderDxfId="199">
   <autoFilter ref="A1:O2" xr:uid="{68B29069-2622-4242-A0DD-EA343A9BF637}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{A65D510F-11AE-4758-A918-595CFAEACDBA}" name="Phase" dataDxfId="170"/>
-    <tableColumn id="20" xr3:uid="{1983ED84-E3C7-438C-9FBC-6F68009993BF}" name="Category" dataDxfId="169"/>
-    <tableColumn id="12" xr3:uid="{5F8CF16A-5A1F-471D-941E-E8FA15DC40D9}" name="Name" dataDxfId="168"/>
-    <tableColumn id="14" xr3:uid="{603CB562-B188-4D78-8AF7-0C257FE01A78}" name="Description" dataDxfId="167"/>
-    <tableColumn id="18" xr3:uid="{25C96984-595F-4E53-AEA3-48FE8964668C}" name="Units" dataDxfId="166"/>
-    <tableColumn id="4" xr3:uid="{3AC7C66C-7352-42C7-A88A-718F1163EBC3}" name="Distribution Type" dataDxfId="165"/>
-    <tableColumn id="5" xr3:uid="{6CD1BB89-2672-4A45-AE6D-45DC8FD8C2D0}" name="Parameter 1" dataDxfId="164"/>
-    <tableColumn id="6" xr3:uid="{713F99C9-7865-434B-9380-0F8833A0B7CE}" name="Parameter 2" dataDxfId="163"/>
-    <tableColumn id="7" xr3:uid="{7B3CBF6D-ABAD-435C-93E5-94B2A9A1570D}" name="Parameter 3" dataDxfId="162"/>
-    <tableColumn id="10" xr3:uid="{FD8F6808-F8E5-4346-BE6E-D40A5DADECAC}" name="Parameter 4" dataDxfId="161"/>
-    <tableColumn id="11" xr3:uid="{DC3102D4-541E-44FE-AEFA-0FB92AC933C5}" name="Parameter 5" dataDxfId="160"/>
-    <tableColumn id="8" xr3:uid="{151C5968-B156-4013-B6C4-5D012F22EEF6}" name="Parameter 6" dataDxfId="159"/>
-    <tableColumn id="15" xr3:uid="{868EF292-2E08-40B9-9605-DAF748095734}" name="Lower Limit" dataDxfId="158"/>
-    <tableColumn id="16" xr3:uid="{42D5D159-9DC2-4FE5-9923-4E2B98164CE9}" name="Upper Limit" dataDxfId="157"/>
-    <tableColumn id="17" xr3:uid="{10AFF230-51CB-4644-8521-A18EFFD37E36}" name="Step" dataDxfId="156"/>
+    <tableColumn id="9" xr3:uid="{A65D510F-11AE-4758-A918-595CFAEACDBA}" name="Phase" dataDxfId="198"/>
+    <tableColumn id="20" xr3:uid="{1983ED84-E3C7-438C-9FBC-6F68009993BF}" name="Category" dataDxfId="197"/>
+    <tableColumn id="12" xr3:uid="{5F8CF16A-5A1F-471D-941E-E8FA15DC40D9}" name="Name" dataDxfId="196"/>
+    <tableColumn id="14" xr3:uid="{603CB562-B188-4D78-8AF7-0C257FE01A78}" name="Description" dataDxfId="195"/>
+    <tableColumn id="18" xr3:uid="{25C96984-595F-4E53-AEA3-48FE8964668C}" name="Units" dataDxfId="194"/>
+    <tableColumn id="4" xr3:uid="{3AC7C66C-7352-42C7-A88A-718F1163EBC3}" name="Distribution Type" dataDxfId="193"/>
+    <tableColumn id="5" xr3:uid="{6CD1BB89-2672-4A45-AE6D-45DC8FD8C2D0}" name="Parameter 1" dataDxfId="192"/>
+    <tableColumn id="6" xr3:uid="{713F99C9-7865-434B-9380-0F8833A0B7CE}" name="Parameter 2" dataDxfId="191"/>
+    <tableColumn id="7" xr3:uid="{7B3CBF6D-ABAD-435C-93E5-94B2A9A1570D}" name="Parameter 3" dataDxfId="190"/>
+    <tableColumn id="10" xr3:uid="{FD8F6808-F8E5-4346-BE6E-D40A5DADECAC}" name="Parameter 4" dataDxfId="189"/>
+    <tableColumn id="11" xr3:uid="{DC3102D4-541E-44FE-AEFA-0FB92AC933C5}" name="Parameter 5" dataDxfId="188"/>
+    <tableColumn id="8" xr3:uid="{151C5968-B156-4013-B6C4-5D012F22EEF6}" name="Parameter 6" dataDxfId="187"/>
+    <tableColumn id="15" xr3:uid="{868EF292-2E08-40B9-9605-DAF748095734}" name="Lower Limit" dataDxfId="186"/>
+    <tableColumn id="16" xr3:uid="{42D5D159-9DC2-4FE5-9923-4E2B98164CE9}" name="Upper Limit" dataDxfId="185"/>
+    <tableColumn id="17" xr3:uid="{10AFF230-51CB-4644-8521-A18EFFD37E36}" name="Step" dataDxfId="184"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{DF020213-F975-452A-9830-6EF38DDE7DCF}" name="Table15647" displayName="Table15647" ref="A1:O29" totalsRowShown="0" headerRowBorderDxfId="155" tableBorderDxfId="154">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{DF020213-F975-452A-9830-6EF38DDE7DCF}" name="Table15647" displayName="Table15647" ref="A1:O29" totalsRowShown="0" headerRowBorderDxfId="183" tableBorderDxfId="182">
   <autoFilter ref="A1:O29" xr:uid="{859BD2B0-AA02-48BA-8620-BDF827813892}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{F237A42D-415A-475B-91B7-8CB0D38B7028}" name="Phase" dataDxfId="153"/>
-    <tableColumn id="20" xr3:uid="{D2304797-990E-4466-8277-ACC378FC5EF1}" name="Category" dataDxfId="152"/>
-    <tableColumn id="12" xr3:uid="{E8D03348-3348-4698-9DA9-FDFD93C4108D}" name="Name" dataDxfId="151"/>
-    <tableColumn id="14" xr3:uid="{D9BE976B-814C-40BA-BB9C-F5A4A863809D}" name="Description" dataDxfId="150"/>
-    <tableColumn id="18" xr3:uid="{C8EEDF00-53C4-4BBB-A736-4C222CC37ACE}" name="Units" dataDxfId="149"/>
-    <tableColumn id="4" xr3:uid="{B912A136-218A-46A6-9298-A26FF451BC8B}" name="Distribution Type" dataDxfId="148"/>
-    <tableColumn id="5" xr3:uid="{B469F8C6-AC37-4E2C-B435-D79806B5EB80}" name="Parameter 1" dataDxfId="147"/>
-    <tableColumn id="6" xr3:uid="{6E4BE98D-3625-46DA-8047-5C4657A18F62}" name="Parameter 2" dataDxfId="146"/>
-    <tableColumn id="7" xr3:uid="{24844D85-F2B8-4B62-9347-EE51DBA7335D}" name="Parameter 3" dataDxfId="145"/>
-    <tableColumn id="10" xr3:uid="{A09FB262-3AAD-46E1-B780-FAC155246DCB}" name="Parameter 4" dataDxfId="144"/>
-    <tableColumn id="11" xr3:uid="{C49055A9-0CD5-4B9A-9D72-65429F3A5716}" name="Parameter 5" dataDxfId="143"/>
-    <tableColumn id="8" xr3:uid="{B80ED53B-AC7B-4D83-B11D-F4584FC387E7}" name="Parameter 6" dataDxfId="142"/>
-    <tableColumn id="15" xr3:uid="{196E4D59-E5D8-47FC-8FBC-0DF83057658E}" name="Lower Limit" dataDxfId="141"/>
-    <tableColumn id="16" xr3:uid="{9EDBB862-8D13-4999-A6D8-0549867DD0D7}" name="Upper Limit" dataDxfId="140"/>
-    <tableColumn id="17" xr3:uid="{9F81C7E5-43F7-4126-A586-BB1219F70A02}" name="Step" dataDxfId="139"/>
+    <tableColumn id="9" xr3:uid="{F237A42D-415A-475B-91B7-8CB0D38B7028}" name="Phase" dataDxfId="181"/>
+    <tableColumn id="20" xr3:uid="{D2304797-990E-4466-8277-ACC378FC5EF1}" name="Category" dataDxfId="180"/>
+    <tableColumn id="12" xr3:uid="{E8D03348-3348-4698-9DA9-FDFD93C4108D}" name="Name" dataDxfId="179"/>
+    <tableColumn id="14" xr3:uid="{D9BE976B-814C-40BA-BB9C-F5A4A863809D}" name="Description" dataDxfId="178"/>
+    <tableColumn id="18" xr3:uid="{C8EEDF00-53C4-4BBB-A736-4C222CC37ACE}" name="Units" dataDxfId="177"/>
+    <tableColumn id="4" xr3:uid="{B912A136-218A-46A6-9298-A26FF451BC8B}" name="Distribution Type" dataDxfId="176"/>
+    <tableColumn id="5" xr3:uid="{B469F8C6-AC37-4E2C-B435-D79806B5EB80}" name="Parameter 1" dataDxfId="175"/>
+    <tableColumn id="6" xr3:uid="{6E4BE98D-3625-46DA-8047-5C4657A18F62}" name="Parameter 2" dataDxfId="174"/>
+    <tableColumn id="7" xr3:uid="{24844D85-F2B8-4B62-9347-EE51DBA7335D}" name="Parameter 3" dataDxfId="173"/>
+    <tableColumn id="10" xr3:uid="{A09FB262-3AAD-46E1-B780-FAC155246DCB}" name="Parameter 4" dataDxfId="172"/>
+    <tableColumn id="11" xr3:uid="{C49055A9-0CD5-4B9A-9D72-65429F3A5716}" name="Parameter 5" dataDxfId="171"/>
+    <tableColumn id="8" xr3:uid="{B80ED53B-AC7B-4D83-B11D-F4584FC387E7}" name="Parameter 6" dataDxfId="170"/>
+    <tableColumn id="15" xr3:uid="{196E4D59-E5D8-47FC-8FBC-0DF83057658E}" name="Lower Limit" dataDxfId="169"/>
+    <tableColumn id="16" xr3:uid="{9EDBB862-8D13-4999-A6D8-0549867DD0D7}" name="Upper Limit" dataDxfId="168"/>
+    <tableColumn id="17" xr3:uid="{9F81C7E5-43F7-4126-A586-BB1219F70A02}" name="Step" dataDxfId="167"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{7550EFF0-9439-4E6A-8D23-02F504FBD1D4}" name="Table156414" displayName="Table156414" ref="A1:O7" totalsRowShown="0" headerRowBorderDxfId="138" tableBorderDxfId="137">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{7550EFF0-9439-4E6A-8D23-02F504FBD1D4}" name="Table156414" displayName="Table156414" ref="A1:O7" totalsRowShown="0" headerRowBorderDxfId="166" tableBorderDxfId="165">
   <autoFilter ref="A1:O7" xr:uid="{E89F1AAB-0467-4C13-8286-F7AC331E8CED}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{AE476C5A-DA1D-465E-9CDD-F6537F49B59A}" name="Phase" dataDxfId="136"/>
-    <tableColumn id="12" xr3:uid="{5D89776A-B117-4D83-ACC3-F00ADD3FE56E}" name="Category" dataDxfId="135"/>
-    <tableColumn id="3" xr3:uid="{9037C44A-A90D-462C-A2F2-1224467C2BC0}" name="Name" dataDxfId="134"/>
-    <tableColumn id="14" xr3:uid="{E343E4A4-9362-4305-9A92-A8062E97127D}" name="Description" dataDxfId="133"/>
-    <tableColumn id="18" xr3:uid="{59A60541-5F4F-478A-996C-A136B098D92B}" name="Units" dataDxfId="132"/>
-    <tableColumn id="4" xr3:uid="{30DA923F-FB86-4AC4-B259-AE796033AAED}" name="Distribution Type" dataDxfId="131"/>
-    <tableColumn id="5" xr3:uid="{BD9D6BB8-0A9E-48E1-95D5-0EECCBFE8316}" name="Parameter 1" dataDxfId="130"/>
-    <tableColumn id="6" xr3:uid="{B0E10190-9195-4B9D-A20D-A270CE2F3E98}" name="Parameter 2" dataDxfId="129"/>
-    <tableColumn id="7" xr3:uid="{918B726D-0E60-49F6-94FE-F7B5CF284EB2}" name="Parameter 3" dataDxfId="128"/>
-    <tableColumn id="10" xr3:uid="{F52C94ED-5667-4B4C-AF10-29D9CF45ACB5}" name="Parameter 4" dataDxfId="127"/>
-    <tableColumn id="11" xr3:uid="{9F8440AB-4D90-4F35-8265-07E520410CC0}" name="Parameter 5" dataDxfId="126"/>
-    <tableColumn id="8" xr3:uid="{4F13BDAF-F86A-4434-B9C3-576D1A4571C8}" name="Parameter 6" dataDxfId="125"/>
-    <tableColumn id="15" xr3:uid="{168B9EEC-D86A-4C57-8174-66D02451AA11}" name="Lower Limit" dataDxfId="124"/>
-    <tableColumn id="16" xr3:uid="{B91AA0FC-6FD4-4503-8497-8E2658CD5A9C}" name="Upper Limit" dataDxfId="123"/>
-    <tableColumn id="17" xr3:uid="{85F85B4E-2654-4B9F-8CBF-9AF7D4017806}" name="Step" dataDxfId="122"/>
+    <tableColumn id="9" xr3:uid="{AE476C5A-DA1D-465E-9CDD-F6537F49B59A}" name="Phase" dataDxfId="164"/>
+    <tableColumn id="12" xr3:uid="{5D89776A-B117-4D83-ACC3-F00ADD3FE56E}" name="Category" dataDxfId="163"/>
+    <tableColumn id="3" xr3:uid="{9037C44A-A90D-462C-A2F2-1224467C2BC0}" name="Name" dataDxfId="162"/>
+    <tableColumn id="14" xr3:uid="{E343E4A4-9362-4305-9A92-A8062E97127D}" name="Description" dataDxfId="161"/>
+    <tableColumn id="18" xr3:uid="{59A60541-5F4F-478A-996C-A136B098D92B}" name="Units" dataDxfId="160"/>
+    <tableColumn id="4" xr3:uid="{30DA923F-FB86-4AC4-B259-AE796033AAED}" name="Distribution Type" dataDxfId="159"/>
+    <tableColumn id="5" xr3:uid="{BD9D6BB8-0A9E-48E1-95D5-0EECCBFE8316}" name="Parameter 1" dataDxfId="158"/>
+    <tableColumn id="6" xr3:uid="{B0E10190-9195-4B9D-A20D-A270CE2F3E98}" name="Parameter 2" dataDxfId="157"/>
+    <tableColumn id="7" xr3:uid="{918B726D-0E60-49F6-94FE-F7B5CF284EB2}" name="Parameter 3" dataDxfId="156"/>
+    <tableColumn id="10" xr3:uid="{F52C94ED-5667-4B4C-AF10-29D9CF45ACB5}" name="Parameter 4" dataDxfId="155"/>
+    <tableColumn id="11" xr3:uid="{9F8440AB-4D90-4F35-8265-07E520410CC0}" name="Parameter 5" dataDxfId="154"/>
+    <tableColumn id="8" xr3:uid="{4F13BDAF-F86A-4434-B9C3-576D1A4571C8}" name="Parameter 6" dataDxfId="153"/>
+    <tableColumn id="15" xr3:uid="{168B9EEC-D86A-4C57-8174-66D02451AA11}" name="Lower Limit" dataDxfId="152"/>
+    <tableColumn id="16" xr3:uid="{B91AA0FC-6FD4-4503-8497-8E2658CD5A9C}" name="Upper Limit" dataDxfId="151"/>
+    <tableColumn id="17" xr3:uid="{85F85B4E-2654-4B9F-8CBF-9AF7D4017806}" name="Step" dataDxfId="150"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{544BD654-9B18-4F85-8680-0367091A97FD}" name="Table15646" displayName="Table15646" ref="A1:O3" totalsRowShown="0" headerRowBorderDxfId="121" tableBorderDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{544BD654-9B18-4F85-8680-0367091A97FD}" name="Table15646" displayName="Table15646" ref="A1:O3" totalsRowShown="0" headerRowBorderDxfId="149" tableBorderDxfId="148">
   <autoFilter ref="A1:O3" xr:uid="{EC61BB93-4EB0-4480-9F8B-C9A2D56564B4}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{1735A646-077D-4A5C-8ABA-5E5552C83F8B}" name="Phase" dataDxfId="119"/>
-    <tableColumn id="20" xr3:uid="{004108F0-B585-4FC4-8E02-24F2EDB488C0}" name="Category" dataDxfId="118"/>
-    <tableColumn id="12" xr3:uid="{69E4893D-8A0F-46ED-8648-226BDC719B2B}" name="Name" dataDxfId="117"/>
-    <tableColumn id="14" xr3:uid="{A839FAC0-08F6-4AA7-96B8-39B9A47A057D}" name="Description" dataDxfId="116"/>
-    <tableColumn id="18" xr3:uid="{E0746BE3-6AD9-4082-A683-C57740CF7686}" name="Units" dataDxfId="115"/>
-    <tableColumn id="4" xr3:uid="{C6BD6FF1-F034-424C-A7E9-0CF1059B3A7C}" name="Distribution Type" dataDxfId="114"/>
-    <tableColumn id="5" xr3:uid="{41A11BA2-CB19-4A3D-BAB4-C7ABCBD3E30F}" name="Parameter 1" dataDxfId="113"/>
-    <tableColumn id="6" xr3:uid="{648D385E-E212-43CC-A8AA-53DDD8BD0428}" name="Parameter 2" dataDxfId="112"/>
-    <tableColumn id="7" xr3:uid="{A336D93E-1EE2-4808-98BA-CB978FBE172A}" name="Parameter 3" dataDxfId="111"/>
-    <tableColumn id="10" xr3:uid="{03178B46-AD0C-4482-9EC2-A764D5FA6F6C}" name="Parameter 4" dataDxfId="110"/>
-    <tableColumn id="11" xr3:uid="{EAD273F2-76B2-43C4-A1D7-A199E13BAD05}" name="Parameter 5" dataDxfId="109"/>
-    <tableColumn id="8" xr3:uid="{CA066BBA-6299-4A1A-A4D8-73F164A6F41D}" name="Parameter 6" dataDxfId="108"/>
-    <tableColumn id="15" xr3:uid="{F1632EF8-E0CB-4E7B-BEA5-E206CC27F984}" name="Lower Limit" dataDxfId="107"/>
-    <tableColumn id="16" xr3:uid="{4ED75AE2-55E4-419A-A9E6-19CC6C5896E9}" name="Upper Limit" dataDxfId="106"/>
-    <tableColumn id="17" xr3:uid="{D34421A0-FABD-4530-911F-6AAAC527E813}" name="Step" dataDxfId="105"/>
+    <tableColumn id="9" xr3:uid="{1735A646-077D-4A5C-8ABA-5E5552C83F8B}" name="Phase" dataDxfId="147"/>
+    <tableColumn id="20" xr3:uid="{004108F0-B585-4FC4-8E02-24F2EDB488C0}" name="Category" dataDxfId="146"/>
+    <tableColumn id="12" xr3:uid="{69E4893D-8A0F-46ED-8648-226BDC719B2B}" name="Name" dataDxfId="145"/>
+    <tableColumn id="14" xr3:uid="{A839FAC0-08F6-4AA7-96B8-39B9A47A057D}" name="Description" dataDxfId="144"/>
+    <tableColumn id="18" xr3:uid="{E0746BE3-6AD9-4082-A683-C57740CF7686}" name="Units" dataDxfId="143"/>
+    <tableColumn id="4" xr3:uid="{C6BD6FF1-F034-424C-A7E9-0CF1059B3A7C}" name="Distribution Type" dataDxfId="142"/>
+    <tableColumn id="5" xr3:uid="{41A11BA2-CB19-4A3D-BAB4-C7ABCBD3E30F}" name="Parameter 1" dataDxfId="141"/>
+    <tableColumn id="6" xr3:uid="{648D385E-E212-43CC-A8AA-53DDD8BD0428}" name="Parameter 2" dataDxfId="140"/>
+    <tableColumn id="7" xr3:uid="{A336D93E-1EE2-4808-98BA-CB978FBE172A}" name="Parameter 3" dataDxfId="139"/>
+    <tableColumn id="10" xr3:uid="{03178B46-AD0C-4482-9EC2-A764D5FA6F6C}" name="Parameter 4" dataDxfId="138"/>
+    <tableColumn id="11" xr3:uid="{EAD273F2-76B2-43C4-A1D7-A199E13BAD05}" name="Parameter 5" dataDxfId="137"/>
+    <tableColumn id="8" xr3:uid="{CA066BBA-6299-4A1A-A4D8-73F164A6F41D}" name="Parameter 6" dataDxfId="136"/>
+    <tableColumn id="15" xr3:uid="{F1632EF8-E0CB-4E7B-BEA5-E206CC27F984}" name="Lower Limit" dataDxfId="135"/>
+    <tableColumn id="16" xr3:uid="{4ED75AE2-55E4-419A-A9E6-19CC6C5896E9}" name="Upper Limit" dataDxfId="134"/>
+    <tableColumn id="17" xr3:uid="{D34421A0-FABD-4530-911F-6AAAC527E813}" name="Step" dataDxfId="133"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A9DDAA0B-EDE4-49CE-8D2A-53496C87AC6C}" name="Table156411" displayName="Table156411" ref="A1:O4" totalsRowShown="0" headerRowBorderDxfId="104" tableBorderDxfId="103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A9DDAA0B-EDE4-49CE-8D2A-53496C87AC6C}" name="Table156411" displayName="Table156411" ref="A1:O4" totalsRowShown="0" headerRowBorderDxfId="132" tableBorderDxfId="131">
   <autoFilter ref="A1:O4" xr:uid="{96C1D83B-BC19-489F-9EB7-C4BD46C50E46}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{F67C5E8C-F091-4379-8FA4-1E0A53077B68}" name="Phase" dataDxfId="102"/>
-    <tableColumn id="20" xr3:uid="{F204C7B0-E561-4894-A461-ADBDC80CC735}" name="Category" dataDxfId="101"/>
-    <tableColumn id="12" xr3:uid="{30B72B9B-FF89-4E51-9A96-F8BE3F8041EA}" name="Name" dataDxfId="100"/>
-    <tableColumn id="14" xr3:uid="{DB30649B-C3C1-48BB-B0BA-3762B2EA3DA0}" name="Description" dataDxfId="99"/>
-    <tableColumn id="18" xr3:uid="{3421310D-974A-44DB-BC28-81CC179BFD51}" name="Units" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{A19068C9-4F23-4FE6-A45E-0F5BEA8C7692}" name="Distribution Type" dataDxfId="97"/>
-    <tableColumn id="5" xr3:uid="{8F241659-0C60-4FF4-9636-16A0AEB54DFB}" name="Parameter 1" dataDxfId="96"/>
-    <tableColumn id="6" xr3:uid="{AA2565DE-2D2D-4A58-BC4B-001FAEC9C3F0}" name="Parameter 2" dataDxfId="95"/>
-    <tableColumn id="7" xr3:uid="{CB9ADE6D-1E48-4ECA-BB61-8BFBE1C45E5E}" name="Parameter 3" dataDxfId="94"/>
-    <tableColumn id="10" xr3:uid="{18EB0859-1F88-4B30-8715-88A124D91C9B}" name="Parameter 4" dataDxfId="93"/>
-    <tableColumn id="11" xr3:uid="{6D767472-81BC-463B-A56A-768C0F5A05A9}" name="Parameter 5" dataDxfId="92"/>
-    <tableColumn id="8" xr3:uid="{217B790C-1EC6-4F73-BB6C-25E35A9D36EE}" name="Parameter 6" dataDxfId="91"/>
-    <tableColumn id="15" xr3:uid="{D4DC6753-6BDE-420B-8E58-4073ED5E70CD}" name="Lower Limit" dataDxfId="90"/>
-    <tableColumn id="16" xr3:uid="{9E541401-2A45-4487-861E-572F306DBB90}" name="Upper Limit" dataDxfId="89"/>
-    <tableColumn id="17" xr3:uid="{222205B2-5966-4F6B-A5A4-259C62BDA43D}" name="Step" dataDxfId="88"/>
+    <tableColumn id="9" xr3:uid="{F67C5E8C-F091-4379-8FA4-1E0A53077B68}" name="Phase" dataDxfId="130"/>
+    <tableColumn id="20" xr3:uid="{F204C7B0-E561-4894-A461-ADBDC80CC735}" name="Category" dataDxfId="129"/>
+    <tableColumn id="12" xr3:uid="{30B72B9B-FF89-4E51-9A96-F8BE3F8041EA}" name="Name" dataDxfId="128"/>
+    <tableColumn id="14" xr3:uid="{DB30649B-C3C1-48BB-B0BA-3762B2EA3DA0}" name="Description" dataDxfId="127"/>
+    <tableColumn id="18" xr3:uid="{3421310D-974A-44DB-BC28-81CC179BFD51}" name="Units" dataDxfId="126"/>
+    <tableColumn id="4" xr3:uid="{A19068C9-4F23-4FE6-A45E-0F5BEA8C7692}" name="Distribution Type" dataDxfId="125"/>
+    <tableColumn id="5" xr3:uid="{8F241659-0C60-4FF4-9636-16A0AEB54DFB}" name="Parameter 1" dataDxfId="124"/>
+    <tableColumn id="6" xr3:uid="{AA2565DE-2D2D-4A58-BC4B-001FAEC9C3F0}" name="Parameter 2" dataDxfId="123"/>
+    <tableColumn id="7" xr3:uid="{CB9ADE6D-1E48-4ECA-BB61-8BFBE1C45E5E}" name="Parameter 3" dataDxfId="122"/>
+    <tableColumn id="10" xr3:uid="{18EB0859-1F88-4B30-8715-88A124D91C9B}" name="Parameter 4" dataDxfId="121"/>
+    <tableColumn id="11" xr3:uid="{6D767472-81BC-463B-A56A-768C0F5A05A9}" name="Parameter 5" dataDxfId="120"/>
+    <tableColumn id="8" xr3:uid="{217B790C-1EC6-4F73-BB6C-25E35A9D36EE}" name="Parameter 6" dataDxfId="119"/>
+    <tableColumn id="15" xr3:uid="{D4DC6753-6BDE-420B-8E58-4073ED5E70CD}" name="Lower Limit" dataDxfId="118"/>
+    <tableColumn id="16" xr3:uid="{9E541401-2A45-4487-861E-572F306DBB90}" name="Upper Limit" dataDxfId="117"/>
+    <tableColumn id="17" xr3:uid="{222205B2-5966-4F6B-A5A4-259C62BDA43D}" name="Step" dataDxfId="116"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1C65CEB6-4F7A-4FD3-92D1-32B0AC0529C7}" name="Table15645" displayName="Table15645" ref="A1:O9" totalsRowShown="0" headerRowBorderDxfId="87" tableBorderDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1C65CEB6-4F7A-4FD3-92D1-32B0AC0529C7}" name="Table15645" displayName="Table15645" ref="A1:O9" totalsRowShown="0" headerRowBorderDxfId="115" tableBorderDxfId="114">
   <autoFilter ref="A1:O9" xr:uid="{CE70FAE3-DAD6-40A6-BCCE-F46A2CDA0980}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{A5634D1E-7F69-4A8B-9B2C-E544A100BE0B}" name="Phase" dataDxfId="85"/>
-    <tableColumn id="22" xr3:uid="{DF0A5598-36C6-480A-8445-5264CD38D6AE}" name="Category" dataDxfId="84"/>
-    <tableColumn id="12" xr3:uid="{322396A3-5A20-4A3E-8F7B-F97F31E5B741}" name="Name" dataDxfId="83"/>
-    <tableColumn id="14" xr3:uid="{1910CF64-CF8F-4994-BC1B-F27FE4E216E6}" name="Description" dataDxfId="82"/>
-    <tableColumn id="18" xr3:uid="{211B9116-478A-42BC-BFD9-0A2AA2AD39A9}" name="Units" dataDxfId="81"/>
-    <tableColumn id="4" xr3:uid="{ABD6291E-7951-4F95-9FF4-C5A1FC0AAC06}" name="Distribution Type" dataDxfId="80"/>
-    <tableColumn id="5" xr3:uid="{ECC3B9FC-E4AE-4AD1-BF4C-89FE38983ABB}" name="Parameter 1" dataDxfId="79"/>
-    <tableColumn id="6" xr3:uid="{8FC5359B-BA7A-46D2-B091-D9665C585235}" name="Parameter 2" dataDxfId="78"/>
-    <tableColumn id="7" xr3:uid="{3BDDE353-FD4F-45F2-8B7C-5F7D6E0D347D}" name="Parameter 3" dataDxfId="77"/>
-    <tableColumn id="10" xr3:uid="{701C65B5-1C54-4F3C-90E2-A67B32AB1876}" name="Parameter 4" dataDxfId="76"/>
-    <tableColumn id="11" xr3:uid="{A8EE834B-F323-4C30-8E59-AEDA8B9E2A61}" name="Parameter 5" dataDxfId="75"/>
-    <tableColumn id="8" xr3:uid="{240B8AE3-DEF4-4C61-BF40-2515EA4A4DDB}" name="Parameter 6" dataDxfId="74"/>
-    <tableColumn id="15" xr3:uid="{5D6076C4-791B-4994-9665-C628F9AE62B7}" name="Lower Limit" dataDxfId="73"/>
-    <tableColumn id="16" xr3:uid="{D06B2878-4A23-45AF-8278-C825D6961D31}" name="Upper Limit" dataDxfId="72"/>
-    <tableColumn id="17" xr3:uid="{54CBA85E-0128-4FD6-8F0E-932C4E402C1C}" name="Step" dataDxfId="71"/>
+    <tableColumn id="9" xr3:uid="{A5634D1E-7F69-4A8B-9B2C-E544A100BE0B}" name="Phase" dataDxfId="113"/>
+    <tableColumn id="22" xr3:uid="{DF0A5598-36C6-480A-8445-5264CD38D6AE}" name="Category" dataDxfId="112"/>
+    <tableColumn id="12" xr3:uid="{322396A3-5A20-4A3E-8F7B-F97F31E5B741}" name="Name" dataDxfId="111"/>
+    <tableColumn id="14" xr3:uid="{1910CF64-CF8F-4994-BC1B-F27FE4E216E6}" name="Description" dataDxfId="110"/>
+    <tableColumn id="18" xr3:uid="{211B9116-478A-42BC-BFD9-0A2AA2AD39A9}" name="Units" dataDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{ABD6291E-7951-4F95-9FF4-C5A1FC0AAC06}" name="Distribution Type" dataDxfId="108"/>
+    <tableColumn id="5" xr3:uid="{ECC3B9FC-E4AE-4AD1-BF4C-89FE38983ABB}" name="Parameter 1" dataDxfId="107"/>
+    <tableColumn id="6" xr3:uid="{8FC5359B-BA7A-46D2-B091-D9665C585235}" name="Parameter 2" dataDxfId="106"/>
+    <tableColumn id="7" xr3:uid="{3BDDE353-FD4F-45F2-8B7C-5F7D6E0D347D}" name="Parameter 3" dataDxfId="105"/>
+    <tableColumn id="10" xr3:uid="{701C65B5-1C54-4F3C-90E2-A67B32AB1876}" name="Parameter 4" dataDxfId="104"/>
+    <tableColumn id="11" xr3:uid="{A8EE834B-F323-4C30-8E59-AEDA8B9E2A61}" name="Parameter 5" dataDxfId="103"/>
+    <tableColumn id="8" xr3:uid="{240B8AE3-DEF4-4C61-BF40-2515EA4A4DDB}" name="Parameter 6" dataDxfId="102"/>
+    <tableColumn id="15" xr3:uid="{5D6076C4-791B-4994-9665-C628F9AE62B7}" name="Lower Limit" dataDxfId="101"/>
+    <tableColumn id="16" xr3:uid="{D06B2878-4A23-45AF-8278-C825D6961D31}" name="Upper Limit" dataDxfId="100"/>
+    <tableColumn id="17" xr3:uid="{54CBA85E-0128-4FD6-8F0E-932C4E402C1C}" name="Step" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:O22" totalsRowShown="0" tableBorderDxfId="323">
-  <autoFilter ref="A1:O22" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:O30" totalsRowShown="0" tableBorderDxfId="351">
+  <autoFilter ref="A1:O30" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phase" dataDxfId="322"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="321"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="320"/>
-    <tableColumn id="10" xr3:uid="{8EBBFD49-190C-4C2F-A6BC-0598AAC3E788}" name="Description" dataDxfId="319"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="318"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="317"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="316"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="315"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="314"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="313"/>
-    <tableColumn id="14" xr3:uid="{E54D398D-B732-4333-A3F2-2EBD48BAA48B}" name="Parameter 5" dataDxfId="312"/>
-    <tableColumn id="15" xr3:uid="{47B382D4-92A3-4B8C-9C52-0458EA4788B1}" name="Parameter 6" dataDxfId="311"/>
-    <tableColumn id="11" xr3:uid="{BD4375F0-63E9-45EC-BE2E-338374C10F8B}" name="Lower Limit" dataDxfId="310"/>
-    <tableColumn id="12" xr3:uid="{E3D45A75-803F-48B4-B112-11C4C63E6D6F}" name="Upper Limit" dataDxfId="309"/>
-    <tableColumn id="13" xr3:uid="{FFEC12A7-FD01-4D8C-85CF-A25BD15B0829}" name="Step" dataDxfId="308"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phase" dataDxfId="350"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="349"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="348"/>
+    <tableColumn id="10" xr3:uid="{8EBBFD49-190C-4C2F-A6BC-0598AAC3E788}" name="Description" dataDxfId="347"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="346"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="345"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="344"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="343"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="342"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="341"/>
+    <tableColumn id="14" xr3:uid="{E54D398D-B732-4333-A3F2-2EBD48BAA48B}" name="Parameter 5" dataDxfId="340"/>
+    <tableColumn id="15" xr3:uid="{47B382D4-92A3-4B8C-9C52-0458EA4788B1}" name="Parameter 6" dataDxfId="339"/>
+    <tableColumn id="11" xr3:uid="{BD4375F0-63E9-45EC-BE2E-338374C10F8B}" name="Lower Limit" dataDxfId="338"/>
+    <tableColumn id="12" xr3:uid="{E3D45A75-803F-48B4-B112-11C4C63E6D6F}" name="Upper Limit" dataDxfId="337"/>
+    <tableColumn id="13" xr3:uid="{FFEC12A7-FD01-4D8C-85CF-A25BD15B0829}" name="Step" dataDxfId="336"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:O13" totalsRowShown="0" tableBorderDxfId="307">
-  <autoFilter ref="A1:O13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:O17" totalsRowShown="0" tableBorderDxfId="335">
+  <autoFilter ref="A1:O17" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Phase" dataDxfId="306"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="305"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="304"/>
-    <tableColumn id="10" xr3:uid="{2D3DA962-F373-48F5-BD94-00CC27106A46}" name="Description" dataDxfId="303"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="302"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="301"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="300"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="299"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="298"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="297"/>
-    <tableColumn id="14" xr3:uid="{5A98E335-B701-4CC9-9D03-A85D24786F3B}" name="Parameter 5" dataDxfId="296"/>
-    <tableColumn id="15" xr3:uid="{79377D49-ED29-41CF-AC28-FD408018808C}" name="Parameter 6" dataDxfId="295"/>
-    <tableColumn id="11" xr3:uid="{FF818C38-99D8-4486-B25F-2B94B62F77AF}" name="Lower Limit" dataDxfId="294"/>
-    <tableColumn id="12" xr3:uid="{8C44E4B8-6916-4798-9055-589FE4E4C903}" name="Upper Limit" dataDxfId="293"/>
-    <tableColumn id="13" xr3:uid="{8266E46A-7EC0-42D8-91D3-D2DC1B4352DE}" name="Step" dataDxfId="292"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Phase" dataDxfId="334"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="333"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="332"/>
+    <tableColumn id="10" xr3:uid="{2D3DA962-F373-48F5-BD94-00CC27106A46}" name="Description" dataDxfId="331"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="330"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="329"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="328"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="327"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="326"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="325"/>
+    <tableColumn id="14" xr3:uid="{5A98E335-B701-4CC9-9D03-A85D24786F3B}" name="Parameter 5" dataDxfId="324"/>
+    <tableColumn id="15" xr3:uid="{79377D49-ED29-41CF-AC28-FD408018808C}" name="Parameter 6" dataDxfId="323"/>
+    <tableColumn id="11" xr3:uid="{FF818C38-99D8-4486-B25F-2B94B62F77AF}" name="Lower Limit" dataDxfId="322"/>
+    <tableColumn id="12" xr3:uid="{8C44E4B8-6916-4798-9055-589FE4E4C903}" name="Upper Limit" dataDxfId="321"/>
+    <tableColumn id="13" xr3:uid="{8266E46A-7EC0-42D8-91D3-D2DC1B4352DE}" name="Step" dataDxfId="320"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:O20" totalsRowShown="0" headerRowBorderDxfId="291" tableBorderDxfId="290">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:O20" totalsRowShown="0" headerRowBorderDxfId="319" tableBorderDxfId="318">
   <autoFilter ref="A1:O20" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Phase" dataDxfId="289"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="288"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="287"/>
-    <tableColumn id="10" xr3:uid="{A40104D1-3BF7-4068-8777-3D61F27973C1}" name="Description" dataDxfId="286"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="285"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="284"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="283"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="282"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="281"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="280"/>
-    <tableColumn id="14" xr3:uid="{77E616D7-C540-4C6C-A01C-31C8ADF35FBE}" name="Parameter 5" dataDxfId="279"/>
-    <tableColumn id="15" xr3:uid="{68C28D25-E41A-4D3D-A794-809A12A02364}" name="Parameter 6" dataDxfId="278"/>
-    <tableColumn id="11" xr3:uid="{83552614-5368-48EE-AE65-AA7B101E55EF}" name="Lower Limit" dataDxfId="277"/>
-    <tableColumn id="12" xr3:uid="{98998298-F4B1-4980-B79C-0BF0D0D59028}" name="Upper Limit" dataDxfId="276"/>
-    <tableColumn id="13" xr3:uid="{8E3814A1-C526-4157-B0D9-1258E47ACA45}" name="Step" dataDxfId="275"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Phase" dataDxfId="317"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="316"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="315"/>
+    <tableColumn id="10" xr3:uid="{A40104D1-3BF7-4068-8777-3D61F27973C1}" name="Description" dataDxfId="314"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="313"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="312"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="311"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="310"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="309"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="308"/>
+    <tableColumn id="14" xr3:uid="{77E616D7-C540-4C6C-A01C-31C8ADF35FBE}" name="Parameter 5" dataDxfId="307"/>
+    <tableColumn id="15" xr3:uid="{68C28D25-E41A-4D3D-A794-809A12A02364}" name="Parameter 6" dataDxfId="306"/>
+    <tableColumn id="11" xr3:uid="{83552614-5368-48EE-AE65-AA7B101E55EF}" name="Lower Limit" dataDxfId="305"/>
+    <tableColumn id="12" xr3:uid="{98998298-F4B1-4980-B79C-0BF0D0D59028}" name="Upper Limit" dataDxfId="304"/>
+    <tableColumn id="13" xr3:uid="{8E3814A1-C526-4157-B0D9-1258E47ACA45}" name="Step" dataDxfId="303"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15793" displayName="Table15793" ref="A1:O2" totalsRowShown="0" headerRowBorderDxfId="274" tableBorderDxfId="273">
-  <autoFilter ref="A1:O2" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15793" displayName="Table15793" ref="A1:O8" totalsRowShown="0" headerRowBorderDxfId="302" tableBorderDxfId="301">
+  <autoFilter ref="A1:O8" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Phase" dataDxfId="272"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="271"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Name" dataDxfId="270"/>
-    <tableColumn id="10" xr3:uid="{4482773E-AA48-4795-9A9F-10283D12A976}" name="Description" dataDxfId="269"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Units" dataDxfId="268"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Distribution Type" dataDxfId="267"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Parameter 1" dataDxfId="266"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Parameter 2" dataDxfId="265"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Parameter 3" dataDxfId="264"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Parameter 4" dataDxfId="263"/>
-    <tableColumn id="14" xr3:uid="{41E058E9-8EB6-430E-BC58-82195628B7D1}" name="Parameter 5" dataDxfId="262"/>
-    <tableColumn id="15" xr3:uid="{1CA16974-E252-4655-813D-3FC48E8CCF45}" name="Parameter 6" dataDxfId="261"/>
-    <tableColumn id="11" xr3:uid="{0ED7EC4B-FD74-44E3-B1E6-428C431FDA88}" name="Lower Limit" dataDxfId="260"/>
-    <tableColumn id="12" xr3:uid="{4CA3754D-692A-40C0-BCC5-14D0E3AAF144}" name="Upper Limit" dataDxfId="259"/>
-    <tableColumn id="13" xr3:uid="{D4791B88-6435-44AE-9946-77D4E8CB6EA8}" name="Step" dataDxfId="258"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Phase" dataDxfId="300"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="299"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Name" dataDxfId="298"/>
+    <tableColumn id="10" xr3:uid="{4482773E-AA48-4795-9A9F-10283D12A976}" name="Description" dataDxfId="297"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Units" dataDxfId="296"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Distribution Type" dataDxfId="295"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Parameter 1" dataDxfId="294"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Parameter 2" dataDxfId="293"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Parameter 3" dataDxfId="292"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Parameter 4" dataDxfId="291"/>
+    <tableColumn id="14" xr3:uid="{41E058E9-8EB6-430E-BC58-82195628B7D1}" name="Parameter 5" dataDxfId="290"/>
+    <tableColumn id="15" xr3:uid="{1CA16974-E252-4655-813D-3FC48E8CCF45}" name="Parameter 6" dataDxfId="289"/>
+    <tableColumn id="11" xr3:uid="{0ED7EC4B-FD74-44E3-B1E6-428C431FDA88}" name="Lower Limit" dataDxfId="288"/>
+    <tableColumn id="12" xr3:uid="{4CA3754D-692A-40C0-BCC5-14D0E3AAF144}" name="Upper Limit" dataDxfId="287"/>
+    <tableColumn id="13" xr3:uid="{D4791B88-6435-44AE-9946-77D4E8CB6EA8}" name="Step" dataDxfId="286"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:O24" totalsRowShown="0" headerRowBorderDxfId="257" tableBorderDxfId="256">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:O24" totalsRowShown="0" headerRowBorderDxfId="285" tableBorderDxfId="284">
   <autoFilter ref="A1:O24" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2">
     <sortCondition ref="B1:B2"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Phase" dataDxfId="255"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="254"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="253"/>
-    <tableColumn id="10" xr3:uid="{3AFE3909-1CDD-46E0-8677-569A824534FB}" name="Description" dataDxfId="252"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="251"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="250"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="249"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="248"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="247"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="246"/>
-    <tableColumn id="14" xr3:uid="{8991E047-B1B0-4B74-A5AA-45E689F51874}" name="Parameter 5" dataDxfId="245"/>
-    <tableColumn id="15" xr3:uid="{A25E7AA9-7C49-405C-8326-53EA8C994FFB}" name="Parameter 6" dataDxfId="244"/>
-    <tableColumn id="11" xr3:uid="{08FFB9BF-C539-434A-A2F4-C19873D3AB3E}" name="Lower Limit" dataDxfId="243"/>
-    <tableColumn id="12" xr3:uid="{CEDB540F-344B-4D49-8CD6-9F7746873840}" name="Upper Limit" dataDxfId="242"/>
-    <tableColumn id="13" xr3:uid="{4B3E9A2A-7D0A-4F2D-B694-DB4D2C83BA0A}" name="Step" dataDxfId="241"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Phase" dataDxfId="283"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="282"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="281"/>
+    <tableColumn id="10" xr3:uid="{3AFE3909-1CDD-46E0-8677-569A824534FB}" name="Description" dataDxfId="280"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="279"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="278"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="277"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="276"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="275"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="274"/>
+    <tableColumn id="14" xr3:uid="{8991E047-B1B0-4B74-A5AA-45E689F51874}" name="Parameter 5" dataDxfId="273"/>
+    <tableColumn id="15" xr3:uid="{A25E7AA9-7C49-405C-8326-53EA8C994FFB}" name="Parameter 6" dataDxfId="272"/>
+    <tableColumn id="11" xr3:uid="{08FFB9BF-C539-434A-A2F4-C19873D3AB3E}" name="Lower Limit" dataDxfId="271"/>
+    <tableColumn id="12" xr3:uid="{CEDB540F-344B-4D49-8CD6-9F7746873840}" name="Upper Limit" dataDxfId="270"/>
+    <tableColumn id="13" xr3:uid="{4B3E9A2A-7D0A-4F2D-B694-DB4D2C83BA0A}" name="Step" dataDxfId="269"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3CB8E65B-B7DB-4610-98F8-15D74050538C}" name="Table156410" displayName="Table156410" ref="A1:O2" totalsRowShown="0" headerRowBorderDxfId="240" tableBorderDxfId="239">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3CB8E65B-B7DB-4610-98F8-15D74050538C}" name="Table156410" displayName="Table156410" ref="A1:O2" totalsRowShown="0" headerRowBorderDxfId="268" tableBorderDxfId="267">
   <autoFilter ref="A1:O2" xr:uid="{A2DF75BF-F49D-463D-B10C-635E799069A4}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{33E848DD-559D-4023-9F06-526E6AF9BD94}" name="Phase" dataDxfId="238"/>
-    <tableColumn id="20" xr3:uid="{9EDFC6C3-E3F9-4924-BC6A-804D2BBDAE4E}" name="Category" dataDxfId="237"/>
-    <tableColumn id="12" xr3:uid="{D5F0DA51-2BBD-46FF-88FA-75AA7A464F56}" name="Name" dataDxfId="236"/>
-    <tableColumn id="14" xr3:uid="{C6DADE20-FD43-4249-ADF7-72D9BB6ED860}" name="Description" dataDxfId="235"/>
-    <tableColumn id="18" xr3:uid="{017077E2-A519-4357-81FC-29BBCF542A5D}" name="Units" dataDxfId="234"/>
-    <tableColumn id="4" xr3:uid="{18A3B7BD-46E6-497D-932B-A279201CED36}" name="Distribution Type" dataDxfId="233"/>
-    <tableColumn id="5" xr3:uid="{5BD00F12-3393-4245-9BE0-D37573FCF5E3}" name="Parameter 1" dataDxfId="232"/>
-    <tableColumn id="6" xr3:uid="{F68E7FA0-23DA-4C5B-BCD3-BD3C7B299B02}" name="Parameter 2" dataDxfId="231"/>
-    <tableColumn id="7" xr3:uid="{E074689D-E9A9-4D78-901F-4D6DEAB8F157}" name="Parameter 3" dataDxfId="230"/>
-    <tableColumn id="10" xr3:uid="{24FDA3C5-E39C-430C-90BB-3F6BD09EEDC7}" name="Parameter 4" dataDxfId="229"/>
-    <tableColumn id="11" xr3:uid="{42BED06C-CBA3-4453-AE89-CFE7799A8559}" name="Parameter 5" dataDxfId="228"/>
-    <tableColumn id="8" xr3:uid="{4CFE8BFF-6747-408C-8ABA-AFDB589C4F81}" name="Parameter 6" dataDxfId="227"/>
-    <tableColumn id="15" xr3:uid="{E0BBD4D8-EA8D-4CAF-B849-F7A2CE769A48}" name="Lower Limit" dataDxfId="226"/>
-    <tableColumn id="16" xr3:uid="{4800A8E8-843B-4C41-91BF-C1A3C30DE8D6}" name="Upper Limit" dataDxfId="225"/>
-    <tableColumn id="17" xr3:uid="{A6367C3F-1F51-48D6-9EB3-E8501CEA0DC3}" name="Step" dataDxfId="224"/>
+    <tableColumn id="9" xr3:uid="{33E848DD-559D-4023-9F06-526E6AF9BD94}" name="Phase" dataDxfId="266"/>
+    <tableColumn id="20" xr3:uid="{9EDFC6C3-E3F9-4924-BC6A-804D2BBDAE4E}" name="Category" dataDxfId="265"/>
+    <tableColumn id="12" xr3:uid="{D5F0DA51-2BBD-46FF-88FA-75AA7A464F56}" name="Name" dataDxfId="264"/>
+    <tableColumn id="14" xr3:uid="{C6DADE20-FD43-4249-ADF7-72D9BB6ED860}" name="Description" dataDxfId="263"/>
+    <tableColumn id="18" xr3:uid="{017077E2-A519-4357-81FC-29BBCF542A5D}" name="Units" dataDxfId="262"/>
+    <tableColumn id="4" xr3:uid="{18A3B7BD-46E6-497D-932B-A279201CED36}" name="Distribution Type" dataDxfId="261"/>
+    <tableColumn id="5" xr3:uid="{5BD00F12-3393-4245-9BE0-D37573FCF5E3}" name="Parameter 1" dataDxfId="260"/>
+    <tableColumn id="6" xr3:uid="{F68E7FA0-23DA-4C5B-BCD3-BD3C7B299B02}" name="Parameter 2" dataDxfId="259"/>
+    <tableColumn id="7" xr3:uid="{E074689D-E9A9-4D78-901F-4D6DEAB8F157}" name="Parameter 3" dataDxfId="258"/>
+    <tableColumn id="10" xr3:uid="{24FDA3C5-E39C-430C-90BB-3F6BD09EEDC7}" name="Parameter 4" dataDxfId="257"/>
+    <tableColumn id="11" xr3:uid="{42BED06C-CBA3-4453-AE89-CFE7799A8559}" name="Parameter 5" dataDxfId="256"/>
+    <tableColumn id="8" xr3:uid="{4CFE8BFF-6747-408C-8ABA-AFDB589C4F81}" name="Parameter 6" dataDxfId="255"/>
+    <tableColumn id="15" xr3:uid="{E0BBD4D8-EA8D-4CAF-B849-F7A2CE769A48}" name="Lower Limit" dataDxfId="254"/>
+    <tableColumn id="16" xr3:uid="{4800A8E8-843B-4C41-91BF-C1A3C30DE8D6}" name="Upper Limit" dataDxfId="253"/>
+    <tableColumn id="17" xr3:uid="{A6367C3F-1F51-48D6-9EB3-E8501CEA0DC3}" name="Step" dataDxfId="252"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{86A1116E-A4B1-4819-B8BD-755AC0F1A27A}" name="Table15648" displayName="Table15648" ref="A1:O24" totalsRowShown="0" headerRowBorderDxfId="223" tableBorderDxfId="222">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{86A1116E-A4B1-4819-B8BD-755AC0F1A27A}" name="Table15648" displayName="Table15648" ref="A1:O24" totalsRowShown="0" headerRowBorderDxfId="251" tableBorderDxfId="250">
   <autoFilter ref="A1:O24" xr:uid="{990E6A50-401C-443A-9431-A3C6B1C33DB9}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{B7EF7E94-8BD1-4B05-A1E1-DE0166BDA299}" name="Phase" dataDxfId="221"/>
-    <tableColumn id="20" xr3:uid="{3E394D25-22F5-47DE-8DD2-1B412C8ACB40}" name="Category" dataDxfId="220"/>
-    <tableColumn id="12" xr3:uid="{581C35A5-6B54-4CCA-AD27-A0086A458CD9}" name="Name" dataDxfId="219"/>
-    <tableColumn id="14" xr3:uid="{02601854-7EF0-4B53-83BA-E1A583AB0E89}" name="Description" dataDxfId="218"/>
-    <tableColumn id="18" xr3:uid="{38E6F539-D589-4AEB-9FF3-0F3407B1F600}" name="Units" dataDxfId="217"/>
-    <tableColumn id="4" xr3:uid="{758D0224-FF70-4B51-A43F-A666DBEE60B5}" name="Distribution Type" dataDxfId="216"/>
-    <tableColumn id="5" xr3:uid="{AA403007-B0D8-4F37-BBED-A39F4CBEC713}" name="Parameter 1" dataDxfId="215"/>
-    <tableColumn id="6" xr3:uid="{AEFD9020-CB8D-46C6-A545-72935F5E17C9}" name="Parameter 2" dataDxfId="214"/>
-    <tableColumn id="7" xr3:uid="{5391F637-3141-4924-AB2D-BB7560C402FC}" name="Parameter 3" dataDxfId="213"/>
-    <tableColumn id="10" xr3:uid="{DD30C7A0-FB24-4548-956F-070EED2E392A}" name="Parameter 4" dataDxfId="212"/>
-    <tableColumn id="11" xr3:uid="{4C51B414-DF9A-46F4-A761-171654CD826B}" name="Parameter 5" dataDxfId="211"/>
-    <tableColumn id="8" xr3:uid="{C36C5078-BCC8-4902-86B0-4CC5F5B94354}" name="Parameter 6" dataDxfId="210"/>
-    <tableColumn id="15" xr3:uid="{0B417314-7BF7-498C-AFAD-AF435E3794CB}" name="Lower Limit" dataDxfId="209"/>
-    <tableColumn id="16" xr3:uid="{869CD7E5-A5F2-42BE-860A-4654BBA29091}" name="Upper Limit" dataDxfId="208"/>
-    <tableColumn id="17" xr3:uid="{9D5645C4-35FE-4467-8F7A-0259A9E00D72}" name="Step" dataDxfId="207"/>
+    <tableColumn id="9" xr3:uid="{B7EF7E94-8BD1-4B05-A1E1-DE0166BDA299}" name="Phase" dataDxfId="249"/>
+    <tableColumn id="20" xr3:uid="{3E394D25-22F5-47DE-8DD2-1B412C8ACB40}" name="Category" dataDxfId="248"/>
+    <tableColumn id="12" xr3:uid="{581C35A5-6B54-4CCA-AD27-A0086A458CD9}" name="Name" dataDxfId="247"/>
+    <tableColumn id="14" xr3:uid="{02601854-7EF0-4B53-83BA-E1A583AB0E89}" name="Description" dataDxfId="246"/>
+    <tableColumn id="18" xr3:uid="{38E6F539-D589-4AEB-9FF3-0F3407B1F600}" name="Units" dataDxfId="245"/>
+    <tableColumn id="4" xr3:uid="{758D0224-FF70-4B51-A43F-A666DBEE60B5}" name="Distribution Type" dataDxfId="244"/>
+    <tableColumn id="5" xr3:uid="{AA403007-B0D8-4F37-BBED-A39F4CBEC713}" name="Parameter 1" dataDxfId="243"/>
+    <tableColumn id="6" xr3:uid="{AEFD9020-CB8D-46C6-A545-72935F5E17C9}" name="Parameter 2" dataDxfId="242"/>
+    <tableColumn id="7" xr3:uid="{5391F637-3141-4924-AB2D-BB7560C402FC}" name="Parameter 3" dataDxfId="241"/>
+    <tableColumn id="10" xr3:uid="{DD30C7A0-FB24-4548-956F-070EED2E392A}" name="Parameter 4" dataDxfId="240"/>
+    <tableColumn id="11" xr3:uid="{4C51B414-DF9A-46F4-A761-171654CD826B}" name="Parameter 5" dataDxfId="239"/>
+    <tableColumn id="8" xr3:uid="{C36C5078-BCC8-4902-86B0-4CC5F5B94354}" name="Parameter 6" dataDxfId="238"/>
+    <tableColumn id="15" xr3:uid="{0B417314-7BF7-498C-AFAD-AF435E3794CB}" name="Lower Limit" dataDxfId="237"/>
+    <tableColumn id="16" xr3:uid="{869CD7E5-A5F2-42BE-860A-4654BBA29091}" name="Upper Limit" dataDxfId="236"/>
+    <tableColumn id="17" xr3:uid="{9D5645C4-35FE-4467-8F7A-0259A9E00D72}" name="Step" dataDxfId="235"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{70557EE6-CCDF-497F-AD58-5C0E1C74D197}" name="Table156412" displayName="Table156412" ref="A1:O2" totalsRowShown="0" headerRowBorderDxfId="206" tableBorderDxfId="205">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{70557EE6-CCDF-497F-AD58-5C0E1C74D197}" name="Table156412" displayName="Table156412" ref="A1:O2" totalsRowShown="0" headerRowBorderDxfId="234" tableBorderDxfId="233">
   <autoFilter ref="A1:O2" xr:uid="{98B9CAE8-5809-471F-A0E6-3C63C0FF7931}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{0E927F65-2069-4507-B0B0-8DA725AF99EC}" name="Phase" dataDxfId="204"/>
-    <tableColumn id="20" xr3:uid="{921518C6-F6AF-4306-9A67-62C12E697D60}" name="Category" dataDxfId="203"/>
-    <tableColumn id="12" xr3:uid="{CD5679ED-CB25-488E-8C70-2C446DAB28DC}" name="Name" dataDxfId="202"/>
-    <tableColumn id="14" xr3:uid="{F17E92B1-609F-453F-8FC2-11AB75FFB5B0}" name="Description" dataDxfId="201"/>
-    <tableColumn id="18" xr3:uid="{CA25841B-E30A-4228-B65F-216207437CB0}" name="Units" dataDxfId="200"/>
-    <tableColumn id="4" xr3:uid="{5CF3C293-70A2-445C-B6F4-D4BCEB868AEC}" name="Distribution Type" dataDxfId="199"/>
-    <tableColumn id="5" xr3:uid="{6B896B7D-F74D-42FF-97BC-93D69E611504}" name="Parameter 1" dataDxfId="198"/>
-    <tableColumn id="6" xr3:uid="{02AE94F0-B427-476D-88EB-3C9235866F4E}" name="Parameter 2" dataDxfId="197"/>
-    <tableColumn id="7" xr3:uid="{C0EF4425-A63A-42D7-82B9-4C1366C7BF01}" name="Parameter 3" dataDxfId="196">
+    <tableColumn id="9" xr3:uid="{0E927F65-2069-4507-B0B0-8DA725AF99EC}" name="Phase" dataDxfId="232"/>
+    <tableColumn id="20" xr3:uid="{921518C6-F6AF-4306-9A67-62C12E697D60}" name="Category" dataDxfId="231"/>
+    <tableColumn id="12" xr3:uid="{CD5679ED-CB25-488E-8C70-2C446DAB28DC}" name="Name" dataDxfId="230"/>
+    <tableColumn id="14" xr3:uid="{F17E92B1-609F-453F-8FC2-11AB75FFB5B0}" name="Description" dataDxfId="229"/>
+    <tableColumn id="18" xr3:uid="{CA25841B-E30A-4228-B65F-216207437CB0}" name="Units" dataDxfId="228"/>
+    <tableColumn id="4" xr3:uid="{5CF3C293-70A2-445C-B6F4-D4BCEB868AEC}" name="Distribution Type" dataDxfId="227"/>
+    <tableColumn id="5" xr3:uid="{6B896B7D-F74D-42FF-97BC-93D69E611504}" name="Parameter 1" dataDxfId="226"/>
+    <tableColumn id="6" xr3:uid="{02AE94F0-B427-476D-88EB-3C9235866F4E}" name="Parameter 2" dataDxfId="225"/>
+    <tableColumn id="7" xr3:uid="{C0EF4425-A63A-42D7-82B9-4C1366C7BF01}" name="Parameter 3" dataDxfId="224">
       <calculatedColumnFormula>(Table156412[[#This Row],[Parameter 1]]-1)/(Table156412[[#This Row],[Parameter 1]]+Table156412[[#This Row],[Parameter 2]]-2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{7F665756-5949-4CD6-AE8C-F7531D7A9CAD}" name="Parameter 4" dataDxfId="195"/>
-    <tableColumn id="11" xr3:uid="{59049478-1CD8-416F-BED1-BD7B8FEA0C41}" name="Parameter 5" dataDxfId="194"/>
-    <tableColumn id="8" xr3:uid="{CC7DFE3F-C2E2-4F46-B153-D03CF263B523}" name="Parameter 6" dataDxfId="193"/>
-    <tableColumn id="15" xr3:uid="{F2A6353F-D73A-41E5-B265-D8F18AA4409C}" name="Lower Limit" dataDxfId="192"/>
-    <tableColumn id="16" xr3:uid="{1D8D56B8-5F2C-48C5-9CE4-93C38BD7488F}" name="Upper Limit" dataDxfId="191"/>
-    <tableColumn id="17" xr3:uid="{6AB8DBB9-751A-4840-BC73-4780E1B009AD}" name="Step" dataDxfId="190"/>
+    <tableColumn id="10" xr3:uid="{7F665756-5949-4CD6-AE8C-F7531D7A9CAD}" name="Parameter 4" dataDxfId="223"/>
+    <tableColumn id="11" xr3:uid="{59049478-1CD8-416F-BED1-BD7B8FEA0C41}" name="Parameter 5" dataDxfId="222"/>
+    <tableColumn id="8" xr3:uid="{CC7DFE3F-C2E2-4F46-B153-D03CF263B523}" name="Parameter 6" dataDxfId="221"/>
+    <tableColumn id="15" xr3:uid="{F2A6353F-D73A-41E5-B265-D8F18AA4409C}" name="Lower Limit" dataDxfId="220"/>
+    <tableColumn id="16" xr3:uid="{1D8D56B8-5F2C-48C5-9CE4-93C38BD7488F}" name="Upper Limit" dataDxfId="219"/>
+    <tableColumn id="17" xr3:uid="{6AB8DBB9-751A-4840-BC73-4780E1B009AD}" name="Step" dataDxfId="218"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7205,7 +7515,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>25</v>
@@ -7214,7 +7524,7 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>27</v>
@@ -7223,51 +7533,51 @@
         <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -7294,25 +7604,25 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L2">
-    <cfRule type="expression" dxfId="40" priority="3">
+    <cfRule type="expression" dxfId="41" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2">
-    <cfRule type="expression" dxfId="39" priority="4">
+    <cfRule type="expression" dxfId="40" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="39" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="2">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{130B2828-1017-4160-928E-9FCAFE699A52}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F8" xr:uid="{130B2828-1017-4160-928E-9FCAFE699A52}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -7347,7 +7657,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>25</v>
@@ -7356,7 +7666,7 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>27</v>
@@ -7365,51 +7675,51 @@
         <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G2" s="1">
         <v>145833.33333333299</v>
@@ -7421,7 +7731,7 @@
         <v>9.1999999999999904</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -7437,22 +7747,22 @@
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G3" s="11">
         <v>7017543.8596491199</v>
@@ -7464,7 +7774,7 @@
         <v>7.85</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
@@ -7480,22 +7790,22 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G4" s="1">
         <v>145833.33333333299</v>
@@ -7507,7 +7817,7 @@
         <v>9.1999999999999904</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -7523,22 +7833,22 @@
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G5" s="11">
         <v>7017543.8596491199</v>
@@ -7550,7 +7860,7 @@
         <v>7.85</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
@@ -7566,22 +7876,22 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G6" s="1">
         <v>145833.33333333299</v>
@@ -7593,7 +7903,7 @@
         <v>9.1999999999999904</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -7609,22 +7919,22 @@
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G7" s="11">
         <v>7017543.8596491199</v>
@@ -7636,7 +7946,7 @@
         <v>7.85</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
@@ -7652,22 +7962,22 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G8" s="1">
         <v>145833.33333333299</v>
@@ -7679,7 +7989,7 @@
         <v>9.1999999999999904</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -7695,22 +8005,22 @@
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G9" s="11">
         <v>7017543.8596491199</v>
@@ -7722,7 +8032,7 @@
         <v>7.85</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
@@ -7738,22 +8048,22 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G10" s="1">
         <v>0.02</v>
@@ -7765,7 +8075,7 @@
         <v>5.84398169184223</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -7781,22 +8091,22 @@
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G11" s="11">
         <v>0.66500000000000004</v>
@@ -7808,7 +8118,7 @@
         <v>7.85</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
@@ -7824,22 +8134,22 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G12" s="1">
         <v>-20</v>
@@ -7851,7 +8161,7 @@
         <v>0.86956500000000003</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -7867,22 +8177,22 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G13" s="11">
         <v>4</v>
@@ -7894,7 +8204,7 @@
         <v>3.2521740000000001</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
@@ -7910,22 +8220,22 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G14" s="1">
         <v>22</v>
@@ -7937,7 +8247,7 @@
         <v>7.8</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -7953,22 +8263,22 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G15" s="11">
         <v>27</v>
@@ -7980,7 +8290,7 @@
         <v>9.1</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
@@ -7996,22 +8306,22 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G16" s="11">
         <v>22</v>
@@ -8023,7 +8333,7 @@
         <v>7.74</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
@@ -8039,22 +8349,22 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G17" s="11">
         <v>22.5</v>
@@ -8066,7 +8376,7 @@
         <v>7.9</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
@@ -8082,22 +8392,22 @@
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G18" s="11">
         <v>27</v>
@@ -8109,7 +8419,7 @@
         <v>9.1999999999999904</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
@@ -8125,22 +8435,22 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G19" s="1">
         <v>40</v>
@@ -8152,7 +8462,7 @@
         <v>7.85</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -8168,22 +8478,22 @@
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G20" s="11">
         <v>50</v>
@@ -8195,7 +8505,7 @@
         <v>8.1875</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
@@ -8211,22 +8521,22 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G21" s="1">
         <v>80</v>
@@ -8238,7 +8548,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -8254,22 +8564,22 @@
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G22" s="11">
         <v>40</v>
@@ -8281,7 +8591,7 @@
         <v>7.85</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
@@ -8297,22 +8607,22 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G23" s="1">
         <v>50</v>
@@ -8324,7 +8634,7 @@
         <v>8.1875</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -8340,22 +8650,22 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G24" s="11">
         <v>80</v>
@@ -8367,7 +8677,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
@@ -8384,25 +8694,25 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L24">
-    <cfRule type="expression" dxfId="36" priority="142">
+    <cfRule type="expression" dxfId="37" priority="142">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A19 A21 A23">
-    <cfRule type="expression" dxfId="35" priority="140">
+    <cfRule type="expression" dxfId="36" priority="140">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="141">
+    <cfRule type="expression" dxfId="35" priority="141">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11 A20:L20 A22:L22 A24:L24 B2:L2 B4:L4 B6:L6 B8:L8 B19:L19 B21:L21 B23:L23 A16:L18 A13:A15 B10:L15">
-    <cfRule type="expression" dxfId="33" priority="143">
+    <cfRule type="expression" dxfId="34" priority="143">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F24" xr:uid="{12266C52-ED40-4D46-BF1B-CA60B84F4742}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F30" xr:uid="{12266C52-ED40-4D46-BF1B-CA60B84F4742}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -8434,7 +8744,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>25</v>
@@ -8443,7 +8753,7 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>27</v>
@@ -8452,51 +8762,51 @@
         <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -8523,20 +8833,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L2">
-    <cfRule type="expression" dxfId="31" priority="17">
+    <cfRule type="expression" dxfId="33" priority="17">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="30" priority="15">
+    <cfRule type="expression" dxfId="32" priority="15">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="16">
+    <cfRule type="expression" dxfId="31" priority="16">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2">
-    <cfRule type="expression" dxfId="28" priority="18">
+    <cfRule type="expression" dxfId="30" priority="18">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8574,7 +8884,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>25</v>
@@ -8583,7 +8893,7 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>27</v>
@@ -8592,51 +8902,51 @@
         <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G2" s="11">
         <v>225</v>
@@ -8648,7 +8958,7 @@
         <v>6.83</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
@@ -8664,22 +8974,22 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G3" s="1">
         <v>365</v>
@@ -8691,7 +9001,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -8707,22 +9017,22 @@
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G4" s="11">
         <v>500</v>
@@ -8734,7 +9044,7 @@
         <v>8.42</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
@@ -8750,22 +9060,22 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G5" s="1">
         <v>225</v>
@@ -8777,7 +9087,7 @@
         <v>6.72</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -8793,22 +9103,22 @@
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G6" s="11">
         <v>250</v>
@@ -8820,7 +9130,7 @@
         <v>7.8</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
@@ -8836,22 +9146,22 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G7" s="1">
         <v>365</v>
@@ -8863,7 +9173,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -8879,22 +9189,22 @@
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G8" s="11">
         <v>500</v>
@@ -8906,7 +9216,7 @@
         <v>8.2200000000000006</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
@@ -8922,22 +9232,22 @@
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G9" s="1">
         <v>250</v>
@@ -8949,7 +9259,7 @@
         <v>7.8</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -8965,22 +9275,22 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G10" s="11">
         <v>290</v>
@@ -8992,7 +9302,7 @@
         <v>5.4915824915824798</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
@@ -9008,22 +9318,22 @@
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G11" s="11">
         <v>225</v>
@@ -9035,7 +9345,7 @@
         <v>6.83</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
@@ -9051,22 +9361,22 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G12" s="1">
         <v>365</v>
@@ -9078,7 +9388,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -9094,22 +9404,22 @@
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G13" s="11">
         <v>500</v>
@@ -9121,7 +9431,7 @@
         <v>8.42</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
@@ -9137,22 +9447,22 @@
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G14" s="1">
         <v>1.594306</v>
@@ -9184,22 +9494,22 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G15" s="1">
         <v>-1.1979029999999999</v>
@@ -9225,22 +9535,22 @@
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G16" s="11">
         <v>-0.46898400000000001</v>
@@ -9266,22 +9576,22 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -9307,22 +9617,22 @@
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G18" s="11">
         <v>-1.1979029999999999</v>
@@ -9348,22 +9658,22 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G19" s="1">
         <v>-0.46898400000000001</v>
@@ -9390,20 +9700,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="29" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3 A5 A7 A12 A14:A15 A17 A19 A9:A10">
-    <cfRule type="expression" dxfId="26" priority="1">
+    <cfRule type="expression" dxfId="28" priority="1">
       <formula>ISBLANK($F3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:L2 A4:L4 A6:L6 A8:L8 A11:L11 A13:L13 A16:L16 A18:L18 B3:L3 B5:L5 B7:L7 B12:L12 B14:L15 B17:L17 B19:L19 B9:L10">
-    <cfRule type="expression" dxfId="24" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9440,7 +9750,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>25</v>
@@ -9449,7 +9759,7 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>27</v>
@@ -9458,51 +9768,51 @@
         <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G2" s="1">
         <v>0.219165</v>
@@ -9527,25 +9837,25 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L2">
-    <cfRule type="expression" dxfId="23" priority="3">
+    <cfRule type="expression" dxfId="25" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{F44E5A70-3D44-4035-97E0-219D99B6FECA}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F8" xr:uid="{F44E5A70-3D44-4035-97E0-219D99B6FECA}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -9578,7 +9888,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>25</v>
@@ -9587,7 +9897,7 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>27</v>
@@ -9596,51 +9906,51 @@
         <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G2" s="1">
         <v>127388.535031847</v>
@@ -9652,7 +9962,7 @@
         <v>3.56</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -9668,22 +9978,22 @@
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G3" s="11">
         <v>1273885.35031847</v>
@@ -9695,7 +10005,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
@@ -9711,22 +10021,22 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G4" s="1">
         <v>127388.535031847</v>
@@ -9738,7 +10048,7 @@
         <v>3.3</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -9754,22 +10064,22 @@
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G5" s="11">
         <v>5000000</v>
@@ -9781,7 +10091,7 @@
         <v>6</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
@@ -9797,22 +10107,22 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G6" s="1">
         <v>7017543.8596491199</v>
@@ -9824,7 +10134,7 @@
         <v>8.08</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -9840,22 +10150,22 @@
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G7" s="11">
         <v>127388.535031847</v>
@@ -9867,7 +10177,7 @@
         <v>3.3</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
@@ -9883,22 +10193,22 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G8" s="1">
         <v>5000000</v>
@@ -9910,7 +10220,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -9926,22 +10236,22 @@
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G9" s="11">
         <v>7017543.8596491199</v>
@@ -9953,7 +10263,7 @@
         <v>8.08</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
@@ -9969,22 +10279,22 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G10" s="1">
         <v>127388.535031847</v>
@@ -9996,7 +10306,7 @@
         <v>3.56</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -10012,22 +10322,22 @@
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G11" s="11">
         <v>1273885.35031847</v>
@@ -10039,7 +10349,7 @@
         <v>6</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
@@ -10055,22 +10365,22 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G12" s="1">
         <v>5.5999999999999995E-4</v>
@@ -10082,7 +10392,7 @@
         <v>3.3</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -10098,22 +10408,22 @@
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G13" s="11">
         <v>1E-3</v>
@@ -10125,7 +10435,7 @@
         <v>6.04</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
@@ -10141,22 +10451,22 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G14" s="1">
         <v>6.3499999999999997E-3</v>
@@ -10168,7 +10478,7 @@
         <v>7.38</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -10184,22 +10494,22 @@
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G15" s="11">
         <v>0.01</v>
@@ -10211,7 +10521,7 @@
         <v>7.5780620155038756</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
@@ -10227,22 +10537,22 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G16" s="1">
         <v>1.925E-2</v>
@@ -10254,7 +10564,7 @@
         <v>8.08</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -10270,22 +10580,22 @@
     </row>
     <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G17" s="11">
         <v>20</v>
@@ -10297,7 +10607,7 @@
         <v>8.1</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
@@ -10313,22 +10623,22 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G18" s="1">
         <v>22</v>
@@ -10340,7 +10650,7 @@
         <v>7.72</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -10356,22 +10666,22 @@
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G19" s="11">
         <v>25</v>
@@ -10383,7 +10693,7 @@
         <v>4.9734939759036001</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
@@ -10399,22 +10709,22 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G20" s="1">
         <v>20</v>
@@ -10426,7 +10736,7 @@
         <v>8.1</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -10442,22 +10752,22 @@
     </row>
     <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G21" s="11">
         <v>22</v>
@@ -10469,7 +10779,7 @@
         <v>7.72</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
@@ -10485,22 +10795,22 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G22" s="1">
         <v>25</v>
@@ -10512,7 +10822,7 @@
         <v>4.9734939759036001</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -10528,22 +10838,22 @@
     </row>
     <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>148</v>
-      </c>
       <c r="E23" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G23" s="11">
         <v>5</v>
@@ -10555,7 +10865,7 @@
         <v>6</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
@@ -10571,22 +10881,22 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G24" s="1">
         <v>10</v>
@@ -10598,7 +10908,7 @@
         <v>6</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -10614,22 +10924,22 @@
     </row>
     <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>148</v>
-      </c>
       <c r="E25" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G25" s="11">
         <v>20</v>
@@ -10641,7 +10951,7 @@
         <v>6</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
@@ -10657,22 +10967,22 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G26" s="1">
         <v>5</v>
@@ -10684,7 +10994,7 @@
         <v>6</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -10700,22 +11010,22 @@
     </row>
     <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G27" s="11">
         <v>10</v>
@@ -10727,7 +11037,7 @@
         <v>6</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
@@ -10743,22 +11053,22 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G28" s="1">
         <v>20</v>
@@ -10770,7 +11080,7 @@
         <v>6</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -10786,22 +11096,22 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G29" s="11">
         <v>1.305598</v>
@@ -10834,25 +11144,25 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L29">
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18 A20 A22 A24 A26 A28">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 A21:L21 A23:L23 A25:L25 A27:L27 A29:L29 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18 B20:L20 B22:L22 B24:L24 B26:L26 B28:L28">
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F29" xr:uid="{B57D3CCC-96F5-4152-862C-EBFA923EA8D8}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F30" xr:uid="{B57D3CCC-96F5-4152-862C-EBFA923EA8D8}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -10887,7 +11197,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>25</v>
@@ -10896,7 +11206,7 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>27</v>
@@ -10905,51 +11215,51 @@
         <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G2" s="1">
         <v>-5</v>
@@ -10961,7 +11271,7 @@
         <v>8.2346041055718402</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -10977,22 +11287,22 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G3" s="11">
         <v>10</v>
@@ -11004,7 +11314,7 @@
         <v>8.2873900293255005</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
@@ -11020,22 +11330,22 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G4" s="11">
         <v>20</v>
@@ -11047,7 +11357,7 @@
         <v>8.6</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
@@ -11063,22 +11373,22 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G5" s="11">
         <v>22</v>
@@ -11090,7 +11400,7 @@
         <v>8.6999999999999904</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
@@ -11106,22 +11416,22 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G6" s="11">
         <v>25</v>
@@ -11133,7 +11443,7 @@
         <v>8.6999999999999904</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
@@ -11149,22 +11459,22 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G7" s="11">
         <v>85</v>
@@ -11176,7 +11486,7 @@
         <v>8.6999999999999904</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
@@ -11193,25 +11503,25 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L7">
-    <cfRule type="expression" dxfId="15" priority="71">
+    <cfRule type="expression" dxfId="17" priority="71">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="14" priority="69">
+    <cfRule type="expression" dxfId="16" priority="69">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="70">
+    <cfRule type="expression" dxfId="15" priority="70">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2 J3:J7 B3:F7">
-    <cfRule type="expression" dxfId="12" priority="68">
+    <cfRule type="expression" dxfId="14" priority="68">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F7" xr:uid="{711190E4-64D0-4D52-A906-313E5BA47A16}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F8" xr:uid="{711190E4-64D0-4D52-A906-313E5BA47A16}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -11245,7 +11555,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>25</v>
@@ -11254,7 +11564,7 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>27</v>
@@ -11263,51 +11573,51 @@
         <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G2" s="1">
         <v>0.73397100000000004</v>
@@ -11339,22 +11649,22 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G3" s="11">
         <v>0</v>
@@ -11381,25 +11691,25 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L3">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 B2:L2">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{C5E37539-661D-4EEA-9E7E-F70E0C490797}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F8" xr:uid="{C5E37539-661D-4EEA-9E7E-F70E0C490797}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -11433,7 +11743,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>25</v>
@@ -11442,7 +11752,7 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>27</v>
@@ -11451,51 +11761,51 @@
         <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G2" s="1">
         <v>3</v>
@@ -11507,7 +11817,7 @@
         <v>7.47</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -11523,22 +11833,22 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G3" s="14">
         <v>4</v>
@@ -11550,7 +11860,7 @@
         <v>7.5</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
@@ -11566,22 +11876,22 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G4" s="14">
         <v>10</v>
@@ -11593,7 +11903,7 @@
         <v>7.5</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
@@ -11610,25 +11920,25 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L4">
-    <cfRule type="expression" dxfId="7" priority="84">
+    <cfRule type="expression" dxfId="9" priority="84">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A4">
-    <cfRule type="expression" dxfId="6" priority="82">
+    <cfRule type="expression" dxfId="8" priority="82">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="83">
+    <cfRule type="expression" dxfId="7" priority="83">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L4">
-    <cfRule type="expression" dxfId="4" priority="85">
+    <cfRule type="expression" dxfId="6" priority="85">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{21E0A726-DB98-46A7-89F3-446B5FD75DB3}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F8" xr:uid="{21E0A726-DB98-46A7-89F3-446B5FD75DB3}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -11644,7 +11954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A144A034-D186-4ABB-9FCB-F1B84E607A97}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -11661,7 +11971,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>25</v>
@@ -11670,7 +11980,7 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>27</v>
@@ -11679,51 +11989,51 @@
         <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G2" s="1">
         <v>0.47248698789794502</v>
@@ -11735,7 +12045,7 @@
         <v>0.465034965034966</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -11751,22 +12061,22 @@
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G3" s="11">
         <v>3.8060541057116102</v>
@@ -11778,7 +12088,7 @@
         <v>1.87062937062937</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
@@ -11794,22 +12104,22 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G4" s="1">
         <v>6.43057000077546</v>
@@ -11821,7 +12131,7 @@
         <v>2.6258741258741201</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -11837,22 +12147,22 @@
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G5" s="11">
         <v>6.4630717456059799</v>
@@ -11864,7 +12174,7 @@
         <v>2.6267966126214652</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
@@ -11880,22 +12190,22 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G6" s="1">
         <v>8.9892983728599898</v>
@@ -11907,7 +12217,7 @@
         <v>2.6984977042577531</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -11923,22 +12233,22 @@
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G7" s="11">
         <v>11.9741844913077</v>
@@ -11950,7 +12260,7 @@
         <v>2.78321678321677</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
@@ -11966,22 +12276,22 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G8" s="1">
         <v>15</v>
@@ -11993,7 +12303,7 @@
         <v>2.78321678321677</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -12009,22 +12319,22 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G9" s="11">
         <v>1.0621419999999999</v>
@@ -12049,20 +12359,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L9">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 B2:L2 B4:L4 B6:L6 B8:L8">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12102,22 +12412,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -12128,7 +12438,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -12144,10 +12454,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
@@ -12156,41 +12466,41 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B4" s="11">
         <v>4</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B5" s="11">
         <v>3</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
@@ -12198,16 +12508,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B6" s="11">
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
@@ -12216,38 +12526,38 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B7" s="11">
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B8" s="11">
         <v>2</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
@@ -12256,16 +12566,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B9" s="11">
         <v>2</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -12274,50 +12584,50 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B10" s="11">
         <v>4</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B11" s="11">
         <v>6</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -12475,10 +12785,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12486,12 +12796,14 @@
     <col min="1" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
     <col min="4" max="4" width="45.6640625" customWidth="1"/>
-    <col min="5" max="15" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>25</v>
@@ -12500,7 +12812,7 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>27</v>
@@ -12509,36 +12821,36 @@
         <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>29</v>
@@ -12547,7 +12859,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>31</v>
@@ -12573,55 +12885,216 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>100</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>100</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>100</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>100</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="D7" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G7" s="14">
         <v>8</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="14">
-        <v>0</v>
-      </c>
-      <c r="N3" s="14">
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="14">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14">
         <v>100</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O7" s="14">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:L3">
-    <cfRule type="expression" dxfId="70" priority="133">
+  <conditionalFormatting sqref="A2:L2 A7:L7 A3:B6 F3:L6">
+    <cfRule type="expression" dxfId="74" priority="136">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="134">
+    <cfRule type="expression" dxfId="73" priority="137">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D6">
+    <cfRule type="expression" dxfId="72" priority="1">
+      <formula>ISBLANK($F3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="2">
+      <formula>NOT((COLUMN(D3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C6 E3:E6">
+    <cfRule type="expression" dxfId="70" priority="3">
+      <formula>ISBLANK($F3)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F10" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F14" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -12636,10 +13109,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="C3" sqref="C3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12653,7 +13126,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>25</v>
@@ -12662,7 +13135,7 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>27</v>
@@ -12671,36 +13144,36 @@
         <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>29</v>
@@ -12709,7 +13182,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>36</v>
@@ -12739,7 +13212,7 @@
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>29</v>
@@ -12748,7 +13221,7 @@
         <v>37</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>31</v>
@@ -12778,7 +13251,7 @@
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>29</v>
@@ -12787,7 +13260,7 @@
         <v>38</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>31</v>
@@ -12817,7 +13290,7 @@
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>29</v>
@@ -12826,7 +13299,7 @@
         <v>39</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>31</v>
@@ -12856,16 +13329,16 @@
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>31</v>
@@ -12893,7 +13366,7 @@
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>29</v>
@@ -12902,7 +13375,7 @@
         <v>40</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>41</v>
@@ -12930,7 +13403,7 @@
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>42</v>
@@ -12939,7 +13412,7 @@
         <v>43</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>44</v>
@@ -12969,19 +13442,19 @@
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>3</v>
@@ -13006,19 +13479,19 @@
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>3</v>
@@ -13043,7 +13516,7 @@
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>45</v>
@@ -13052,7 +13525,7 @@
         <v>46</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>47</v>
@@ -13080,7 +13553,7 @@
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>45</v>
@@ -13089,7 +13562,7 @@
         <v>48</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>49</v>
@@ -13117,7 +13590,7 @@
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>29</v>
@@ -13126,7 +13599,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>31</v>
@@ -13156,7 +13629,7 @@
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>29</v>
@@ -13165,13 +13638,13 @@
         <v>50</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G14" s="11">
         <v>0</v>
@@ -13199,7 +13672,7 @@
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>32</v>
@@ -13208,7 +13681,7 @@
         <v>52</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>53</v>
@@ -13236,7 +13709,7 @@
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>32</v>
@@ -13245,7 +13718,7 @@
         <v>54</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>55</v>
@@ -13275,7 +13748,7 @@
     </row>
     <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>32</v>
@@ -13284,7 +13757,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>57</v>
@@ -13314,19 +13787,19 @@
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>4</v>
@@ -13353,7 +13826,7 @@
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>32</v>
@@ -13362,7 +13835,7 @@
         <v>33</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>34</v>
@@ -13390,19 +13863,19 @@
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>3</v>
@@ -13427,19 +13900,19 @@
     </row>
     <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>3</v>
@@ -13464,19 +13937,19 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>3</v>
@@ -13499,28 +13972,212 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G2:L22">
-    <cfRule type="expression" dxfId="68" priority="55">
+  <conditionalFormatting sqref="G2:L30">
+    <cfRule type="expression" dxfId="69" priority="55">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19 D13 A2:A22 D3:D6">
-    <cfRule type="expression" dxfId="67" priority="39">
+  <conditionalFormatting sqref="D19 D13 A2:A30 D3:D6">
+    <cfRule type="expression" dxfId="68" priority="39">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="40">
+    <cfRule type="expression" dxfId="67" priority="40">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2 B20:L20 B19:C19 E19:L19 B7:L12 B14:L18 B13:C13 E13:L13 B3:C6 E3:L6">
-    <cfRule type="expression" dxfId="65" priority="138">
+    <cfRule type="expression" dxfId="66" priority="138">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F22" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F30" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -13534,10 +14191,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13551,7 +14208,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>25</v>
@@ -13560,7 +14217,7 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>27</v>
@@ -13569,36 +14226,36 @@
         <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>29</v>
@@ -13607,7 +14264,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>36</v>
@@ -13637,7 +14294,7 @@
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>29</v>
@@ -13646,7 +14303,7 @@
         <v>58</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>31</v>
@@ -13676,7 +14333,7 @@
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>29</v>
@@ -13685,7 +14342,7 @@
         <v>59</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>31</v>
@@ -13715,7 +14372,7 @@
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>29</v>
@@ -13724,7 +14381,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>31</v>
@@ -13754,16 +14411,16 @@
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>31</v>
@@ -13791,19 +14448,19 @@
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>3</v>
@@ -13828,7 +14485,7 @@
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>42</v>
@@ -13837,7 +14494,7 @@
         <v>40</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>41</v>
@@ -13867,7 +14524,7 @@
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>29</v>
@@ -13876,7 +14533,7 @@
         <v>61</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>31</v>
@@ -13904,7 +14561,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>29</v>
@@ -13913,13 +14570,13 @@
         <v>50</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G10" s="11">
         <v>0</v>
@@ -13947,7 +14604,7 @@
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>42</v>
@@ -13956,7 +14613,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>44</v>
@@ -13984,7 +14641,7 @@
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>32</v>
@@ -13993,7 +14650,7 @@
         <v>33</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>34</v>
@@ -14021,19 +14678,19 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>4</v>
@@ -14058,43 +14715,135 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G2:L13">
-    <cfRule type="expression" dxfId="64" priority="50">
+  <conditionalFormatting sqref="G2:L17">
+    <cfRule type="expression" dxfId="65" priority="50">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12 D9 D3:D6 A2:A13">
-    <cfRule type="expression" dxfId="63" priority="31">
+  <conditionalFormatting sqref="D12 D9 D3:D6 A2:A17">
+    <cfRule type="expression" dxfId="64" priority="31">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="32">
+    <cfRule type="expression" dxfId="63" priority="32">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:L13 B7:L7 B8:C12 E8:L12 B2:C6 E2:L6">
-    <cfRule type="expression" dxfId="61" priority="141">
+    <cfRule type="expression" dxfId="62" priority="141">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="60" priority="4">
+    <cfRule type="expression" dxfId="61" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="59" priority="3">
+    <cfRule type="expression" dxfId="60" priority="3">
       <formula>ISBLANK($F8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="58" priority="2">
+    <cfRule type="expression" dxfId="59" priority="2">
       <formula>ISBLANK($F11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="57" priority="1">
+    <cfRule type="expression" dxfId="58" priority="1">
       <formula>ISBLANK($F10)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14129,7 +14878,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>25</v>
@@ -14138,7 +14887,7 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>27</v>
@@ -14147,36 +14896,36 @@
         <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
@@ -14185,7 +14934,7 @@
         <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>34</v>
@@ -14215,7 +14964,7 @@
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>29</v>
@@ -14224,7 +14973,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>31</v>
@@ -14252,7 +15001,7 @@
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>29</v>
@@ -14261,7 +15010,7 @@
         <v>38</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>31</v>
@@ -14291,7 +15040,7 @@
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>29</v>
@@ -14300,7 +15049,7 @@
         <v>37</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>31</v>
@@ -14330,7 +15079,7 @@
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>29</v>
@@ -14339,7 +15088,7 @@
         <v>39</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>31</v>
@@ -14367,16 +15116,16 @@
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>31</v>
@@ -14404,7 +15153,7 @@
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>42</v>
@@ -14413,7 +15162,7 @@
         <v>43</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>44</v>
@@ -14441,7 +15190,7 @@
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>29</v>
@@ -14450,7 +15199,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>63</v>
@@ -14480,7 +15229,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>29</v>
@@ -14489,7 +15238,7 @@
         <v>40</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>41</v>
@@ -14517,7 +15266,7 @@
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>29</v>
@@ -14526,7 +15275,7 @@
         <v>50</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>51</v>
@@ -14556,7 +15305,7 @@
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>32</v>
@@ -14565,10 +15314,10 @@
         <v>64</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>4</v>
@@ -14595,7 +15344,7 @@
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>32</v>
@@ -14604,10 +15353,10 @@
         <v>65</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>4</v>
@@ -14634,7 +15383,7 @@
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>66</v>
@@ -14643,10 +15392,10 @@
         <v>67</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>3</v>
@@ -14671,7 +15420,7 @@
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>32</v>
@@ -14680,10 +15429,10 @@
         <v>68</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>4</v>
@@ -14710,19 +15459,19 @@
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>4</v>
@@ -14749,7 +15498,7 @@
     </row>
     <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>45</v>
@@ -14758,10 +15507,10 @@
         <v>69</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>3</v>
@@ -14786,7 +15535,7 @@
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>45</v>
@@ -14795,10 +15544,10 @@
         <v>70</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>4</v>
@@ -14825,7 +15574,7 @@
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>32</v>
@@ -14834,7 +15583,7 @@
         <v>33</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>34</v>
@@ -14864,7 +15613,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>66</v>
@@ -14873,10 +15622,10 @@
         <v>71</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>4</v>
@@ -14904,40 +15653,40 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L20">
-    <cfRule type="expression" dxfId="56" priority="63">
+    <cfRule type="expression" dxfId="57" priority="63">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19 A2:A20 D3:D7">
-    <cfRule type="expression" dxfId="55" priority="41">
+    <cfRule type="expression" dxfId="56" priority="41">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="42">
+    <cfRule type="expression" dxfId="55" priority="42">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2 B20:L20 B19:C19 E19:L19 B12:L18 B3:C11 E3:L11">
-    <cfRule type="expression" dxfId="53" priority="138">
+    <cfRule type="expression" dxfId="54" priority="138">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="52" priority="4">
+    <cfRule type="expression" dxfId="53" priority="4">
       <formula>ISBLANK($F9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="51" priority="3">
+    <cfRule type="expression" dxfId="52" priority="3">
       <formula>ISBLANK($F10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="50" priority="2">
+    <cfRule type="expression" dxfId="51" priority="2">
       <formula>ISBLANK($F8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="49" priority="1">
+    <cfRule type="expression" dxfId="50" priority="1">
       <formula>ISBLANK($F11)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14955,23 +15704,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.6640625" customWidth="1"/>
     <col min="5" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>25</v>
@@ -14980,7 +15729,7 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>27</v>
@@ -14989,36 +15738,36 @@
         <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
@@ -15027,7 +15776,7 @@
         <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>73</v>
@@ -15053,23 +15802,175 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G2:L2">
-    <cfRule type="expression" dxfId="48" priority="26">
+  <conditionalFormatting sqref="G2:L8">
+    <cfRule type="expression" dxfId="49" priority="26">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="47" priority="1">
+  <conditionalFormatting sqref="A2:A8">
+    <cfRule type="expression" dxfId="48" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="47" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:L2">
-    <cfRule type="expression" dxfId="45" priority="129">
+  <conditionalFormatting sqref="B2:L8">
+    <cfRule type="expression" dxfId="46" priority="129">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15090,8 +15991,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15104,7 +16005,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>25</v>
@@ -15113,7 +16014,7 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>27</v>
@@ -15122,36 +16023,36 @@
         <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>45</v>
@@ -15160,10 +16061,10 @@
         <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -15190,16 +16091,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>76</v>
@@ -15208,20 +16109,20 @@
         <v>4</v>
       </c>
       <c r="G3" s="11">
-        <v>58</v>
+        <v>288</v>
       </c>
       <c r="H3" s="11">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="11">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N3" s="11">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="O3" s="11">
         <v>0.1</v>
@@ -15229,38 +16130,36 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="11">
-        <v>288</v>
-      </c>
-      <c r="H4" s="11">
-        <v>370</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="11">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N4" s="11">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="O4" s="11">
         <v>0.1</v>
@@ -15268,25 +16167,25 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="11">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -15305,36 +16204,38 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" s="11">
-        <v>15</v>
-      </c>
-      <c r="H6" s="11"/>
+        <v>147</v>
+      </c>
+      <c r="H6" s="11">
+        <v>155</v>
+      </c>
       <c r="I6" s="11"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="11">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="N6" s="11">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="O6" s="11">
         <v>0.1</v>
@@ -15342,36 +16243,38 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" s="11">
-        <v>8</v>
-      </c>
-      <c r="H7" s="11"/>
+        <v>172</v>
+      </c>
+      <c r="H7" s="11">
+        <v>341</v>
+      </c>
       <c r="I7" s="11"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="11">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="N7" s="11">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="O7" s="11">
         <v>0.1</v>
@@ -15379,38 +16282,38 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>218</v>
+        <v>274</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="11">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="H8" s="11">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="11">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N8" s="11">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="O8" s="11">
         <v>0.1</v>
@@ -15418,38 +16321,38 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>83</v>
+        <v>275</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="11">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="H9" s="11">
-        <v>341</v>
+        <v>118</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="11">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N9" s="11">
-        <v>500</v>
+        <v>125</v>
       </c>
       <c r="O9" s="11">
         <v>0.1</v>
@@ -15457,38 +16360,38 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>84</v>
+        <v>276</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="11">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="H10" s="11">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="11">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N10" s="11">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="O10" s="11">
         <v>0.1</v>
@@ -15496,38 +16399,38 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="11">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="H11" s="11">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="11">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="N11" s="11">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="O11" s="11">
         <v>0.1</v>
@@ -15535,38 +16438,36 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" s="11">
-        <v>124</v>
-      </c>
-      <c r="H12" s="11">
-        <v>142</v>
-      </c>
+        <v>235.42</v>
+      </c>
+      <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="11">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N12" s="11">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="O12" s="11">
         <v>0.1</v>
@@ -15574,38 +16475,36 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" s="11">
-        <v>170</v>
-      </c>
-      <c r="H13" s="11">
-        <v>210</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="11">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="N13" s="11">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="O13" s="11">
         <v>0.1</v>
@@ -15613,36 +16512,38 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" s="11">
-        <v>235.42</v>
-      </c>
-      <c r="H14" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="H14" s="11">
+        <v>20</v>
+      </c>
       <c r="I14" s="11"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="11">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N14" s="11">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="O14" s="11">
         <v>0.1</v>
@@ -15650,36 +16551,38 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>89</v>
+        <v>239</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="11">
-        <v>238</v>
-      </c>
-      <c r="H15" s="11"/>
+        <v>1.53612754751869</v>
+      </c>
+      <c r="H15" s="11">
+        <v>42.756082782140695</v>
+      </c>
       <c r="I15" s="11"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N15" s="11">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="O15" s="11">
         <v>0.1</v>
@@ -15687,103 +16590,99 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16" s="11">
-        <v>19</v>
-      </c>
-      <c r="H16" s="11">
-        <v>20</v>
-      </c>
+        <v>3322</v>
+      </c>
+      <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="11">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="N16" s="11">
-        <v>30</v>
+        <v>5000</v>
       </c>
       <c r="O16" s="11">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>249</v>
+        <v>86</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17" s="11">
-        <v>1.53612754751869</v>
-      </c>
-      <c r="H17" s="11">
-        <v>42.756082782140695</v>
-      </c>
+        <v>3023.8</v>
+      </c>
+      <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N17" s="11">
-        <v>10</v>
+        <v>4000</v>
       </c>
       <c r="O17" s="11">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="11">
-        <v>3322</v>
+        <v>1897.68</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -15791,10 +16690,10 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="11">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N18" s="11">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O18" s="11">
         <v>1</v>
@@ -15802,25 +16701,25 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="11">
-        <v>3023.8</v>
+        <v>260.08999999999997</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -15828,10 +16727,10 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="11">
+        <v>150</v>
+      </c>
+      <c r="N19" s="11">
         <v>1000</v>
-      </c>
-      <c r="N19" s="11">
-        <v>4000</v>
       </c>
       <c r="O19" s="11">
         <v>1</v>
@@ -15839,25 +16738,25 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="11">
-        <v>1897.68</v>
+        <v>1007.082</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -15868,7 +16767,7 @@
         <v>500</v>
       </c>
       <c r="N20" s="11">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="O20" s="11">
         <v>1</v>
@@ -15876,176 +16775,148 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="11" t="s">
+      <c r="D21" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="14">
+        <v>231</v>
+      </c>
+      <c r="H21" s="14">
+        <v>640</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="14">
+        <v>200</v>
+      </c>
+      <c r="N21" s="14">
+        <v>800</v>
+      </c>
+      <c r="O21" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="11">
-        <v>260.08999999999997</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="11">
-        <v>150</v>
-      </c>
-      <c r="N21" s="11">
-        <v>1000</v>
-      </c>
-      <c r="O21" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="11">
-        <v>1007.082</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="11">
+      <c r="G22" s="14">
+        <v>225</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="14">
+        <v>0</v>
+      </c>
+      <c r="N22" s="14">
         <v>500</v>
       </c>
-      <c r="N22" s="11">
-        <v>1500</v>
-      </c>
-      <c r="O22" s="11">
-        <v>1</v>
+      <c r="O22" s="14">
+        <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>158</v>
+      <c r="A23" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="14">
-        <v>231</v>
-      </c>
-      <c r="H23" s="14">
-        <v>640</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
-      <c r="M23" s="14">
-        <v>200</v>
-      </c>
-      <c r="N23" s="14">
-        <v>800</v>
-      </c>
-      <c r="O23" s="14">
-        <v>1</v>
-      </c>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="14">
-        <v>225</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
-      <c r="M24" s="14">
-        <v>0</v>
-      </c>
-      <c r="N24" s="14">
-        <v>500</v>
-      </c>
-      <c r="O24" s="14">
-        <v>0.1</v>
-      </c>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L24">
-    <cfRule type="expression" dxfId="44" priority="29">
+    <cfRule type="expression" dxfId="45" priority="29">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="43" priority="1">
+    <cfRule type="expression" dxfId="44" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="2">
+    <cfRule type="expression" dxfId="43" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:L2 A3:L23">
-    <cfRule type="expression" dxfId="41" priority="128">
+  <conditionalFormatting sqref="B2:L2 A3:L21">
+    <cfRule type="expression" dxfId="42" priority="128">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F24" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F28" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>

--- a/InputFiles/ModifyParameters.xlsx
+++ b/InputFiles/ModifyParameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERAZA\Documents\Tasking\(4) EPA Stuff\Task 5 Repo\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489A16C8-273E-4AAC-8D67-7346F1D65383}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BE74E5-F248-41B9-86A1-5816A764C93F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="657" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="657" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internal - File Info" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="305">
   <si>
     <t>SCWAD</t>
   </si>
@@ -895,6 +895,78 @@
   </si>
   <si>
     <t>Roundtrip Ticket Cost Per Person</t>
+  </si>
+  <si>
+    <t>unitless</t>
+  </si>
+  <si>
+    <t>meters</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>Time required to transmit analysis results from external labs to Incident Command</t>
+  </si>
+  <si>
+    <t>Distance of each external lab from the contamination site</t>
+  </si>
+  <si>
+    <t>Fraction of total HEPA samples that will be sent to each external lab for analysis</t>
+  </si>
+  <si>
+    <t>Fraction of total wipe samples that will be sent to each external lab for analysis</t>
+  </si>
+  <si>
+    <t>Level A PPE required for one team</t>
+  </si>
+  <si>
+    <t>Level B PPE required for one team</t>
+  </si>
+  <si>
+    <t>Level C PPE required for one team</t>
+  </si>
+  <si>
+    <t>Level D PPE required for one team</t>
+  </si>
+  <si>
+    <t>units / team</t>
+  </si>
+  <si>
+    <t>Total number of OSC personnel available</t>
+  </si>
+  <si>
+    <t>Total number of PL-1 personnel available</t>
+  </si>
+  <si>
+    <t>Total number of PL-2 personnel available</t>
+  </si>
+  <si>
+    <t>Total number of PL-3 personnel available</t>
+  </si>
+  <si>
+    <t>Total number of PL-4 personnel available</t>
+  </si>
+  <si>
+    <t>$ / ticket</t>
+  </si>
+  <si>
+    <t>Cost of removing material during Source Reduction based on surface area</t>
+  </si>
+  <si>
+    <t>Price per one roundtrip ticket to and from contamination site</t>
+  </si>
+  <si>
+    <t>Fraction of Surface Sampled</t>
+  </si>
+  <si>
+    <t>The fraction of the total surface area that will be sampled</t>
+  </si>
+  <si>
+    <t>Fraction Surface Area to be Source Reduced</t>
+  </si>
+  <si>
+    <t>Fraction of the total surface area to be source reduced</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1271,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="368">
+  <dxfs count="343">
     <dxf>
       <font>
         <i/>
@@ -1212,6 +1284,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1529,13 +1608,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1547,6 +1619,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1565,13 +1651,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1644,6 +1723,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1662,34 +1769,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1708,6 +1787,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1726,34 +1833,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1840,240 +1919,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6785,389 +6630,389 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table156" displayName="Table156" ref="A1:O7" totalsRowShown="0" tableBorderDxfId="367">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table156" displayName="Table156" ref="A1:O7" totalsRowShown="0" tableBorderDxfId="342">
   <autoFilter ref="A1:O7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phase" dataDxfId="366"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="365"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="364"/>
-    <tableColumn id="10" xr3:uid="{DA69379A-DE3F-42F4-AF70-91A1718AB7E0}" name="Description" dataDxfId="363"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Units" dataDxfId="362"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distribution Type" dataDxfId="361"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter 1" dataDxfId="360"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="359"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="358"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="357"/>
-    <tableColumn id="14" xr3:uid="{50465694-0FC6-4F52-BBDD-C2367DABB3F3}" name="Parameter 5" dataDxfId="356"/>
-    <tableColumn id="15" xr3:uid="{9D83EAB9-CB4C-4600-AF1C-4966CB714685}" name="Parameter 6" dataDxfId="355"/>
-    <tableColumn id="11" xr3:uid="{6D5D89BA-F5B6-48D7-8EB6-F84737897B28}" name="Lower Limit" dataDxfId="354"/>
-    <tableColumn id="12" xr3:uid="{48C3D1E7-422F-49D2-B091-B1AED1C3D586}" name="Upper Limit" dataDxfId="353"/>
-    <tableColumn id="13" xr3:uid="{C7F66B6D-AE49-4F19-BA50-224FF50E099F}" name="Step" dataDxfId="352"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phase" dataDxfId="341"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="340"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="339"/>
+    <tableColumn id="10" xr3:uid="{DA69379A-DE3F-42F4-AF70-91A1718AB7E0}" name="Description" dataDxfId="338"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Units" dataDxfId="337"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distribution Type" dataDxfId="336"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter 1" dataDxfId="335"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="334"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="333"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="332"/>
+    <tableColumn id="14" xr3:uid="{50465694-0FC6-4F52-BBDD-C2367DABB3F3}" name="Parameter 5" dataDxfId="331"/>
+    <tableColumn id="15" xr3:uid="{9D83EAB9-CB4C-4600-AF1C-4966CB714685}" name="Parameter 6" dataDxfId="330"/>
+    <tableColumn id="11" xr3:uid="{6D5D89BA-F5B6-48D7-8EB6-F84737897B28}" name="Lower Limit" dataDxfId="329"/>
+    <tableColumn id="12" xr3:uid="{48C3D1E7-422F-49D2-B091-B1AED1C3D586}" name="Upper Limit" dataDxfId="328"/>
+    <tableColumn id="13" xr3:uid="{C7F66B6D-AE49-4F19-BA50-224FF50E099F}" name="Step" dataDxfId="327"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{F9C17F91-E3F1-4ABE-9219-5A5F8F4C3152}" name="Table1564518" displayName="Table1564518" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="217" tableBorderDxfId="216">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{F9C17F91-E3F1-4ABE-9219-5A5F8F4C3152}" name="Table1564518" displayName="Table1564518" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="192" tableBorderDxfId="191">
   <autoFilter ref="A1:O19" xr:uid="{CE70FAE3-DAD6-40A6-BCCE-F46A2CDA0980}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{77AC217A-782C-47D2-9945-D4226DB02CB4}" name="Phase" dataDxfId="215"/>
-    <tableColumn id="22" xr3:uid="{A77A81F7-C018-4F6E-BF69-5FE486BECF62}" name="Category" dataDxfId="214"/>
-    <tableColumn id="12" xr3:uid="{CCA10716-C2B0-4055-953E-1957EC05B7DC}" name="Name" dataDxfId="213"/>
-    <tableColumn id="14" xr3:uid="{9131E52D-9D7C-41BF-ABF5-9AAF65D5BC39}" name="Description" dataDxfId="212"/>
-    <tableColumn id="18" xr3:uid="{819C7026-BBE6-4FEF-81FC-063CF9E923E1}" name="Units" dataDxfId="211"/>
-    <tableColumn id="4" xr3:uid="{BCC0BC54-494B-4CD2-9D93-4A14A321EFDE}" name="Distribution Type" dataDxfId="210"/>
-    <tableColumn id="5" xr3:uid="{890B6437-FEB3-4225-BE1D-8F4BB30A2A95}" name="Parameter 1" dataDxfId="209"/>
-    <tableColumn id="6" xr3:uid="{D95452BF-5FFC-4C2D-BE8B-1138CADE3867}" name="Parameter 2" dataDxfId="208"/>
-    <tableColumn id="7" xr3:uid="{AFAD290F-88ED-4F65-8343-1B7E0B2331C2}" name="Parameter 3" dataDxfId="207"/>
-    <tableColumn id="10" xr3:uid="{C7581E5C-58E6-4080-A3F0-3C90449EE32D}" name="Parameter 4" dataDxfId="206"/>
-    <tableColumn id="11" xr3:uid="{1D5C967F-8BEE-4049-9B30-056174F945AE}" name="Parameter 5" dataDxfId="205"/>
-    <tableColumn id="8" xr3:uid="{058E5821-3943-44C1-B08D-F22618A8CB01}" name="Parameter 6" dataDxfId="204"/>
-    <tableColumn id="15" xr3:uid="{C95BAD13-0F40-4073-97D7-EA904AFBC77C}" name="Lower Limit" dataDxfId="203"/>
-    <tableColumn id="16" xr3:uid="{582C9B39-6E23-469E-818C-CDD30AA83C2C}" name="Upper Limit" dataDxfId="202"/>
-    <tableColumn id="17" xr3:uid="{27D6A1B7-E56F-410E-929C-C8BD6000D2D9}" name="Step" dataDxfId="201"/>
+    <tableColumn id="9" xr3:uid="{77AC217A-782C-47D2-9945-D4226DB02CB4}" name="Phase" dataDxfId="190"/>
+    <tableColumn id="22" xr3:uid="{A77A81F7-C018-4F6E-BF69-5FE486BECF62}" name="Category" dataDxfId="189"/>
+    <tableColumn id="12" xr3:uid="{CCA10716-C2B0-4055-953E-1957EC05B7DC}" name="Name" dataDxfId="188"/>
+    <tableColumn id="14" xr3:uid="{9131E52D-9D7C-41BF-ABF5-9AAF65D5BC39}" name="Description" dataDxfId="187"/>
+    <tableColumn id="18" xr3:uid="{819C7026-BBE6-4FEF-81FC-063CF9E923E1}" name="Units" dataDxfId="186"/>
+    <tableColumn id="4" xr3:uid="{BCC0BC54-494B-4CD2-9D93-4A14A321EFDE}" name="Distribution Type" dataDxfId="185"/>
+    <tableColumn id="5" xr3:uid="{890B6437-FEB3-4225-BE1D-8F4BB30A2A95}" name="Parameter 1" dataDxfId="184"/>
+    <tableColumn id="6" xr3:uid="{D95452BF-5FFC-4C2D-BE8B-1138CADE3867}" name="Parameter 2" dataDxfId="183"/>
+    <tableColumn id="7" xr3:uid="{AFAD290F-88ED-4F65-8343-1B7E0B2331C2}" name="Parameter 3" dataDxfId="182"/>
+    <tableColumn id="10" xr3:uid="{C7581E5C-58E6-4080-A3F0-3C90449EE32D}" name="Parameter 4" dataDxfId="181"/>
+    <tableColumn id="11" xr3:uid="{1D5C967F-8BEE-4049-9B30-056174F945AE}" name="Parameter 5" dataDxfId="180"/>
+    <tableColumn id="8" xr3:uid="{058E5821-3943-44C1-B08D-F22618A8CB01}" name="Parameter 6" dataDxfId="179"/>
+    <tableColumn id="15" xr3:uid="{C95BAD13-0F40-4073-97D7-EA904AFBC77C}" name="Lower Limit" dataDxfId="178"/>
+    <tableColumn id="16" xr3:uid="{582C9B39-6E23-469E-818C-CDD30AA83C2C}" name="Upper Limit" dataDxfId="177"/>
+    <tableColumn id="17" xr3:uid="{27D6A1B7-E56F-410E-929C-C8BD6000D2D9}" name="Step" dataDxfId="176"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{432F1329-A516-4974-97D5-CED039B9825E}" name="Table15649" displayName="Table15649" ref="A1:O2" totalsRowShown="0" headerRowBorderDxfId="200" tableBorderDxfId="199">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{432F1329-A516-4974-97D5-CED039B9825E}" name="Table15649" displayName="Table15649" ref="A1:O2" totalsRowShown="0" headerRowBorderDxfId="175" tableBorderDxfId="174">
   <autoFilter ref="A1:O2" xr:uid="{68B29069-2622-4242-A0DD-EA343A9BF637}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{A65D510F-11AE-4758-A918-595CFAEACDBA}" name="Phase" dataDxfId="198"/>
-    <tableColumn id="20" xr3:uid="{1983ED84-E3C7-438C-9FBC-6F68009993BF}" name="Category" dataDxfId="197"/>
-    <tableColumn id="12" xr3:uid="{5F8CF16A-5A1F-471D-941E-E8FA15DC40D9}" name="Name" dataDxfId="196"/>
-    <tableColumn id="14" xr3:uid="{603CB562-B188-4D78-8AF7-0C257FE01A78}" name="Description" dataDxfId="195"/>
-    <tableColumn id="18" xr3:uid="{25C96984-595F-4E53-AEA3-48FE8964668C}" name="Units" dataDxfId="194"/>
-    <tableColumn id="4" xr3:uid="{3AC7C66C-7352-42C7-A88A-718F1163EBC3}" name="Distribution Type" dataDxfId="193"/>
-    <tableColumn id="5" xr3:uid="{6CD1BB89-2672-4A45-AE6D-45DC8FD8C2D0}" name="Parameter 1" dataDxfId="192"/>
-    <tableColumn id="6" xr3:uid="{713F99C9-7865-434B-9380-0F8833A0B7CE}" name="Parameter 2" dataDxfId="191"/>
-    <tableColumn id="7" xr3:uid="{7B3CBF6D-ABAD-435C-93E5-94B2A9A1570D}" name="Parameter 3" dataDxfId="190"/>
-    <tableColumn id="10" xr3:uid="{FD8F6808-F8E5-4346-BE6E-D40A5DADECAC}" name="Parameter 4" dataDxfId="189"/>
-    <tableColumn id="11" xr3:uid="{DC3102D4-541E-44FE-AEFA-0FB92AC933C5}" name="Parameter 5" dataDxfId="188"/>
-    <tableColumn id="8" xr3:uid="{151C5968-B156-4013-B6C4-5D012F22EEF6}" name="Parameter 6" dataDxfId="187"/>
-    <tableColumn id="15" xr3:uid="{868EF292-2E08-40B9-9605-DAF748095734}" name="Lower Limit" dataDxfId="186"/>
-    <tableColumn id="16" xr3:uid="{42D5D159-9DC2-4FE5-9923-4E2B98164CE9}" name="Upper Limit" dataDxfId="185"/>
-    <tableColumn id="17" xr3:uid="{10AFF230-51CB-4644-8521-A18EFFD37E36}" name="Step" dataDxfId="184"/>
+    <tableColumn id="9" xr3:uid="{A65D510F-11AE-4758-A918-595CFAEACDBA}" name="Phase" dataDxfId="173"/>
+    <tableColumn id="20" xr3:uid="{1983ED84-E3C7-438C-9FBC-6F68009993BF}" name="Category" dataDxfId="172"/>
+    <tableColumn id="12" xr3:uid="{5F8CF16A-5A1F-471D-941E-E8FA15DC40D9}" name="Name" dataDxfId="171"/>
+    <tableColumn id="14" xr3:uid="{603CB562-B188-4D78-8AF7-0C257FE01A78}" name="Description" dataDxfId="170"/>
+    <tableColumn id="18" xr3:uid="{25C96984-595F-4E53-AEA3-48FE8964668C}" name="Units" dataDxfId="169"/>
+    <tableColumn id="4" xr3:uid="{3AC7C66C-7352-42C7-A88A-718F1163EBC3}" name="Distribution Type" dataDxfId="168"/>
+    <tableColumn id="5" xr3:uid="{6CD1BB89-2672-4A45-AE6D-45DC8FD8C2D0}" name="Parameter 1" dataDxfId="167"/>
+    <tableColumn id="6" xr3:uid="{713F99C9-7865-434B-9380-0F8833A0B7CE}" name="Parameter 2" dataDxfId="166"/>
+    <tableColumn id="7" xr3:uid="{7B3CBF6D-ABAD-435C-93E5-94B2A9A1570D}" name="Parameter 3" dataDxfId="165"/>
+    <tableColumn id="10" xr3:uid="{FD8F6808-F8E5-4346-BE6E-D40A5DADECAC}" name="Parameter 4" dataDxfId="164"/>
+    <tableColumn id="11" xr3:uid="{DC3102D4-541E-44FE-AEFA-0FB92AC933C5}" name="Parameter 5" dataDxfId="163"/>
+    <tableColumn id="8" xr3:uid="{151C5968-B156-4013-B6C4-5D012F22EEF6}" name="Parameter 6" dataDxfId="162"/>
+    <tableColumn id="15" xr3:uid="{868EF292-2E08-40B9-9605-DAF748095734}" name="Lower Limit" dataDxfId="161"/>
+    <tableColumn id="16" xr3:uid="{42D5D159-9DC2-4FE5-9923-4E2B98164CE9}" name="Upper Limit" dataDxfId="160"/>
+    <tableColumn id="17" xr3:uid="{10AFF230-51CB-4644-8521-A18EFFD37E36}" name="Step" dataDxfId="159"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{DF020213-F975-452A-9830-6EF38DDE7DCF}" name="Table15647" displayName="Table15647" ref="A1:O29" totalsRowShown="0" headerRowBorderDxfId="183" tableBorderDxfId="182">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{DF020213-F975-452A-9830-6EF38DDE7DCF}" name="Table15647" displayName="Table15647" ref="A1:O29" totalsRowShown="0" headerRowBorderDxfId="158" tableBorderDxfId="157">
   <autoFilter ref="A1:O29" xr:uid="{859BD2B0-AA02-48BA-8620-BDF827813892}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{F237A42D-415A-475B-91B7-8CB0D38B7028}" name="Phase" dataDxfId="181"/>
-    <tableColumn id="20" xr3:uid="{D2304797-990E-4466-8277-ACC378FC5EF1}" name="Category" dataDxfId="180"/>
-    <tableColumn id="12" xr3:uid="{E8D03348-3348-4698-9DA9-FDFD93C4108D}" name="Name" dataDxfId="179"/>
-    <tableColumn id="14" xr3:uid="{D9BE976B-814C-40BA-BB9C-F5A4A863809D}" name="Description" dataDxfId="178"/>
-    <tableColumn id="18" xr3:uid="{C8EEDF00-53C4-4BBB-A736-4C222CC37ACE}" name="Units" dataDxfId="177"/>
-    <tableColumn id="4" xr3:uid="{B912A136-218A-46A6-9298-A26FF451BC8B}" name="Distribution Type" dataDxfId="176"/>
-    <tableColumn id="5" xr3:uid="{B469F8C6-AC37-4E2C-B435-D79806B5EB80}" name="Parameter 1" dataDxfId="175"/>
-    <tableColumn id="6" xr3:uid="{6E4BE98D-3625-46DA-8047-5C4657A18F62}" name="Parameter 2" dataDxfId="174"/>
-    <tableColumn id="7" xr3:uid="{24844D85-F2B8-4B62-9347-EE51DBA7335D}" name="Parameter 3" dataDxfId="173"/>
-    <tableColumn id="10" xr3:uid="{A09FB262-3AAD-46E1-B780-FAC155246DCB}" name="Parameter 4" dataDxfId="172"/>
-    <tableColumn id="11" xr3:uid="{C49055A9-0CD5-4B9A-9D72-65429F3A5716}" name="Parameter 5" dataDxfId="171"/>
-    <tableColumn id="8" xr3:uid="{B80ED53B-AC7B-4D83-B11D-F4584FC387E7}" name="Parameter 6" dataDxfId="170"/>
-    <tableColumn id="15" xr3:uid="{196E4D59-E5D8-47FC-8FBC-0DF83057658E}" name="Lower Limit" dataDxfId="169"/>
-    <tableColumn id="16" xr3:uid="{9EDBB862-8D13-4999-A6D8-0549867DD0D7}" name="Upper Limit" dataDxfId="168"/>
-    <tableColumn id="17" xr3:uid="{9F81C7E5-43F7-4126-A586-BB1219F70A02}" name="Step" dataDxfId="167"/>
+    <tableColumn id="9" xr3:uid="{F237A42D-415A-475B-91B7-8CB0D38B7028}" name="Phase" dataDxfId="156"/>
+    <tableColumn id="20" xr3:uid="{D2304797-990E-4466-8277-ACC378FC5EF1}" name="Category" dataDxfId="155"/>
+    <tableColumn id="12" xr3:uid="{E8D03348-3348-4698-9DA9-FDFD93C4108D}" name="Name" dataDxfId="154"/>
+    <tableColumn id="14" xr3:uid="{D9BE976B-814C-40BA-BB9C-F5A4A863809D}" name="Description" dataDxfId="153"/>
+    <tableColumn id="18" xr3:uid="{C8EEDF00-53C4-4BBB-A736-4C222CC37ACE}" name="Units" dataDxfId="152"/>
+    <tableColumn id="4" xr3:uid="{B912A136-218A-46A6-9298-A26FF451BC8B}" name="Distribution Type" dataDxfId="151"/>
+    <tableColumn id="5" xr3:uid="{B469F8C6-AC37-4E2C-B435-D79806B5EB80}" name="Parameter 1" dataDxfId="150"/>
+    <tableColumn id="6" xr3:uid="{6E4BE98D-3625-46DA-8047-5C4657A18F62}" name="Parameter 2" dataDxfId="149"/>
+    <tableColumn id="7" xr3:uid="{24844D85-F2B8-4B62-9347-EE51DBA7335D}" name="Parameter 3" dataDxfId="148"/>
+    <tableColumn id="10" xr3:uid="{A09FB262-3AAD-46E1-B780-FAC155246DCB}" name="Parameter 4" dataDxfId="147"/>
+    <tableColumn id="11" xr3:uid="{C49055A9-0CD5-4B9A-9D72-65429F3A5716}" name="Parameter 5" dataDxfId="146"/>
+    <tableColumn id="8" xr3:uid="{B80ED53B-AC7B-4D83-B11D-F4584FC387E7}" name="Parameter 6" dataDxfId="145"/>
+    <tableColumn id="15" xr3:uid="{196E4D59-E5D8-47FC-8FBC-0DF83057658E}" name="Lower Limit" dataDxfId="144"/>
+    <tableColumn id="16" xr3:uid="{9EDBB862-8D13-4999-A6D8-0549867DD0D7}" name="Upper Limit" dataDxfId="143"/>
+    <tableColumn id="17" xr3:uid="{9F81C7E5-43F7-4126-A586-BB1219F70A02}" name="Step" dataDxfId="142"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{7550EFF0-9439-4E6A-8D23-02F504FBD1D4}" name="Table156414" displayName="Table156414" ref="A1:O7" totalsRowShown="0" headerRowBorderDxfId="166" tableBorderDxfId="165">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{7550EFF0-9439-4E6A-8D23-02F504FBD1D4}" name="Table156414" displayName="Table156414" ref="A1:O7" totalsRowShown="0" headerRowBorderDxfId="141" tableBorderDxfId="140">
   <autoFilter ref="A1:O7" xr:uid="{E89F1AAB-0467-4C13-8286-F7AC331E8CED}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{AE476C5A-DA1D-465E-9CDD-F6537F49B59A}" name="Phase" dataDxfId="164"/>
-    <tableColumn id="12" xr3:uid="{5D89776A-B117-4D83-ACC3-F00ADD3FE56E}" name="Category" dataDxfId="163"/>
-    <tableColumn id="3" xr3:uid="{9037C44A-A90D-462C-A2F2-1224467C2BC0}" name="Name" dataDxfId="162"/>
-    <tableColumn id="14" xr3:uid="{E343E4A4-9362-4305-9A92-A8062E97127D}" name="Description" dataDxfId="161"/>
-    <tableColumn id="18" xr3:uid="{59A60541-5F4F-478A-996C-A136B098D92B}" name="Units" dataDxfId="160"/>
-    <tableColumn id="4" xr3:uid="{30DA923F-FB86-4AC4-B259-AE796033AAED}" name="Distribution Type" dataDxfId="159"/>
-    <tableColumn id="5" xr3:uid="{BD9D6BB8-0A9E-48E1-95D5-0EECCBFE8316}" name="Parameter 1" dataDxfId="158"/>
-    <tableColumn id="6" xr3:uid="{B0E10190-9195-4B9D-A20D-A270CE2F3E98}" name="Parameter 2" dataDxfId="157"/>
-    <tableColumn id="7" xr3:uid="{918B726D-0E60-49F6-94FE-F7B5CF284EB2}" name="Parameter 3" dataDxfId="156"/>
-    <tableColumn id="10" xr3:uid="{F52C94ED-5667-4B4C-AF10-29D9CF45ACB5}" name="Parameter 4" dataDxfId="155"/>
-    <tableColumn id="11" xr3:uid="{9F8440AB-4D90-4F35-8265-07E520410CC0}" name="Parameter 5" dataDxfId="154"/>
-    <tableColumn id="8" xr3:uid="{4F13BDAF-F86A-4434-B9C3-576D1A4571C8}" name="Parameter 6" dataDxfId="153"/>
-    <tableColumn id="15" xr3:uid="{168B9EEC-D86A-4C57-8174-66D02451AA11}" name="Lower Limit" dataDxfId="152"/>
-    <tableColumn id="16" xr3:uid="{B91AA0FC-6FD4-4503-8497-8E2658CD5A9C}" name="Upper Limit" dataDxfId="151"/>
-    <tableColumn id="17" xr3:uid="{85F85B4E-2654-4B9F-8CBF-9AF7D4017806}" name="Step" dataDxfId="150"/>
+    <tableColumn id="9" xr3:uid="{AE476C5A-DA1D-465E-9CDD-F6537F49B59A}" name="Phase" dataDxfId="139"/>
+    <tableColumn id="12" xr3:uid="{5D89776A-B117-4D83-ACC3-F00ADD3FE56E}" name="Category" dataDxfId="138"/>
+    <tableColumn id="3" xr3:uid="{9037C44A-A90D-462C-A2F2-1224467C2BC0}" name="Name" dataDxfId="137"/>
+    <tableColumn id="14" xr3:uid="{E343E4A4-9362-4305-9A92-A8062E97127D}" name="Description" dataDxfId="136"/>
+    <tableColumn id="18" xr3:uid="{59A60541-5F4F-478A-996C-A136B098D92B}" name="Units" dataDxfId="135"/>
+    <tableColumn id="4" xr3:uid="{30DA923F-FB86-4AC4-B259-AE796033AAED}" name="Distribution Type" dataDxfId="134"/>
+    <tableColumn id="5" xr3:uid="{BD9D6BB8-0A9E-48E1-95D5-0EECCBFE8316}" name="Parameter 1" dataDxfId="133"/>
+    <tableColumn id="6" xr3:uid="{B0E10190-9195-4B9D-A20D-A270CE2F3E98}" name="Parameter 2" dataDxfId="132"/>
+    <tableColumn id="7" xr3:uid="{918B726D-0E60-49F6-94FE-F7B5CF284EB2}" name="Parameter 3" dataDxfId="131"/>
+    <tableColumn id="10" xr3:uid="{F52C94ED-5667-4B4C-AF10-29D9CF45ACB5}" name="Parameter 4" dataDxfId="130"/>
+    <tableColumn id="11" xr3:uid="{9F8440AB-4D90-4F35-8265-07E520410CC0}" name="Parameter 5" dataDxfId="129"/>
+    <tableColumn id="8" xr3:uid="{4F13BDAF-F86A-4434-B9C3-576D1A4571C8}" name="Parameter 6" dataDxfId="128"/>
+    <tableColumn id="15" xr3:uid="{168B9EEC-D86A-4C57-8174-66D02451AA11}" name="Lower Limit" dataDxfId="127"/>
+    <tableColumn id="16" xr3:uid="{B91AA0FC-6FD4-4503-8497-8E2658CD5A9C}" name="Upper Limit" dataDxfId="126"/>
+    <tableColumn id="17" xr3:uid="{85F85B4E-2654-4B9F-8CBF-9AF7D4017806}" name="Step" dataDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{544BD654-9B18-4F85-8680-0367091A97FD}" name="Table15646" displayName="Table15646" ref="A1:O3" totalsRowShown="0" headerRowBorderDxfId="149" tableBorderDxfId="148">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{544BD654-9B18-4F85-8680-0367091A97FD}" name="Table15646" displayName="Table15646" ref="A1:O3" totalsRowShown="0" headerRowBorderDxfId="124" tableBorderDxfId="123">
   <autoFilter ref="A1:O3" xr:uid="{EC61BB93-4EB0-4480-9F8B-C9A2D56564B4}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{1735A646-077D-4A5C-8ABA-5E5552C83F8B}" name="Phase" dataDxfId="147"/>
-    <tableColumn id="20" xr3:uid="{004108F0-B585-4FC4-8E02-24F2EDB488C0}" name="Category" dataDxfId="146"/>
-    <tableColumn id="12" xr3:uid="{69E4893D-8A0F-46ED-8648-226BDC719B2B}" name="Name" dataDxfId="145"/>
-    <tableColumn id="14" xr3:uid="{A839FAC0-08F6-4AA7-96B8-39B9A47A057D}" name="Description" dataDxfId="144"/>
-    <tableColumn id="18" xr3:uid="{E0746BE3-6AD9-4082-A683-C57740CF7686}" name="Units" dataDxfId="143"/>
-    <tableColumn id="4" xr3:uid="{C6BD6FF1-F034-424C-A7E9-0CF1059B3A7C}" name="Distribution Type" dataDxfId="142"/>
-    <tableColumn id="5" xr3:uid="{41A11BA2-CB19-4A3D-BAB4-C7ABCBD3E30F}" name="Parameter 1" dataDxfId="141"/>
-    <tableColumn id="6" xr3:uid="{648D385E-E212-43CC-A8AA-53DDD8BD0428}" name="Parameter 2" dataDxfId="140"/>
-    <tableColumn id="7" xr3:uid="{A336D93E-1EE2-4808-98BA-CB978FBE172A}" name="Parameter 3" dataDxfId="139"/>
-    <tableColumn id="10" xr3:uid="{03178B46-AD0C-4482-9EC2-A764D5FA6F6C}" name="Parameter 4" dataDxfId="138"/>
-    <tableColumn id="11" xr3:uid="{EAD273F2-76B2-43C4-A1D7-A199E13BAD05}" name="Parameter 5" dataDxfId="137"/>
-    <tableColumn id="8" xr3:uid="{CA066BBA-6299-4A1A-A4D8-73F164A6F41D}" name="Parameter 6" dataDxfId="136"/>
-    <tableColumn id="15" xr3:uid="{F1632EF8-E0CB-4E7B-BEA5-E206CC27F984}" name="Lower Limit" dataDxfId="135"/>
-    <tableColumn id="16" xr3:uid="{4ED75AE2-55E4-419A-A9E6-19CC6C5896E9}" name="Upper Limit" dataDxfId="134"/>
-    <tableColumn id="17" xr3:uid="{D34421A0-FABD-4530-911F-6AAAC527E813}" name="Step" dataDxfId="133"/>
+    <tableColumn id="9" xr3:uid="{1735A646-077D-4A5C-8ABA-5E5552C83F8B}" name="Phase" dataDxfId="122"/>
+    <tableColumn id="20" xr3:uid="{004108F0-B585-4FC4-8E02-24F2EDB488C0}" name="Category" dataDxfId="121"/>
+    <tableColumn id="12" xr3:uid="{69E4893D-8A0F-46ED-8648-226BDC719B2B}" name="Name" dataDxfId="120"/>
+    <tableColumn id="14" xr3:uid="{A839FAC0-08F6-4AA7-96B8-39B9A47A057D}" name="Description" dataDxfId="119"/>
+    <tableColumn id="18" xr3:uid="{E0746BE3-6AD9-4082-A683-C57740CF7686}" name="Units" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{C6BD6FF1-F034-424C-A7E9-0CF1059B3A7C}" name="Distribution Type" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{41A11BA2-CB19-4A3D-BAB4-C7ABCBD3E30F}" name="Parameter 1" dataDxfId="116"/>
+    <tableColumn id="6" xr3:uid="{648D385E-E212-43CC-A8AA-53DDD8BD0428}" name="Parameter 2" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{A336D93E-1EE2-4808-98BA-CB978FBE172A}" name="Parameter 3" dataDxfId="114"/>
+    <tableColumn id="10" xr3:uid="{03178B46-AD0C-4482-9EC2-A764D5FA6F6C}" name="Parameter 4" dataDxfId="113"/>
+    <tableColumn id="11" xr3:uid="{EAD273F2-76B2-43C4-A1D7-A199E13BAD05}" name="Parameter 5" dataDxfId="112"/>
+    <tableColumn id="8" xr3:uid="{CA066BBA-6299-4A1A-A4D8-73F164A6F41D}" name="Parameter 6" dataDxfId="111"/>
+    <tableColumn id="15" xr3:uid="{F1632EF8-E0CB-4E7B-BEA5-E206CC27F984}" name="Lower Limit" dataDxfId="110"/>
+    <tableColumn id="16" xr3:uid="{4ED75AE2-55E4-419A-A9E6-19CC6C5896E9}" name="Upper Limit" dataDxfId="109"/>
+    <tableColumn id="17" xr3:uid="{D34421A0-FABD-4530-911F-6AAAC527E813}" name="Step" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A9DDAA0B-EDE4-49CE-8D2A-53496C87AC6C}" name="Table156411" displayName="Table156411" ref="A1:O4" totalsRowShown="0" headerRowBorderDxfId="132" tableBorderDxfId="131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A9DDAA0B-EDE4-49CE-8D2A-53496C87AC6C}" name="Table156411" displayName="Table156411" ref="A1:O4" totalsRowShown="0" headerRowBorderDxfId="107" tableBorderDxfId="106">
   <autoFilter ref="A1:O4" xr:uid="{96C1D83B-BC19-489F-9EB7-C4BD46C50E46}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{F67C5E8C-F091-4379-8FA4-1E0A53077B68}" name="Phase" dataDxfId="130"/>
-    <tableColumn id="20" xr3:uid="{F204C7B0-E561-4894-A461-ADBDC80CC735}" name="Category" dataDxfId="129"/>
-    <tableColumn id="12" xr3:uid="{30B72B9B-FF89-4E51-9A96-F8BE3F8041EA}" name="Name" dataDxfId="128"/>
-    <tableColumn id="14" xr3:uid="{DB30649B-C3C1-48BB-B0BA-3762B2EA3DA0}" name="Description" dataDxfId="127"/>
-    <tableColumn id="18" xr3:uid="{3421310D-974A-44DB-BC28-81CC179BFD51}" name="Units" dataDxfId="126"/>
-    <tableColumn id="4" xr3:uid="{A19068C9-4F23-4FE6-A45E-0F5BEA8C7692}" name="Distribution Type" dataDxfId="125"/>
-    <tableColumn id="5" xr3:uid="{8F241659-0C60-4FF4-9636-16A0AEB54DFB}" name="Parameter 1" dataDxfId="124"/>
-    <tableColumn id="6" xr3:uid="{AA2565DE-2D2D-4A58-BC4B-001FAEC9C3F0}" name="Parameter 2" dataDxfId="123"/>
-    <tableColumn id="7" xr3:uid="{CB9ADE6D-1E48-4ECA-BB61-8BFBE1C45E5E}" name="Parameter 3" dataDxfId="122"/>
-    <tableColumn id="10" xr3:uid="{18EB0859-1F88-4B30-8715-88A124D91C9B}" name="Parameter 4" dataDxfId="121"/>
-    <tableColumn id="11" xr3:uid="{6D767472-81BC-463B-A56A-768C0F5A05A9}" name="Parameter 5" dataDxfId="120"/>
-    <tableColumn id="8" xr3:uid="{217B790C-1EC6-4F73-BB6C-25E35A9D36EE}" name="Parameter 6" dataDxfId="119"/>
-    <tableColumn id="15" xr3:uid="{D4DC6753-6BDE-420B-8E58-4073ED5E70CD}" name="Lower Limit" dataDxfId="118"/>
-    <tableColumn id="16" xr3:uid="{9E541401-2A45-4487-861E-572F306DBB90}" name="Upper Limit" dataDxfId="117"/>
-    <tableColumn id="17" xr3:uid="{222205B2-5966-4F6B-A5A4-259C62BDA43D}" name="Step" dataDxfId="116"/>
+    <tableColumn id="9" xr3:uid="{F67C5E8C-F091-4379-8FA4-1E0A53077B68}" name="Phase" dataDxfId="105"/>
+    <tableColumn id="20" xr3:uid="{F204C7B0-E561-4894-A461-ADBDC80CC735}" name="Category" dataDxfId="104"/>
+    <tableColumn id="12" xr3:uid="{30B72B9B-FF89-4E51-9A96-F8BE3F8041EA}" name="Name" dataDxfId="103"/>
+    <tableColumn id="14" xr3:uid="{DB30649B-C3C1-48BB-B0BA-3762B2EA3DA0}" name="Description" dataDxfId="102"/>
+    <tableColumn id="18" xr3:uid="{3421310D-974A-44DB-BC28-81CC179BFD51}" name="Units" dataDxfId="101"/>
+    <tableColumn id="4" xr3:uid="{A19068C9-4F23-4FE6-A45E-0F5BEA8C7692}" name="Distribution Type" dataDxfId="100"/>
+    <tableColumn id="5" xr3:uid="{8F241659-0C60-4FF4-9636-16A0AEB54DFB}" name="Parameter 1" dataDxfId="99"/>
+    <tableColumn id="6" xr3:uid="{AA2565DE-2D2D-4A58-BC4B-001FAEC9C3F0}" name="Parameter 2" dataDxfId="98"/>
+    <tableColumn id="7" xr3:uid="{CB9ADE6D-1E48-4ECA-BB61-8BFBE1C45E5E}" name="Parameter 3" dataDxfId="97"/>
+    <tableColumn id="10" xr3:uid="{18EB0859-1F88-4B30-8715-88A124D91C9B}" name="Parameter 4" dataDxfId="96"/>
+    <tableColumn id="11" xr3:uid="{6D767472-81BC-463B-A56A-768C0F5A05A9}" name="Parameter 5" dataDxfId="95"/>
+    <tableColumn id="8" xr3:uid="{217B790C-1EC6-4F73-BB6C-25E35A9D36EE}" name="Parameter 6" dataDxfId="94"/>
+    <tableColumn id="15" xr3:uid="{D4DC6753-6BDE-420B-8E58-4073ED5E70CD}" name="Lower Limit" dataDxfId="93"/>
+    <tableColumn id="16" xr3:uid="{9E541401-2A45-4487-861E-572F306DBB90}" name="Upper Limit" dataDxfId="92"/>
+    <tableColumn id="17" xr3:uid="{222205B2-5966-4F6B-A5A4-259C62BDA43D}" name="Step" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1C65CEB6-4F7A-4FD3-92D1-32B0AC0529C7}" name="Table15645" displayName="Table15645" ref="A1:O9" totalsRowShown="0" headerRowBorderDxfId="115" tableBorderDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1C65CEB6-4F7A-4FD3-92D1-32B0AC0529C7}" name="Table15645" displayName="Table15645" ref="A1:O9" totalsRowShown="0" headerRowBorderDxfId="90" tableBorderDxfId="89">
   <autoFilter ref="A1:O9" xr:uid="{CE70FAE3-DAD6-40A6-BCCE-F46A2CDA0980}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{A5634D1E-7F69-4A8B-9B2C-E544A100BE0B}" name="Phase" dataDxfId="113"/>
-    <tableColumn id="22" xr3:uid="{DF0A5598-36C6-480A-8445-5264CD38D6AE}" name="Category" dataDxfId="112"/>
-    <tableColumn id="12" xr3:uid="{322396A3-5A20-4A3E-8F7B-F97F31E5B741}" name="Name" dataDxfId="111"/>
-    <tableColumn id="14" xr3:uid="{1910CF64-CF8F-4994-BC1B-F27FE4E216E6}" name="Description" dataDxfId="110"/>
-    <tableColumn id="18" xr3:uid="{211B9116-478A-42BC-BFD9-0A2AA2AD39A9}" name="Units" dataDxfId="109"/>
-    <tableColumn id="4" xr3:uid="{ABD6291E-7951-4F95-9FF4-C5A1FC0AAC06}" name="Distribution Type" dataDxfId="108"/>
-    <tableColumn id="5" xr3:uid="{ECC3B9FC-E4AE-4AD1-BF4C-89FE38983ABB}" name="Parameter 1" dataDxfId="107"/>
-    <tableColumn id="6" xr3:uid="{8FC5359B-BA7A-46D2-B091-D9665C585235}" name="Parameter 2" dataDxfId="106"/>
-    <tableColumn id="7" xr3:uid="{3BDDE353-FD4F-45F2-8B7C-5F7D6E0D347D}" name="Parameter 3" dataDxfId="105"/>
-    <tableColumn id="10" xr3:uid="{701C65B5-1C54-4F3C-90E2-A67B32AB1876}" name="Parameter 4" dataDxfId="104"/>
-    <tableColumn id="11" xr3:uid="{A8EE834B-F323-4C30-8E59-AEDA8B9E2A61}" name="Parameter 5" dataDxfId="103"/>
-    <tableColumn id="8" xr3:uid="{240B8AE3-DEF4-4C61-BF40-2515EA4A4DDB}" name="Parameter 6" dataDxfId="102"/>
-    <tableColumn id="15" xr3:uid="{5D6076C4-791B-4994-9665-C628F9AE62B7}" name="Lower Limit" dataDxfId="101"/>
-    <tableColumn id="16" xr3:uid="{D06B2878-4A23-45AF-8278-C825D6961D31}" name="Upper Limit" dataDxfId="100"/>
-    <tableColumn id="17" xr3:uid="{54CBA85E-0128-4FD6-8F0E-932C4E402C1C}" name="Step" dataDxfId="99"/>
+    <tableColumn id="9" xr3:uid="{A5634D1E-7F69-4A8B-9B2C-E544A100BE0B}" name="Phase" dataDxfId="88"/>
+    <tableColumn id="22" xr3:uid="{DF0A5598-36C6-480A-8445-5264CD38D6AE}" name="Category" dataDxfId="87"/>
+    <tableColumn id="12" xr3:uid="{322396A3-5A20-4A3E-8F7B-F97F31E5B741}" name="Name" dataDxfId="86"/>
+    <tableColumn id="14" xr3:uid="{1910CF64-CF8F-4994-BC1B-F27FE4E216E6}" name="Description" dataDxfId="85"/>
+    <tableColumn id="18" xr3:uid="{211B9116-478A-42BC-BFD9-0A2AA2AD39A9}" name="Units" dataDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{ABD6291E-7951-4F95-9FF4-C5A1FC0AAC06}" name="Distribution Type" dataDxfId="83"/>
+    <tableColumn id="5" xr3:uid="{ECC3B9FC-E4AE-4AD1-BF4C-89FE38983ABB}" name="Parameter 1" dataDxfId="82"/>
+    <tableColumn id="6" xr3:uid="{8FC5359B-BA7A-46D2-B091-D9665C585235}" name="Parameter 2" dataDxfId="81"/>
+    <tableColumn id="7" xr3:uid="{3BDDE353-FD4F-45F2-8B7C-5F7D6E0D347D}" name="Parameter 3" dataDxfId="80"/>
+    <tableColumn id="10" xr3:uid="{701C65B5-1C54-4F3C-90E2-A67B32AB1876}" name="Parameter 4" dataDxfId="79"/>
+    <tableColumn id="11" xr3:uid="{A8EE834B-F323-4C30-8E59-AEDA8B9E2A61}" name="Parameter 5" dataDxfId="78"/>
+    <tableColumn id="8" xr3:uid="{240B8AE3-DEF4-4C61-BF40-2515EA4A4DDB}" name="Parameter 6" dataDxfId="77"/>
+    <tableColumn id="15" xr3:uid="{5D6076C4-791B-4994-9665-C628F9AE62B7}" name="Lower Limit" dataDxfId="76"/>
+    <tableColumn id="16" xr3:uid="{D06B2878-4A23-45AF-8278-C825D6961D31}" name="Upper Limit" dataDxfId="75"/>
+    <tableColumn id="17" xr3:uid="{54CBA85E-0128-4FD6-8F0E-932C4E402C1C}" name="Step" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:O30" totalsRowShown="0" tableBorderDxfId="351">
-  <autoFilter ref="A1:O30" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:O31" totalsRowShown="0" tableBorderDxfId="326">
+  <autoFilter ref="A1:O31" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phase" dataDxfId="350"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="349"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="348"/>
-    <tableColumn id="10" xr3:uid="{8EBBFD49-190C-4C2F-A6BC-0598AAC3E788}" name="Description" dataDxfId="347"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="346"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="345"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="344"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="343"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="342"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="341"/>
-    <tableColumn id="14" xr3:uid="{E54D398D-B732-4333-A3F2-2EBD48BAA48B}" name="Parameter 5" dataDxfId="340"/>
-    <tableColumn id="15" xr3:uid="{47B382D4-92A3-4B8C-9C52-0458EA4788B1}" name="Parameter 6" dataDxfId="339"/>
-    <tableColumn id="11" xr3:uid="{BD4375F0-63E9-45EC-BE2E-338374C10F8B}" name="Lower Limit" dataDxfId="338"/>
-    <tableColumn id="12" xr3:uid="{E3D45A75-803F-48B4-B112-11C4C63E6D6F}" name="Upper Limit" dataDxfId="337"/>
-    <tableColumn id="13" xr3:uid="{FFEC12A7-FD01-4D8C-85CF-A25BD15B0829}" name="Step" dataDxfId="336"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phase" dataDxfId="325"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="324"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="323"/>
+    <tableColumn id="10" xr3:uid="{8EBBFD49-190C-4C2F-A6BC-0598AAC3E788}" name="Description" dataDxfId="322"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="321"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="320"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="319"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="318"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="317"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="316"/>
+    <tableColumn id="14" xr3:uid="{E54D398D-B732-4333-A3F2-2EBD48BAA48B}" name="Parameter 5" dataDxfId="315"/>
+    <tableColumn id="15" xr3:uid="{47B382D4-92A3-4B8C-9C52-0458EA4788B1}" name="Parameter 6" dataDxfId="314"/>
+    <tableColumn id="11" xr3:uid="{BD4375F0-63E9-45EC-BE2E-338374C10F8B}" name="Lower Limit" dataDxfId="313"/>
+    <tableColumn id="12" xr3:uid="{E3D45A75-803F-48B4-B112-11C4C63E6D6F}" name="Upper Limit" dataDxfId="312"/>
+    <tableColumn id="13" xr3:uid="{FFEC12A7-FD01-4D8C-85CF-A25BD15B0829}" name="Step" dataDxfId="311"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:O17" totalsRowShown="0" tableBorderDxfId="335">
-  <autoFilter ref="A1:O17" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:O18" totalsRowShown="0" tableBorderDxfId="310">
+  <autoFilter ref="A1:O18" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Phase" dataDxfId="334"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="333"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="332"/>
-    <tableColumn id="10" xr3:uid="{2D3DA962-F373-48F5-BD94-00CC27106A46}" name="Description" dataDxfId="331"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="330"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="329"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="328"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="327"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="326"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="325"/>
-    <tableColumn id="14" xr3:uid="{5A98E335-B701-4CC9-9D03-A85D24786F3B}" name="Parameter 5" dataDxfId="324"/>
-    <tableColumn id="15" xr3:uid="{79377D49-ED29-41CF-AC28-FD408018808C}" name="Parameter 6" dataDxfId="323"/>
-    <tableColumn id="11" xr3:uid="{FF818C38-99D8-4486-B25F-2B94B62F77AF}" name="Lower Limit" dataDxfId="322"/>
-    <tableColumn id="12" xr3:uid="{8C44E4B8-6916-4798-9055-589FE4E4C903}" name="Upper Limit" dataDxfId="321"/>
-    <tableColumn id="13" xr3:uid="{8266E46A-7EC0-42D8-91D3-D2DC1B4352DE}" name="Step" dataDxfId="320"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Phase" dataDxfId="309"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="308"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="307"/>
+    <tableColumn id="10" xr3:uid="{2D3DA962-F373-48F5-BD94-00CC27106A46}" name="Description" dataDxfId="306"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="305"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="304"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="303"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="302"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="301"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="300"/>
+    <tableColumn id="14" xr3:uid="{5A98E335-B701-4CC9-9D03-A85D24786F3B}" name="Parameter 5" dataDxfId="299"/>
+    <tableColumn id="15" xr3:uid="{79377D49-ED29-41CF-AC28-FD408018808C}" name="Parameter 6" dataDxfId="298"/>
+    <tableColumn id="11" xr3:uid="{FF818C38-99D8-4486-B25F-2B94B62F77AF}" name="Lower Limit" dataDxfId="297"/>
+    <tableColumn id="12" xr3:uid="{8C44E4B8-6916-4798-9055-589FE4E4C903}" name="Upper Limit" dataDxfId="296"/>
+    <tableColumn id="13" xr3:uid="{8266E46A-7EC0-42D8-91D3-D2DC1B4352DE}" name="Step" dataDxfId="295"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:O20" totalsRowShown="0" headerRowBorderDxfId="319" tableBorderDxfId="318">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:O20" totalsRowShown="0" headerRowBorderDxfId="294" tableBorderDxfId="293">
   <autoFilter ref="A1:O20" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Phase" dataDxfId="317"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="316"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="315"/>
-    <tableColumn id="10" xr3:uid="{A40104D1-3BF7-4068-8777-3D61F27973C1}" name="Description" dataDxfId="314"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="313"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="312"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="311"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="310"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="309"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="308"/>
-    <tableColumn id="14" xr3:uid="{77E616D7-C540-4C6C-A01C-31C8ADF35FBE}" name="Parameter 5" dataDxfId="307"/>
-    <tableColumn id="15" xr3:uid="{68C28D25-E41A-4D3D-A794-809A12A02364}" name="Parameter 6" dataDxfId="306"/>
-    <tableColumn id="11" xr3:uid="{83552614-5368-48EE-AE65-AA7B101E55EF}" name="Lower Limit" dataDxfId="305"/>
-    <tableColumn id="12" xr3:uid="{98998298-F4B1-4980-B79C-0BF0D0D59028}" name="Upper Limit" dataDxfId="304"/>
-    <tableColumn id="13" xr3:uid="{8E3814A1-C526-4157-B0D9-1258E47ACA45}" name="Step" dataDxfId="303"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Phase" dataDxfId="292"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="291"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="290"/>
+    <tableColumn id="10" xr3:uid="{A40104D1-3BF7-4068-8777-3D61F27973C1}" name="Description" dataDxfId="289"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="288"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="287"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="286"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="285"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="284"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="283"/>
+    <tableColumn id="14" xr3:uid="{77E616D7-C540-4C6C-A01C-31C8ADF35FBE}" name="Parameter 5" dataDxfId="282"/>
+    <tableColumn id="15" xr3:uid="{68C28D25-E41A-4D3D-A794-809A12A02364}" name="Parameter 6" dataDxfId="281"/>
+    <tableColumn id="11" xr3:uid="{83552614-5368-48EE-AE65-AA7B101E55EF}" name="Lower Limit" dataDxfId="280"/>
+    <tableColumn id="12" xr3:uid="{98998298-F4B1-4980-B79C-0BF0D0D59028}" name="Upper Limit" dataDxfId="279"/>
+    <tableColumn id="13" xr3:uid="{8E3814A1-C526-4157-B0D9-1258E47ACA45}" name="Step" dataDxfId="278"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15793" displayName="Table15793" ref="A1:O8" totalsRowShown="0" headerRowBorderDxfId="302" tableBorderDxfId="301">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15793" displayName="Table15793" ref="A1:O8" totalsRowShown="0" headerRowBorderDxfId="277" tableBorderDxfId="276">
   <autoFilter ref="A1:O8" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Phase" dataDxfId="300"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="299"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Name" dataDxfId="298"/>
-    <tableColumn id="10" xr3:uid="{4482773E-AA48-4795-9A9F-10283D12A976}" name="Description" dataDxfId="297"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Units" dataDxfId="296"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Distribution Type" dataDxfId="295"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Parameter 1" dataDxfId="294"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Parameter 2" dataDxfId="293"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Parameter 3" dataDxfId="292"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Parameter 4" dataDxfId="291"/>
-    <tableColumn id="14" xr3:uid="{41E058E9-8EB6-430E-BC58-82195628B7D1}" name="Parameter 5" dataDxfId="290"/>
-    <tableColumn id="15" xr3:uid="{1CA16974-E252-4655-813D-3FC48E8CCF45}" name="Parameter 6" dataDxfId="289"/>
-    <tableColumn id="11" xr3:uid="{0ED7EC4B-FD74-44E3-B1E6-428C431FDA88}" name="Lower Limit" dataDxfId="288"/>
-    <tableColumn id="12" xr3:uid="{4CA3754D-692A-40C0-BCC5-14D0E3AAF144}" name="Upper Limit" dataDxfId="287"/>
-    <tableColumn id="13" xr3:uid="{D4791B88-6435-44AE-9946-77D4E8CB6EA8}" name="Step" dataDxfId="286"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Phase" dataDxfId="275"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="274"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Name" dataDxfId="273"/>
+    <tableColumn id="10" xr3:uid="{4482773E-AA48-4795-9A9F-10283D12A976}" name="Description" dataDxfId="272"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Units" dataDxfId="271"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Distribution Type" dataDxfId="270"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Parameter 1" dataDxfId="269"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Parameter 2" dataDxfId="268"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Parameter 3" dataDxfId="267"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Parameter 4" dataDxfId="266"/>
+    <tableColumn id="14" xr3:uid="{41E058E9-8EB6-430E-BC58-82195628B7D1}" name="Parameter 5" dataDxfId="265"/>
+    <tableColumn id="15" xr3:uid="{1CA16974-E252-4655-813D-3FC48E8CCF45}" name="Parameter 6" dataDxfId="264"/>
+    <tableColumn id="11" xr3:uid="{0ED7EC4B-FD74-44E3-B1E6-428C431FDA88}" name="Lower Limit" dataDxfId="263"/>
+    <tableColumn id="12" xr3:uid="{4CA3754D-692A-40C0-BCC5-14D0E3AAF144}" name="Upper Limit" dataDxfId="262"/>
+    <tableColumn id="13" xr3:uid="{D4791B88-6435-44AE-9946-77D4E8CB6EA8}" name="Step" dataDxfId="261"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:O24" totalsRowShown="0" headerRowBorderDxfId="285" tableBorderDxfId="284">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:O24" totalsRowShown="0" headerRowBorderDxfId="260" tableBorderDxfId="259">
   <autoFilter ref="A1:O24" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2">
     <sortCondition ref="B1:B2"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Phase" dataDxfId="283"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="282"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="281"/>
-    <tableColumn id="10" xr3:uid="{3AFE3909-1CDD-46E0-8677-569A824534FB}" name="Description" dataDxfId="280"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="279"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="278"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="277"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="276"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="275"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="274"/>
-    <tableColumn id="14" xr3:uid="{8991E047-B1B0-4B74-A5AA-45E689F51874}" name="Parameter 5" dataDxfId="273"/>
-    <tableColumn id="15" xr3:uid="{A25E7AA9-7C49-405C-8326-53EA8C994FFB}" name="Parameter 6" dataDxfId="272"/>
-    <tableColumn id="11" xr3:uid="{08FFB9BF-C539-434A-A2F4-C19873D3AB3E}" name="Lower Limit" dataDxfId="271"/>
-    <tableColumn id="12" xr3:uid="{CEDB540F-344B-4D49-8CD6-9F7746873840}" name="Upper Limit" dataDxfId="270"/>
-    <tableColumn id="13" xr3:uid="{4B3E9A2A-7D0A-4F2D-B694-DB4D2C83BA0A}" name="Step" dataDxfId="269"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Phase" dataDxfId="258"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="257"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="256"/>
+    <tableColumn id="10" xr3:uid="{3AFE3909-1CDD-46E0-8677-569A824534FB}" name="Description" dataDxfId="255"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="254"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="253"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="252"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="251"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="250"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="249"/>
+    <tableColumn id="14" xr3:uid="{8991E047-B1B0-4B74-A5AA-45E689F51874}" name="Parameter 5" dataDxfId="248"/>
+    <tableColumn id="15" xr3:uid="{A25E7AA9-7C49-405C-8326-53EA8C994FFB}" name="Parameter 6" dataDxfId="247"/>
+    <tableColumn id="11" xr3:uid="{08FFB9BF-C539-434A-A2F4-C19873D3AB3E}" name="Lower Limit" dataDxfId="246"/>
+    <tableColumn id="12" xr3:uid="{CEDB540F-344B-4D49-8CD6-9F7746873840}" name="Upper Limit" dataDxfId="245"/>
+    <tableColumn id="13" xr3:uid="{4B3E9A2A-7D0A-4F2D-B694-DB4D2C83BA0A}" name="Step" dataDxfId="244"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3CB8E65B-B7DB-4610-98F8-15D74050538C}" name="Table156410" displayName="Table156410" ref="A1:O2" totalsRowShown="0" headerRowBorderDxfId="268" tableBorderDxfId="267">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3CB8E65B-B7DB-4610-98F8-15D74050538C}" name="Table156410" displayName="Table156410" ref="A1:O2" totalsRowShown="0" headerRowBorderDxfId="243" tableBorderDxfId="242">
   <autoFilter ref="A1:O2" xr:uid="{A2DF75BF-F49D-463D-B10C-635E799069A4}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{33E848DD-559D-4023-9F06-526E6AF9BD94}" name="Phase" dataDxfId="266"/>
-    <tableColumn id="20" xr3:uid="{9EDFC6C3-E3F9-4924-BC6A-804D2BBDAE4E}" name="Category" dataDxfId="265"/>
-    <tableColumn id="12" xr3:uid="{D5F0DA51-2BBD-46FF-88FA-75AA7A464F56}" name="Name" dataDxfId="264"/>
-    <tableColumn id="14" xr3:uid="{C6DADE20-FD43-4249-ADF7-72D9BB6ED860}" name="Description" dataDxfId="263"/>
-    <tableColumn id="18" xr3:uid="{017077E2-A519-4357-81FC-29BBCF542A5D}" name="Units" dataDxfId="262"/>
-    <tableColumn id="4" xr3:uid="{18A3B7BD-46E6-497D-932B-A279201CED36}" name="Distribution Type" dataDxfId="261"/>
-    <tableColumn id="5" xr3:uid="{5BD00F12-3393-4245-9BE0-D37573FCF5E3}" name="Parameter 1" dataDxfId="260"/>
-    <tableColumn id="6" xr3:uid="{F68E7FA0-23DA-4C5B-BCD3-BD3C7B299B02}" name="Parameter 2" dataDxfId="259"/>
-    <tableColumn id="7" xr3:uid="{E074689D-E9A9-4D78-901F-4D6DEAB8F157}" name="Parameter 3" dataDxfId="258"/>
-    <tableColumn id="10" xr3:uid="{24FDA3C5-E39C-430C-90BB-3F6BD09EEDC7}" name="Parameter 4" dataDxfId="257"/>
-    <tableColumn id="11" xr3:uid="{42BED06C-CBA3-4453-AE89-CFE7799A8559}" name="Parameter 5" dataDxfId="256"/>
-    <tableColumn id="8" xr3:uid="{4CFE8BFF-6747-408C-8ABA-AFDB589C4F81}" name="Parameter 6" dataDxfId="255"/>
-    <tableColumn id="15" xr3:uid="{E0BBD4D8-EA8D-4CAF-B849-F7A2CE769A48}" name="Lower Limit" dataDxfId="254"/>
-    <tableColumn id="16" xr3:uid="{4800A8E8-843B-4C41-91BF-C1A3C30DE8D6}" name="Upper Limit" dataDxfId="253"/>
-    <tableColumn id="17" xr3:uid="{A6367C3F-1F51-48D6-9EB3-E8501CEA0DC3}" name="Step" dataDxfId="252"/>
+    <tableColumn id="9" xr3:uid="{33E848DD-559D-4023-9F06-526E6AF9BD94}" name="Phase" dataDxfId="241"/>
+    <tableColumn id="20" xr3:uid="{9EDFC6C3-E3F9-4924-BC6A-804D2BBDAE4E}" name="Category" dataDxfId="240"/>
+    <tableColumn id="12" xr3:uid="{D5F0DA51-2BBD-46FF-88FA-75AA7A464F56}" name="Name" dataDxfId="239"/>
+    <tableColumn id="14" xr3:uid="{C6DADE20-FD43-4249-ADF7-72D9BB6ED860}" name="Description" dataDxfId="238"/>
+    <tableColumn id="18" xr3:uid="{017077E2-A519-4357-81FC-29BBCF542A5D}" name="Units" dataDxfId="237"/>
+    <tableColumn id="4" xr3:uid="{18A3B7BD-46E6-497D-932B-A279201CED36}" name="Distribution Type" dataDxfId="236"/>
+    <tableColumn id="5" xr3:uid="{5BD00F12-3393-4245-9BE0-D37573FCF5E3}" name="Parameter 1" dataDxfId="235"/>
+    <tableColumn id="6" xr3:uid="{F68E7FA0-23DA-4C5B-BCD3-BD3C7B299B02}" name="Parameter 2" dataDxfId="234"/>
+    <tableColumn id="7" xr3:uid="{E074689D-E9A9-4D78-901F-4D6DEAB8F157}" name="Parameter 3" dataDxfId="233"/>
+    <tableColumn id="10" xr3:uid="{24FDA3C5-E39C-430C-90BB-3F6BD09EEDC7}" name="Parameter 4" dataDxfId="232"/>
+    <tableColumn id="11" xr3:uid="{42BED06C-CBA3-4453-AE89-CFE7799A8559}" name="Parameter 5" dataDxfId="231"/>
+    <tableColumn id="8" xr3:uid="{4CFE8BFF-6747-408C-8ABA-AFDB589C4F81}" name="Parameter 6" dataDxfId="230"/>
+    <tableColumn id="15" xr3:uid="{E0BBD4D8-EA8D-4CAF-B849-F7A2CE769A48}" name="Lower Limit" dataDxfId="229"/>
+    <tableColumn id="16" xr3:uid="{4800A8E8-843B-4C41-91BF-C1A3C30DE8D6}" name="Upper Limit" dataDxfId="228"/>
+    <tableColumn id="17" xr3:uid="{A6367C3F-1F51-48D6-9EB3-E8501CEA0DC3}" name="Step" dataDxfId="227"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{86A1116E-A4B1-4819-B8BD-755AC0F1A27A}" name="Table15648" displayName="Table15648" ref="A1:O24" totalsRowShown="0" headerRowBorderDxfId="251" tableBorderDxfId="250">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{86A1116E-A4B1-4819-B8BD-755AC0F1A27A}" name="Table15648" displayName="Table15648" ref="A1:O24" totalsRowShown="0" headerRowBorderDxfId="226" tableBorderDxfId="225">
   <autoFilter ref="A1:O24" xr:uid="{990E6A50-401C-443A-9431-A3C6B1C33DB9}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{B7EF7E94-8BD1-4B05-A1E1-DE0166BDA299}" name="Phase" dataDxfId="249"/>
-    <tableColumn id="20" xr3:uid="{3E394D25-22F5-47DE-8DD2-1B412C8ACB40}" name="Category" dataDxfId="248"/>
-    <tableColumn id="12" xr3:uid="{581C35A5-6B54-4CCA-AD27-A0086A458CD9}" name="Name" dataDxfId="247"/>
-    <tableColumn id="14" xr3:uid="{02601854-7EF0-4B53-83BA-E1A583AB0E89}" name="Description" dataDxfId="246"/>
-    <tableColumn id="18" xr3:uid="{38E6F539-D589-4AEB-9FF3-0F3407B1F600}" name="Units" dataDxfId="245"/>
-    <tableColumn id="4" xr3:uid="{758D0224-FF70-4B51-A43F-A666DBEE60B5}" name="Distribution Type" dataDxfId="244"/>
-    <tableColumn id="5" xr3:uid="{AA403007-B0D8-4F37-BBED-A39F4CBEC713}" name="Parameter 1" dataDxfId="243"/>
-    <tableColumn id="6" xr3:uid="{AEFD9020-CB8D-46C6-A545-72935F5E17C9}" name="Parameter 2" dataDxfId="242"/>
-    <tableColumn id="7" xr3:uid="{5391F637-3141-4924-AB2D-BB7560C402FC}" name="Parameter 3" dataDxfId="241"/>
-    <tableColumn id="10" xr3:uid="{DD30C7A0-FB24-4548-956F-070EED2E392A}" name="Parameter 4" dataDxfId="240"/>
-    <tableColumn id="11" xr3:uid="{4C51B414-DF9A-46F4-A761-171654CD826B}" name="Parameter 5" dataDxfId="239"/>
-    <tableColumn id="8" xr3:uid="{C36C5078-BCC8-4902-86B0-4CC5F5B94354}" name="Parameter 6" dataDxfId="238"/>
-    <tableColumn id="15" xr3:uid="{0B417314-7BF7-498C-AFAD-AF435E3794CB}" name="Lower Limit" dataDxfId="237"/>
-    <tableColumn id="16" xr3:uid="{869CD7E5-A5F2-42BE-860A-4654BBA29091}" name="Upper Limit" dataDxfId="236"/>
-    <tableColumn id="17" xr3:uid="{9D5645C4-35FE-4467-8F7A-0259A9E00D72}" name="Step" dataDxfId="235"/>
+    <tableColumn id="9" xr3:uid="{B7EF7E94-8BD1-4B05-A1E1-DE0166BDA299}" name="Phase" dataDxfId="224"/>
+    <tableColumn id="20" xr3:uid="{3E394D25-22F5-47DE-8DD2-1B412C8ACB40}" name="Category" dataDxfId="223"/>
+    <tableColumn id="12" xr3:uid="{581C35A5-6B54-4CCA-AD27-A0086A458CD9}" name="Name" dataDxfId="222"/>
+    <tableColumn id="14" xr3:uid="{02601854-7EF0-4B53-83BA-E1A583AB0E89}" name="Description" dataDxfId="221"/>
+    <tableColumn id="18" xr3:uid="{38E6F539-D589-4AEB-9FF3-0F3407B1F600}" name="Units" dataDxfId="220"/>
+    <tableColumn id="4" xr3:uid="{758D0224-FF70-4B51-A43F-A666DBEE60B5}" name="Distribution Type" dataDxfId="219"/>
+    <tableColumn id="5" xr3:uid="{AA403007-B0D8-4F37-BBED-A39F4CBEC713}" name="Parameter 1" dataDxfId="218"/>
+    <tableColumn id="6" xr3:uid="{AEFD9020-CB8D-46C6-A545-72935F5E17C9}" name="Parameter 2" dataDxfId="217"/>
+    <tableColumn id="7" xr3:uid="{5391F637-3141-4924-AB2D-BB7560C402FC}" name="Parameter 3" dataDxfId="216"/>
+    <tableColumn id="10" xr3:uid="{DD30C7A0-FB24-4548-956F-070EED2E392A}" name="Parameter 4" dataDxfId="215"/>
+    <tableColumn id="11" xr3:uid="{4C51B414-DF9A-46F4-A761-171654CD826B}" name="Parameter 5" dataDxfId="214"/>
+    <tableColumn id="8" xr3:uid="{C36C5078-BCC8-4902-86B0-4CC5F5B94354}" name="Parameter 6" dataDxfId="213"/>
+    <tableColumn id="15" xr3:uid="{0B417314-7BF7-498C-AFAD-AF435E3794CB}" name="Lower Limit" dataDxfId="212"/>
+    <tableColumn id="16" xr3:uid="{869CD7E5-A5F2-42BE-860A-4654BBA29091}" name="Upper Limit" dataDxfId="211"/>
+    <tableColumn id="17" xr3:uid="{9D5645C4-35FE-4467-8F7A-0259A9E00D72}" name="Step" dataDxfId="210"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{70557EE6-CCDF-497F-AD58-5C0E1C74D197}" name="Table156412" displayName="Table156412" ref="A1:O2" totalsRowShown="0" headerRowBorderDxfId="234" tableBorderDxfId="233">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{70557EE6-CCDF-497F-AD58-5C0E1C74D197}" name="Table156412" displayName="Table156412" ref="A1:O2" totalsRowShown="0" headerRowBorderDxfId="209" tableBorderDxfId="208">
   <autoFilter ref="A1:O2" xr:uid="{98B9CAE8-5809-471F-A0E6-3C63C0FF7931}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{0E927F65-2069-4507-B0B0-8DA725AF99EC}" name="Phase" dataDxfId="232"/>
-    <tableColumn id="20" xr3:uid="{921518C6-F6AF-4306-9A67-62C12E697D60}" name="Category" dataDxfId="231"/>
-    <tableColumn id="12" xr3:uid="{CD5679ED-CB25-488E-8C70-2C446DAB28DC}" name="Name" dataDxfId="230"/>
-    <tableColumn id="14" xr3:uid="{F17E92B1-609F-453F-8FC2-11AB75FFB5B0}" name="Description" dataDxfId="229"/>
-    <tableColumn id="18" xr3:uid="{CA25841B-E30A-4228-B65F-216207437CB0}" name="Units" dataDxfId="228"/>
-    <tableColumn id="4" xr3:uid="{5CF3C293-70A2-445C-B6F4-D4BCEB868AEC}" name="Distribution Type" dataDxfId="227"/>
-    <tableColumn id="5" xr3:uid="{6B896B7D-F74D-42FF-97BC-93D69E611504}" name="Parameter 1" dataDxfId="226"/>
-    <tableColumn id="6" xr3:uid="{02AE94F0-B427-476D-88EB-3C9235866F4E}" name="Parameter 2" dataDxfId="225"/>
-    <tableColumn id="7" xr3:uid="{C0EF4425-A63A-42D7-82B9-4C1366C7BF01}" name="Parameter 3" dataDxfId="224">
+    <tableColumn id="9" xr3:uid="{0E927F65-2069-4507-B0B0-8DA725AF99EC}" name="Phase" dataDxfId="207"/>
+    <tableColumn id="20" xr3:uid="{921518C6-F6AF-4306-9A67-62C12E697D60}" name="Category" dataDxfId="206"/>
+    <tableColumn id="12" xr3:uid="{CD5679ED-CB25-488E-8C70-2C446DAB28DC}" name="Name" dataDxfId="205"/>
+    <tableColumn id="14" xr3:uid="{F17E92B1-609F-453F-8FC2-11AB75FFB5B0}" name="Description" dataDxfId="204"/>
+    <tableColumn id="18" xr3:uid="{CA25841B-E30A-4228-B65F-216207437CB0}" name="Units" dataDxfId="203"/>
+    <tableColumn id="4" xr3:uid="{5CF3C293-70A2-445C-B6F4-D4BCEB868AEC}" name="Distribution Type" dataDxfId="202"/>
+    <tableColumn id="5" xr3:uid="{6B896B7D-F74D-42FF-97BC-93D69E611504}" name="Parameter 1" dataDxfId="201"/>
+    <tableColumn id="6" xr3:uid="{02AE94F0-B427-476D-88EB-3C9235866F4E}" name="Parameter 2" dataDxfId="200"/>
+    <tableColumn id="7" xr3:uid="{C0EF4425-A63A-42D7-82B9-4C1366C7BF01}" name="Parameter 3" dataDxfId="199">
       <calculatedColumnFormula>(Table156412[[#This Row],[Parameter 1]]-1)/(Table156412[[#This Row],[Parameter 1]]+Table156412[[#This Row],[Parameter 2]]-2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{7F665756-5949-4CD6-AE8C-F7531D7A9CAD}" name="Parameter 4" dataDxfId="223"/>
-    <tableColumn id="11" xr3:uid="{59049478-1CD8-416F-BED1-BD7B8FEA0C41}" name="Parameter 5" dataDxfId="222"/>
-    <tableColumn id="8" xr3:uid="{CC7DFE3F-C2E2-4F46-B153-D03CF263B523}" name="Parameter 6" dataDxfId="221"/>
-    <tableColumn id="15" xr3:uid="{F2A6353F-D73A-41E5-B265-D8F18AA4409C}" name="Lower Limit" dataDxfId="220"/>
-    <tableColumn id="16" xr3:uid="{1D8D56B8-5F2C-48C5-9CE4-93C38BD7488F}" name="Upper Limit" dataDxfId="219"/>
-    <tableColumn id="17" xr3:uid="{6AB8DBB9-751A-4840-BC73-4780E1B009AD}" name="Step" dataDxfId="218"/>
+    <tableColumn id="10" xr3:uid="{7F665756-5949-4CD6-AE8C-F7531D7A9CAD}" name="Parameter 4" dataDxfId="198"/>
+    <tableColumn id="11" xr3:uid="{59049478-1CD8-416F-BED1-BD7B8FEA0C41}" name="Parameter 5" dataDxfId="197"/>
+    <tableColumn id="8" xr3:uid="{CC7DFE3F-C2E2-4F46-B153-D03CF263B523}" name="Parameter 6" dataDxfId="196"/>
+    <tableColumn id="15" xr3:uid="{F2A6353F-D73A-41E5-B265-D8F18AA4409C}" name="Lower Limit" dataDxfId="195"/>
+    <tableColumn id="16" xr3:uid="{1D8D56B8-5F2C-48C5-9CE4-93C38BD7488F}" name="Upper Limit" dataDxfId="194"/>
+    <tableColumn id="17" xr3:uid="{6AB8DBB9-751A-4840-BC73-4780E1B009AD}" name="Step" dataDxfId="193"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7604,20 +7449,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L2">
-    <cfRule type="expression" dxfId="41" priority="3">
+    <cfRule type="expression" dxfId="40" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2">
-    <cfRule type="expression" dxfId="40" priority="4">
+    <cfRule type="expression" dxfId="39" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="39" priority="1">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="37" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8694,25 +8539,25 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L24">
-    <cfRule type="expression" dxfId="37" priority="142">
+    <cfRule type="expression" dxfId="36" priority="142">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A19 A21 A23">
-    <cfRule type="expression" dxfId="36" priority="140">
+    <cfRule type="expression" dxfId="35" priority="140">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="141">
+    <cfRule type="expression" dxfId="34" priority="141">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11 A20:L20 A22:L22 A24:L24 B2:L2 B4:L4 B6:L6 B8:L8 B19:L19 B21:L21 B23:L23 A16:L18 A13:A15 B10:L15">
-    <cfRule type="expression" dxfId="34" priority="143">
+    <cfRule type="expression" dxfId="33" priority="143">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F30" xr:uid="{12266C52-ED40-4D46-BF1B-CA60B84F4742}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F31" xr:uid="{12266C52-ED40-4D46-BF1B-CA60B84F4742}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -8833,20 +8678,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L2">
-    <cfRule type="expression" dxfId="33" priority="17">
+    <cfRule type="expression" dxfId="32" priority="17">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="32" priority="15">
+    <cfRule type="expression" dxfId="31" priority="15">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="16">
+    <cfRule type="expression" dxfId="30" priority="16">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2">
-    <cfRule type="expression" dxfId="30" priority="18">
+    <cfRule type="expression" dxfId="29" priority="18">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9700,20 +9545,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L19">
-    <cfRule type="expression" dxfId="29" priority="3">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3 A5 A7 A12 A14:A15 A17 A19 A9:A10">
-    <cfRule type="expression" dxfId="28" priority="1">
+    <cfRule type="expression" dxfId="27" priority="1">
       <formula>ISBLANK($F3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:L2 A4:L4 A6:L6 A8:L8 A11:L11 A13:L13 A16:L16 A18:L18 B3:L3 B5:L5 B7:L7 B12:L12 B14:L15 B17:L17 B19:L19 B9:L10">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9837,20 +9682,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L2">
-    <cfRule type="expression" dxfId="25" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2">
-    <cfRule type="expression" dxfId="22" priority="4">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11144,25 +10989,25 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L29">
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="20" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18 A20 A22 A24 A26 A28">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 A11:L11 A13:L13 A15:L15 A17:L17 A19:L19 A21:L21 A23:L23 A25:L25 A27:L27 A29:L29 B2:L2 B4:L4 B6:L6 B8:L8 B10:L10 B12:L12 B14:L14 B16:L16 B18:L18 B20:L20 B22:L22 B24:L24 B26:L26 B28:L28">
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F30" xr:uid="{B57D3CCC-96F5-4152-862C-EBFA923EA8D8}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F31" xr:uid="{B57D3CCC-96F5-4152-862C-EBFA923EA8D8}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -11503,20 +11348,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L7">
-    <cfRule type="expression" dxfId="17" priority="71">
+    <cfRule type="expression" dxfId="16" priority="71">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="16" priority="69">
+    <cfRule type="expression" dxfId="15" priority="69">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="70">
+    <cfRule type="expression" dxfId="14" priority="70">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2 J3:J7 B3:F7">
-    <cfRule type="expression" dxfId="14" priority="68">
+    <cfRule type="expression" dxfId="13" priority="68">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11691,20 +11536,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L3">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 B2:L2">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11920,20 +11765,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L4">
-    <cfRule type="expression" dxfId="9" priority="84">
+    <cfRule type="expression" dxfId="8" priority="84">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A4">
-    <cfRule type="expression" dxfId="8" priority="82">
+    <cfRule type="expression" dxfId="7" priority="82">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="83">
+    <cfRule type="expression" dxfId="6" priority="83">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L4">
-    <cfRule type="expression" dxfId="6" priority="85">
+    <cfRule type="expression" dxfId="5" priority="85">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12359,20 +12204,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L9">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4 A6 A8">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L3 A5:L5 A7:L7 A9:L9 B2:L2 B4:L4 B6:L6 B8:L8">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13073,23 +12918,23 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:L2 A7:L7 A3:B6 F3:L6">
-    <cfRule type="expression" dxfId="74" priority="136">
+    <cfRule type="expression" dxfId="73" priority="136">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="137">
+    <cfRule type="expression" dxfId="72" priority="137">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D6">
-    <cfRule type="expression" dxfId="72" priority="1">
+    <cfRule type="expression" dxfId="71" priority="1">
       <formula>ISBLANK($F3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="2">
+    <cfRule type="expression" dxfId="70" priority="2">
       <formula>NOT((COLUMN(D3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C6 E3:E6">
-    <cfRule type="expression" dxfId="70" priority="3">
+    <cfRule type="expression" dxfId="69" priority="3">
       <formula>ISBLANK($F3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13109,17 +12954,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E6"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27:O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="15" width="15.6640625" customWidth="1"/>
   </cols>
@@ -13982,18 +13827,34 @@
       <c r="C23" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="D23" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0.9</v>
+      </c>
       <c r="I23" s="14"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
+      <c r="M23" s="14">
+        <v>0</v>
+      </c>
+      <c r="N23" s="14">
+        <v>1</v>
+      </c>
+      <c r="O23" s="14">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
@@ -14005,18 +13866,34 @@
       <c r="C24" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="D24" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0.9</v>
+      </c>
       <c r="I24" s="14"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
+      <c r="M24" s="14">
+        <v>0</v>
+      </c>
+      <c r="N24" s="14">
+        <v>1</v>
+      </c>
+      <c r="O24" s="14">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
@@ -14028,18 +13905,34 @@
       <c r="C25" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0</v>
+      </c>
+      <c r="H25" s="14">
+        <v>1000</v>
+      </c>
       <c r="I25" s="14"/>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
+      <c r="M25" s="14">
+        <v>0</v>
+      </c>
+      <c r="N25" s="14">
+        <v>10000</v>
+      </c>
+      <c r="O25" s="14">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
@@ -14051,18 +13944,34 @@
       <c r="C26" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="D26" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="14">
+        <v>0</v>
+      </c>
+      <c r="H26" s="14">
+        <v>24</v>
+      </c>
       <c r="I26" s="14"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
+      <c r="M26" s="14">
+        <v>0</v>
+      </c>
+      <c r="N26" s="14">
+        <v>48</v>
+      </c>
+      <c r="O26" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
@@ -14074,18 +13983,34 @@
       <c r="C27" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="D27" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="14">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14">
+        <v>5</v>
+      </c>
       <c r="I27" s="14"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
+      <c r="M27" s="14">
+        <v>0</v>
+      </c>
+      <c r="N27" s="14">
+        <v>10</v>
+      </c>
+      <c r="O27" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
@@ -14097,18 +14022,34 @@
       <c r="C28" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="D28" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="14">
+        <v>0</v>
+      </c>
+      <c r="H28" s="14">
+        <v>5</v>
+      </c>
       <c r="I28" s="14"/>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
+      <c r="M28" s="14">
+        <v>0</v>
+      </c>
+      <c r="N28" s="14">
+        <v>10</v>
+      </c>
+      <c r="O28" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
@@ -14120,18 +14061,34 @@
       <c r="C29" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="D29" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="14">
+        <v>0</v>
+      </c>
+      <c r="H29" s="14">
+        <v>5</v>
+      </c>
       <c r="I29" s="14"/>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
+      <c r="M29" s="14">
+        <v>0</v>
+      </c>
+      <c r="N29" s="14">
+        <v>10</v>
+      </c>
+      <c r="O29" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
@@ -14143,41 +14100,96 @@
       <c r="C30" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="D30" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="14">
+        <v>0</v>
+      </c>
+      <c r="H30" s="14">
+        <v>5</v>
+      </c>
       <c r="I30" s="14"/>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
+      <c r="M30" s="14">
+        <v>0</v>
+      </c>
+      <c r="N30" s="14">
+        <v>10</v>
+      </c>
+      <c r="O30" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H31" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="14">
+        <v>0</v>
+      </c>
+      <c r="N31" s="14">
+        <v>1</v>
+      </c>
+      <c r="O31" s="14">
+        <v>0.01</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G2:L30">
-    <cfRule type="expression" dxfId="69" priority="55">
+  <conditionalFormatting sqref="G2:L31">
+    <cfRule type="expression" dxfId="68" priority="55">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19 D13 A2:A30 D3:D6">
-    <cfRule type="expression" dxfId="68" priority="39">
+  <conditionalFormatting sqref="D19 D13 A2:A31 D3:D6">
+    <cfRule type="expression" dxfId="67" priority="39">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="40">
+    <cfRule type="expression" dxfId="66" priority="40">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2 B20:L20 B19:C19 E19:L19 B7:L12 B14:L18 B13:C13 E13:L13 B3:C6 E3:L6">
-    <cfRule type="expression" dxfId="66" priority="138">
+    <cfRule type="expression" dxfId="65" priority="138">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F30" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F31" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -14191,10 +14203,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14725,18 +14737,34 @@
       <c r="C14" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <v>5</v>
+      </c>
       <c r="I14" s="14"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
+      <c r="M14" s="14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="14">
+        <v>10</v>
+      </c>
+      <c r="O14" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
@@ -14748,18 +14776,34 @@
       <c r="C15" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="D15" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14">
+        <v>5</v>
+      </c>
       <c r="I15" s="14"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
+      <c r="M15" s="14">
+        <v>0</v>
+      </c>
+      <c r="N15" s="14">
+        <v>10</v>
+      </c>
+      <c r="O15" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
@@ -14771,18 +14815,34 @@
       <c r="C16" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="D16" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
+        <v>5</v>
+      </c>
       <c r="I16" s="14"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
+      <c r="M16" s="14">
+        <v>0</v>
+      </c>
+      <c r="N16" s="14">
+        <v>10</v>
+      </c>
+      <c r="O16" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
@@ -14794,57 +14854,117 @@
       <c r="C17" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="D17" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <v>5</v>
+      </c>
       <c r="I17" s="14"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
+      <c r="M17" s="14">
+        <v>0</v>
+      </c>
+      <c r="N17" s="14">
+        <v>10</v>
+      </c>
+      <c r="O17" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="14">
+        <v>0</v>
+      </c>
+      <c r="N18" s="14">
+        <v>1</v>
+      </c>
+      <c r="O18" s="14">
+        <v>0.01</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G2:L17">
-    <cfRule type="expression" dxfId="65" priority="50">
+  <conditionalFormatting sqref="G2:L13 G18:L18 I14:L17">
+    <cfRule type="expression" dxfId="64" priority="51">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12 D9 D3:D6 A2:A17">
-    <cfRule type="expression" dxfId="64" priority="31">
+  <conditionalFormatting sqref="D12 D9 D3:D6 A2:A18">
+    <cfRule type="expression" dxfId="63" priority="32">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="32">
+    <cfRule type="expression" dxfId="62" priority="33">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:L13 B7:L7 B8:C12 E8:L12 B2:C6 E2:L6">
-    <cfRule type="expression" dxfId="62" priority="141">
+  <conditionalFormatting sqref="B13:L13 B7:L7 B8:C12 E8:L12 B2:C6 E2:L6 F14:F17">
+    <cfRule type="expression" dxfId="61" priority="142">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="61" priority="4">
+    <cfRule type="expression" dxfId="60" priority="5">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="60" priority="3">
+    <cfRule type="expression" dxfId="59" priority="4">
       <formula>ISBLANK($F8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="59" priority="2">
+    <cfRule type="expression" dxfId="58" priority="3">
       <formula>ISBLANK($F11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="58" priority="1">
+    <cfRule type="expression" dxfId="57" priority="2">
       <formula>ISBLANK($F10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:H17">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>NOT((COLUMN(G14)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F14, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -15653,40 +15773,40 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L20">
-    <cfRule type="expression" dxfId="57" priority="63">
+    <cfRule type="expression" dxfId="56" priority="63">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19 A2:A20 D3:D7">
-    <cfRule type="expression" dxfId="56" priority="41">
+    <cfRule type="expression" dxfId="55" priority="41">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="42">
+    <cfRule type="expression" dxfId="54" priority="42">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2 B20:L20 B19:C19 E19:L19 B12:L18 B3:C11 E3:L11">
-    <cfRule type="expression" dxfId="54" priority="138">
+    <cfRule type="expression" dxfId="53" priority="138">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="53" priority="4">
+    <cfRule type="expression" dxfId="52" priority="4">
       <formula>ISBLANK($F9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="52" priority="3">
+    <cfRule type="expression" dxfId="51" priority="3">
       <formula>ISBLANK($F10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="51" priority="2">
+    <cfRule type="expression" dxfId="50" priority="2">
       <formula>ISBLANK($F8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="50" priority="1">
+    <cfRule type="expression" dxfId="49" priority="1">
       <formula>ISBLANK($F11)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15707,7 +15827,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15818,16 +15938,28 @@
       <c r="E3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="F3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>2</v>
+      </c>
       <c r="I3" s="14"/>
       <c r="J3" s="15"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="M3" s="14">
+        <v>0</v>
+      </c>
+      <c r="N3" s="14">
+        <v>10</v>
+      </c>
+      <c r="O3" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
@@ -15839,20 +15971,34 @@
       <c r="C4" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>293</v>
+      </c>
       <c r="E4" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="F4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1</v>
+      </c>
+      <c r="H4" s="14">
+        <v>100</v>
+      </c>
       <c r="I4" s="14"/>
       <c r="J4" s="15"/>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
+      <c r="M4" s="14">
+        <v>1</v>
+      </c>
+      <c r="N4" s="14">
+        <v>500</v>
+      </c>
+      <c r="O4" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
@@ -15864,20 +16010,34 @@
       <c r="C5" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>294</v>
+      </c>
       <c r="E5" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="14">
+        <v>1</v>
+      </c>
+      <c r="H5" s="14">
+        <v>100</v>
+      </c>
       <c r="I5" s="14"/>
       <c r="J5" s="15"/>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
+      <c r="M5" s="14">
+        <v>1</v>
+      </c>
+      <c r="N5" s="14">
+        <v>500</v>
+      </c>
+      <c r="O5" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
@@ -15889,20 +16049,34 @@
       <c r="C6" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>295</v>
+      </c>
       <c r="E6" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="F6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14">
+        <v>100</v>
+      </c>
       <c r="I6" s="14"/>
       <c r="J6" s="15"/>
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
+      <c r="M6" s="14">
+        <v>1</v>
+      </c>
+      <c r="N6" s="14">
+        <v>500</v>
+      </c>
+      <c r="O6" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
@@ -15914,20 +16088,34 @@
       <c r="C7" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>296</v>
+      </c>
       <c r="E7" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="F7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
+      <c r="H7" s="14">
+        <v>100</v>
+      </c>
       <c r="I7" s="14"/>
       <c r="J7" s="15"/>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
+      <c r="M7" s="14">
+        <v>1</v>
+      </c>
+      <c r="N7" s="14">
+        <v>500</v>
+      </c>
+      <c r="O7" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
@@ -15939,38 +16127,52 @@
       <c r="C8" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="16" t="s">
+        <v>297</v>
+      </c>
       <c r="E8" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="F8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="14">
+        <v>100</v>
+      </c>
       <c r="I8" s="14"/>
       <c r="J8" s="15"/>
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
+      <c r="M8" s="14">
+        <v>1</v>
+      </c>
+      <c r="N8" s="14">
+        <v>500</v>
+      </c>
+      <c r="O8" s="14">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L8">
-    <cfRule type="expression" dxfId="49" priority="26">
+    <cfRule type="expression" dxfId="48" priority="26">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A8">
-    <cfRule type="expression" dxfId="48" priority="1">
+    <cfRule type="expression" dxfId="47" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L8">
-    <cfRule type="expression" dxfId="46" priority="129">
+    <cfRule type="expression" dxfId="45" priority="129">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15992,7 +16194,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16859,18 +17061,34 @@
       <c r="C23" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="D23" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="14">
+        <v>5</v>
+      </c>
       <c r="I23" s="14"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
+      <c r="M23" s="14">
+        <v>0</v>
+      </c>
+      <c r="N23" s="14">
+        <v>10</v>
+      </c>
+      <c r="O23" s="14">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
@@ -16882,36 +17100,52 @@
       <c r="C24" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="D24" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="14">
+        <v>100</v>
+      </c>
+      <c r="H24" s="14">
+        <v>300</v>
+      </c>
       <c r="I24" s="14"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
+      <c r="M24" s="14">
+        <v>0</v>
+      </c>
+      <c r="N24" s="14">
+        <v>500</v>
+      </c>
+      <c r="O24" s="14">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L24">
-    <cfRule type="expression" dxfId="45" priority="29">
+    <cfRule type="expression" dxfId="44" priority="29">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="43" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="2">
+    <cfRule type="expression" dxfId="42" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L2 A3:L21">
-    <cfRule type="expression" dxfId="42" priority="128">
+    <cfRule type="expression" dxfId="41" priority="128">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/InputFiles/ModifyParameters.xlsx
+++ b/InputFiles/ModifyParameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERAZA\Documents\Tasking\(4) EPA Stuff\Task 5 Repo\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815F2DEA-2BAB-4BE6-8831-33C4B489BD81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F39ECA-4A24-4FCB-ACF2-B06E7D0245B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="657" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="657" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internal - File Info" sheetId="1" r:id="rId1"/>
@@ -1271,7 +1271,297 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="357">
+  <dxfs count="345">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <i/>
@@ -1302,6 +1592,289 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -1320,6 +1893,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1331,6 +1911,289 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -1349,6 +2212,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1360,6 +2230,289 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -1378,6 +2531,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1389,6 +2549,263 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -1407,289 +2824,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -1708,6 +2842,289 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -1726,289 +3143,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -2027,6 +3161,289 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -2045,289 +3462,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -2346,6 +3480,288 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -2364,289 +3780,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -2665,6 +3798,289 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -2683,263 +4099,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -2958,11 +4117,288 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2976,287 +4412,11 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3277,6 +4437,342 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -3295,289 +4791,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -3596,6 +4809,328 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -3614,288 +5149,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -3914,11 +5167,340 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3932,1709 +5514,11 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">